--- a/figures/us_organic_sparklines.xlsx
+++ b/figures/us_organic_sparklines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\dev\state_organic_ag\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6205C9AD-51C3-43DD-9D98-33B66C25924F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F044ACA5-8355-4730-AF6A-978C1DC9860A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="2850" windowWidth="22395" windowHeight="12555" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="all_sparklines" sheetId="11" r:id="rId1"/>
@@ -338,7 +338,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -385,7 +385,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,7 +399,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -410,7 +410,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -420,7 +420,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +843,7 @@
   <dimension ref="A2:BD53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF36" sqref="BF36"/>
+      <selection activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5912,7 +5912,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{D4CBD035-6366-4643-AE79-83E460EEAE57}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5923,204 +5923,204 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!Q4:AK4</xm:f>
-              <xm:sqref>AM4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q5:AK5</xm:f>
-              <xm:sqref>AM5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q6:AK6</xm:f>
-              <xm:sqref>AM6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q7:AK7</xm:f>
-              <xm:sqref>AM7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q8:AK8</xm:f>
-              <xm:sqref>AM8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q9:AK9</xm:f>
-              <xm:sqref>AM9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q10:AK10</xm:f>
-              <xm:sqref>AM10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q11:AK11</xm:f>
-              <xm:sqref>AM11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q12:AK12</xm:f>
-              <xm:sqref>AM12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q13:AK13</xm:f>
-              <xm:sqref>AM13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q14:AK14</xm:f>
-              <xm:sqref>AM14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q15:AK15</xm:f>
-              <xm:sqref>AM15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q16:AK16</xm:f>
-              <xm:sqref>AM16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q17:AK17</xm:f>
-              <xm:sqref>AM17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q18:AK18</xm:f>
-              <xm:sqref>AM18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q19:AK19</xm:f>
-              <xm:sqref>AM19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q20:AK20</xm:f>
-              <xm:sqref>AM20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q21:AK21</xm:f>
-              <xm:sqref>AM21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q22:AK22</xm:f>
-              <xm:sqref>AM22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q23:AK23</xm:f>
-              <xm:sqref>AM23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q24:AK24</xm:f>
-              <xm:sqref>AM24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q25:AK25</xm:f>
-              <xm:sqref>AM25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q26:AK26</xm:f>
-              <xm:sqref>AM26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q27:AK27</xm:f>
-              <xm:sqref>AM27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q28:AK28</xm:f>
-              <xm:sqref>AM28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q29:AK29</xm:f>
-              <xm:sqref>AM29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q30:AK30</xm:f>
-              <xm:sqref>AM30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q31:AK31</xm:f>
-              <xm:sqref>AM31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q32:AK32</xm:f>
-              <xm:sqref>AM32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q33:AK33</xm:f>
-              <xm:sqref>AM33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q34:AK34</xm:f>
-              <xm:sqref>AM34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q35:AK35</xm:f>
-              <xm:sqref>AM35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q36:AK36</xm:f>
-              <xm:sqref>AM36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q37:AK37</xm:f>
-              <xm:sqref>AM37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q38:AK38</xm:f>
-              <xm:sqref>AM38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q39:AK39</xm:f>
-              <xm:sqref>AM39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q40:AK40</xm:f>
-              <xm:sqref>AM40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q41:AK41</xm:f>
-              <xm:sqref>AM41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q42:AK42</xm:f>
-              <xm:sqref>AM42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q43:AK43</xm:f>
-              <xm:sqref>AM43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q44:AK44</xm:f>
-              <xm:sqref>AM44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q45:AK45</xm:f>
-              <xm:sqref>AM45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q46:AK46</xm:f>
-              <xm:sqref>AM46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q47:AK47</xm:f>
-              <xm:sqref>AM47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q48:AK48</xm:f>
-              <xm:sqref>AM48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q49:AK49</xm:f>
-              <xm:sqref>AM49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q50:AK50</xm:f>
-              <xm:sqref>AM50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q51:AK51</xm:f>
-              <xm:sqref>AM51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q52:AK52</xm:f>
-              <xm:sqref>AM52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q53:AK53</xm:f>
-              <xm:sqref>AM53</xm:sqref>
+              <xm:f>all_sparklines!AP4:AZ4</xm:f>
+              <xm:sqref>BB4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP5:AZ5</xm:f>
+              <xm:sqref>BB5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP6:AZ6</xm:f>
+              <xm:sqref>BB6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP7:AZ7</xm:f>
+              <xm:sqref>BB7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP8:AZ8</xm:f>
+              <xm:sqref>BB8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP9:AZ9</xm:f>
+              <xm:sqref>BB9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP10:AZ10</xm:f>
+              <xm:sqref>BB10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP11:AZ11</xm:f>
+              <xm:sqref>BB11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP12:AZ12</xm:f>
+              <xm:sqref>BB12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP13:AZ13</xm:f>
+              <xm:sqref>BB13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP14:AZ14</xm:f>
+              <xm:sqref>BB14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP15:AZ15</xm:f>
+              <xm:sqref>BB15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP16:AZ16</xm:f>
+              <xm:sqref>BB16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP17:AZ17</xm:f>
+              <xm:sqref>BB17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP18:AZ18</xm:f>
+              <xm:sqref>BB18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP19:AZ19</xm:f>
+              <xm:sqref>BB19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP20:AZ20</xm:f>
+              <xm:sqref>BB20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP21:AZ21</xm:f>
+              <xm:sqref>BB21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP22:AZ22</xm:f>
+              <xm:sqref>BB22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP23:AZ23</xm:f>
+              <xm:sqref>BB23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP24:AZ24</xm:f>
+              <xm:sqref>BB24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP25:AZ25</xm:f>
+              <xm:sqref>BB25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP26:AZ26</xm:f>
+              <xm:sqref>BB26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP27:AZ27</xm:f>
+              <xm:sqref>BB27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP28:AZ28</xm:f>
+              <xm:sqref>BB28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP29:AZ29</xm:f>
+              <xm:sqref>BB29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP30:AZ30</xm:f>
+              <xm:sqref>BB30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP31:AZ31</xm:f>
+              <xm:sqref>BB31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP32:AZ32</xm:f>
+              <xm:sqref>BB32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP33:AZ33</xm:f>
+              <xm:sqref>BB33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP34:AZ34</xm:f>
+              <xm:sqref>BB34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP35:AZ35</xm:f>
+              <xm:sqref>BB35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP36:AZ36</xm:f>
+              <xm:sqref>BB36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP37:AZ37</xm:f>
+              <xm:sqref>BB37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP38:AZ38</xm:f>
+              <xm:sqref>BB38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP39:AZ39</xm:f>
+              <xm:sqref>BB39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP40:AZ40</xm:f>
+              <xm:sqref>BB40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP41:AZ41</xm:f>
+              <xm:sqref>BB41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP42:AZ42</xm:f>
+              <xm:sqref>BB42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP43:AZ43</xm:f>
+              <xm:sqref>BB43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP44:AZ44</xm:f>
+              <xm:sqref>BB44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP45:AZ45</xm:f>
+              <xm:sqref>BB45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP46:AZ46</xm:f>
+              <xm:sqref>BB46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP47:AZ47</xm:f>
+              <xm:sqref>BB47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP48:AZ48</xm:f>
+              <xm:sqref>BB48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP49:AZ49</xm:f>
+              <xm:sqref>BB49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP50:AZ50</xm:f>
+              <xm:sqref>BB50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP51:AZ51</xm:f>
+              <xm:sqref>BB51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP52:AZ52</xm:f>
+              <xm:sqref>BB52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP53:AZ53</xm:f>
+              <xm:sqref>BB53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6336,7 +6336,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{D4CBD035-6366-4643-AE79-83E460EEAE57}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6347,204 +6347,204 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!AP4:AZ4</xm:f>
-              <xm:sqref>BB4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP5:AZ5</xm:f>
-              <xm:sqref>BB5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP6:AZ6</xm:f>
-              <xm:sqref>BB6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP7:AZ7</xm:f>
-              <xm:sqref>BB7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP8:AZ8</xm:f>
-              <xm:sqref>BB8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP9:AZ9</xm:f>
-              <xm:sqref>BB9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP10:AZ10</xm:f>
-              <xm:sqref>BB10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP11:AZ11</xm:f>
-              <xm:sqref>BB11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP12:AZ12</xm:f>
-              <xm:sqref>BB12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP13:AZ13</xm:f>
-              <xm:sqref>BB13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP14:AZ14</xm:f>
-              <xm:sqref>BB14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP15:AZ15</xm:f>
-              <xm:sqref>BB15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP16:AZ16</xm:f>
-              <xm:sqref>BB16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP17:AZ17</xm:f>
-              <xm:sqref>BB17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP18:AZ18</xm:f>
-              <xm:sqref>BB18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP19:AZ19</xm:f>
-              <xm:sqref>BB19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP20:AZ20</xm:f>
-              <xm:sqref>BB20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP21:AZ21</xm:f>
-              <xm:sqref>BB21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP22:AZ22</xm:f>
-              <xm:sqref>BB22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP23:AZ23</xm:f>
-              <xm:sqref>BB23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP24:AZ24</xm:f>
-              <xm:sqref>BB24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP25:AZ25</xm:f>
-              <xm:sqref>BB25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP26:AZ26</xm:f>
-              <xm:sqref>BB26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP27:AZ27</xm:f>
-              <xm:sqref>BB27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP28:AZ28</xm:f>
-              <xm:sqref>BB28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP29:AZ29</xm:f>
-              <xm:sqref>BB29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP30:AZ30</xm:f>
-              <xm:sqref>BB30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP31:AZ31</xm:f>
-              <xm:sqref>BB31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP32:AZ32</xm:f>
-              <xm:sqref>BB32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP33:AZ33</xm:f>
-              <xm:sqref>BB33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP34:AZ34</xm:f>
-              <xm:sqref>BB34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP35:AZ35</xm:f>
-              <xm:sqref>BB35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP36:AZ36</xm:f>
-              <xm:sqref>BB36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP37:AZ37</xm:f>
-              <xm:sqref>BB37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP38:AZ38</xm:f>
-              <xm:sqref>BB38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP39:AZ39</xm:f>
-              <xm:sqref>BB39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP40:AZ40</xm:f>
-              <xm:sqref>BB40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP41:AZ41</xm:f>
-              <xm:sqref>BB41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP42:AZ42</xm:f>
-              <xm:sqref>BB42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP43:AZ43</xm:f>
-              <xm:sqref>BB43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP44:AZ44</xm:f>
-              <xm:sqref>BB44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP45:AZ45</xm:f>
-              <xm:sqref>BB45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP46:AZ46</xm:f>
-              <xm:sqref>BB46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP47:AZ47</xm:f>
-              <xm:sqref>BB47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP48:AZ48</xm:f>
-              <xm:sqref>BB48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP49:AZ49</xm:f>
-              <xm:sqref>BB49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP50:AZ50</xm:f>
-              <xm:sqref>BB50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP51:AZ51</xm:f>
-              <xm:sqref>BB51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP52:AZ52</xm:f>
-              <xm:sqref>BB52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP53:AZ53</xm:f>
-              <xm:sqref>BB53</xm:sqref>
+              <xm:f>all_sparklines!Q4:AK4</xm:f>
+              <xm:sqref>AM4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q5:AK5</xm:f>
+              <xm:sqref>AM5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q6:AK6</xm:f>
+              <xm:sqref>AM6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q7:AK7</xm:f>
+              <xm:sqref>AM7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q8:AK8</xm:f>
+              <xm:sqref>AM8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q9:AK9</xm:f>
+              <xm:sqref>AM9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q10:AK10</xm:f>
+              <xm:sqref>AM10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q11:AK11</xm:f>
+              <xm:sqref>AM11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q12:AK12</xm:f>
+              <xm:sqref>AM12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q13:AK13</xm:f>
+              <xm:sqref>AM13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q14:AK14</xm:f>
+              <xm:sqref>AM14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q15:AK15</xm:f>
+              <xm:sqref>AM15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q16:AK16</xm:f>
+              <xm:sqref>AM16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q17:AK17</xm:f>
+              <xm:sqref>AM17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q18:AK18</xm:f>
+              <xm:sqref>AM18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q19:AK19</xm:f>
+              <xm:sqref>AM19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q20:AK20</xm:f>
+              <xm:sqref>AM20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q21:AK21</xm:f>
+              <xm:sqref>AM21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q22:AK22</xm:f>
+              <xm:sqref>AM22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q23:AK23</xm:f>
+              <xm:sqref>AM23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q24:AK24</xm:f>
+              <xm:sqref>AM24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q25:AK25</xm:f>
+              <xm:sqref>AM25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q26:AK26</xm:f>
+              <xm:sqref>AM26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q27:AK27</xm:f>
+              <xm:sqref>AM27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q28:AK28</xm:f>
+              <xm:sqref>AM28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q29:AK29</xm:f>
+              <xm:sqref>AM29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q30:AK30</xm:f>
+              <xm:sqref>AM30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q31:AK31</xm:f>
+              <xm:sqref>AM31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q32:AK32</xm:f>
+              <xm:sqref>AM32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q33:AK33</xm:f>
+              <xm:sqref>AM33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q34:AK34</xm:f>
+              <xm:sqref>AM34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q35:AK35</xm:f>
+              <xm:sqref>AM35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q36:AK36</xm:f>
+              <xm:sqref>AM36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q37:AK37</xm:f>
+              <xm:sqref>AM37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q38:AK38</xm:f>
+              <xm:sqref>AM38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q39:AK39</xm:f>
+              <xm:sqref>AM39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q40:AK40</xm:f>
+              <xm:sqref>AM40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q41:AK41</xm:f>
+              <xm:sqref>AM41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q42:AK42</xm:f>
+              <xm:sqref>AM42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q43:AK43</xm:f>
+              <xm:sqref>AM43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q44:AK44</xm:f>
+              <xm:sqref>AM44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q45:AK45</xm:f>
+              <xm:sqref>AM45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q46:AK46</xm:f>
+              <xm:sqref>AM46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q47:AK47</xm:f>
+              <xm:sqref>AM47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q48:AK48</xm:f>
+              <xm:sqref>AM48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q49:AK49</xm:f>
+              <xm:sqref>AM49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q50:AK50</xm:f>
+              <xm:sqref>AM50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q51:AK51</xm:f>
+              <xm:sqref>AM51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q52:AK52</xm:f>
+              <xm:sqref>AM52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q53:AK53</xm:f>
+              <xm:sqref>AM53</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/figures/us_organic_sparklines.xlsx
+++ b/figures/us_organic_sparklines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\dev\state_organic_ag\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F044ACA5-8355-4730-AF6A-978C1DC9860A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002FD19-A084-42B0-9C1F-0C19F49B39C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
+    <workbookView xWindow="2490" yWindow="195" windowWidth="24645" windowHeight="13650" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="all_sparklines" sheetId="11" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>min</t>
   </si>
@@ -331,14 +331,18 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -349,12 +353,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -378,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -423,6 +433,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,22 +860,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BD53"/>
+  <dimension ref="A2:BD54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG10" sqref="BG10"/>
+      <selection activeCell="BC5" sqref="BC5:BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="5" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1"/>
     <col min="15" max="16" width="10.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="37" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="37" width="9.140625" style="2" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="9.140625" style="2"/>
     <col min="39" max="39" width="9.140625" style="1"/>
     <col min="40" max="41" width="10.7109375" style="3" customWidth="1"/>
@@ -1029,132 +1053,160 @@
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.6909999999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.8979999999999999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.8050000000000002</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.7130000000000001</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="O4" s="3">
-        <f t="shared" ref="O4:O35" si="0">MIN(F4:L4)*1000</f>
-        <v>1898</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" ref="P4:P35" si="1">MAX(B4:L4)*1000</f>
-        <v>3002</v>
-      </c>
-      <c r="Q4">
-        <v>41.627125509999999</v>
-      </c>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4">
-        <v>190.649</v>
-      </c>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4">
-        <v>236.03299999999999</v>
-      </c>
-      <c r="AF4">
-        <v>278.20600000000002</v>
-      </c>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4">
-        <v>433.012</v>
-      </c>
-      <c r="AK4">
-        <v>390.79199999999997</v>
-      </c>
-      <c r="AN4" s="3">
-        <f t="shared" ref="AN4:AN35" si="2">MIN(Q4:AK4)*1000</f>
-        <v>41627.125509999998</v>
-      </c>
-      <c r="AO4" s="3">
-        <f t="shared" ref="AO4:AO35" si="3">MAX(Q4:AK4)*1000</f>
-        <v>433012</v>
-      </c>
-      <c r="AP4">
-        <v>1148.6500000000001</v>
-      </c>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4">
-        <v>1388.847</v>
-      </c>
-      <c r="AU4">
-        <v>2231.241</v>
-      </c>
-      <c r="AV4"/>
-      <c r="AW4"/>
-      <c r="AX4"/>
-      <c r="AY4">
-        <v>2889.1559999999999</v>
-      </c>
-      <c r="AZ4">
-        <v>3596.9229999999998</v>
-      </c>
-      <c r="BC4" s="4">
-        <f t="shared" ref="BC4:BC35" si="4">MIN(AP4:AZ4)</f>
-        <v>1148.6500000000001</v>
-      </c>
-      <c r="BD4" s="4">
-        <f t="shared" ref="BD4:BD35" si="5">MAX(AP4:AZ4)</f>
-        <v>3596.9229999999998</v>
+      <c r="A4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="21">
+        <f>SUM(B5:B54)</f>
+        <v>14.307000000000006</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21">
+        <f>SUM(F5:F54)</f>
+        <v>9.139999999999997</v>
+      </c>
+      <c r="G4" s="21">
+        <f>SUM(G5:G54)</f>
+        <v>14.047999999999998</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21">
+        <f>SUM(K5:K54)</f>
+        <v>14.217000000000004</v>
+      </c>
+      <c r="L4" s="21">
+        <f>SUM(L5:L54)</f>
+        <v>16.534000000000006</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="23">
+        <f t="shared" ref="O4:O36" si="0">MIN(F4:L4)*1000</f>
+        <v>9139.9999999999964</v>
+      </c>
+      <c r="P4" s="23">
+        <f t="shared" ref="P4:P36" si="1">MAX(B4:L4)*1000</f>
+        <v>16534.000000000007</v>
+      </c>
+      <c r="Q4" s="24">
+        <f>SUM(Q5:Q54)</f>
+        <v>540.58380567632958</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24">
+        <f>SUM(AA5:AA54)</f>
+        <v>1650.7430000000002</v>
+      </c>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24">
+        <f>SUM(AE5:AE54)</f>
+        <v>1475.8500000000001</v>
+      </c>
+      <c r="AF4" s="24">
+        <f>SUM(AF5:AF54)</f>
+        <v>1486.0610000000004</v>
+      </c>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24">
+        <f>SUM(AJ5:AJ54)</f>
+        <v>1718.8260000000002</v>
+      </c>
+      <c r="AK4" s="24">
+        <f>SUM(AK5:AK54)</f>
+        <v>1997.8430000000003</v>
+      </c>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23">
+        <f t="shared" ref="AN4:AN36" si="2">MIN(Q4:AK4)*1000</f>
+        <v>540583.80567632953</v>
+      </c>
+      <c r="AO4" s="23">
+        <f t="shared" ref="AO4:AO36" si="3">MAX(Q4:AK4)*1000</f>
+        <v>1997843.0000000002</v>
+      </c>
+      <c r="AP4" s="24">
+        <f>SUM(AP5:AP54)</f>
+        <v>3163.5809999999997</v>
+      </c>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="25">
+        <f>SUM(AT5:AT54)</f>
+        <v>3454.5829999999996</v>
+      </c>
+      <c r="AU4" s="25">
+        <f>SUM(AU5:AU54)</f>
+        <v>5430.6029999999992</v>
+      </c>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="24">
+        <f>SUM(AY5:AY54)</f>
+        <v>7552.3970000000008</v>
+      </c>
+      <c r="AZ4" s="24">
+        <f>SUM(AZ5:AZ54)</f>
+        <v>9923.6040000000012</v>
+      </c>
+      <c r="BA4" s="21"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="23">
+        <f t="shared" ref="BC4:BC36" si="4">MIN(AP4:AZ4)</f>
+        <v>3163.5809999999997</v>
+      </c>
+      <c r="BD4" s="23">
+        <f t="shared" ref="BD4:BD36" si="5">MAX(AP4:AZ4)</f>
+        <v>9923.6040000000012</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>1.202</v>
+        <v>2.6909999999999998</v>
       </c>
       <c r="F5" s="1">
-        <v>0.87</v>
+        <v>1.8979999999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>1.228</v>
+        <v>2.8050000000000002</v>
       </c>
       <c r="K5" s="1">
-        <v>1.276</v>
+        <v>2.7130000000000001</v>
       </c>
       <c r="L5" s="1">
-        <v>1.3640000000000001</v>
+        <v>3.0019999999999998</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="0"/>
-        <v>870</v>
+        <v>1898</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="1"/>
-        <v>1364</v>
+        <v>3002</v>
       </c>
       <c r="Q5">
-        <v>19.280161939999999</v>
+        <v>41.627125509999999</v>
       </c>
       <c r="R5"/>
       <c r="S5"/>
@@ -1166,93 +1218,93 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5">
-        <v>79.191000000000003</v>
+        <v>190.649</v>
       </c>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5">
-        <v>70.435000000000002</v>
+        <v>236.03299999999999</v>
       </c>
       <c r="AF5">
-        <v>92.552999999999997</v>
+        <v>278.20600000000002</v>
       </c>
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5">
-        <v>88.738</v>
+        <v>433.012</v>
       </c>
       <c r="AK5">
-        <v>101.595</v>
+        <v>390.79199999999997</v>
       </c>
       <c r="AN5" s="3">
         <f t="shared" si="2"/>
-        <v>19280.161939999998</v>
+        <v>41627.125509999998</v>
       </c>
       <c r="AO5" s="3">
         <f t="shared" si="3"/>
-        <v>101595</v>
+        <v>433012</v>
       </c>
       <c r="AP5">
-        <v>132.76400000000001</v>
+        <v>1148.6500000000001</v>
       </c>
       <c r="AQ5"/>
       <c r="AR5"/>
       <c r="AS5"/>
       <c r="AT5">
-        <v>132.45699999999999</v>
+        <v>1388.847</v>
       </c>
       <c r="AU5">
-        <v>200.8</v>
+        <v>2231.241</v>
       </c>
       <c r="AV5"/>
       <c r="AW5"/>
       <c r="AX5"/>
       <c r="AY5">
-        <v>255.45</v>
+        <v>2889.1559999999999</v>
       </c>
       <c r="AZ5">
-        <v>268.92099999999999</v>
-      </c>
-      <c r="BC5" s="4">
+        <v>3596.9229999999998</v>
+      </c>
+      <c r="BC5" s="3">
         <f t="shared" si="4"/>
-        <v>132.45699999999999</v>
-      </c>
-      <c r="BD5" s="4">
+        <v>1148.6500000000001</v>
+      </c>
+      <c r="BD5" s="3">
         <f t="shared" si="5"/>
-        <v>268.92099999999999</v>
+        <v>3596.9229999999998</v>
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0.81899999999999995</v>
+        <v>1.202</v>
       </c>
       <c r="F6" s="1">
-        <v>0.59699999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="G6" s="1">
-        <v>0.91700000000000004</v>
+        <v>1.228</v>
       </c>
       <c r="K6" s="1">
-        <v>1.0589999999999999</v>
+        <v>1.276</v>
       </c>
       <c r="L6" s="1">
-        <v>1.3129999999999999</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>597</v>
+        <v>870</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="1"/>
-        <v>1313</v>
+        <v>1364</v>
       </c>
       <c r="Q6">
-        <v>10.412145750000001</v>
+        <v>19.280161939999999</v>
       </c>
       <c r="R6"/>
       <c r="S6"/>
@@ -1264,93 +1316,93 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6">
-        <v>68.188999999999993</v>
+        <v>79.191000000000003</v>
       </c>
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6">
-        <v>67.102000000000004</v>
+        <v>70.435000000000002</v>
       </c>
       <c r="AF6">
-        <v>86.114000000000004</v>
+        <v>92.552999999999997</v>
       </c>
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6">
-        <v>106.997</v>
+        <v>88.738</v>
       </c>
       <c r="AK6">
-        <v>130.80199999999999</v>
+        <v>101.595</v>
       </c>
       <c r="AN6" s="3">
         <f t="shared" si="2"/>
-        <v>10412.14575</v>
+        <v>19280.161939999998</v>
       </c>
       <c r="AO6" s="3">
         <f t="shared" si="3"/>
-        <v>130801.99999999999</v>
+        <v>101595</v>
       </c>
       <c r="AP6">
-        <v>105.133</v>
+        <v>132.76400000000001</v>
       </c>
       <c r="AQ6"/>
       <c r="AR6"/>
       <c r="AS6"/>
       <c r="AT6">
-        <v>106.774</v>
+        <v>132.45699999999999</v>
       </c>
       <c r="AU6">
-        <v>164.203</v>
+        <v>200.8</v>
       </c>
       <c r="AV6"/>
       <c r="AW6"/>
       <c r="AX6"/>
       <c r="AY6">
-        <v>215.85900000000001</v>
+        <v>255.45</v>
       </c>
       <c r="AZ6">
-        <v>298.42</v>
+        <v>268.92099999999999</v>
       </c>
       <c r="BC6" s="4">
         <f t="shared" si="4"/>
-        <v>105.133</v>
+        <v>132.45699999999999</v>
       </c>
       <c r="BD6" s="4">
         <f t="shared" si="5"/>
-        <v>298.42</v>
+        <v>268.92099999999999</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.55600000000000005</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="F7" s="1">
-        <v>0.44600000000000001</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="G7" s="1">
-        <v>0.67</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="K7" s="1">
-        <v>0.80300000000000005</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="L7" s="1">
-        <v>1.0389999999999999</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>446</v>
+        <v>597</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
-        <v>1039</v>
+        <v>1313</v>
       </c>
       <c r="Q7">
-        <v>2.6360323889999999</v>
+        <v>10.412145750000001</v>
       </c>
       <c r="R7"/>
       <c r="S7"/>
@@ -1362,93 +1414,93 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7">
-        <v>21.71</v>
+        <v>68.188999999999993</v>
       </c>
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7">
-        <v>24.788</v>
+        <v>67.102000000000004</v>
       </c>
       <c r="AF7">
-        <v>39.521000000000001</v>
+        <v>86.114000000000004</v>
       </c>
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
       <c r="AJ7">
-        <v>37.807000000000002</v>
+        <v>106.997</v>
       </c>
       <c r="AK7">
-        <v>43.542999999999999</v>
+        <v>130.80199999999999</v>
       </c>
       <c r="AN7" s="3">
         <f t="shared" si="2"/>
-        <v>2636.032389</v>
+        <v>10412.14575</v>
       </c>
       <c r="AO7" s="3">
         <f t="shared" si="3"/>
-        <v>43543</v>
+        <v>130801.99999999999</v>
       </c>
       <c r="AP7">
-        <v>212.739</v>
+        <v>105.133</v>
       </c>
       <c r="AQ7"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7">
-        <v>123.152</v>
+        <v>106.774</v>
       </c>
       <c r="AU7">
-        <v>313.45600000000002</v>
+        <v>164.203</v>
       </c>
       <c r="AV7"/>
       <c r="AW7"/>
       <c r="AX7"/>
       <c r="AY7">
-        <v>659.62900000000002</v>
+        <v>215.85900000000001</v>
       </c>
       <c r="AZ7">
-        <v>741.76400000000001</v>
+        <v>298.42</v>
       </c>
       <c r="BC7" s="4">
         <f t="shared" si="4"/>
-        <v>123.152</v>
+        <v>105.133</v>
       </c>
       <c r="BD7" s="4">
         <f t="shared" si="5"/>
-        <v>741.76400000000001</v>
+        <v>298.42</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
-        <v>0.88600000000000001</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F8" s="1">
-        <v>0.49299999999999999</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>0.71499999999999997</v>
+        <v>0.67</v>
       </c>
       <c r="K8" s="1">
-        <v>0.67700000000000005</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="L8" s="1">
-        <v>0.74299999999999999</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="1"/>
-        <v>886</v>
+        <v>1039</v>
       </c>
       <c r="Q8">
-        <v>4.6392712549999997</v>
+        <v>2.6360323889999999</v>
       </c>
       <c r="R8"/>
       <c r="S8"/>
@@ -1460,93 +1512,93 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8">
-        <v>33.286000000000001</v>
+        <v>21.71</v>
       </c>
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8">
-        <v>29.091999999999999</v>
+        <v>24.788</v>
       </c>
       <c r="AF8">
-        <v>29.895</v>
+        <v>39.521000000000001</v>
       </c>
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
       <c r="AJ8">
-        <v>31.866</v>
+        <v>37.807000000000002</v>
       </c>
       <c r="AK8">
-        <v>45.316000000000003</v>
+        <v>43.542999999999999</v>
       </c>
       <c r="AN8" s="3">
         <f t="shared" si="2"/>
-        <v>4639.2712549999997</v>
+        <v>2636.032389</v>
       </c>
       <c r="AO8" s="3">
         <f t="shared" si="3"/>
-        <v>45316</v>
+        <v>43543</v>
       </c>
       <c r="AP8">
-        <v>281.97000000000003</v>
+        <v>212.739</v>
       </c>
       <c r="AQ8"/>
       <c r="AR8"/>
       <c r="AS8"/>
       <c r="AT8">
-        <v>297.10399999999998</v>
+        <v>123.152</v>
       </c>
       <c r="AU8">
-        <v>514.89700000000005</v>
+        <v>313.45600000000002</v>
       </c>
       <c r="AV8"/>
       <c r="AW8"/>
       <c r="AX8"/>
       <c r="AY8">
-        <v>636.245</v>
+        <v>659.62900000000002</v>
       </c>
       <c r="AZ8">
-        <v>885.97</v>
+        <v>741.76400000000001</v>
       </c>
       <c r="BC8" s="4">
         <f t="shared" si="4"/>
-        <v>281.97000000000003</v>
+        <v>123.152</v>
       </c>
       <c r="BD8" s="4">
         <f t="shared" si="5"/>
-        <v>885.97</v>
+        <v>741.76400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>0.53500000000000003</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>0.33600000000000002</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>0.53100000000000003</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="K9" s="1">
-        <v>0.57499999999999996</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="L9" s="1">
-        <v>0.78</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>493</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="1"/>
-        <v>780</v>
+        <v>886</v>
       </c>
       <c r="Q9">
-        <v>4.8643724700000002</v>
+        <v>4.6392712549999997</v>
       </c>
       <c r="R9"/>
       <c r="S9"/>
@@ -1558,91 +1610,93 @@
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9">
-        <v>25.1</v>
+        <v>33.286000000000001</v>
       </c>
       <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9">
-        <v>22.045999999999999</v>
+        <v>29.091999999999999</v>
       </c>
       <c r="AF9">
-        <v>30.117999999999999</v>
+        <v>29.895</v>
       </c>
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
-      <c r="AJ9"/>
+      <c r="AJ9">
+        <v>31.866</v>
+      </c>
       <c r="AK9">
-        <v>45.311999999999998</v>
+        <v>45.316000000000003</v>
       </c>
       <c r="AN9" s="3">
         <f t="shared" si="2"/>
-        <v>4864.3724700000002</v>
+        <v>4639.2712549999997</v>
       </c>
       <c r="AO9" s="3">
         <f t="shared" si="3"/>
-        <v>45312</v>
+        <v>45316</v>
       </c>
       <c r="AP9">
-        <v>42.765000000000001</v>
+        <v>281.97000000000003</v>
       </c>
       <c r="AQ9"/>
       <c r="AR9"/>
       <c r="AS9"/>
       <c r="AT9">
-        <v>56.31</v>
+        <v>297.10399999999998</v>
       </c>
       <c r="AU9">
-        <v>88.846000000000004</v>
+        <v>514.89700000000005</v>
       </c>
       <c r="AV9"/>
       <c r="AW9"/>
       <c r="AX9"/>
       <c r="AY9">
-        <v>101.242</v>
+        <v>636.245</v>
       </c>
       <c r="AZ9">
-        <v>116.999</v>
+        <v>885.97</v>
       </c>
       <c r="BC9" s="4">
         <f t="shared" si="4"/>
-        <v>42.765000000000001</v>
+        <v>281.97000000000003</v>
       </c>
       <c r="BD9" s="4">
         <f t="shared" si="5"/>
-        <v>116.999</v>
+        <v>885.97</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
-        <v>0.51300000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="F10" s="1">
-        <v>0.46700000000000003</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="G10" s="1">
-        <v>0.60199999999999998</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="K10" s="1">
-        <v>0.73199999999999998</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="L10" s="1">
-        <v>0.77700000000000002</v>
+        <v>0.78</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>336</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="1"/>
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="Q10">
-        <v>14.48137652</v>
+        <v>4.8643724700000002</v>
       </c>
       <c r="R10"/>
       <c r="S10"/>
@@ -1654,93 +1708,91 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10">
-        <v>38.286999999999999</v>
+        <v>25.1</v>
       </c>
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10">
-        <v>33.036999999999999</v>
+        <v>22.045999999999999</v>
       </c>
       <c r="AF10">
-        <v>39.453000000000003</v>
+        <v>30.117999999999999</v>
       </c>
       <c r="AG10"/>
       <c r="AH10"/>
       <c r="AI10"/>
-      <c r="AJ10">
-        <v>41.738999999999997</v>
-      </c>
+      <c r="AJ10"/>
       <c r="AK10">
-        <v>54.125999999999998</v>
+        <v>45.311999999999998</v>
       </c>
       <c r="AN10" s="3">
         <f t="shared" si="2"/>
-        <v>14481.37652</v>
+        <v>4864.3724700000002</v>
       </c>
       <c r="AO10" s="3">
         <f t="shared" si="3"/>
-        <v>54126</v>
+        <v>45312</v>
       </c>
       <c r="AP10">
-        <v>71.545000000000002</v>
+        <v>42.765000000000001</v>
       </c>
       <c r="AQ10"/>
       <c r="AR10"/>
       <c r="AS10"/>
       <c r="AT10">
-        <v>60.703000000000003</v>
+        <v>56.31</v>
       </c>
       <c r="AU10">
-        <v>102.626</v>
+        <v>88.846000000000004</v>
       </c>
       <c r="AV10"/>
       <c r="AW10"/>
       <c r="AX10"/>
       <c r="AY10">
-        <v>131.18799999999999</v>
+        <v>101.242</v>
       </c>
       <c r="AZ10">
-        <v>144.596</v>
+        <v>116.999</v>
       </c>
       <c r="BC10" s="4">
         <f t="shared" si="4"/>
-        <v>60.703000000000003</v>
+        <v>42.765000000000001</v>
       </c>
       <c r="BD10" s="4">
         <f t="shared" si="5"/>
-        <v>144.596</v>
+        <v>116.999</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>0.65700000000000003</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="F11" s="1">
-        <v>0.35299999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="G11" s="1">
-        <v>0.52500000000000002</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="K11" s="1">
-        <v>0.46100000000000002</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="L11" s="1">
-        <v>0.45100000000000001</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>467</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="1"/>
-        <v>657</v>
+        <v>777</v>
       </c>
       <c r="Q11">
-        <v>6.8761133599999997</v>
+        <v>14.48137652</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -1752,93 +1804,93 @@
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11">
-        <v>42.755000000000003</v>
+        <v>38.286999999999999</v>
       </c>
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11">
-        <v>53.734000000000002</v>
+        <v>33.036999999999999</v>
       </c>
       <c r="AF11">
-        <v>82.658000000000001</v>
+        <v>39.453000000000003</v>
       </c>
       <c r="AG11"/>
       <c r="AH11"/>
       <c r="AI11"/>
       <c r="AJ11">
-        <v>78.823999999999998</v>
+        <v>41.738999999999997</v>
       </c>
       <c r="AK11">
-        <v>79.37</v>
+        <v>54.125999999999998</v>
       </c>
       <c r="AN11" s="3">
         <f t="shared" si="2"/>
-        <v>6876.1133599999994</v>
+        <v>14481.37652</v>
       </c>
       <c r="AO11" s="3">
         <f t="shared" si="3"/>
-        <v>82658</v>
+        <v>54126</v>
       </c>
       <c r="AP11">
-        <v>155.613</v>
+        <v>71.545000000000002</v>
       </c>
       <c r="AQ11"/>
       <c r="AR11"/>
       <c r="AS11"/>
       <c r="AT11">
-        <v>233.452</v>
+        <v>60.703000000000003</v>
       </c>
       <c r="AU11">
-        <v>237.12100000000001</v>
+        <v>102.626</v>
       </c>
       <c r="AV11"/>
       <c r="AW11"/>
       <c r="AX11"/>
       <c r="AY11">
-        <v>350.89600000000002</v>
+        <v>131.18799999999999</v>
       </c>
       <c r="AZ11">
-        <v>454.40600000000001</v>
+        <v>144.596</v>
       </c>
       <c r="BC11" s="4">
         <f t="shared" si="4"/>
-        <v>155.613</v>
+        <v>60.703000000000003</v>
       </c>
       <c r="BD11" s="4">
         <f t="shared" si="5"/>
-        <v>454.40600000000001</v>
+        <v>144.596</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.46300000000000002</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="F12" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="G12" s="1">
-        <v>0.54</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="K12" s="1">
-        <v>0.55600000000000005</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="L12" s="1">
-        <v>0.65500000000000003</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>353</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="1"/>
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="Q12">
-        <v>8.561133603</v>
+        <v>6.8761133599999997</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1850,93 +1902,93 @@
       <c r="Y12"/>
       <c r="Z12"/>
       <c r="AA12">
-        <v>31.38</v>
+        <v>42.755000000000003</v>
       </c>
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12">
-        <v>33.143999999999998</v>
+        <v>53.734000000000002</v>
       </c>
       <c r="AF12">
-        <v>46.539000000000001</v>
+        <v>82.658000000000001</v>
       </c>
       <c r="AG12"/>
       <c r="AH12"/>
       <c r="AI12"/>
       <c r="AJ12">
-        <v>54.366</v>
+        <v>78.823999999999998</v>
       </c>
       <c r="AK12">
-        <v>82.186999999999998</v>
+        <v>79.37</v>
       </c>
       <c r="AN12" s="3">
         <f t="shared" si="2"/>
-        <v>8561.1336030000002</v>
+        <v>6876.1133599999994</v>
       </c>
       <c r="AO12" s="3">
         <f t="shared" si="3"/>
-        <v>82187</v>
+        <v>82658</v>
       </c>
       <c r="AP12">
-        <v>72.856999999999999</v>
+        <v>155.613</v>
       </c>
       <c r="AQ12"/>
       <c r="AR12"/>
       <c r="AS12"/>
       <c r="AT12">
-        <v>65.768000000000001</v>
+        <v>233.452</v>
       </c>
       <c r="AU12">
-        <v>93.888999999999996</v>
+        <v>237.12100000000001</v>
       </c>
       <c r="AV12"/>
       <c r="AW12"/>
       <c r="AX12"/>
       <c r="AY12">
-        <v>127.054</v>
+        <v>350.89600000000002</v>
       </c>
       <c r="AZ12">
-        <v>159.74199999999999</v>
+        <v>454.40600000000001</v>
       </c>
       <c r="BC12" s="4">
         <f t="shared" si="4"/>
-        <v>65.768000000000001</v>
+        <v>155.613</v>
       </c>
       <c r="BD12" s="4">
         <f t="shared" si="5"/>
-        <v>159.74199999999999</v>
+        <v>454.40600000000001</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.54300000000000004</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="F13" s="1">
-        <v>0.44</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>0.50900000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="K13" s="1">
-        <v>0.54500000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="L13" s="1">
-        <v>0.63300000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" si="1"/>
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="Q13">
-        <v>25.78340081</v>
+        <v>8.561133603</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1948,93 +2000,93 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13">
-        <v>49.566000000000003</v>
+        <v>31.38</v>
       </c>
       <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13">
-        <v>50.442999999999998</v>
+        <v>33.143999999999998</v>
       </c>
       <c r="AF13">
-        <v>53.86</v>
+        <v>46.539000000000001</v>
       </c>
       <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
       <c r="AJ13">
-        <v>52.89</v>
+        <v>54.366</v>
       </c>
       <c r="AK13">
-        <v>70.028000000000006</v>
+        <v>82.186999999999998</v>
       </c>
       <c r="AN13" s="3">
         <f t="shared" si="2"/>
-        <v>25783.400809999999</v>
+        <v>8561.1336030000002</v>
       </c>
       <c r="AO13" s="3">
         <f t="shared" si="3"/>
-        <v>70028</v>
+        <v>82187</v>
       </c>
       <c r="AP13">
-        <v>69.052999999999997</v>
+        <v>72.856999999999999</v>
       </c>
       <c r="AQ13"/>
       <c r="AR13"/>
       <c r="AS13"/>
       <c r="AT13">
-        <v>69.180999999999997</v>
+        <v>65.768000000000001</v>
       </c>
       <c r="AU13">
-        <v>92.242000000000004</v>
+        <v>93.888999999999996</v>
       </c>
       <c r="AV13"/>
       <c r="AW13"/>
       <c r="AX13"/>
       <c r="AY13">
-        <v>106.479</v>
+        <v>127.054</v>
       </c>
       <c r="AZ13">
-        <v>113.60599999999999</v>
+        <v>159.74199999999999</v>
       </c>
       <c r="BC13" s="4">
         <f t="shared" si="4"/>
-        <v>69.052999999999997</v>
+        <v>65.768000000000001</v>
       </c>
       <c r="BD13" s="4">
         <f t="shared" si="5"/>
-        <v>113.60599999999999</v>
+        <v>159.74199999999999</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="F14" s="1">
-        <v>0.159</v>
+        <v>0.44</v>
       </c>
       <c r="G14" s="1">
-        <v>0.28199999999999997</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="K14" s="1">
-        <v>0.42</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="L14" s="1">
-        <v>0.59399999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>440</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="1"/>
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="Q14">
-        <v>0.80728744939999997</v>
+        <v>25.78340081</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -2046,91 +2098,93 @@
       <c r="Y14"/>
       <c r="Z14"/>
       <c r="AA14">
-        <v>5.2709999999999999</v>
+        <v>49.566000000000003</v>
       </c>
       <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14">
-        <v>6.234</v>
+        <v>50.442999999999998</v>
       </c>
       <c r="AF14">
-        <v>10.647</v>
+        <v>53.86</v>
       </c>
       <c r="AG14"/>
       <c r="AH14"/>
       <c r="AI14"/>
       <c r="AJ14">
-        <v>17.491</v>
-      </c>
-      <c r="AK14"/>
+        <v>52.89</v>
+      </c>
+      <c r="AK14">
+        <v>70.028000000000006</v>
+      </c>
       <c r="AN14" s="3">
         <f t="shared" si="2"/>
-        <v>807.28744940000001</v>
+        <v>25783.400809999999</v>
       </c>
       <c r="AO14" s="3">
         <f t="shared" si="3"/>
-        <v>17491</v>
+        <v>70028</v>
       </c>
       <c r="AP14">
-        <v>13.877000000000001</v>
+        <v>69.052999999999997</v>
       </c>
       <c r="AQ14"/>
       <c r="AR14"/>
       <c r="AS14"/>
       <c r="AT14">
-        <v>30.39</v>
+        <v>69.180999999999997</v>
       </c>
       <c r="AU14">
-        <v>59.844999999999999</v>
+        <v>92.242000000000004</v>
       </c>
       <c r="AV14"/>
       <c r="AW14"/>
       <c r="AX14"/>
       <c r="AY14">
-        <v>99.123999999999995</v>
+        <v>106.479</v>
       </c>
       <c r="AZ14">
-        <v>180.95099999999999</v>
+        <v>113.60599999999999</v>
       </c>
       <c r="BC14" s="4">
         <f t="shared" si="4"/>
-        <v>13.877000000000001</v>
+        <v>69.052999999999997</v>
       </c>
       <c r="BD14" s="4">
         <f t="shared" si="5"/>
-        <v>180.95099999999999</v>
+        <v>113.60599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
-        <v>0.44600000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>0.223</v>
+        <v>0.159</v>
       </c>
       <c r="G15" s="1">
-        <v>0.32900000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="K15" s="1">
-        <v>0.40200000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="L15" s="1">
-        <v>0.54100000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="O15" s="3">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="1"/>
-        <v>541</v>
+        <v>594</v>
       </c>
       <c r="Q15">
-        <v>6.7862348179999996</v>
+        <v>0.80728744939999997</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -2142,93 +2196,91 @@
       <c r="Y15"/>
       <c r="Z15"/>
       <c r="AA15">
-        <v>27.597999999999999</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15">
-        <v>25.803000000000001</v>
+        <v>6.234</v>
       </c>
       <c r="AF15">
-        <v>23.515999999999998</v>
+        <v>10.647</v>
       </c>
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
       <c r="AJ15">
-        <v>30.835000000000001</v>
-      </c>
-      <c r="AK15">
-        <v>49.494999999999997</v>
-      </c>
+        <v>17.491</v>
+      </c>
+      <c r="AK15"/>
       <c r="AN15" s="3">
         <f t="shared" si="2"/>
-        <v>6786.2348179999999</v>
+        <v>807.28744940000001</v>
       </c>
       <c r="AO15" s="3">
         <f t="shared" si="3"/>
-        <v>49495</v>
+        <v>17491</v>
       </c>
       <c r="AP15">
-        <v>71.111000000000004</v>
+        <v>13.877000000000001</v>
       </c>
       <c r="AQ15"/>
       <c r="AR15"/>
       <c r="AS15"/>
       <c r="AT15">
-        <v>99.206000000000003</v>
+        <v>30.39</v>
       </c>
       <c r="AU15">
-        <v>124.61199999999999</v>
+        <v>59.844999999999999</v>
       </c>
       <c r="AV15"/>
       <c r="AW15"/>
       <c r="AX15"/>
       <c r="AY15">
-        <v>201.06700000000001</v>
+        <v>99.123999999999995</v>
       </c>
       <c r="AZ15">
-        <v>230.95500000000001</v>
+        <v>180.95099999999999</v>
       </c>
       <c r="BC15" s="4">
         <f t="shared" si="4"/>
-        <v>71.111000000000004</v>
+        <v>13.877000000000001</v>
       </c>
       <c r="BD15" s="4">
         <f t="shared" si="5"/>
-        <v>230.95500000000001</v>
+        <v>180.95099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>0.376</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="F16" s="1">
-        <v>0.23100000000000001</v>
+        <v>0.223</v>
       </c>
       <c r="G16" s="1">
-        <v>0.51700000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="K16" s="1">
-        <v>0.49399999999999999</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="L16" s="1">
-        <v>0.45400000000000001</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="O16" s="3">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="1"/>
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="Q16">
-        <v>2.7372469640000001</v>
+        <v>6.7862348179999996</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -2240,93 +2292,93 @@
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16">
-        <v>11.443</v>
+        <v>27.597999999999999</v>
       </c>
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16">
-        <v>10.45</v>
+        <v>25.803000000000001</v>
       </c>
       <c r="AF16">
-        <v>23.661000000000001</v>
+        <v>23.515999999999998</v>
       </c>
       <c r="AG16"/>
       <c r="AH16"/>
       <c r="AI16"/>
       <c r="AJ16">
-        <v>22.387</v>
+        <v>30.835000000000001</v>
       </c>
       <c r="AK16">
-        <v>22.373000000000001</v>
+        <v>49.494999999999997</v>
       </c>
       <c r="AN16" s="3">
         <f t="shared" si="2"/>
-        <v>2737.2469639999999</v>
+        <v>6786.2348179999999</v>
       </c>
       <c r="AO16" s="3">
         <f t="shared" si="3"/>
-        <v>23661</v>
+        <v>49495</v>
       </c>
       <c r="AP16">
-        <v>30.675000000000001</v>
+        <v>71.111000000000004</v>
       </c>
       <c r="AQ16"/>
       <c r="AR16"/>
       <c r="AS16"/>
       <c r="AT16">
-        <v>24.402000000000001</v>
+        <v>99.206000000000003</v>
       </c>
       <c r="AU16">
-        <v>54.177999999999997</v>
+        <v>124.61199999999999</v>
       </c>
       <c r="AV16"/>
       <c r="AW16"/>
       <c r="AX16"/>
       <c r="AY16">
-        <v>65.647999999999996</v>
+        <v>201.06700000000001</v>
       </c>
       <c r="AZ16">
-        <v>63.82</v>
+        <v>230.95500000000001</v>
       </c>
       <c r="BC16" s="4">
         <f t="shared" si="4"/>
-        <v>24.402000000000001</v>
+        <v>71.111000000000004</v>
       </c>
       <c r="BD16" s="4">
         <f t="shared" si="5"/>
-        <v>65.647999999999996</v>
+        <v>230.95500000000001</v>
       </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
-        <v>0.191</v>
+        <v>0.376</v>
       </c>
       <c r="F17" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G17" s="1">
-        <v>0.214</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="K17" s="1">
-        <v>0.30199999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="L17" s="1">
-        <v>0.35499999999999998</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="1"/>
-        <v>355</v>
+        <v>517</v>
       </c>
       <c r="Q17">
-        <v>3.3603238869999998</v>
+        <v>2.7372469640000001</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -2338,93 +2390,93 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17">
-        <v>12.225</v>
+        <v>11.443</v>
       </c>
       <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17">
-        <v>8.9949999999999992</v>
+        <v>10.45</v>
       </c>
       <c r="AF17">
-        <v>20.009</v>
+        <v>23.661000000000001</v>
       </c>
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
       <c r="AJ17">
-        <v>16.623999999999999</v>
+        <v>22.387</v>
       </c>
       <c r="AK17">
-        <v>20.716999999999999</v>
+        <v>22.373000000000001</v>
       </c>
       <c r="AN17" s="3">
         <f t="shared" si="2"/>
-        <v>3360.323887</v>
+        <v>2737.2469639999999</v>
       </c>
       <c r="AO17" s="3">
         <f t="shared" si="3"/>
-        <v>20717</v>
+        <v>23661</v>
       </c>
       <c r="AP17">
-        <v>9.3239999999999998</v>
+        <v>30.675000000000001</v>
       </c>
       <c r="AQ17"/>
       <c r="AR17"/>
       <c r="AS17"/>
       <c r="AT17">
-        <v>40.003999999999998</v>
+        <v>24.402000000000001</v>
       </c>
       <c r="AU17">
-        <v>43.274000000000001</v>
+        <v>54.177999999999997</v>
       </c>
       <c r="AV17"/>
       <c r="AW17"/>
       <c r="AX17"/>
       <c r="AY17">
-        <v>101.298</v>
+        <v>65.647999999999996</v>
       </c>
       <c r="AZ17">
-        <v>113.88</v>
+        <v>63.82</v>
       </c>
       <c r="BC17" s="4">
         <f t="shared" si="4"/>
-        <v>9.3239999999999998</v>
+        <v>24.402000000000001</v>
       </c>
       <c r="BD17" s="4">
         <f t="shared" si="5"/>
-        <v>113.88</v>
+        <v>65.647999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L18" s="1">
         <v>0.35499999999999998</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.217</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.23300000000000001</v>
       </c>
       <c r="O18" s="3">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="P18" s="3">
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
       <c r="Q18">
-        <v>12.50202429</v>
+        <v>3.3603238869999998</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -2436,93 +2488,93 @@
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18">
-        <v>127.238</v>
+        <v>12.225</v>
       </c>
       <c r="AB18"/>
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18">
-        <v>32.787999999999997</v>
+        <v>8.9949999999999992</v>
       </c>
       <c r="AF18">
-        <v>51.271000000000001</v>
+        <v>20.009</v>
       </c>
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
       <c r="AJ18">
-        <v>59.411000000000001</v>
+        <v>16.623999999999999</v>
       </c>
       <c r="AK18">
-        <v>99.718999999999994</v>
+        <v>20.716999999999999</v>
       </c>
       <c r="AN18" s="3">
         <f t="shared" si="2"/>
-        <v>12502.024289999999</v>
+        <v>3360.323887</v>
       </c>
       <c r="AO18" s="3">
         <f t="shared" si="3"/>
-        <v>127238</v>
+        <v>20717</v>
       </c>
       <c r="AP18">
-        <v>149.328</v>
+        <v>9.3239999999999998</v>
       </c>
       <c r="AQ18"/>
       <c r="AR18"/>
       <c r="AS18"/>
       <c r="AT18">
-        <v>165.499</v>
+        <v>40.003999999999998</v>
       </c>
       <c r="AU18">
-        <v>199.09399999999999</v>
+        <v>43.274000000000001</v>
       </c>
       <c r="AV18"/>
       <c r="AW18"/>
       <c r="AX18"/>
       <c r="AY18">
-        <v>297.48399999999998</v>
+        <v>101.298</v>
       </c>
       <c r="AZ18">
-        <v>424.303</v>
+        <v>113.88</v>
       </c>
       <c r="BC18" s="4">
         <f t="shared" si="4"/>
-        <v>149.328</v>
+        <v>9.3239999999999998</v>
       </c>
       <c r="BD18" s="4">
         <f t="shared" si="5"/>
-        <v>424.303</v>
+        <v>113.88</v>
       </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>0.219</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F19" s="1">
-        <v>9.6000000000000002E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="G19" s="1">
-        <v>0.26400000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="K19" s="1">
-        <v>0.247</v>
+        <v>0.217</v>
       </c>
       <c r="L19" s="1">
-        <v>0.34699999999999998</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="1"/>
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q19">
-        <v>0.39676113359999998</v>
+        <v>12.50202429</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -2534,93 +2586,93 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19">
-        <v>3.8940000000000001</v>
+        <v>127.238</v>
       </c>
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19">
-        <v>4.8899999999999997</v>
+        <v>32.787999999999997</v>
       </c>
       <c r="AF19">
-        <v>8.9849999999999994</v>
+        <v>51.271000000000001</v>
       </c>
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
       <c r="AJ19">
-        <v>12.87</v>
+        <v>59.411000000000001</v>
       </c>
       <c r="AK19">
-        <v>17.303999999999998</v>
+        <v>99.718999999999994</v>
       </c>
       <c r="AN19" s="3">
         <f t="shared" si="2"/>
-        <v>396.76113359999999</v>
+        <v>12502.024289999999</v>
       </c>
       <c r="AO19" s="3">
         <f t="shared" si="3"/>
-        <v>17304</v>
+        <v>127238</v>
       </c>
       <c r="AP19">
-        <v>52.795999999999999</v>
+        <v>149.328</v>
       </c>
       <c r="AQ19"/>
       <c r="AR19"/>
       <c r="AS19"/>
       <c r="AT19">
-        <v>24.141999999999999</v>
+        <v>165.499</v>
       </c>
       <c r="AU19">
-        <v>66.941000000000003</v>
+        <v>199.09399999999999</v>
       </c>
       <c r="AV19"/>
       <c r="AW19"/>
       <c r="AX19"/>
       <c r="AY19">
-        <v>144.917</v>
+        <v>297.48399999999998</v>
       </c>
       <c r="AZ19">
-        <v>369.76799999999997</v>
+        <v>424.303</v>
       </c>
       <c r="BC19" s="4">
         <f t="shared" si="4"/>
-        <v>24.141999999999999</v>
+        <v>149.328</v>
       </c>
       <c r="BD19" s="4">
         <f t="shared" si="5"/>
-        <v>369.76799999999997</v>
+        <v>424.303</v>
       </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
-        <v>0.33</v>
+        <v>0.219</v>
       </c>
       <c r="F20" s="1">
-        <v>0.10299999999999999</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>0.16600000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="K20" s="1">
-        <v>0.113</v>
+        <v>0.247</v>
       </c>
       <c r="L20" s="1">
-        <v>0.129</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="Q20">
-        <v>0.24089068829999999</v>
+        <v>0.39676113359999998</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -2632,93 +2684,93 @@
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20">
-        <v>4.2729999999999997</v>
+        <v>3.8940000000000001</v>
       </c>
       <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20">
-        <v>1.093</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="AF20">
-        <v>1.419</v>
+        <v>8.9849999999999994</v>
       </c>
       <c r="AG20"/>
       <c r="AH20"/>
       <c r="AI20"/>
       <c r="AJ20">
-        <v>2.899</v>
+        <v>12.87</v>
       </c>
       <c r="AK20">
-        <v>1.1299999999999999</v>
+        <v>17.303999999999998</v>
       </c>
       <c r="AN20" s="3">
         <f t="shared" si="2"/>
-        <v>240.89068829999999</v>
+        <v>396.76113359999999</v>
       </c>
       <c r="AO20" s="3">
         <f t="shared" si="3"/>
-        <v>4273</v>
+        <v>17304</v>
       </c>
       <c r="AP20">
-        <v>10.077999999999999</v>
+        <v>52.795999999999999</v>
       </c>
       <c r="AQ20"/>
       <c r="AR20"/>
       <c r="AS20"/>
       <c r="AT20">
-        <v>7.4749999999999996</v>
+        <v>24.141999999999999</v>
       </c>
       <c r="AU20">
-        <v>13.356</v>
+        <v>66.941000000000003</v>
       </c>
       <c r="AV20"/>
       <c r="AW20"/>
       <c r="AX20"/>
       <c r="AY20">
-        <v>13.407999999999999</v>
+        <v>144.917</v>
       </c>
       <c r="AZ20">
-        <v>17.283000000000001</v>
+        <v>369.76799999999997</v>
       </c>
       <c r="BC20" s="4">
         <f t="shared" si="4"/>
-        <v>7.4749999999999996</v>
+        <v>24.141999999999999</v>
       </c>
       <c r="BD20" s="4">
         <f t="shared" si="5"/>
-        <v>17.283000000000001</v>
+        <v>369.76799999999997</v>
       </c>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
-        <v>0.22600000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="F21" s="1">
-        <v>0.13700000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="G21" s="1">
-        <v>0.249</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="K21" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="L21" s="1">
-        <v>0.25800000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="O21" s="3">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="P21" s="3">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="Q21">
-        <v>4.3315789469999997</v>
+        <v>0.24089068829999999</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -2730,93 +2782,93 @@
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21">
-        <v>12.414</v>
+        <v>4.2729999999999997</v>
       </c>
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21">
-        <v>11.64</v>
+        <v>1.093</v>
       </c>
       <c r="AF21">
-        <v>16.620999999999999</v>
+        <v>1.419</v>
       </c>
       <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21">
-        <v>15.845000000000001</v>
+        <v>2.899</v>
       </c>
       <c r="AK21">
-        <v>24.57</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AN21" s="3">
         <f t="shared" si="2"/>
-        <v>4331.578947</v>
+        <v>240.89068829999999</v>
       </c>
       <c r="AO21" s="3">
         <f t="shared" si="3"/>
-        <v>24570</v>
+        <v>4273</v>
       </c>
       <c r="AP21">
-        <v>23.571000000000002</v>
+        <v>10.077999999999999</v>
       </c>
       <c r="AQ21"/>
       <c r="AR21"/>
       <c r="AS21"/>
       <c r="AT21">
-        <v>27.87</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="AU21">
-        <v>52.722999999999999</v>
+        <v>13.356</v>
       </c>
       <c r="AV21"/>
       <c r="AW21"/>
       <c r="AX21"/>
       <c r="AY21">
-        <v>52.106000000000002</v>
+        <v>13.407999999999999</v>
       </c>
       <c r="AZ21">
-        <v>72.701999999999998</v>
+        <v>17.283000000000001</v>
       </c>
       <c r="BC21" s="4">
         <f t="shared" si="4"/>
-        <v>23.571000000000002</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="BD21" s="4">
         <f t="shared" si="5"/>
-        <v>72.701999999999998</v>
+        <v>17.283000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1">
-        <v>0.254</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F22" s="1">
-        <v>0.14199999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="G22" s="1">
-        <v>0.161</v>
+        <v>0.249</v>
       </c>
       <c r="K22" s="1">
-        <v>0.16600000000000001</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="L22" s="1">
-        <v>0.24</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q22">
-        <v>45.113360319999998</v>
+        <v>4.3315789469999997</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2828,93 +2880,93 @@
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22">
-        <v>60.091000000000001</v>
+        <v>12.414</v>
       </c>
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22">
-        <v>52.802999999999997</v>
+        <v>11.64</v>
       </c>
       <c r="AF22">
-        <v>50.664000000000001</v>
+        <v>16.620999999999999</v>
       </c>
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22">
-        <v>72.266999999999996</v>
+        <v>15.845000000000001</v>
       </c>
       <c r="AK22">
-        <v>73.171000000000006</v>
+        <v>24.57</v>
       </c>
       <c r="AN22" s="3">
         <f t="shared" si="2"/>
-        <v>45113.36032</v>
+        <v>4331.578947</v>
       </c>
       <c r="AO22" s="3">
         <f t="shared" si="3"/>
-        <v>73171</v>
+        <v>24570</v>
       </c>
       <c r="AP22">
-        <v>71.25</v>
+        <v>23.571000000000002</v>
       </c>
       <c r="AQ22"/>
       <c r="AR22"/>
       <c r="AS22"/>
       <c r="AT22">
-        <v>53.249000000000002</v>
+        <v>27.87</v>
       </c>
       <c r="AU22">
-        <v>65.695999999999998</v>
+        <v>52.722999999999999</v>
       </c>
       <c r="AV22"/>
       <c r="AW22"/>
       <c r="AX22"/>
       <c r="AY22">
-        <v>98.004999999999995</v>
+        <v>52.106000000000002</v>
       </c>
       <c r="AZ22">
-        <v>205.96799999999999</v>
+        <v>72.701999999999998</v>
       </c>
       <c r="BC22" s="4">
         <f t="shared" si="4"/>
-        <v>53.249000000000002</v>
+        <v>23.571000000000002</v>
       </c>
       <c r="BD22" s="4">
         <f t="shared" si="5"/>
-        <v>205.96799999999999</v>
+        <v>72.701999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>0.22</v>
+        <v>0.254</v>
       </c>
       <c r="F23" s="1">
-        <v>0.11899999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.157</v>
+        <v>0.161</v>
       </c>
       <c r="K23" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="L23" s="1">
-        <v>0.23799999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="Q23">
-        <v>104.80688259999999</v>
+        <v>45.113360319999998</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2926,93 +2978,93 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23">
-        <v>62.34</v>
+        <v>60.091000000000001</v>
       </c>
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23">
-        <v>31.456</v>
+        <v>52.802999999999997</v>
       </c>
       <c r="AF23">
-        <v>46.606000000000002</v>
+        <v>50.664000000000001</v>
       </c>
       <c r="AG23"/>
       <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23">
-        <v>71.427999999999997</v>
+        <v>72.266999999999996</v>
       </c>
       <c r="AK23">
-        <v>67.813999999999993</v>
+        <v>73.171000000000006</v>
       </c>
       <c r="AN23" s="3">
         <f t="shared" si="2"/>
-        <v>31456</v>
+        <v>45113.36032</v>
       </c>
       <c r="AO23" s="3">
         <f t="shared" si="3"/>
-        <v>104806.8826</v>
+        <v>73171</v>
       </c>
       <c r="AP23">
-        <v>70.230999999999995</v>
+        <v>71.25</v>
       </c>
       <c r="AQ23"/>
       <c r="AR23"/>
       <c r="AS23"/>
       <c r="AT23">
-        <v>70.212999999999994</v>
+        <v>53.249000000000002</v>
       </c>
       <c r="AU23">
-        <v>146.79900000000001</v>
+        <v>65.695999999999998</v>
       </c>
       <c r="AV23"/>
       <c r="AW23"/>
       <c r="AX23"/>
       <c r="AY23">
-        <v>181.297</v>
+        <v>98.004999999999995</v>
       </c>
       <c r="AZ23">
-        <v>184.119</v>
+        <v>205.96799999999999</v>
       </c>
       <c r="BC23" s="4">
         <f t="shared" si="4"/>
-        <v>70.212999999999994</v>
+        <v>53.249000000000002</v>
       </c>
       <c r="BD23" s="4">
         <f t="shared" si="5"/>
-        <v>184.119</v>
+        <v>205.96799999999999</v>
       </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
-        <v>0.16200000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F24" s="1">
-        <v>0.128</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>0.17</v>
+        <v>0.157</v>
       </c>
       <c r="K24" s="1">
-        <v>0.16200000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="L24" s="1">
-        <v>0.23599999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" si="1"/>
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q24">
-        <v>11.82510121</v>
+        <v>104.80688259999999</v>
       </c>
       <c r="R24"/>
       <c r="S24"/>
@@ -3024,91 +3076,93 @@
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24">
-        <v>59.185000000000002</v>
+        <v>62.34</v>
       </c>
       <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24">
-        <v>56.003999999999998</v>
+        <v>31.456</v>
       </c>
       <c r="AF24">
-        <v>44.755000000000003</v>
+        <v>46.606000000000002</v>
       </c>
       <c r="AG24"/>
       <c r="AH24"/>
       <c r="AI24"/>
       <c r="AJ24">
-        <v>43.453000000000003</v>
+        <v>71.427999999999997</v>
       </c>
       <c r="AK24">
-        <v>93.86</v>
+        <v>67.813999999999993</v>
       </c>
       <c r="AN24" s="3">
         <f t="shared" si="2"/>
-        <v>11825.101209999999</v>
+        <v>31456</v>
       </c>
       <c r="AO24" s="3">
         <f t="shared" si="3"/>
-        <v>93860</v>
+        <v>104806.8826</v>
       </c>
       <c r="AP24">
-        <v>48.636000000000003</v>
+        <v>70.230999999999995</v>
       </c>
       <c r="AQ24"/>
       <c r="AR24"/>
       <c r="AS24"/>
-      <c r="AT24"/>
+      <c r="AT24">
+        <v>70.212999999999994</v>
+      </c>
       <c r="AU24">
-        <v>75.917000000000002</v>
+        <v>146.79900000000001</v>
       </c>
       <c r="AV24"/>
       <c r="AW24"/>
       <c r="AX24"/>
       <c r="AY24">
-        <v>95.971000000000004</v>
+        <v>181.297</v>
       </c>
       <c r="AZ24">
-        <v>184.63399999999999</v>
+        <v>184.119</v>
       </c>
       <c r="BC24" s="4">
         <f t="shared" si="4"/>
-        <v>48.636000000000003</v>
+        <v>70.212999999999994</v>
       </c>
       <c r="BD24" s="4">
         <f t="shared" si="5"/>
-        <v>184.63399999999999</v>
+        <v>184.119</v>
       </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
-        <v>0.17299999999999999</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="F25" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.128</v>
       </c>
       <c r="G25" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="K25" s="1">
-        <v>0.156</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="L25" s="1">
-        <v>0.20699999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="Q25">
-        <v>32.4340081</v>
+        <v>11.82510121</v>
       </c>
       <c r="R25"/>
       <c r="S25"/>
@@ -3120,93 +3174,91 @@
       <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25">
-        <v>115.175</v>
+        <v>59.185000000000002</v>
       </c>
       <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25">
-        <v>81.971999999999994</v>
+        <v>56.003999999999998</v>
       </c>
       <c r="AF25">
-        <v>128.715</v>
+        <v>44.755000000000003</v>
       </c>
       <c r="AG25"/>
       <c r="AH25"/>
       <c r="AI25"/>
       <c r="AJ25">
-        <v>107.67</v>
+        <v>43.453000000000003</v>
       </c>
       <c r="AK25">
-        <v>144.017</v>
+        <v>93.86</v>
       </c>
       <c r="AN25" s="3">
         <f t="shared" si="2"/>
-        <v>32434.008099999999</v>
+        <v>11825.101209999999</v>
       </c>
       <c r="AO25" s="3">
         <f t="shared" si="3"/>
-        <v>144017</v>
+        <v>93860</v>
       </c>
       <c r="AP25">
-        <v>25.382999999999999</v>
+        <v>48.636000000000003</v>
       </c>
       <c r="AQ25"/>
       <c r="AR25"/>
       <c r="AS25"/>
-      <c r="AT25">
-        <v>29.318000000000001</v>
-      </c>
+      <c r="AT25"/>
       <c r="AU25">
-        <v>43.656999999999996</v>
+        <v>75.917000000000002</v>
       </c>
       <c r="AV25"/>
       <c r="AW25"/>
       <c r="AX25"/>
       <c r="AY25">
-        <v>53.186999999999998</v>
+        <v>95.971000000000004</v>
       </c>
       <c r="AZ25">
-        <v>65.466999999999999</v>
+        <v>184.63399999999999</v>
       </c>
       <c r="BC25" s="4">
         <f t="shared" si="4"/>
-        <v>25.382999999999999</v>
+        <v>48.636000000000003</v>
       </c>
       <c r="BD25" s="4">
         <f t="shared" si="5"/>
-        <v>65.466999999999999</v>
+        <v>184.63399999999999</v>
       </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1">
-        <v>0.19900000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F26" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="G26" s="1">
-        <v>0.11600000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="K26" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.156</v>
       </c>
       <c r="L26" s="1">
-        <v>0.10100000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q26">
-        <v>10.71052632</v>
+        <v>32.4340081</v>
       </c>
       <c r="R26"/>
       <c r="S26"/>
@@ -3218,93 +3270,93 @@
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26">
-        <v>47.642000000000003</v>
+        <v>115.175</v>
       </c>
       <c r="AB26"/>
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26">
-        <v>59.994999999999997</v>
+        <v>81.971999999999994</v>
       </c>
       <c r="AF26">
-        <v>13.94</v>
+        <v>128.715</v>
       </c>
       <c r="AG26"/>
       <c r="AH26"/>
       <c r="AI26"/>
       <c r="AJ26">
-        <v>38.1</v>
+        <v>107.67</v>
       </c>
       <c r="AK26">
-        <v>15.808</v>
+        <v>144.017</v>
       </c>
       <c r="AN26" s="3">
         <f t="shared" si="2"/>
-        <v>10710.526319999999</v>
+        <v>32434.008099999999</v>
       </c>
       <c r="AO26" s="3">
         <f t="shared" si="3"/>
-        <v>59995</v>
+        <v>144017</v>
       </c>
       <c r="AP26">
-        <v>33.465000000000003</v>
+        <v>25.382999999999999</v>
       </c>
       <c r="AQ26"/>
       <c r="AR26"/>
       <c r="AS26"/>
       <c r="AT26">
-        <v>22.186</v>
+        <v>29.318000000000001</v>
       </c>
       <c r="AU26">
-        <v>21.86</v>
+        <v>43.656999999999996</v>
       </c>
       <c r="AV26"/>
       <c r="AW26"/>
       <c r="AX26"/>
       <c r="AY26">
-        <v>44.978999999999999</v>
+        <v>53.186999999999998</v>
       </c>
       <c r="AZ26">
-        <v>70.772000000000006</v>
+        <v>65.466999999999999</v>
       </c>
       <c r="BC26" s="4">
         <f t="shared" si="4"/>
-        <v>21.86</v>
+        <v>25.382999999999999</v>
       </c>
       <c r="BD26" s="4">
         <f t="shared" si="5"/>
-        <v>70.772000000000006</v>
+        <v>65.466999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K27" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L27" s="1">
         <v>0.10100000000000001</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.107</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.185</v>
       </c>
       <c r="O27" s="3">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="Q27">
-        <v>2.2939271259999998</v>
+        <v>10.71052632</v>
       </c>
       <c r="R27"/>
       <c r="S27"/>
@@ -3316,93 +3368,93 @@
       <c r="Y27"/>
       <c r="Z27"/>
       <c r="AA27">
-        <v>2.74</v>
+        <v>47.642000000000003</v>
       </c>
       <c r="AB27"/>
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27">
-        <v>1.42</v>
+        <v>59.994999999999997</v>
       </c>
       <c r="AF27">
-        <v>2.91</v>
+        <v>13.94</v>
       </c>
       <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
       <c r="AJ27">
-        <v>4.1500000000000004</v>
+        <v>38.1</v>
       </c>
       <c r="AK27">
-        <v>7.8940000000000001</v>
+        <v>15.808</v>
       </c>
       <c r="AN27" s="3">
         <f t="shared" si="2"/>
-        <v>1420</v>
+        <v>10710.526319999999</v>
       </c>
       <c r="AO27" s="3">
         <f t="shared" si="3"/>
-        <v>7894</v>
+        <v>59995</v>
       </c>
       <c r="AP27">
-        <v>2.4449999999999998</v>
+        <v>33.465000000000003</v>
       </c>
       <c r="AQ27"/>
       <c r="AR27"/>
       <c r="AS27"/>
       <c r="AT27">
-        <v>3.5190000000000001</v>
+        <v>22.186</v>
       </c>
       <c r="AU27">
-        <v>7.7569999999999997</v>
+        <v>21.86</v>
       </c>
       <c r="AV27"/>
       <c r="AW27"/>
       <c r="AX27"/>
       <c r="AY27">
-        <v>12.180999999999999</v>
+        <v>44.978999999999999</v>
       </c>
       <c r="AZ27">
-        <v>38.459000000000003</v>
+        <v>70.772000000000006</v>
       </c>
       <c r="BC27" s="4">
         <f t="shared" si="4"/>
-        <v>2.4449999999999998</v>
+        <v>21.86</v>
       </c>
       <c r="BD27" s="4">
         <f t="shared" si="5"/>
-        <v>38.459000000000003</v>
+        <v>70.772000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
-        <v>0.16900000000000001</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>8.1000000000000003E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>0.17899999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="K28" s="1">
-        <v>0.127</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="1">
-        <v>0.13300000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q28">
-        <v>0.45910931169999902</v>
+        <v>2.2939271259999998</v>
       </c>
       <c r="R28"/>
       <c r="S28"/>
@@ -3414,93 +3466,93 @@
       <c r="Y28"/>
       <c r="Z28"/>
       <c r="AA28">
-        <v>1.7829999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="AB28"/>
       <c r="AC28"/>
       <c r="AD28"/>
       <c r="AE28">
-        <v>1.036</v>
+        <v>1.42</v>
       </c>
       <c r="AF28">
-        <v>3.2559999999999998</v>
+        <v>2.91</v>
       </c>
       <c r="AG28"/>
       <c r="AH28"/>
       <c r="AI28"/>
       <c r="AJ28">
-        <v>2.931</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="AK28">
-        <v>3.3079999999999998</v>
+        <v>7.8940000000000001</v>
       </c>
       <c r="AN28" s="3">
         <f t="shared" si="2"/>
-        <v>459.10931169999901</v>
+        <v>1420</v>
       </c>
       <c r="AO28" s="3">
         <f t="shared" si="3"/>
-        <v>3308</v>
+        <v>7894</v>
       </c>
       <c r="AP28">
-        <v>15.082000000000001</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="AQ28"/>
       <c r="AR28"/>
       <c r="AS28"/>
       <c r="AT28">
-        <v>10.757999999999999</v>
+        <v>3.5190000000000001</v>
       </c>
       <c r="AU28">
-        <v>24.774999999999999</v>
+        <v>7.7569999999999997</v>
       </c>
       <c r="AV28"/>
       <c r="AW28"/>
       <c r="AX28"/>
       <c r="AY28">
-        <v>26.125</v>
+        <v>12.180999999999999</v>
       </c>
       <c r="AZ28">
-        <v>32.895000000000003</v>
+        <v>38.459000000000003</v>
       </c>
       <c r="BC28" s="4">
         <f t="shared" si="4"/>
-        <v>10.757999999999999</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="BD28" s="4">
         <f t="shared" si="5"/>
-        <v>32.895000000000003</v>
+        <v>38.459000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1">
-        <v>0.17199999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="F29" s="1">
-        <v>9.2999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>0.16600000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="K29" s="1">
-        <v>0.123</v>
+        <v>0.127</v>
       </c>
       <c r="L29" s="1">
-        <v>0.126</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="O29" s="3">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="P29" s="3">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q29">
-        <v>13.25708502</v>
+        <v>0.45910931169999902</v>
       </c>
       <c r="R29"/>
       <c r="S29"/>
@@ -3512,93 +3564,93 @@
       <c r="Y29"/>
       <c r="Z29"/>
       <c r="AA29">
-        <v>3.2709999999999999</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="AB29"/>
       <c r="AC29"/>
       <c r="AD29"/>
       <c r="AE29">
-        <v>5.8940000000000001</v>
+        <v>1.036</v>
       </c>
       <c r="AF29">
-        <v>7.84</v>
+        <v>3.2559999999999998</v>
       </c>
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
       <c r="AJ29">
-        <v>4.7270000000000003</v>
+        <v>2.931</v>
       </c>
       <c r="AK29">
-        <v>7.2519999999999998</v>
+        <v>3.3079999999999998</v>
       </c>
       <c r="AN29" s="3">
         <f t="shared" si="2"/>
-        <v>3271</v>
+        <v>459.10931169999901</v>
       </c>
       <c r="AO29" s="3">
         <f t="shared" si="3"/>
-        <v>13257.08502</v>
+        <v>3308</v>
       </c>
       <c r="AP29">
-        <v>43.4</v>
+        <v>15.082000000000001</v>
       </c>
       <c r="AQ29"/>
       <c r="AR29"/>
       <c r="AS29"/>
       <c r="AT29">
-        <v>98.608000000000004</v>
+        <v>10.757999999999999</v>
       </c>
       <c r="AU29">
-        <v>57.182000000000002</v>
+        <v>24.774999999999999</v>
       </c>
       <c r="AV29"/>
       <c r="AW29"/>
       <c r="AX29"/>
       <c r="AY29">
-        <v>72.350999999999999</v>
+        <v>26.125</v>
       </c>
       <c r="AZ29">
-        <v>86.457999999999998</v>
+        <v>32.895000000000003</v>
       </c>
       <c r="BC29" s="4">
         <f t="shared" si="4"/>
-        <v>43.4</v>
+        <v>10.757999999999999</v>
       </c>
       <c r="BD29" s="4">
         <f t="shared" si="5"/>
-        <v>98.608000000000004</v>
+        <v>32.895000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>0.16900000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="F30" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.16700000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="K30" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="L30" s="1">
-        <v>0.16300000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="O30" s="3">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="P30" s="3">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q30">
-        <v>1.7878542509999999</v>
+        <v>13.25708502</v>
       </c>
       <c r="R30"/>
       <c r="S30"/>
@@ -3610,93 +3662,93 @@
       <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30">
-        <v>4.9829999999999997</v>
+        <v>3.2709999999999999</v>
       </c>
       <c r="AB30"/>
       <c r="AC30"/>
       <c r="AD30"/>
       <c r="AE30">
-        <v>5.0999999999999996</v>
+        <v>5.8940000000000001</v>
       </c>
       <c r="AF30">
-        <v>11.503</v>
+        <v>7.84</v>
       </c>
       <c r="AG30"/>
       <c r="AH30"/>
       <c r="AI30"/>
       <c r="AJ30">
-        <v>10.055999999999999</v>
+        <v>4.7270000000000003</v>
       </c>
       <c r="AK30">
-        <v>11.477</v>
+        <v>7.2519999999999998</v>
       </c>
       <c r="AN30" s="3">
         <f t="shared" si="2"/>
-        <v>1787.854251</v>
+        <v>3271</v>
       </c>
       <c r="AO30" s="3">
         <f t="shared" si="3"/>
-        <v>11503</v>
+        <v>13257.08502</v>
       </c>
       <c r="AP30">
-        <v>19.190999999999999</v>
+        <v>43.4</v>
       </c>
       <c r="AQ30"/>
       <c r="AR30"/>
       <c r="AS30"/>
       <c r="AT30">
-        <v>21.356999999999999</v>
+        <v>98.608000000000004</v>
       </c>
       <c r="AU30">
-        <v>41.302</v>
+        <v>57.182000000000002</v>
       </c>
       <c r="AV30"/>
       <c r="AW30"/>
       <c r="AX30"/>
       <c r="AY30">
-        <v>55.914000000000001</v>
+        <v>72.350999999999999</v>
       </c>
       <c r="AZ30">
-        <v>62.790999999999997</v>
+        <v>86.457999999999998</v>
       </c>
       <c r="BC30" s="4">
         <f t="shared" si="4"/>
-        <v>19.190999999999999</v>
+        <v>43.4</v>
       </c>
       <c r="BD30" s="4">
         <f t="shared" si="5"/>
-        <v>62.790999999999997</v>
+        <v>98.608000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="F31" s="1">
-        <v>0.08</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G31" s="1">
-        <v>0.15</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="K31" s="1">
-        <v>0.107</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="L31" s="1">
-        <v>0.08</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="O31" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="P31" s="3">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q31">
-        <v>0.1072874494</v>
+        <v>1.7878542509999999</v>
       </c>
       <c r="R31"/>
       <c r="S31"/>
@@ -3708,93 +3760,93 @@
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31">
-        <v>3.42</v>
+        <v>4.9829999999999997</v>
       </c>
       <c r="AB31"/>
       <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31">
-        <v>2.0129999999999999</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AF31">
-        <v>3.2549999999999999</v>
+        <v>11.503</v>
       </c>
       <c r="AG31"/>
       <c r="AH31"/>
       <c r="AI31"/>
       <c r="AJ31">
-        <v>3.18</v>
+        <v>10.055999999999999</v>
       </c>
       <c r="AK31">
-        <v>4.74</v>
+        <v>11.477</v>
       </c>
       <c r="AN31" s="3">
         <f t="shared" si="2"/>
-        <v>107.2874494</v>
+        <v>1787.854251</v>
       </c>
       <c r="AO31" s="3">
         <f t="shared" si="3"/>
-        <v>4740</v>
+        <v>11503</v>
       </c>
       <c r="AP31">
-        <v>10.721</v>
+        <v>19.190999999999999</v>
       </c>
       <c r="AQ31"/>
       <c r="AR31"/>
       <c r="AS31"/>
       <c r="AT31">
-        <v>16.827000000000002</v>
+        <v>21.356999999999999</v>
       </c>
       <c r="AU31">
-        <v>20.849</v>
+        <v>41.302</v>
       </c>
       <c r="AV31"/>
       <c r="AW31"/>
       <c r="AX31"/>
       <c r="AY31">
-        <v>9.0500000000000007</v>
+        <v>55.914000000000001</v>
       </c>
       <c r="AZ31">
-        <v>11.273999999999999</v>
+        <v>62.790999999999997</v>
       </c>
       <c r="BC31" s="4">
         <f t="shared" si="4"/>
-        <v>9.0500000000000007</v>
+        <v>19.190999999999999</v>
       </c>
       <c r="BD31" s="4">
         <f t="shared" si="5"/>
-        <v>20.849</v>
+        <v>62.790999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>0.128</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G32" s="1">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K32" s="1">
-        <v>0.111</v>
+        <v>0.107</v>
       </c>
       <c r="L32" s="1">
-        <v>0.121</v>
+        <v>0.08</v>
       </c>
       <c r="O32" s="3">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="P32" s="3">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="Q32">
-        <v>0.66599190279999998</v>
+        <v>0.1072874494</v>
       </c>
       <c r="R32"/>
       <c r="S32"/>
@@ -3806,93 +3858,93 @@
       <c r="Y32"/>
       <c r="Z32"/>
       <c r="AA32">
-        <v>3.7050000000000001</v>
+        <v>3.42</v>
       </c>
       <c r="AB32"/>
       <c r="AC32"/>
       <c r="AD32"/>
       <c r="AE32">
-        <v>3.3180000000000001</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="AF32">
-        <v>5.6719999999999997</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
       <c r="AJ32">
-        <v>5.0389999999999997</v>
+        <v>3.18</v>
       </c>
       <c r="AK32">
-        <v>6.9619999999999997</v>
+        <v>4.74</v>
       </c>
       <c r="AN32" s="3">
         <f t="shared" si="2"/>
-        <v>665.99190279999993</v>
+        <v>107.2874494</v>
       </c>
       <c r="AO32" s="3">
         <f t="shared" si="3"/>
-        <v>6962</v>
+        <v>4740</v>
       </c>
       <c r="AP32">
-        <v>10.403</v>
+        <v>10.721</v>
       </c>
       <c r="AQ32"/>
       <c r="AR32"/>
       <c r="AS32"/>
       <c r="AT32">
-        <v>9.0139999999999993</v>
+        <v>16.827000000000002</v>
       </c>
       <c r="AU32">
-        <v>18.972999999999999</v>
+        <v>20.849</v>
       </c>
       <c r="AV32"/>
       <c r="AW32"/>
       <c r="AX32"/>
       <c r="AY32">
-        <v>17.678999999999998</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="AZ32">
-        <v>50.08</v>
+        <v>11.273999999999999</v>
       </c>
       <c r="BC32" s="4">
         <f t="shared" si="4"/>
-        <v>9.0139999999999993</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="BD32" s="4">
         <f t="shared" si="5"/>
-        <v>50.08</v>
+        <v>20.849</v>
       </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>0.127</v>
+        <v>0.128</v>
       </c>
       <c r="F33" s="1">
-        <v>0.112</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G33" s="1">
-        <v>9.4E-2</v>
+        <v>0.12</v>
       </c>
       <c r="K33" s="1">
-        <v>0.114</v>
+        <v>0.111</v>
       </c>
       <c r="L33" s="1">
-        <v>0.11700000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="O33" s="3">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P33" s="3">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q33">
-        <v>36.757085019999998</v>
+        <v>0.66599190279999998</v>
       </c>
       <c r="R33"/>
       <c r="S33"/>
@@ -3904,93 +3956,93 @@
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33">
-        <v>61.832999999999998</v>
+        <v>3.7050000000000001</v>
       </c>
       <c r="AB33"/>
       <c r="AC33"/>
       <c r="AD33"/>
       <c r="AE33">
-        <v>49.561</v>
+        <v>3.3180000000000001</v>
       </c>
       <c r="AF33">
-        <v>54.506999999999998</v>
+        <v>5.6719999999999997</v>
       </c>
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
       <c r="AJ33">
-        <v>47.069000000000003</v>
+        <v>5.0389999999999997</v>
       </c>
       <c r="AK33">
-        <v>45.951999999999998</v>
+        <v>6.9619999999999997</v>
       </c>
       <c r="AN33" s="3">
         <f t="shared" si="2"/>
-        <v>36757.085019999999</v>
+        <v>665.99190279999993</v>
       </c>
       <c r="AO33" s="3">
         <f t="shared" si="3"/>
-        <v>61833</v>
+        <v>6962</v>
       </c>
       <c r="AP33">
-        <v>19.670999999999999</v>
+        <v>10.403</v>
       </c>
       <c r="AQ33"/>
       <c r="AR33"/>
       <c r="AS33"/>
       <c r="AT33">
-        <v>21.297000000000001</v>
+        <v>9.0139999999999993</v>
       </c>
       <c r="AU33">
-        <v>27.279</v>
+        <v>18.972999999999999</v>
       </c>
       <c r="AV33"/>
       <c r="AW33"/>
       <c r="AX33"/>
       <c r="AY33">
-        <v>22.741</v>
+        <v>17.678999999999998</v>
       </c>
       <c r="AZ33">
-        <v>26.597999999999999</v>
+        <v>50.08</v>
       </c>
       <c r="BC33" s="4">
         <f t="shared" si="4"/>
-        <v>19.670999999999999</v>
+        <v>9.0139999999999993</v>
       </c>
       <c r="BD33" s="4">
         <f t="shared" si="5"/>
-        <v>27.279</v>
+        <v>50.08</v>
       </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.127</v>
       </c>
       <c r="F34" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.112</v>
       </c>
       <c r="G34" s="1">
-        <v>0.122</v>
+        <v>9.4E-2</v>
       </c>
       <c r="K34" s="1">
-        <v>5.7000000000000002E-2</v>
+        <v>0.114</v>
       </c>
       <c r="L34" s="1">
-        <v>6.3E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="O34" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="P34" s="3">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q34">
-        <v>0.43157894740000002</v>
+        <v>36.757085019999998</v>
       </c>
       <c r="R34"/>
       <c r="S34"/>
@@ -4002,93 +4054,93 @@
       <c r="Y34"/>
       <c r="Z34"/>
       <c r="AA34">
-        <v>0.45400000000000001</v>
+        <v>61.832999999999998</v>
       </c>
       <c r="AB34"/>
       <c r="AC34"/>
       <c r="AD34"/>
       <c r="AE34">
-        <v>0.12</v>
+        <v>49.561</v>
       </c>
       <c r="AF34">
-        <v>1.0449999999999999</v>
+        <v>54.506999999999998</v>
       </c>
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
       <c r="AJ34">
-        <v>0.68400000000000005</v>
+        <v>47.069000000000003</v>
       </c>
       <c r="AK34">
-        <v>0.72899999999999998</v>
+        <v>45.951999999999998</v>
       </c>
       <c r="AN34" s="3">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>36757.085019999999</v>
       </c>
       <c r="AO34" s="3">
         <f t="shared" si="3"/>
-        <v>1045</v>
+        <v>61833</v>
       </c>
       <c r="AP34">
-        <v>5.1630000000000003</v>
+        <v>19.670999999999999</v>
       </c>
       <c r="AQ34"/>
       <c r="AR34"/>
       <c r="AS34"/>
       <c r="AT34">
-        <v>1.1559999999999999</v>
+        <v>21.297000000000001</v>
       </c>
       <c r="AU34">
-        <v>3.6819999999999999</v>
+        <v>27.279</v>
       </c>
       <c r="AV34"/>
       <c r="AW34"/>
       <c r="AX34"/>
       <c r="AY34">
-        <v>6.9429999999999996</v>
+        <v>22.741</v>
       </c>
       <c r="AZ34">
-        <v>6.1520000000000001</v>
+        <v>26.597999999999999</v>
       </c>
       <c r="BC34" s="4">
         <f t="shared" si="4"/>
-        <v>1.1559999999999999</v>
+        <v>19.670999999999999</v>
       </c>
       <c r="BD34" s="4">
         <f t="shared" si="5"/>
-        <v>6.9429999999999996</v>
+        <v>27.279</v>
       </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G35" s="1">
         <v>0.122</v>
       </c>
-      <c r="F35" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G35" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
       <c r="K35" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="L35" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="O35" s="3">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="P35" s="3">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="Q35">
-        <v>0.54008097169999902</v>
+        <v>0.43157894740000002</v>
       </c>
       <c r="R35"/>
       <c r="S35"/>
@@ -4100,93 +4152,93 @@
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35">
-        <v>1.3480000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="AB35"/>
       <c r="AC35"/>
       <c r="AD35"/>
       <c r="AE35">
-        <v>0.66500000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="AF35">
-        <v>1.077</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
       <c r="AJ35">
-        <v>0.61599999999999999</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="AK35">
-        <v>1.5940000000000001</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="AN35" s="3">
         <f t="shared" si="2"/>
-        <v>540.08097169999905</v>
+        <v>120</v>
       </c>
       <c r="AO35" s="3">
         <f t="shared" si="3"/>
-        <v>1594</v>
+        <v>1045</v>
       </c>
       <c r="AP35">
-        <v>2.6019999999999999</v>
+        <v>5.1630000000000003</v>
       </c>
       <c r="AQ35"/>
       <c r="AR35"/>
       <c r="AS35"/>
       <c r="AT35">
-        <v>6.375</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="AU35">
-        <v>7.7859999999999996</v>
+        <v>3.6819999999999999</v>
       </c>
       <c r="AV35"/>
       <c r="AW35"/>
       <c r="AX35"/>
       <c r="AY35">
-        <v>8.8309999999999995</v>
+        <v>6.9429999999999996</v>
       </c>
       <c r="AZ35">
-        <v>26.245999999999999</v>
+        <v>6.1520000000000001</v>
       </c>
       <c r="BC35" s="4">
         <f t="shared" si="4"/>
-        <v>2.6019999999999999</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="BD35" s="4">
         <f t="shared" si="5"/>
-        <v>26.245999999999999</v>
+        <v>6.9429999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1">
-        <v>0.1</v>
+        <v>0.122</v>
       </c>
       <c r="F36" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>0.11700000000000001</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="K36" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="L36" s="1">
-        <v>0.10199999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" ref="O36:O53" si="6">MIN(F36:L36)*1000</f>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" ref="P36:P53" si="7">MAX(B36:L36)*1000</f>
-        <v>117</v>
+        <f t="shared" si="1"/>
+        <v>122</v>
       </c>
       <c r="Q36">
-        <v>0.23157894740000001</v>
+        <v>0.54008097169999902</v>
       </c>
       <c r="R36"/>
       <c r="S36"/>
@@ -4198,93 +4250,93 @@
       <c r="Y36"/>
       <c r="Z36"/>
       <c r="AA36">
-        <v>1.8360000000000001</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="AB36"/>
       <c r="AC36"/>
       <c r="AD36"/>
       <c r="AE36">
-        <v>0.66100000000000003</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="AF36">
-        <v>3.637</v>
+        <v>1.077</v>
       </c>
       <c r="AG36"/>
       <c r="AH36"/>
       <c r="AI36"/>
       <c r="AJ36">
-        <v>2.1640000000000001</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="AK36">
-        <v>2.883</v>
+        <v>1.5940000000000001</v>
       </c>
       <c r="AN36" s="3">
-        <f t="shared" ref="AN36:AN53" si="8">MIN(Q36:AK36)*1000</f>
-        <v>231.5789474</v>
+        <f t="shared" si="2"/>
+        <v>540.08097169999905</v>
       </c>
       <c r="AO36" s="3">
-        <f t="shared" ref="AO36:AO53" si="9">MAX(Q36:AK36)*1000</f>
-        <v>3637</v>
+        <f t="shared" si="3"/>
+        <v>1594</v>
       </c>
       <c r="AP36">
-        <v>5.8460000000000001</v>
+        <v>2.6019999999999999</v>
       </c>
       <c r="AQ36"/>
       <c r="AR36"/>
       <c r="AS36"/>
       <c r="AT36">
-        <v>12.565</v>
+        <v>6.375</v>
       </c>
       <c r="AU36">
-        <v>12.456</v>
+        <v>7.7859999999999996</v>
       </c>
       <c r="AV36"/>
       <c r="AW36"/>
       <c r="AX36"/>
       <c r="AY36">
-        <v>48.232999999999997</v>
+        <v>8.8309999999999995</v>
       </c>
       <c r="AZ36">
-        <v>52.212000000000003</v>
+        <v>26.245999999999999</v>
       </c>
       <c r="BC36" s="4">
-        <f t="shared" ref="BC36:BC53" si="10">MIN(AP36:AZ36)</f>
-        <v>5.8460000000000001</v>
+        <f t="shared" si="4"/>
+        <v>2.6019999999999999</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" ref="BD36:BD53" si="11">MAX(AP36:AZ36)</f>
-        <v>52.212000000000003</v>
+        <f t="shared" si="5"/>
+        <v>26.245999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
-        <v>0.108</v>
+        <v>0.1</v>
       </c>
       <c r="F37" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G37" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K37" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K37" s="1">
-        <v>8.5999999999999993E-2</v>
-      </c>
       <c r="L37" s="1">
-        <v>0.11</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <f t="shared" ref="O37:O54" si="6">MIN(F37:L37)*1000</f>
+        <v>41</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="7"/>
-        <v>110</v>
+        <f t="shared" ref="P37:P54" si="7">MAX(B37:L37)*1000</f>
+        <v>117</v>
       </c>
       <c r="Q37">
-        <v>9.84372469599999</v>
+        <v>0.23157894740000001</v>
       </c>
       <c r="R37"/>
       <c r="S37"/>
@@ -4296,91 +4348,93 @@
       <c r="Y37"/>
       <c r="Z37"/>
       <c r="AA37">
-        <v>21.513999999999999</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="AB37"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37">
-        <v>22.824000000000002</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="AF37">
-        <v>17.052</v>
+        <v>3.637</v>
       </c>
       <c r="AG37"/>
       <c r="AH37"/>
       <c r="AI37"/>
       <c r="AJ37">
-        <v>21.937999999999999</v>
+        <v>2.1640000000000001</v>
       </c>
       <c r="AK37">
-        <v>34.68</v>
+        <v>2.883</v>
       </c>
       <c r="AN37" s="3">
-        <f t="shared" si="8"/>
-        <v>9843.7246959999902</v>
+        <f t="shared" ref="AN37:AN54" si="8">MIN(Q37:AK37)*1000</f>
+        <v>231.5789474</v>
       </c>
       <c r="AO37" s="3">
-        <f t="shared" si="9"/>
-        <v>34680</v>
+        <f t="shared" ref="AO37:AO54" si="9">MAX(Q37:AK37)*1000</f>
+        <v>3637</v>
       </c>
       <c r="AP37">
-        <v>14.465999999999999</v>
+        <v>5.8460000000000001</v>
       </c>
       <c r="AQ37"/>
       <c r="AR37"/>
       <c r="AS37"/>
-      <c r="AT37"/>
+      <c r="AT37">
+        <v>12.565</v>
+      </c>
       <c r="AU37">
-        <v>17.215</v>
+        <v>12.456</v>
       </c>
       <c r="AV37"/>
       <c r="AW37"/>
       <c r="AX37"/>
       <c r="AY37">
-        <v>50.02</v>
+        <v>48.232999999999997</v>
       </c>
       <c r="AZ37">
-        <v>69.048000000000002</v>
+        <v>52.212000000000003</v>
       </c>
       <c r="BC37" s="4">
-        <f t="shared" si="10"/>
-        <v>14.465999999999999</v>
+        <f t="shared" ref="BC37:BC54" si="10">MIN(AP37:AZ37)</f>
+        <v>5.8460000000000001</v>
       </c>
       <c r="BD37" s="4">
-        <f t="shared" si="11"/>
-        <v>69.048000000000002</v>
+        <f t="shared" ref="BD37:BD54" si="11">MAX(AP37:AZ37)</f>
+        <v>52.212000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1">
-        <v>0.10299999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="F38" s="1">
-        <v>7.6999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.08</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="K38" s="1">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="L38" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>0.11</v>
       </c>
       <c r="O38" s="3">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P38" s="3">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q38">
-        <v>13.084615379999899</v>
+        <v>9.84372469599999</v>
       </c>
       <c r="R38"/>
       <c r="S38"/>
@@ -4392,93 +4446,91 @@
       <c r="Y38"/>
       <c r="Z38"/>
       <c r="AA38">
-        <v>53.46</v>
+        <v>21.513999999999999</v>
       </c>
       <c r="AB38"/>
       <c r="AC38"/>
       <c r="AD38"/>
       <c r="AE38">
-        <v>40.505000000000003</v>
+        <v>22.824000000000002</v>
       </c>
       <c r="AF38">
-        <v>31.725999999999999</v>
+        <v>17.052</v>
       </c>
       <c r="AG38"/>
       <c r="AH38"/>
       <c r="AI38"/>
       <c r="AJ38">
-        <v>46.856000000000002</v>
+        <v>21.937999999999999</v>
       </c>
       <c r="AK38">
-        <v>29.617000000000001</v>
+        <v>34.68</v>
       </c>
       <c r="AN38" s="3">
         <f t="shared" si="8"/>
-        <v>13084.615379999899</v>
+        <v>9843.7246959999902</v>
       </c>
       <c r="AO38" s="3">
         <f t="shared" si="9"/>
-        <v>53460</v>
+        <v>34680</v>
       </c>
       <c r="AP38">
-        <v>15.148</v>
+        <v>14.465999999999999</v>
       </c>
       <c r="AQ38"/>
       <c r="AR38"/>
       <c r="AS38"/>
-      <c r="AT38">
-        <v>11.4</v>
-      </c>
+      <c r="AT38"/>
       <c r="AU38">
-        <v>16</v>
+        <v>17.215</v>
       </c>
       <c r="AV38"/>
       <c r="AW38"/>
       <c r="AX38"/>
       <c r="AY38">
-        <v>17.32</v>
+        <v>50.02</v>
       </c>
       <c r="AZ38">
-        <v>14.42</v>
+        <v>69.048000000000002</v>
       </c>
       <c r="BC38" s="4">
         <f t="shared" si="10"/>
-        <v>11.4</v>
+        <v>14.465999999999999</v>
       </c>
       <c r="BD38" s="4">
         <f t="shared" si="11"/>
-        <v>17.32</v>
+        <v>69.048000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>9.2999999999999999E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F39" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="K39" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="L39" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="O39" s="3">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="P39" s="3">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Q39">
-        <v>8.1842105259999993</v>
+        <v>13.084615379999899</v>
       </c>
       <c r="R39"/>
       <c r="S39"/>
@@ -4490,93 +4542,93 @@
       <c r="Y39"/>
       <c r="Z39"/>
       <c r="AA39">
-        <v>58.392000000000003</v>
+        <v>53.46</v>
       </c>
       <c r="AB39"/>
       <c r="AC39"/>
       <c r="AD39"/>
       <c r="AE39">
-        <v>31.475999999999999</v>
+        <v>40.505000000000003</v>
       </c>
       <c r="AF39">
-        <v>48.76</v>
+        <v>31.725999999999999</v>
       </c>
       <c r="AG39"/>
       <c r="AH39"/>
       <c r="AI39"/>
       <c r="AJ39">
-        <v>39.628</v>
+        <v>46.856000000000002</v>
       </c>
       <c r="AK39">
-        <v>38.295999999999999</v>
+        <v>29.617000000000001</v>
       </c>
       <c r="AN39" s="3">
         <f t="shared" si="8"/>
-        <v>8184.2105259999989</v>
+        <v>13084.615379999899</v>
       </c>
       <c r="AO39" s="3">
         <f t="shared" si="9"/>
-        <v>58392</v>
+        <v>53460</v>
       </c>
       <c r="AP39">
-        <v>12.757</v>
+        <v>15.148</v>
       </c>
       <c r="AQ39"/>
       <c r="AR39"/>
       <c r="AS39"/>
       <c r="AT39">
-        <v>11.225</v>
+        <v>11.4</v>
       </c>
       <c r="AU39">
-        <v>18.457999999999998</v>
+        <v>16</v>
       </c>
       <c r="AV39"/>
       <c r="AW39"/>
       <c r="AX39"/>
       <c r="AY39">
-        <v>26.117999999999999</v>
+        <v>17.32</v>
       </c>
       <c r="AZ39">
-        <v>26.902999999999999</v>
+        <v>14.42</v>
       </c>
       <c r="BC39" s="4">
         <f t="shared" si="10"/>
-        <v>11.225</v>
+        <v>11.4</v>
       </c>
       <c r="BD39" s="4">
         <f t="shared" si="11"/>
-        <v>26.902999999999999</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F40" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="K40" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L40" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="O40" s="3">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P40" s="3">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q40">
-        <v>1.6161943320000001</v>
+        <v>8.1842105259999993</v>
       </c>
       <c r="R40"/>
       <c r="S40"/>
@@ -4588,91 +4640,93 @@
       <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40">
-        <v>11.98</v>
+        <v>58.392000000000003</v>
       </c>
       <c r="AB40"/>
       <c r="AC40"/>
       <c r="AD40"/>
       <c r="AE40">
-        <v>5.8380000000000001</v>
+        <v>31.475999999999999</v>
       </c>
       <c r="AF40">
-        <v>4.4489999999999998</v>
+        <v>48.76</v>
       </c>
       <c r="AG40"/>
       <c r="AH40"/>
       <c r="AI40"/>
       <c r="AJ40">
-        <v>7.2880000000000003</v>
+        <v>39.628</v>
       </c>
       <c r="AK40">
-        <v>6.5030000000000001</v>
+        <v>38.295999999999999</v>
       </c>
       <c r="AN40" s="3">
         <f t="shared" si="8"/>
-        <v>1616.194332</v>
+        <v>8184.2105259999989</v>
       </c>
       <c r="AO40" s="3">
         <f t="shared" si="9"/>
-        <v>11980</v>
+        <v>58392</v>
       </c>
       <c r="AP40">
-        <v>5.6040000000000001</v>
+        <v>12.757</v>
       </c>
       <c r="AQ40"/>
       <c r="AR40"/>
       <c r="AS40"/>
       <c r="AT40">
-        <v>1.3380000000000001</v>
-      </c>
-      <c r="AU40"/>
+        <v>11.225</v>
+      </c>
+      <c r="AU40">
+        <v>18.457999999999998</v>
+      </c>
       <c r="AV40"/>
       <c r="AW40"/>
       <c r="AX40"/>
       <c r="AY40">
-        <v>4.6079999999999997</v>
+        <v>26.117999999999999</v>
       </c>
       <c r="AZ40">
-        <v>10.151999999999999</v>
+        <v>26.902999999999999</v>
       </c>
       <c r="BC40" s="4">
         <f t="shared" si="10"/>
-        <v>1.3380000000000001</v>
+        <v>11.225</v>
       </c>
       <c r="BD40" s="4">
         <f t="shared" si="11"/>
-        <v>10.151999999999999</v>
+        <v>26.902999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1">
-        <v>8.3000000000000004E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="F41" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K41" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="L41" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="O41" s="3">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P41" s="3">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q41">
-        <v>0.54696356280000002</v>
+        <v>1.6161943320000001</v>
       </c>
       <c r="R41"/>
       <c r="S41"/>
@@ -4684,91 +4738,91 @@
       <c r="Y41"/>
       <c r="Z41"/>
       <c r="AA41">
-        <v>0.81</v>
+        <v>11.98</v>
       </c>
       <c r="AB41"/>
       <c r="AC41"/>
       <c r="AD41"/>
       <c r="AE41">
-        <v>0.625</v>
+        <v>5.8380000000000001</v>
       </c>
       <c r="AF41">
-        <v>1.4850000000000001</v>
+        <v>4.4489999999999998</v>
       </c>
       <c r="AG41"/>
       <c r="AH41"/>
       <c r="AI41"/>
       <c r="AJ41">
-        <v>1.3520000000000001</v>
+        <v>7.2880000000000003</v>
       </c>
       <c r="AK41">
-        <v>2.0230000000000001</v>
+        <v>6.5030000000000001</v>
       </c>
       <c r="AN41" s="3">
         <f t="shared" si="8"/>
-        <v>546.96356279999998</v>
+        <v>1616.194332</v>
       </c>
       <c r="AO41" s="3">
         <f t="shared" si="9"/>
-        <v>2023.0000000000002</v>
+        <v>11980</v>
       </c>
       <c r="AP41">
-        <v>1.226</v>
+        <v>5.6040000000000001</v>
       </c>
       <c r="AQ41"/>
       <c r="AR41"/>
       <c r="AS41"/>
-      <c r="AT41"/>
-      <c r="AU41">
-        <v>4.0229999999999997</v>
-      </c>
+      <c r="AT41">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="AU41"/>
       <c r="AV41"/>
       <c r="AW41"/>
       <c r="AX41"/>
       <c r="AY41">
-        <v>5.6139999999999999</v>
+        <v>4.6079999999999997</v>
       </c>
       <c r="AZ41">
-        <v>9.0310000000000006</v>
+        <v>10.151999999999999</v>
       </c>
       <c r="BC41" s="4">
         <f t="shared" si="10"/>
-        <v>1.226</v>
+        <v>1.3380000000000001</v>
       </c>
       <c r="BD41" s="4">
         <f t="shared" si="11"/>
-        <v>9.0310000000000006</v>
+        <v>10.151999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F42" s="1">
-        <v>0.01</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G42" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K42" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="L42" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="O42" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P42" s="3">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Q42">
-        <v>0.40364372469999998</v>
+        <v>0.54696356280000002</v>
       </c>
       <c r="R42"/>
       <c r="S42"/>
@@ -4780,97 +4834,91 @@
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AA42">
-        <v>2.5529999999999999</v>
+        <v>0.81</v>
       </c>
       <c r="AB42"/>
       <c r="AC42"/>
       <c r="AD42"/>
       <c r="AE42">
-        <v>1.1459999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="AF42">
-        <v>0.32800000000000001</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="AG42"/>
       <c r="AH42"/>
       <c r="AI42"/>
       <c r="AJ42">
-        <v>1.9710000000000001</v>
+        <v>1.3520000000000001</v>
       </c>
       <c r="AK42">
-        <v>8.5060000000000002</v>
+        <v>2.0230000000000001</v>
       </c>
       <c r="AN42" s="3">
         <f t="shared" si="8"/>
-        <v>328</v>
+        <v>546.96356279999998</v>
       </c>
       <c r="AO42" s="3">
         <f t="shared" si="9"/>
-        <v>8506</v>
+        <v>2023.0000000000002</v>
       </c>
       <c r="AP42">
-        <v>12.848000000000001</v>
+        <v>1.226</v>
       </c>
       <c r="AQ42"/>
       <c r="AR42"/>
       <c r="AS42"/>
       <c r="AT42"/>
-      <c r="AU42"/>
+      <c r="AU42">
+        <v>4.0229999999999997</v>
+      </c>
       <c r="AV42"/>
       <c r="AW42"/>
       <c r="AX42"/>
       <c r="AY42">
-        <v>39.768000000000001</v>
+        <v>5.6139999999999999</v>
       </c>
       <c r="AZ42">
-        <v>55.331000000000003</v>
+        <v>9.0310000000000006</v>
       </c>
       <c r="BC42" s="4">
         <f t="shared" si="10"/>
-        <v>12.848000000000001</v>
+        <v>1.226</v>
       </c>
       <c r="BD42" s="4">
         <f t="shared" si="11"/>
-        <v>55.331000000000003</v>
+        <v>9.0310000000000006</v>
       </c>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="12">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="G43" s="12">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="L43" s="12">
+      <c r="A43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K43" s="1">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="13">
+      <c r="L43" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="O43" s="3">
         <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="P43" s="13">
+        <v>10</v>
+      </c>
+      <c r="P43" s="3">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q43">
-        <v>3.0364372469999901E-2</v>
+        <v>0.40364372469999998</v>
       </c>
       <c r="R43"/>
       <c r="S43"/>
@@ -4882,97 +4930,97 @@
       <c r="Y43"/>
       <c r="Z43"/>
       <c r="AA43">
-        <v>274.149</v>
+        <v>2.5529999999999999</v>
       </c>
       <c r="AB43"/>
       <c r="AC43"/>
       <c r="AD43"/>
       <c r="AE43">
-        <v>289.601</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="AF43">
-        <v>52.024999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
       <c r="AJ43">
-        <v>48.512</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="AK43">
-        <v>52.658999999999999</v>
-      </c>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="12"/>
-      <c r="AN43" s="13">
+        <v>8.5060000000000002</v>
+      </c>
+      <c r="AN43" s="3">
         <f t="shared" si="8"/>
-        <v>30.3643724699999</v>
-      </c>
-      <c r="AO43" s="13">
+        <v>328</v>
+      </c>
+      <c r="AO43" s="3">
         <f t="shared" si="9"/>
-        <v>289601</v>
+        <v>8506</v>
       </c>
       <c r="AP43">
-        <v>13.523</v>
+        <v>12.848000000000001</v>
       </c>
       <c r="AQ43"/>
       <c r="AR43"/>
       <c r="AS43"/>
-      <c r="AT43">
-        <v>17.954999999999998</v>
-      </c>
-      <c r="AU43">
-        <v>16.713000000000001</v>
-      </c>
+      <c r="AT43"/>
+      <c r="AU43"/>
       <c r="AV43"/>
       <c r="AW43"/>
       <c r="AX43"/>
       <c r="AY43">
-        <v>15.061999999999999</v>
+        <v>39.768000000000001</v>
       </c>
       <c r="AZ43">
-        <v>15.638999999999999</v>
-      </c>
-      <c r="BA43" s="12"/>
-      <c r="BB43" s="12"/>
-      <c r="BC43" s="15">
+        <v>55.331000000000003</v>
+      </c>
+      <c r="BC43" s="4">
         <f t="shared" si="10"/>
-        <v>13.523</v>
-      </c>
-      <c r="BD43" s="15">
+        <v>12.848000000000001</v>
+      </c>
+      <c r="BD43" s="4">
         <f t="shared" si="11"/>
-        <v>17.954999999999998</v>
+        <v>55.331000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="A44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="12">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="K44" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L44" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G44" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L44" s="12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="13">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="P44" s="3">
+        <v>43</v>
+      </c>
+      <c r="P44" s="13">
         <f t="shared" si="7"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q44">
-        <v>3.9194331980000001</v>
+        <v>3.0364372469999901E-2</v>
       </c>
       <c r="R44"/>
       <c r="S44"/>
@@ -4984,93 +5032,97 @@
       <c r="Y44"/>
       <c r="Z44"/>
       <c r="AA44">
-        <v>8.5009999999999994</v>
+        <v>274.149</v>
       </c>
       <c r="AB44"/>
       <c r="AC44"/>
       <c r="AD44"/>
       <c r="AE44">
-        <v>5.9790000000000001</v>
+        <v>289.601</v>
       </c>
       <c r="AF44">
-        <v>7.2110000000000003</v>
+        <v>52.024999999999999</v>
       </c>
       <c r="AG44"/>
       <c r="AH44"/>
       <c r="AI44"/>
       <c r="AJ44">
-        <v>13.429</v>
+        <v>48.512</v>
       </c>
       <c r="AK44">
-        <v>10.808999999999999</v>
-      </c>
-      <c r="AN44" s="3">
+        <v>52.658999999999999</v>
+      </c>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="13">
         <f t="shared" si="8"/>
-        <v>3919.4331980000002</v>
-      </c>
-      <c r="AO44" s="3">
+        <v>30.3643724699999</v>
+      </c>
+      <c r="AO44" s="13">
         <f t="shared" si="9"/>
-        <v>13429</v>
+        <v>289601</v>
       </c>
       <c r="AP44">
-        <v>42.076999999999998</v>
+        <v>13.523</v>
       </c>
       <c r="AQ44"/>
       <c r="AR44"/>
       <c r="AS44"/>
       <c r="AT44">
-        <v>77.093000000000004</v>
+        <v>17.954999999999998</v>
       </c>
       <c r="AU44">
-        <v>93.465000000000003</v>
+        <v>16.713000000000001</v>
       </c>
       <c r="AV44"/>
       <c r="AW44"/>
       <c r="AX44"/>
       <c r="AY44">
-        <v>117.79</v>
+        <v>15.061999999999999</v>
       </c>
       <c r="AZ44">
-        <v>202.506</v>
-      </c>
-      <c r="BC44" s="4">
+        <v>15.638999999999999</v>
+      </c>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BC44" s="15">
         <f t="shared" si="10"/>
-        <v>42.076999999999998</v>
-      </c>
-      <c r="BD44" s="4">
+        <v>13.523</v>
+      </c>
+      <c r="BD44" s="15">
         <f t="shared" si="11"/>
-        <v>202.506</v>
+        <v>17.954999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F45" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G45" s="1">
-        <v>2.4E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="K45" s="1">
-        <v>1.4E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="L45" s="1">
-        <v>2.7E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" si="7"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Q45">
-        <v>0.2967611336</v>
+        <v>3.9194331980000001</v>
       </c>
       <c r="R45"/>
       <c r="S45"/>
@@ -5082,91 +5134,93 @@
       <c r="Y45"/>
       <c r="Z45"/>
       <c r="AA45">
-        <v>0.79100000000000004</v>
+        <v>8.5009999999999994</v>
       </c>
       <c r="AB45"/>
       <c r="AC45"/>
       <c r="AD45"/>
       <c r="AE45">
-        <v>9.0999999999999998E-2</v>
+        <v>5.9790000000000001</v>
       </c>
       <c r="AF45">
-        <v>0.85799999999999998</v>
+        <v>7.2110000000000003</v>
       </c>
       <c r="AG45"/>
       <c r="AH45"/>
       <c r="AI45"/>
       <c r="AJ45">
-        <v>0.95599999999999996</v>
+        <v>13.429</v>
       </c>
       <c r="AK45">
-        <v>1.236</v>
+        <v>10.808999999999999</v>
       </c>
       <c r="AN45" s="3">
         <f t="shared" si="8"/>
-        <v>91</v>
+        <v>3919.4331980000002</v>
       </c>
       <c r="AO45" s="3">
         <f t="shared" si="9"/>
-        <v>1236</v>
+        <v>13429</v>
       </c>
       <c r="AP45">
-        <v>0.40899999999999997</v>
+        <v>42.076999999999998</v>
       </c>
       <c r="AQ45"/>
       <c r="AR45"/>
       <c r="AS45"/>
       <c r="AT45">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="AU45"/>
+        <v>77.093000000000004</v>
+      </c>
+      <c r="AU45">
+        <v>93.465000000000003</v>
+      </c>
       <c r="AV45"/>
       <c r="AW45"/>
       <c r="AX45"/>
       <c r="AY45">
-        <v>2.0249999999999999</v>
+        <v>117.79</v>
       </c>
       <c r="AZ45">
-        <v>13.353999999999999</v>
+        <v>202.506</v>
       </c>
       <c r="BC45" s="4">
         <f t="shared" si="10"/>
-        <v>0.13500000000000001</v>
+        <v>42.076999999999998</v>
       </c>
       <c r="BD45" s="4">
         <f t="shared" si="11"/>
-        <v>13.353999999999999</v>
+        <v>202.506</v>
       </c>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F46" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G46" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="K46" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="L46" s="1">
-        <v>0.04</v>
+        <v>2.7E-2</v>
       </c>
       <c r="O46" s="3">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="P46" s="3">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q46">
-        <v>0.1032388664</v>
+        <v>0.2967611336</v>
       </c>
       <c r="R46"/>
       <c r="S46"/>
@@ -5178,93 +5232,91 @@
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AA46">
-        <v>1.681</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="AB46"/>
       <c r="AC46"/>
       <c r="AD46"/>
       <c r="AE46">
-        <v>2.6920000000000002</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="AF46">
-        <v>2.86</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="AG46"/>
       <c r="AH46"/>
       <c r="AI46"/>
       <c r="AJ46">
-        <v>4.9390000000000001</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="AK46">
-        <v>39.622999999999998</v>
+        <v>1.236</v>
       </c>
       <c r="AN46" s="3">
         <f t="shared" si="8"/>
-        <v>103.23886640000001</v>
+        <v>91</v>
       </c>
       <c r="AO46" s="3">
         <f t="shared" si="9"/>
-        <v>39623</v>
+        <v>1236</v>
       </c>
       <c r="AP46">
-        <v>2.8010000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="AQ46"/>
       <c r="AR46"/>
       <c r="AS46"/>
       <c r="AT46">
-        <v>2.0350000000000001</v>
-      </c>
-      <c r="AU46">
-        <v>20.414000000000001</v>
-      </c>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AU46"/>
       <c r="AV46"/>
       <c r="AW46"/>
       <c r="AX46"/>
       <c r="AY46">
-        <v>29.091000000000001</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="AZ46">
-        <v>66.802999999999997</v>
+        <v>13.353999999999999</v>
       </c>
       <c r="BC46" s="4">
         <f t="shared" si="10"/>
-        <v>2.0350000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="BD46" s="4">
         <f t="shared" si="11"/>
-        <v>66.802999999999997</v>
+        <v>13.353999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K47" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F47" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G47" s="1">
-        <v>4.7E-2</v>
-      </c>
-      <c r="K47" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
       <c r="L47" s="1">
-        <v>3.9E-2</v>
+        <v>0.04</v>
       </c>
       <c r="O47" s="3">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="P47" s="3">
         <f t="shared" si="7"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q47">
-        <v>1.6599190279999999E-2</v>
+        <v>0.1032388664</v>
       </c>
       <c r="R47"/>
       <c r="S47"/>
@@ -5276,89 +5328,93 @@
       <c r="Y47"/>
       <c r="Z47"/>
       <c r="AA47">
-        <v>0.41499999999999998</v>
+        <v>1.681</v>
       </c>
       <c r="AB47"/>
       <c r="AC47"/>
       <c r="AD47"/>
       <c r="AE47">
-        <v>0.315</v>
+        <v>2.6920000000000002</v>
       </c>
       <c r="AF47">
-        <v>1.089</v>
+        <v>2.86</v>
       </c>
       <c r="AG47"/>
       <c r="AH47"/>
       <c r="AI47"/>
       <c r="AJ47">
-        <v>1.28</v>
+        <v>4.9390000000000001</v>
       </c>
       <c r="AK47">
-        <v>1.946</v>
+        <v>39.622999999999998</v>
       </c>
       <c r="AN47" s="3">
         <f t="shared" si="8"/>
-        <v>16.599190279999998</v>
+        <v>103.23886640000001</v>
       </c>
       <c r="AO47" s="3">
         <f t="shared" si="9"/>
-        <v>1946</v>
+        <v>39623</v>
       </c>
       <c r="AP47">
-        <v>1.714</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="AQ47"/>
       <c r="AR47"/>
       <c r="AS47"/>
-      <c r="AT47"/>
-      <c r="AU47"/>
+      <c r="AT47">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="AU47">
+        <v>20.414000000000001</v>
+      </c>
       <c r="AV47"/>
       <c r="AW47"/>
       <c r="AX47"/>
       <c r="AY47">
-        <v>11.553000000000001</v>
+        <v>29.091000000000001</v>
       </c>
       <c r="AZ47">
-        <v>21.68</v>
+        <v>66.802999999999997</v>
       </c>
       <c r="BC47" s="4">
         <f t="shared" si="10"/>
-        <v>1.714</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="BD47" s="4">
         <f t="shared" si="11"/>
-        <v>21.68</v>
+        <v>66.802999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1">
-        <v>3.1E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F48" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G48" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="K48" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="L48" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O48" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P48" s="3">
         <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="Q48" s="16">
-        <v>4.0485830000000001E-4</v>
+        <v>47</v>
+      </c>
+      <c r="Q48">
+        <v>1.6599190279999999E-2</v>
       </c>
       <c r="R48"/>
       <c r="S48"/>
@@ -5370,84 +5426,90 @@
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AA48">
-        <v>0.438</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="AB48"/>
       <c r="AC48"/>
       <c r="AD48"/>
-      <c r="AE48"/>
+      <c r="AE48">
+        <v>0.315</v>
+      </c>
       <c r="AF48">
-        <v>0.626</v>
+        <v>1.089</v>
       </c>
       <c r="AG48"/>
       <c r="AH48"/>
       <c r="AI48"/>
       <c r="AJ48">
-        <v>0.81499999999999995</v>
+        <v>1.28</v>
       </c>
       <c r="AK48">
-        <v>0.879</v>
+        <v>1.946</v>
       </c>
       <c r="AN48" s="3">
         <f t="shared" si="8"/>
-        <v>0.4048583</v>
+        <v>16.599190279999998</v>
       </c>
       <c r="AO48" s="3">
         <f t="shared" si="9"/>
-        <v>879</v>
-      </c>
-      <c r="AP48"/>
+        <v>1946</v>
+      </c>
+      <c r="AP48">
+        <v>1.714</v>
+      </c>
       <c r="AQ48"/>
       <c r="AR48"/>
       <c r="AS48"/>
       <c r="AT48"/>
-      <c r="AU48">
-        <v>1.3959999999999999</v>
-      </c>
+      <c r="AU48"/>
       <c r="AV48"/>
       <c r="AW48"/>
       <c r="AX48"/>
       <c r="AY48">
-        <v>1.915</v>
-      </c>
-      <c r="AZ48"/>
+        <v>11.553000000000001</v>
+      </c>
+      <c r="AZ48">
+        <v>21.68</v>
+      </c>
       <c r="BC48" s="4">
         <f t="shared" si="10"/>
-        <v>1.3959999999999999</v>
+        <v>1.714</v>
       </c>
       <c r="BD48" s="4">
         <f t="shared" si="11"/>
-        <v>1.915</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
         <v>3.1E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G49" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="K49" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="L49" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="O49" s="3">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="Q49"/>
+      <c r="Q49" s="16">
+        <v>4.0485830000000001E-4</v>
+      </c>
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
@@ -5458,31 +5520,31 @@
       <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49">
-        <v>0.54600000000000004</v>
+        <v>0.438</v>
       </c>
       <c r="AB49"/>
       <c r="AC49"/>
       <c r="AD49"/>
       <c r="AE49"/>
       <c r="AF49">
-        <v>1.1339999999999999</v>
+        <v>0.626</v>
       </c>
       <c r="AG49"/>
       <c r="AH49"/>
       <c r="AI49"/>
       <c r="AJ49">
-        <v>9.4760000000000009</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="AK49">
-        <v>3.5979999999999999</v>
+        <v>0.879</v>
       </c>
       <c r="AN49" s="3">
         <f t="shared" si="8"/>
-        <v>546</v>
+        <v>0.4048583</v>
       </c>
       <c r="AO49" s="3">
         <f t="shared" si="9"/>
-        <v>9476</v>
+        <v>879</v>
       </c>
       <c r="AP49"/>
       <c r="AQ49"/>
@@ -5490,56 +5552,52 @@
       <c r="AS49"/>
       <c r="AT49"/>
       <c r="AU49">
-        <v>6</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="AV49"/>
       <c r="AW49"/>
       <c r="AX49"/>
       <c r="AY49">
-        <v>16.381</v>
-      </c>
-      <c r="AZ49">
-        <v>29.527000000000001</v>
-      </c>
+        <v>1.915</v>
+      </c>
+      <c r="AZ49"/>
       <c r="BC49" s="4">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="BD49" s="4">
         <f t="shared" si="11"/>
-        <v>29.527000000000001</v>
+        <v>1.915</v>
       </c>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="F50" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G50" s="1">
-        <v>2.4E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K50" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="L50" s="1">
-        <v>0.02</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O50" s="3">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="P50" s="3">
         <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="Q50">
-        <v>5.3441295549999997E-2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
@@ -5550,93 +5608,87 @@
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50">
-        <v>8.3000000000000004E-2</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="AB50"/>
       <c r="AC50"/>
       <c r="AD50"/>
-      <c r="AE50">
-        <v>3.9E-2</v>
-      </c>
+      <c r="AE50"/>
       <c r="AF50">
-        <v>3.2000000000000001E-2</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="AG50"/>
       <c r="AH50"/>
       <c r="AI50"/>
       <c r="AJ50">
-        <v>5.5E-2</v>
+        <v>9.4760000000000009</v>
       </c>
       <c r="AK50">
-        <v>0.06</v>
+        <v>3.5979999999999999</v>
       </c>
       <c r="AN50" s="3">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>546</v>
       </c>
       <c r="AO50" s="3">
         <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
-      <c r="AP50">
-        <v>1.117</v>
-      </c>
+        <v>9476</v>
+      </c>
+      <c r="AP50"/>
       <c r="AQ50"/>
       <c r="AR50"/>
       <c r="AS50"/>
-      <c r="AT50">
-        <v>0.307</v>
-      </c>
+      <c r="AT50"/>
       <c r="AU50">
-        <v>0.90200000000000002</v>
+        <v>6</v>
       </c>
       <c r="AV50"/>
       <c r="AW50"/>
       <c r="AX50"/>
       <c r="AY50">
-        <v>2.2749999999999999</v>
+        <v>16.381</v>
       </c>
       <c r="AZ50">
-        <v>2.1789999999999998</v>
+        <v>29.527000000000001</v>
       </c>
       <c r="BC50" s="4">
         <f t="shared" si="10"/>
-        <v>0.307</v>
+        <v>6</v>
       </c>
       <c r="BD50" s="4">
         <f t="shared" si="11"/>
-        <v>2.2749999999999999</v>
+        <v>29.527000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>2.3E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G51" s="1">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="K51" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L51" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O51" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P51" s="3">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q51">
-        <v>0.15020242909999901</v>
+        <v>5.3441295549999997E-2</v>
       </c>
       <c r="R51"/>
       <c r="S51"/>
@@ -5648,93 +5700,93 @@
       <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51">
-        <v>0.871</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AB51"/>
       <c r="AC51"/>
       <c r="AD51"/>
       <c r="AE51">
-        <v>0.82599999999999996</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AF51">
-        <v>1.742</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AG51"/>
       <c r="AH51"/>
       <c r="AI51"/>
       <c r="AJ51">
-        <v>2.1960000000000002</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AK51">
-        <v>1.353</v>
+        <v>0.06</v>
       </c>
       <c r="AN51" s="3">
         <f t="shared" si="8"/>
-        <v>150.20242909999899</v>
+        <v>32</v>
       </c>
       <c r="AO51" s="3">
         <f t="shared" si="9"/>
-        <v>2196</v>
+        <v>83</v>
       </c>
       <c r="AP51">
-        <v>2.081</v>
+        <v>1.117</v>
       </c>
       <c r="AQ51"/>
       <c r="AR51"/>
       <c r="AS51"/>
       <c r="AT51">
-        <v>2.7829999999999999</v>
+        <v>0.307</v>
       </c>
       <c r="AU51">
-        <v>5.5209999999999999</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="AV51"/>
       <c r="AW51"/>
       <c r="AX51"/>
       <c r="AY51">
-        <v>11.12</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="AZ51">
-        <v>14.333</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="BC51" s="4">
         <f t="shared" si="10"/>
-        <v>2.081</v>
+        <v>0.307</v>
       </c>
       <c r="BD51" s="4">
         <f t="shared" si="11"/>
-        <v>14.333</v>
+        <v>2.2749999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1">
-        <v>1.6E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F52" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G52" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="K52" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="L52" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="O52" s="3">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P52" s="3">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q52">
-        <v>70.522267209999995</v>
+        <v>0.15020242909999901</v>
       </c>
       <c r="R52"/>
       <c r="S52"/>
@@ -5746,91 +5798,93 @@
       <c r="Y52"/>
       <c r="Z52"/>
       <c r="AA52">
-        <v>0.17899999999999999</v>
+        <v>0.871</v>
       </c>
       <c r="AB52"/>
       <c r="AC52"/>
       <c r="AD52"/>
-      <c r="AE52"/>
+      <c r="AE52">
+        <v>0.82599999999999996</v>
+      </c>
       <c r="AF52">
-        <v>0.152</v>
+        <v>1.742</v>
       </c>
       <c r="AG52"/>
       <c r="AH52"/>
       <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
+      <c r="AJ52">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="AK52">
+        <v>1.353</v>
+      </c>
       <c r="AN52" s="3">
         <f t="shared" si="8"/>
-        <v>152</v>
+        <v>150.20242909999899</v>
       </c>
       <c r="AO52" s="3">
         <f t="shared" si="9"/>
-        <v>70522.267209999991</v>
+        <v>2196</v>
       </c>
       <c r="AP52">
-        <v>0.47199999999999998</v>
+        <v>2.081</v>
       </c>
       <c r="AQ52"/>
       <c r="AR52"/>
       <c r="AS52"/>
       <c r="AT52">
-        <v>0.59699999999999998</v>
+        <v>2.7829999999999999</v>
       </c>
       <c r="AU52">
-        <v>0.92900000000000005</v>
+        <v>5.5209999999999999</v>
       </c>
       <c r="AV52"/>
       <c r="AW52"/>
       <c r="AX52"/>
-      <c r="AY52"/>
-      <c r="AZ52"/>
+      <c r="AY52">
+        <v>11.12</v>
+      </c>
+      <c r="AZ52">
+        <v>14.333</v>
+      </c>
       <c r="BC52" s="4">
         <f t="shared" si="10"/>
-        <v>0.47199999999999998</v>
+        <v>2.081</v>
       </c>
       <c r="BD52" s="4">
         <f t="shared" si="11"/>
-        <v>0.92900000000000005</v>
+        <v>14.333</v>
       </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K53" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7">
-        <v>2E-3</v>
-      </c>
-      <c r="L53" s="7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="9">
+      <c r="L53" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O53" s="3">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="P53" s="9">
+        <v>4</v>
+      </c>
+      <c r="P53" s="3">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q53">
-        <v>6.680161943E-2</v>
+        <v>70.522267209999995</v>
       </c>
       <c r="R53"/>
       <c r="S53"/>
@@ -5842,65 +5896,161 @@
       <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53">
-        <v>0.105</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="AB53"/>
       <c r="AC53"/>
       <c r="AD53"/>
-      <c r="AE53">
-        <v>0.128</v>
-      </c>
+      <c r="AE53"/>
       <c r="AF53">
-        <v>0.104</v>
+        <v>0.152</v>
       </c>
       <c r="AG53"/>
       <c r="AH53"/>
       <c r="AI53"/>
       <c r="AJ53"/>
-      <c r="AK53">
-        <v>0.215</v>
-      </c>
-      <c r="AL53" s="8"/>
-      <c r="AM53" s="7"/>
-      <c r="AN53" s="9">
+      <c r="AK53"/>
+      <c r="AN53" s="3">
         <f t="shared" si="8"/>
-        <v>66.801619430000002</v>
-      </c>
-      <c r="AO53" s="9">
+        <v>152</v>
+      </c>
+      <c r="AO53" s="3">
         <f t="shared" si="9"/>
-        <v>215</v>
-      </c>
-      <c r="AP53"/>
+        <v>70522.267209999991</v>
+      </c>
+      <c r="AP53">
+        <v>0.47199999999999998</v>
+      </c>
       <c r="AQ53"/>
       <c r="AR53"/>
       <c r="AS53"/>
       <c r="AT53">
-        <v>0.53700000000000003</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="AU53">
-        <v>0.253</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="AV53"/>
       <c r="AW53"/>
       <c r="AX53"/>
       <c r="AY53"/>
-      <c r="AZ53">
+      <c r="AZ53"/>
+      <c r="BC53" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="BD53" s="4">
+        <f t="shared" si="11"/>
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7">
+        <v>2E-3</v>
+      </c>
+      <c r="L54" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="P54" s="9">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q54">
+        <v>6.680161943E-2</v>
+      </c>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54">
+        <v>0.105</v>
+      </c>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54">
+        <v>0.128</v>
+      </c>
+      <c r="AF54">
+        <v>0.104</v>
+      </c>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54">
+        <v>0.215</v>
+      </c>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="9">
+        <f t="shared" si="8"/>
+        <v>66.801619430000002</v>
+      </c>
+      <c r="AO54" s="9">
+        <f t="shared" si="9"/>
+        <v>215</v>
+      </c>
+      <c r="AP54"/>
+      <c r="AQ54"/>
+      <c r="AR54"/>
+      <c r="AS54"/>
+      <c r="AT54">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="AU54">
+        <v>0.253</v>
+      </c>
+      <c r="AV54"/>
+      <c r="AW54"/>
+      <c r="AX54"/>
+      <c r="AY54"/>
+      <c r="AZ54">
         <v>13.564</v>
       </c>
-      <c r="BA53" s="7"/>
-      <c r="BB53" s="7"/>
-      <c r="BC53" s="10">
+      <c r="BA54" s="7"/>
+      <c r="BB54" s="7"/>
+      <c r="BC54" s="10">
         <f t="shared" si="10"/>
         <v>0.253</v>
       </c>
-      <c r="BD53" s="10">
+      <c r="BD54" s="10">
         <f t="shared" si="11"/>
         <v>13.564</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BD53">
-    <sortCondition descending="1" ref="P4:P53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BD54">
+    <sortCondition descending="1" ref="P5:P54"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="N2:P2"/>
@@ -5912,7 +6062,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66BB86FA-9C0B-449A-A864-41365A482D32}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5926,201 +6076,249 @@
               <xm:f>all_sparklines!AP4:AZ4</xm:f>
               <xm:sqref>BB4</xm:sqref>
             </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP5:AZ5</xm:f>
-              <xm:sqref>BB5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP6:AZ6</xm:f>
-              <xm:sqref>BB6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP7:AZ7</xm:f>
-              <xm:sqref>BB7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP8:AZ8</xm:f>
-              <xm:sqref>BB8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP9:AZ9</xm:f>
-              <xm:sqref>BB9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP10:AZ10</xm:f>
-              <xm:sqref>BB10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP11:AZ11</xm:f>
-              <xm:sqref>BB11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP12:AZ12</xm:f>
-              <xm:sqref>BB12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP13:AZ13</xm:f>
-              <xm:sqref>BB13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP14:AZ14</xm:f>
-              <xm:sqref>BB14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP15:AZ15</xm:f>
-              <xm:sqref>BB15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP16:AZ16</xm:f>
-              <xm:sqref>BB16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP17:AZ17</xm:f>
-              <xm:sqref>BB17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP18:AZ18</xm:f>
-              <xm:sqref>BB18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP19:AZ19</xm:f>
-              <xm:sqref>BB19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP20:AZ20</xm:f>
-              <xm:sqref>BB20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP21:AZ21</xm:f>
-              <xm:sqref>BB21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP22:AZ22</xm:f>
-              <xm:sqref>BB22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP23:AZ23</xm:f>
-              <xm:sqref>BB23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP24:AZ24</xm:f>
-              <xm:sqref>BB24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP25:AZ25</xm:f>
-              <xm:sqref>BB25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP26:AZ26</xm:f>
-              <xm:sqref>BB26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP27:AZ27</xm:f>
-              <xm:sqref>BB27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP28:AZ28</xm:f>
-              <xm:sqref>BB28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP29:AZ29</xm:f>
-              <xm:sqref>BB29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP30:AZ30</xm:f>
-              <xm:sqref>BB30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP31:AZ31</xm:f>
-              <xm:sqref>BB31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP32:AZ32</xm:f>
-              <xm:sqref>BB32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP33:AZ33</xm:f>
-              <xm:sqref>BB33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP34:AZ34</xm:f>
-              <xm:sqref>BB34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP35:AZ35</xm:f>
-              <xm:sqref>BB35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP36:AZ36</xm:f>
-              <xm:sqref>BB36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP37:AZ37</xm:f>
-              <xm:sqref>BB37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP38:AZ38</xm:f>
-              <xm:sqref>BB38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP39:AZ39</xm:f>
-              <xm:sqref>BB39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP40:AZ40</xm:f>
-              <xm:sqref>BB40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP41:AZ41</xm:f>
-              <xm:sqref>BB41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP42:AZ42</xm:f>
-              <xm:sqref>BB42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP43:AZ43</xm:f>
-              <xm:sqref>BB43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP44:AZ44</xm:f>
-              <xm:sqref>BB44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP45:AZ45</xm:f>
-              <xm:sqref>BB45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP46:AZ46</xm:f>
-              <xm:sqref>BB46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP47:AZ47</xm:f>
-              <xm:sqref>BB47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP48:AZ48</xm:f>
-              <xm:sqref>BB48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP49:AZ49</xm:f>
-              <xm:sqref>BB49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP50:AZ50</xm:f>
-              <xm:sqref>BB50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP51:AZ51</xm:f>
-              <xm:sqref>BB51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP52:AZ52</xm:f>
-              <xm:sqref>BB52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AP53:AZ53</xm:f>
-              <xm:sqref>BB53</xm:sqref>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{C0001913-F8F4-4839-8004-AA78FFFF815D}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q4:AK4</xm:f>
+              <xm:sqref>AM4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{15BAD788-5AA3-4E69-B574-11EFC65880DC}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B4:L4</xm:f>
+              <xm:sqref>N4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{D4CBD035-6366-4643-AE79-83E460EEAE57}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q5:AK5</xm:f>
+              <xm:sqref>AM5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q6:AK6</xm:f>
+              <xm:sqref>AM6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q7:AK7</xm:f>
+              <xm:sqref>AM7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q8:AK8</xm:f>
+              <xm:sqref>AM8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q9:AK9</xm:f>
+              <xm:sqref>AM9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q10:AK10</xm:f>
+              <xm:sqref>AM10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q11:AK11</xm:f>
+              <xm:sqref>AM11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q12:AK12</xm:f>
+              <xm:sqref>AM12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q13:AK13</xm:f>
+              <xm:sqref>AM13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q14:AK14</xm:f>
+              <xm:sqref>AM14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q15:AK15</xm:f>
+              <xm:sqref>AM15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q16:AK16</xm:f>
+              <xm:sqref>AM16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q17:AK17</xm:f>
+              <xm:sqref>AM17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q18:AK18</xm:f>
+              <xm:sqref>AM18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q19:AK19</xm:f>
+              <xm:sqref>AM19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q20:AK20</xm:f>
+              <xm:sqref>AM20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q21:AK21</xm:f>
+              <xm:sqref>AM21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q22:AK22</xm:f>
+              <xm:sqref>AM22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q23:AK23</xm:f>
+              <xm:sqref>AM23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q24:AK24</xm:f>
+              <xm:sqref>AM24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q25:AK25</xm:f>
+              <xm:sqref>AM25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q26:AK26</xm:f>
+              <xm:sqref>AM26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q27:AK27</xm:f>
+              <xm:sqref>AM27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q28:AK28</xm:f>
+              <xm:sqref>AM28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q29:AK29</xm:f>
+              <xm:sqref>AM29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q30:AK30</xm:f>
+              <xm:sqref>AM30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q31:AK31</xm:f>
+              <xm:sqref>AM31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q32:AK32</xm:f>
+              <xm:sqref>AM32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q33:AK33</xm:f>
+              <xm:sqref>AM33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q34:AK34</xm:f>
+              <xm:sqref>AM34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q35:AK35</xm:f>
+              <xm:sqref>AM35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q36:AK36</xm:f>
+              <xm:sqref>AM36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q37:AK37</xm:f>
+              <xm:sqref>AM37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q38:AK38</xm:f>
+              <xm:sqref>AM38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q39:AK39</xm:f>
+              <xm:sqref>AM39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q40:AK40</xm:f>
+              <xm:sqref>AM40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q41:AK41</xm:f>
+              <xm:sqref>AM41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q42:AK42</xm:f>
+              <xm:sqref>AM42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q43:AK43</xm:f>
+              <xm:sqref>AM43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q44:AK44</xm:f>
+              <xm:sqref>AM44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q45:AK45</xm:f>
+              <xm:sqref>AM45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q46:AK46</xm:f>
+              <xm:sqref>AM46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q47:AK47</xm:f>
+              <xm:sqref>AM47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q48:AK48</xm:f>
+              <xm:sqref>AM48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q49:AK49</xm:f>
+              <xm:sqref>AM49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q50:AK50</xm:f>
+              <xm:sqref>AM50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q51:AK51</xm:f>
+              <xm:sqref>AM51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q52:AK52</xm:f>
+              <xm:sqref>AM52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q53:AK53</xm:f>
+              <xm:sqref>AM53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!Q54:AK54</xm:f>
+              <xm:sqref>AM54</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6135,10 +6333,6 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!B4:L4</xm:f>
-              <xm:sqref>N4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
               <xm:f>all_sparklines!B5:L5</xm:f>
               <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
@@ -6334,9 +6528,13 @@
               <xm:f>all_sparklines!B53:L53</xm:f>
               <xm:sqref>N53</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B54:L54</xm:f>
+              <xm:sqref>N54</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{D4CBD035-6366-4643-AE79-83E460EEAE57}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6347,204 +6545,204 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!Q4:AK4</xm:f>
-              <xm:sqref>AM4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q5:AK5</xm:f>
-              <xm:sqref>AM5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q6:AK6</xm:f>
-              <xm:sqref>AM6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q7:AK7</xm:f>
-              <xm:sqref>AM7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q8:AK8</xm:f>
-              <xm:sqref>AM8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q9:AK9</xm:f>
-              <xm:sqref>AM9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q10:AK10</xm:f>
-              <xm:sqref>AM10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q11:AK11</xm:f>
-              <xm:sqref>AM11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q12:AK12</xm:f>
-              <xm:sqref>AM12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q13:AK13</xm:f>
-              <xm:sqref>AM13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q14:AK14</xm:f>
-              <xm:sqref>AM14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q15:AK15</xm:f>
-              <xm:sqref>AM15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q16:AK16</xm:f>
-              <xm:sqref>AM16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q17:AK17</xm:f>
-              <xm:sqref>AM17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q18:AK18</xm:f>
-              <xm:sqref>AM18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q19:AK19</xm:f>
-              <xm:sqref>AM19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q20:AK20</xm:f>
-              <xm:sqref>AM20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q21:AK21</xm:f>
-              <xm:sqref>AM21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q22:AK22</xm:f>
-              <xm:sqref>AM22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q23:AK23</xm:f>
-              <xm:sqref>AM23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q24:AK24</xm:f>
-              <xm:sqref>AM24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q25:AK25</xm:f>
-              <xm:sqref>AM25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q26:AK26</xm:f>
-              <xm:sqref>AM26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q27:AK27</xm:f>
-              <xm:sqref>AM27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q28:AK28</xm:f>
-              <xm:sqref>AM28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q29:AK29</xm:f>
-              <xm:sqref>AM29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q30:AK30</xm:f>
-              <xm:sqref>AM30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q31:AK31</xm:f>
-              <xm:sqref>AM31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q32:AK32</xm:f>
-              <xm:sqref>AM32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q33:AK33</xm:f>
-              <xm:sqref>AM33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q34:AK34</xm:f>
-              <xm:sqref>AM34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q35:AK35</xm:f>
-              <xm:sqref>AM35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q36:AK36</xm:f>
-              <xm:sqref>AM36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q37:AK37</xm:f>
-              <xm:sqref>AM37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q38:AK38</xm:f>
-              <xm:sqref>AM38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q39:AK39</xm:f>
-              <xm:sqref>AM39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q40:AK40</xm:f>
-              <xm:sqref>AM40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q41:AK41</xm:f>
-              <xm:sqref>AM41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q42:AK42</xm:f>
-              <xm:sqref>AM42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q43:AK43</xm:f>
-              <xm:sqref>AM43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q44:AK44</xm:f>
-              <xm:sqref>AM44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q45:AK45</xm:f>
-              <xm:sqref>AM45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q46:AK46</xm:f>
-              <xm:sqref>AM46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q47:AK47</xm:f>
-              <xm:sqref>AM47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q48:AK48</xm:f>
-              <xm:sqref>AM48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q49:AK49</xm:f>
-              <xm:sqref>AM49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q50:AK50</xm:f>
-              <xm:sqref>AM50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q51:AK51</xm:f>
-              <xm:sqref>AM51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q52:AK52</xm:f>
-              <xm:sqref>AM52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!Q53:AK53</xm:f>
-              <xm:sqref>AM53</xm:sqref>
+              <xm:f>all_sparklines!AP5:AZ5</xm:f>
+              <xm:sqref>BB5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP6:AZ6</xm:f>
+              <xm:sqref>BB6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP7:AZ7</xm:f>
+              <xm:sqref>BB7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP8:AZ8</xm:f>
+              <xm:sqref>BB8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP9:AZ9</xm:f>
+              <xm:sqref>BB9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP10:AZ10</xm:f>
+              <xm:sqref>BB10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP11:AZ11</xm:f>
+              <xm:sqref>BB11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP12:AZ12</xm:f>
+              <xm:sqref>BB12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP13:AZ13</xm:f>
+              <xm:sqref>BB13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP14:AZ14</xm:f>
+              <xm:sqref>BB14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP15:AZ15</xm:f>
+              <xm:sqref>BB15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP16:AZ16</xm:f>
+              <xm:sqref>BB16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP17:AZ17</xm:f>
+              <xm:sqref>BB17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP18:AZ18</xm:f>
+              <xm:sqref>BB18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP19:AZ19</xm:f>
+              <xm:sqref>BB19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP20:AZ20</xm:f>
+              <xm:sqref>BB20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP21:AZ21</xm:f>
+              <xm:sqref>BB21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP22:AZ22</xm:f>
+              <xm:sqref>BB22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP23:AZ23</xm:f>
+              <xm:sqref>BB23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP24:AZ24</xm:f>
+              <xm:sqref>BB24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP25:AZ25</xm:f>
+              <xm:sqref>BB25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP26:AZ26</xm:f>
+              <xm:sqref>BB26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP27:AZ27</xm:f>
+              <xm:sqref>BB27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP28:AZ28</xm:f>
+              <xm:sqref>BB28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP29:AZ29</xm:f>
+              <xm:sqref>BB29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP30:AZ30</xm:f>
+              <xm:sqref>BB30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP31:AZ31</xm:f>
+              <xm:sqref>BB31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP32:AZ32</xm:f>
+              <xm:sqref>BB32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP33:AZ33</xm:f>
+              <xm:sqref>BB33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP34:AZ34</xm:f>
+              <xm:sqref>BB34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP35:AZ35</xm:f>
+              <xm:sqref>BB35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP36:AZ36</xm:f>
+              <xm:sqref>BB36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP37:AZ37</xm:f>
+              <xm:sqref>BB37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP38:AZ38</xm:f>
+              <xm:sqref>BB38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP39:AZ39</xm:f>
+              <xm:sqref>BB39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP40:AZ40</xm:f>
+              <xm:sqref>BB40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP41:AZ41</xm:f>
+              <xm:sqref>BB41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP42:AZ42</xm:f>
+              <xm:sqref>BB42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP43:AZ43</xm:f>
+              <xm:sqref>BB43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP44:AZ44</xm:f>
+              <xm:sqref>BB44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP45:AZ45</xm:f>
+              <xm:sqref>BB45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP46:AZ46</xm:f>
+              <xm:sqref>BB46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP47:AZ47</xm:f>
+              <xm:sqref>BB47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP48:AZ48</xm:f>
+              <xm:sqref>BB48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP49:AZ49</xm:f>
+              <xm:sqref>BB49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP50:AZ50</xm:f>
+              <xm:sqref>BB50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP51:AZ51</xm:f>
+              <xm:sqref>BB51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP52:AZ52</xm:f>
+              <xm:sqref>BB52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP53:AZ53</xm:f>
+              <xm:sqref>BB53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AP54:AZ54</xm:f>
+              <xm:sqref>BB54</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/figures/us_organic_sparklines.xlsx
+++ b/figures/us_organic_sparklines.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\dev\state_organic_ag\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A539B5-F1E5-42EF-9BAD-1474ABAFFB84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52198DFC-9568-404B-8838-5A14F9BCB25D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29175" yWindow="345" windowWidth="21255" windowHeight="13365" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
+    <workbookView xWindow="4065" yWindow="150" windowWidth="18195" windowHeight="14310" activeTab="1" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="all_sparklines" sheetId="11" r:id="rId1"/>
-    <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId2"/>
+    <sheet name="all_sparklines_estimates" sheetId="12" r:id="rId2"/>
+    <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>min</t>
   </si>
@@ -216,22 +217,25 @@
     <t>farm_knumber_2008</t>
   </si>
   <si>
-    <t xml:space="preserve">Arizo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">India </t>
-  </si>
-  <si>
     <t xml:space="preserve">Louisa </t>
   </si>
   <si>
-    <t xml:space="preserve">Monta </t>
+    <t xml:space="preserve">Indiana </t>
   </si>
   <si>
-    <t xml:space="preserve">North Caroli </t>
+    <t xml:space="preserve">North Carolina </t>
   </si>
   <si>
-    <t>South Caroli</t>
+    <t xml:space="preserve">Arizona </t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana </t>
+  </si>
+  <si>
+    <t>change/y</t>
   </si>
 </sst>
 </file>
@@ -242,7 +246,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +254,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +282,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -282,11 +305,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -337,6 +388,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,11 +403,104 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -765,8 +915,8 @@
   </sheetPr>
   <dimension ref="A2:AX54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="BA18" sqref="BA18"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,21 +941,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="AF2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AV2" s="26" t="s">
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AV2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2259,7 +2409,7 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>0.246</v>
@@ -2745,7 +2895,7 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>0.17299999999999999</v>
@@ -4295,7 +4445,7 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>6.3E-2</v>
@@ -4536,7 +4686,7 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>3.4000000000000002E-2</v>
@@ -4867,7 +5017,7 @@
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>2.3E-2</v>
@@ -5123,7 +5273,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66BB86FA-9C0B-449A-A864-41365A482D32}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5134,8 +5284,448 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!AI4:AT4</xm:f>
-              <xm:sqref>AV4</xm:sqref>
+              <xm:f>all_sparklines!AI5:AT5</xm:f>
+              <xm:sqref>AV5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI6:AT6</xm:f>
+              <xm:sqref>AV6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI7:AT7</xm:f>
+              <xm:sqref>AV7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI8:AT8</xm:f>
+              <xm:sqref>AV8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI9:AT9</xm:f>
+              <xm:sqref>AV9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI10:AT10</xm:f>
+              <xm:sqref>AV10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI11:AT11</xm:f>
+              <xm:sqref>AV11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI12:AT12</xm:f>
+              <xm:sqref>AV12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI13:AT13</xm:f>
+              <xm:sqref>AV13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI14:AT14</xm:f>
+              <xm:sqref>AV14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI15:AT15</xm:f>
+              <xm:sqref>AV15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI16:AT16</xm:f>
+              <xm:sqref>AV16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI17:AT17</xm:f>
+              <xm:sqref>AV17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI18:AT18</xm:f>
+              <xm:sqref>AV18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI19:AT19</xm:f>
+              <xm:sqref>AV19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI20:AT20</xm:f>
+              <xm:sqref>AV20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI21:AT21</xm:f>
+              <xm:sqref>AV21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI22:AT22</xm:f>
+              <xm:sqref>AV22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI23:AT23</xm:f>
+              <xm:sqref>AV23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI24:AT24</xm:f>
+              <xm:sqref>AV24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI25:AT25</xm:f>
+              <xm:sqref>AV25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI26:AT26</xm:f>
+              <xm:sqref>AV26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI27:AT27</xm:f>
+              <xm:sqref>AV27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI28:AT28</xm:f>
+              <xm:sqref>AV28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI29:AT29</xm:f>
+              <xm:sqref>AV29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI30:AT30</xm:f>
+              <xm:sqref>AV30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI31:AT31</xm:f>
+              <xm:sqref>AV31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI32:AT32</xm:f>
+              <xm:sqref>AV32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI33:AT33</xm:f>
+              <xm:sqref>AV33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI34:AT34</xm:f>
+              <xm:sqref>AV34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI35:AT35</xm:f>
+              <xm:sqref>AV35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI36:AT36</xm:f>
+              <xm:sqref>AV36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI37:AT37</xm:f>
+              <xm:sqref>AV37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI38:AT38</xm:f>
+              <xm:sqref>AV38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI39:AT39</xm:f>
+              <xm:sqref>AV39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI40:AT40</xm:f>
+              <xm:sqref>AV40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI41:AT41</xm:f>
+              <xm:sqref>AV41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI42:AT42</xm:f>
+              <xm:sqref>AV42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI43:AT43</xm:f>
+              <xm:sqref>AV43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI44:AT44</xm:f>
+              <xm:sqref>AV44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI45:AT45</xm:f>
+              <xm:sqref>AV45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI46:AT46</xm:f>
+              <xm:sqref>AV46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI47:AT47</xm:f>
+              <xm:sqref>AV47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI48:AT48</xm:f>
+              <xm:sqref>AV48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI49:AT49</xm:f>
+              <xm:sqref>AV49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI50:AT50</xm:f>
+              <xm:sqref>AV50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI51:AT51</xm:f>
+              <xm:sqref>AV51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI52:AT52</xm:f>
+              <xm:sqref>AV52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI53:AT53</xm:f>
+              <xm:sqref>AV53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI54:AT54</xm:f>
+              <xm:sqref>AV54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{D4CBD035-6366-4643-AE79-83E460EEAE57}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S5:AD5</xm:f>
+              <xm:sqref>AF5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S6:AD6</xm:f>
+              <xm:sqref>AF6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S7:AD7</xm:f>
+              <xm:sqref>AF7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S8:AD8</xm:f>
+              <xm:sqref>AF8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S9:AD9</xm:f>
+              <xm:sqref>AF9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S10:AD10</xm:f>
+              <xm:sqref>AF10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S11:AD11</xm:f>
+              <xm:sqref>AF11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S12:AD12</xm:f>
+              <xm:sqref>AF12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S13:AD13</xm:f>
+              <xm:sqref>AF13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S14:AD14</xm:f>
+              <xm:sqref>AF14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S15:AD15</xm:f>
+              <xm:sqref>AF15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S16:AD16</xm:f>
+              <xm:sqref>AF16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S17:AD17</xm:f>
+              <xm:sqref>AF17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S18:AD18</xm:f>
+              <xm:sqref>AF18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S19:AD19</xm:f>
+              <xm:sqref>AF19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S20:AD20</xm:f>
+              <xm:sqref>AF20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S21:AD21</xm:f>
+              <xm:sqref>AF21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S22:AD22</xm:f>
+              <xm:sqref>AF22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S23:AD23</xm:f>
+              <xm:sqref>AF23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S24:AD24</xm:f>
+              <xm:sqref>AF24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S25:AD25</xm:f>
+              <xm:sqref>AF25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S26:AD26</xm:f>
+              <xm:sqref>AF26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S27:AD27</xm:f>
+              <xm:sqref>AF27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S28:AD28</xm:f>
+              <xm:sqref>AF28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S29:AD29</xm:f>
+              <xm:sqref>AF29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S30:AD30</xm:f>
+              <xm:sqref>AF30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S31:AD31</xm:f>
+              <xm:sqref>AF31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S32:AD32</xm:f>
+              <xm:sqref>AF32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S33:AD33</xm:f>
+              <xm:sqref>AF33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S34:AD34</xm:f>
+              <xm:sqref>AF34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S35:AD35</xm:f>
+              <xm:sqref>AF35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S36:AD36</xm:f>
+              <xm:sqref>AF36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S37:AD37</xm:f>
+              <xm:sqref>AF37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S38:AD38</xm:f>
+              <xm:sqref>AF38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S39:AD39</xm:f>
+              <xm:sqref>AF39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S40:AD40</xm:f>
+              <xm:sqref>AF40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S41:AD41</xm:f>
+              <xm:sqref>AF41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S42:AD42</xm:f>
+              <xm:sqref>AF42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S43:AD43</xm:f>
+              <xm:sqref>AF43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S44:AD44</xm:f>
+              <xm:sqref>AF44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S45:AD45</xm:f>
+              <xm:sqref>AF45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S46:AD46</xm:f>
+              <xm:sqref>AF46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S47:AD47</xm:f>
+              <xm:sqref>AF47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S48:AD48</xm:f>
+              <xm:sqref>AF48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S49:AD49</xm:f>
+              <xm:sqref>AF49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S50:AD50</xm:f>
+              <xm:sqref>AF50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S51:AD51</xm:f>
+              <xm:sqref>AF51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S52:AD52</xm:f>
+              <xm:sqref>AF52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S53:AD53</xm:f>
+              <xm:sqref>AF53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S54:AD54</xm:f>
+              <xm:sqref>AF54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{15BAD788-5AA3-4E69-B574-11EFC65880DC}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B4:N4</xm:f>
+              <xm:sqref>P4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{C0001913-F8F4-4839-8004-AA78FFFF815D}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S4:AD4</xm:f>
+              <xm:sqref>AF4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5351,7 +5941,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{C0001913-F8F4-4839-8004-AA78FFFF815D}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66BB86FA-9C0B-449A-A864-41365A482D32}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5362,448 +5952,8 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!S4:AD4</xm:f>
-              <xm:sqref>AF4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{15BAD788-5AA3-4E69-B574-11EFC65880DC}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B4:N4</xm:f>
-              <xm:sqref>P4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{D4CBD035-6366-4643-AE79-83E460EEAE57}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S5:AD5</xm:f>
-              <xm:sqref>AF5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S6:AD6</xm:f>
-              <xm:sqref>AF6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S7:AD7</xm:f>
-              <xm:sqref>AF7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S8:AD8</xm:f>
-              <xm:sqref>AF8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S9:AD9</xm:f>
-              <xm:sqref>AF9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S10:AD10</xm:f>
-              <xm:sqref>AF10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S11:AD11</xm:f>
-              <xm:sqref>AF11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S12:AD12</xm:f>
-              <xm:sqref>AF12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S13:AD13</xm:f>
-              <xm:sqref>AF13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S14:AD14</xm:f>
-              <xm:sqref>AF14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S15:AD15</xm:f>
-              <xm:sqref>AF15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S16:AD16</xm:f>
-              <xm:sqref>AF16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S17:AD17</xm:f>
-              <xm:sqref>AF17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S18:AD18</xm:f>
-              <xm:sqref>AF18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S19:AD19</xm:f>
-              <xm:sqref>AF19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S20:AD20</xm:f>
-              <xm:sqref>AF20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S21:AD21</xm:f>
-              <xm:sqref>AF21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S22:AD22</xm:f>
-              <xm:sqref>AF22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S23:AD23</xm:f>
-              <xm:sqref>AF23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S24:AD24</xm:f>
-              <xm:sqref>AF24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S25:AD25</xm:f>
-              <xm:sqref>AF25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S26:AD26</xm:f>
-              <xm:sqref>AF26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S27:AD27</xm:f>
-              <xm:sqref>AF27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S28:AD28</xm:f>
-              <xm:sqref>AF28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S29:AD29</xm:f>
-              <xm:sqref>AF29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S30:AD30</xm:f>
-              <xm:sqref>AF30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S31:AD31</xm:f>
-              <xm:sqref>AF31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S32:AD32</xm:f>
-              <xm:sqref>AF32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S33:AD33</xm:f>
-              <xm:sqref>AF33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S34:AD34</xm:f>
-              <xm:sqref>AF34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S35:AD35</xm:f>
-              <xm:sqref>AF35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S36:AD36</xm:f>
-              <xm:sqref>AF36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S37:AD37</xm:f>
-              <xm:sqref>AF37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S38:AD38</xm:f>
-              <xm:sqref>AF38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S39:AD39</xm:f>
-              <xm:sqref>AF39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S40:AD40</xm:f>
-              <xm:sqref>AF40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S41:AD41</xm:f>
-              <xm:sqref>AF41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S42:AD42</xm:f>
-              <xm:sqref>AF42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S43:AD43</xm:f>
-              <xm:sqref>AF43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S44:AD44</xm:f>
-              <xm:sqref>AF44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S45:AD45</xm:f>
-              <xm:sqref>AF45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S46:AD46</xm:f>
-              <xm:sqref>AF46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S47:AD47</xm:f>
-              <xm:sqref>AF47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S48:AD48</xm:f>
-              <xm:sqref>AF48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S49:AD49</xm:f>
-              <xm:sqref>AF49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S50:AD50</xm:f>
-              <xm:sqref>AF50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S51:AD51</xm:f>
-              <xm:sqref>AF51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S52:AD52</xm:f>
-              <xm:sqref>AF52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S53:AD53</xm:f>
-              <xm:sqref>AF53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S54:AD54</xm:f>
-              <xm:sqref>AF54</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI5:AT5</xm:f>
-              <xm:sqref>AV5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI6:AT6</xm:f>
-              <xm:sqref>AV6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI7:AT7</xm:f>
-              <xm:sqref>AV7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI8:AT8</xm:f>
-              <xm:sqref>AV8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI9:AT9</xm:f>
-              <xm:sqref>AV9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI10:AT10</xm:f>
-              <xm:sqref>AV10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI11:AT11</xm:f>
-              <xm:sqref>AV11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI12:AT12</xm:f>
-              <xm:sqref>AV12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI13:AT13</xm:f>
-              <xm:sqref>AV13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI14:AT14</xm:f>
-              <xm:sqref>AV14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI15:AT15</xm:f>
-              <xm:sqref>AV15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI16:AT16</xm:f>
-              <xm:sqref>AV16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI17:AT17</xm:f>
-              <xm:sqref>AV17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI18:AT18</xm:f>
-              <xm:sqref>AV18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI19:AT19</xm:f>
-              <xm:sqref>AV19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI20:AT20</xm:f>
-              <xm:sqref>AV20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI21:AT21</xm:f>
-              <xm:sqref>AV21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI22:AT22</xm:f>
-              <xm:sqref>AV22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI23:AT23</xm:f>
-              <xm:sqref>AV23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI24:AT24</xm:f>
-              <xm:sqref>AV24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI25:AT25</xm:f>
-              <xm:sqref>AV25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI26:AT26</xm:f>
-              <xm:sqref>AV26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI27:AT27</xm:f>
-              <xm:sqref>AV27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI28:AT28</xm:f>
-              <xm:sqref>AV28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI29:AT29</xm:f>
-              <xm:sqref>AV29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI30:AT30</xm:f>
-              <xm:sqref>AV30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI31:AT31</xm:f>
-              <xm:sqref>AV31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI32:AT32</xm:f>
-              <xm:sqref>AV32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI33:AT33</xm:f>
-              <xm:sqref>AV33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI34:AT34</xm:f>
-              <xm:sqref>AV34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI35:AT35</xm:f>
-              <xm:sqref>AV35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI36:AT36</xm:f>
-              <xm:sqref>AV36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI37:AT37</xm:f>
-              <xm:sqref>AV37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI38:AT38</xm:f>
-              <xm:sqref>AV38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI39:AT39</xm:f>
-              <xm:sqref>AV39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI40:AT40</xm:f>
-              <xm:sqref>AV40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI41:AT41</xm:f>
-              <xm:sqref>AV41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI42:AT42</xm:f>
-              <xm:sqref>AV42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI43:AT43</xm:f>
-              <xm:sqref>AV43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI44:AT44</xm:f>
-              <xm:sqref>AV44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI45:AT45</xm:f>
-              <xm:sqref>AV45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI46:AT46</xm:f>
-              <xm:sqref>AV46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI47:AT47</xm:f>
-              <xm:sqref>AV47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI48:AT48</xm:f>
-              <xm:sqref>AV48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI49:AT49</xm:f>
-              <xm:sqref>AV49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI50:AT50</xm:f>
-              <xm:sqref>AV50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI51:AT51</xm:f>
-              <xm:sqref>AV51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI52:AT52</xm:f>
-              <xm:sqref>AV52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI53:AT53</xm:f>
-              <xm:sqref>AV53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI54:AT54</xm:f>
-              <xm:sqref>AV54</xm:sqref>
+              <xm:f>all_sparklines!AI4:AT4</xm:f>
+              <xm:sqref>AV4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5814,6 +5964,5743 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376F6C37-DC6A-4F3C-9A26-771CCD781241}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:AZ54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="5.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="19.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="17" width="10.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="14.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="2"/>
+    <col min="32" max="32" width="9.140625" style="1"/>
+    <col min="33" max="34" width="10.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="36" max="47" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="48" max="49" width="9.140625" style="1"/>
+    <col min="50" max="51" width="10.7109375" style="4" customWidth="1"/>
+    <col min="52" max="52" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="O2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="AF2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AW2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2008</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2009</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2010</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2011</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2012</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2013</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2014</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2015</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2016</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2017</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2018</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="8">
+        <v>2008</v>
+      </c>
+      <c r="T3" s="8">
+        <v>2009</v>
+      </c>
+      <c r="U3" s="8">
+        <v>2010</v>
+      </c>
+      <c r="V3" s="8">
+        <v>2011</v>
+      </c>
+      <c r="W3" s="8">
+        <v>2012</v>
+      </c>
+      <c r="X3" s="8">
+        <v>2013</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>2015</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>2016</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>2017</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>2018</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>2019</v>
+      </c>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>2008</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>2009</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>2010</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>2011</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>2012</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>2013</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>2014</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>2015</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>2016</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>2017</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>2018</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>2019</v>
+      </c>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="30">
+        <f>SUM(B5:B54)</f>
+        <v>14.537000000000001</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="30">
+        <f>SUM(H5:H54)</f>
+        <v>14.092999999999998</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="30">
+        <f>SUM(J5:J54)</f>
+        <v>14.217000000000004</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="30">
+        <f>SUM(M5:M54)</f>
+        <v>16.584000000000003</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21">
+        <f>MIN(F4:M4)*1000</f>
+        <v>14092.999999999998</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>MAX(B4:M4)*1000</f>
+        <v>16584.000000000004</v>
+      </c>
+      <c r="R4" s="41">
+        <f>((M4-B4)/B4)/(2019-2008)</f>
+        <v>1.2801190692089792E-2</v>
+      </c>
+      <c r="S4" s="19">
+        <f>SUM(S5:S54)</f>
+        <v>1650.7430000000002</v>
+      </c>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22">
+        <f>SUM(Y5:Y54)</f>
+        <v>1486.0610000000004</v>
+      </c>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22">
+        <f>SUM(AA5:AA54)</f>
+        <v>1752.9530000000004</v>
+      </c>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22">
+        <f>SUM(AD5:AD54)</f>
+        <v>2012.8650000000002</v>
+      </c>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="21">
+        <f t="shared" ref="AG4:AG54" si="0">MIN(S4:AD4)*1000</f>
+        <v>1486061.0000000005</v>
+      </c>
+      <c r="AH4" s="21">
+        <f>MAX(S4:AD4)*1000</f>
+        <v>2012865.0000000002</v>
+      </c>
+      <c r="AI4" s="40">
+        <f>((AD4-S4)/S4)/(2019-2008)</f>
+        <v>1.9942645110826954E-2</v>
+      </c>
+      <c r="AJ4" s="22">
+        <f>SUM(AJ5:AJ54)</f>
+        <v>3740.4255800000005</v>
+      </c>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="22">
+        <f>SUM(AP5:AP54)</f>
+        <v>5962.1572700000015</v>
+      </c>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="22">
+        <f>SUM(AR5:AR54)</f>
+        <v>8159.7387600000047</v>
+      </c>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22">
+        <f>SUM(AU5:AU54)</f>
+        <v>10027.740039999997</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="21">
+        <f t="shared" ref="AX4:AX54" si="1">MIN(AJ4:AU4)</f>
+        <v>3740.4255800000005</v>
+      </c>
+      <c r="AY4" s="21">
+        <f t="shared" ref="AY4:AY54" si="2">MAX(AJ4:AU4)</f>
+        <v>10027.740039999997</v>
+      </c>
+      <c r="AZ4" s="36">
+        <f>((AU4-AJ4)/AJ4)/(2019-2008)</f>
+        <v>0.15280989544996679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2.714</v>
+      </c>
+      <c r="H5">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="J5">
+        <v>2.7130000000000001</v>
+      </c>
+      <c r="M5">
+        <v>3.012</v>
+      </c>
+      <c r="P5" s="3">
+        <f>MIN(F5:M5)*1000</f>
+        <v>2713</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>MAX(B5:M5)*1000</f>
+        <v>3012</v>
+      </c>
+      <c r="R5" s="32">
+        <f t="shared" ref="R5:R54" si="3">((M5-B5)/B5)/(2019-2008)</f>
+        <v>9.9819119715950973E-3</v>
+      </c>
+      <c r="S5">
+        <v>190.649</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5">
+        <v>278.20600000000002</v>
+      </c>
+      <c r="Z5"/>
+      <c r="AA5">
+        <v>433.012</v>
+      </c>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5">
+        <v>390.79199999999997</v>
+      </c>
+      <c r="AG5" s="3">
+        <f t="shared" si="0"/>
+        <v>190649</v>
+      </c>
+      <c r="AH5" s="3">
+        <f>MAX(S5:AD5)*1000</f>
+        <v>433012</v>
+      </c>
+      <c r="AI5" s="37">
+        <f t="shared" ref="AI5:AI54" si="4">((AD5-S5)/S5)/(2019-2008)</f>
+        <v>9.5436210952159095E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>1355.4069999999999</v>
+      </c>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5">
+        <v>2432.05269</v>
+      </c>
+      <c r="AQ5"/>
+      <c r="AR5">
+        <v>3120.2884800000002</v>
+      </c>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5">
+        <v>3632.8922299999999</v>
+      </c>
+      <c r="AX5" s="3">
+        <f t="shared" si="1"/>
+        <v>1355.4069999999999</v>
+      </c>
+      <c r="AY5" s="3">
+        <f t="shared" si="2"/>
+        <v>3632.8922299999999</v>
+      </c>
+      <c r="AZ5" s="37">
+        <f t="shared" ref="AZ5:AZ54" si="5">((AU5-AJ5)/AJ5)/(2019-2008)</f>
+        <v>0.15275419989581127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.222</v>
+      </c>
+      <c r="H6">
+        <v>1.228</v>
+      </c>
+      <c r="J6">
+        <v>1.276</v>
+      </c>
+      <c r="M6">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="P6" s="3">
+        <f>MIN(F6:M6)*1000</f>
+        <v>1228</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>MAX(B6:M6)*1000</f>
+        <v>1364</v>
+      </c>
+      <c r="R6" s="32">
+        <f t="shared" si="3"/>
+        <v>1.0563904180925466E-2</v>
+      </c>
+      <c r="S6">
+        <v>79.191000000000003</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6">
+        <v>92.552999999999997</v>
+      </c>
+      <c r="Z6"/>
+      <c r="AA6">
+        <v>88.738</v>
+      </c>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6">
+        <v>101.595</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="0"/>
+        <v>79191</v>
+      </c>
+      <c r="AH6" s="3">
+        <f>MAX(S6:AD6)*1000</f>
+        <v>101595</v>
+      </c>
+      <c r="AI6" s="37">
+        <f t="shared" si="4"/>
+        <v>2.57191760771713E-2</v>
+      </c>
+      <c r="AJ6">
+        <v>156.66152</v>
+      </c>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6">
+        <v>218.87200000000001</v>
+      </c>
+      <c r="AQ6"/>
+      <c r="AR6">
+        <v>275.88600000000002</v>
+      </c>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6">
+        <v>271.61021</v>
+      </c>
+      <c r="AX6" s="4">
+        <f t="shared" si="1"/>
+        <v>156.66152</v>
+      </c>
+      <c r="AY6" s="4">
+        <f t="shared" si="2"/>
+        <v>275.88600000000002</v>
+      </c>
+      <c r="AZ6" s="37">
+        <f t="shared" si="5"/>
+        <v>6.670355878770301E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J7">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="M7">
+        <v>1.321</v>
+      </c>
+      <c r="P7" s="3">
+        <f>MIN(F7:M7)*1000</f>
+        <v>917</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>MAX(B7:M7)*1000</f>
+        <v>1321</v>
+      </c>
+      <c r="R7" s="32">
+        <f t="shared" si="3"/>
+        <v>5.4303616576893483E-2</v>
+      </c>
+      <c r="S7">
+        <v>68.188999999999993</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7">
+        <v>86.114000000000004</v>
+      </c>
+      <c r="Z7"/>
+      <c r="AA7">
+        <v>106.997</v>
+      </c>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7">
+        <v>130.80199999999999</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="0"/>
+        <v>68189</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>MAX(S7:AD7)*1000</f>
+        <v>130801.99999999999</v>
+      </c>
+      <c r="AI7" s="37">
+        <f t="shared" si="4"/>
+        <v>8.3475207278166708E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>124.05694</v>
+      </c>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7">
+        <v>178.98126999999999</v>
+      </c>
+      <c r="AQ7"/>
+      <c r="AR7">
+        <v>233.12772000000001</v>
+      </c>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7">
+        <v>301.4042</v>
+      </c>
+      <c r="AX7" s="4">
+        <f t="shared" si="1"/>
+        <v>124.05694</v>
+      </c>
+      <c r="AY7" s="4">
+        <f t="shared" si="2"/>
+        <v>301.4042</v>
+      </c>
+      <c r="AZ7" s="37">
+        <f t="shared" si="5"/>
+        <v>0.12996030840207878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J8">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="M8">
+        <v>1.048</v>
+      </c>
+      <c r="P8" s="3">
+        <f>MIN(F8:M8)*1000</f>
+        <v>679</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>MAX(B8:M8)*1000</f>
+        <v>1048</v>
+      </c>
+      <c r="R8" s="32">
+        <f t="shared" si="3"/>
+        <v>7.1672354948805472E-2</v>
+      </c>
+      <c r="S8">
+        <v>21.71</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8">
+        <v>39.521000000000001</v>
+      </c>
+      <c r="Z8"/>
+      <c r="AA8">
+        <v>37.807000000000002</v>
+      </c>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8">
+        <v>43.542999999999999</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="0"/>
+        <v>21710</v>
+      </c>
+      <c r="AH8" s="3">
+        <f>MAX(S8:AD8)*1000</f>
+        <v>43543</v>
+      </c>
+      <c r="AI8" s="37">
+        <f t="shared" si="4"/>
+        <v>9.1424144717557887E-2</v>
+      </c>
+      <c r="AJ8">
+        <v>251.03201999999999</v>
+      </c>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8">
+        <v>341.66703999999999</v>
+      </c>
+      <c r="AQ8"/>
+      <c r="AR8">
+        <v>712.39931999999999</v>
+      </c>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8">
+        <v>749.18164000000002</v>
+      </c>
+      <c r="AX8" s="4">
+        <f t="shared" si="1"/>
+        <v>251.03201999999999</v>
+      </c>
+      <c r="AY8" s="4">
+        <f t="shared" si="2"/>
+        <v>749.18164000000002</v>
+      </c>
+      <c r="AZ8" s="37">
+        <f t="shared" si="5"/>
+        <v>0.18040060822085205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="M9">
+        <v>0.745</v>
+      </c>
+      <c r="P9" s="3">
+        <f>MIN(F9:M9)*1000</f>
+        <v>677</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>MAX(B9:M9)*1000</f>
+        <v>887</v>
+      </c>
+      <c r="R9" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.4553653787024702E-2</v>
+      </c>
+      <c r="S9">
+        <v>33.286000000000001</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9">
+        <v>29.895</v>
+      </c>
+      <c r="Z9"/>
+      <c r="AA9">
+        <v>31.866</v>
+      </c>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9">
+        <v>45.316000000000003</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="0"/>
+        <v>29895</v>
+      </c>
+      <c r="AH9" s="3">
+        <f>MAX(S9:AD9)*1000</f>
+        <v>45316</v>
+      </c>
+      <c r="AI9" s="37">
+        <f t="shared" si="4"/>
+        <v>3.285574606850819E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>332.72460000000001</v>
+      </c>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9">
+        <v>561.23773000000006</v>
+      </c>
+      <c r="AQ9"/>
+      <c r="AR9">
+        <v>687.14459999999997</v>
+      </c>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9">
+        <v>894.8297</v>
+      </c>
+      <c r="AX9" s="4">
+        <f t="shared" si="1"/>
+        <v>332.72460000000001</v>
+      </c>
+      <c r="AY9" s="4">
+        <f t="shared" si="2"/>
+        <v>894.8297</v>
+      </c>
+      <c r="AZ9" s="37">
+        <f t="shared" si="5"/>
+        <v>0.15358186210566827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J10">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="M10">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="P10" s="3">
+        <f>MIN(F10:M10)*1000</f>
+        <v>541</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>MAX(B10:M10)*1000</f>
+        <v>785</v>
+      </c>
+      <c r="R10" s="32">
+        <f t="shared" si="3"/>
+        <v>3.955459531327904E-2</v>
+      </c>
+      <c r="S10">
+        <v>25.1</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10">
+        <v>30.117999999999999</v>
+      </c>
+      <c r="Z10"/>
+      <c r="AA10" s="29">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10">
+        <v>45.311999999999998</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="0"/>
+        <v>25100</v>
+      </c>
+      <c r="AH10" s="3">
+        <f>MAX(S10:AD10)*1000</f>
+        <v>45312</v>
+      </c>
+      <c r="AI10" s="37">
+        <f t="shared" si="4"/>
+        <v>7.3205360376675105E-2</v>
+      </c>
+      <c r="AJ10">
+        <v>50.462699999999998</v>
+      </c>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10">
+        <v>96.842140000000001</v>
+      </c>
+      <c r="AQ10"/>
+      <c r="AR10">
+        <v>109.34135999999999</v>
+      </c>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10">
+        <v>118.16898999999999</v>
+      </c>
+      <c r="AX10" s="4">
+        <f t="shared" si="1"/>
+        <v>50.462699999999998</v>
+      </c>
+      <c r="AY10" s="4">
+        <f t="shared" si="2"/>
+        <v>118.16898999999999</v>
+      </c>
+      <c r="AZ10" s="37">
+        <f t="shared" si="5"/>
+        <v>0.12197360174400641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="P11" s="3">
+        <f>MIN(F11:M11)*1000</f>
+        <v>612</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>MAX(B11:M11)*1000</f>
+        <v>779</v>
+      </c>
+      <c r="R11" s="32">
+        <f t="shared" si="3"/>
+        <v>4.5805545805545807E-2</v>
+      </c>
+      <c r="S11">
+        <v>38.286999999999999</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11">
+        <v>39.453000000000003</v>
+      </c>
+      <c r="Z11"/>
+      <c r="AA11">
+        <v>41.738999999999997</v>
+      </c>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11">
+        <v>54.125999999999998</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="0"/>
+        <v>38287</v>
+      </c>
+      <c r="AH11" s="3">
+        <f>MAX(S11:AD11)*1000</f>
+        <v>54126</v>
+      </c>
+      <c r="AI11" s="37">
+        <f t="shared" si="4"/>
+        <v>3.7608302841933054E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>84.423100000000005</v>
+      </c>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11">
+        <v>111.86234</v>
+      </c>
+      <c r="AQ11"/>
+      <c r="AR11">
+        <v>141.68304000000001</v>
+      </c>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11">
+        <v>146.04195999999999</v>
+      </c>
+      <c r="AX11" s="4">
+        <f t="shared" si="1"/>
+        <v>84.423100000000005</v>
+      </c>
+      <c r="AY11" s="4">
+        <f t="shared" si="2"/>
+        <v>146.04195999999999</v>
+      </c>
+      <c r="AZ11" s="37">
+        <f t="shared" si="5"/>
+        <v>6.6352864861093042E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="H12">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="P12" s="3">
+        <f>MIN(F12:M12)*1000</f>
+        <v>456</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>MAX(B12:M12)*1000</f>
+        <v>657</v>
+      </c>
+      <c r="R12" s="32">
+        <f t="shared" si="3"/>
+        <v>-2.7812370278123701E-2</v>
+      </c>
+      <c r="S12">
+        <v>42.755000000000003</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12">
+        <v>82.658000000000001</v>
+      </c>
+      <c r="Z12"/>
+      <c r="AA12">
+        <v>78.823999999999998</v>
+      </c>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12">
+        <v>79.37</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="0"/>
+        <v>42755</v>
+      </c>
+      <c r="AH12" s="3">
+        <f>MAX(S12:AD12)*1000</f>
+        <v>82658</v>
+      </c>
+      <c r="AI12" s="37">
+        <f t="shared" si="4"/>
+        <v>7.7853733215679177E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>183.62334000000001</v>
+      </c>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12">
+        <v>258.46188999999998</v>
+      </c>
+      <c r="AQ12"/>
+      <c r="AR12">
+        <v>378.96767999999997</v>
+      </c>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12">
+        <v>458.95006000000001</v>
+      </c>
+      <c r="AX12" s="4">
+        <f t="shared" si="1"/>
+        <v>183.62334000000001</v>
+      </c>
+      <c r="AY12" s="4">
+        <f t="shared" si="2"/>
+        <v>458.95006000000001</v>
+      </c>
+      <c r="AZ12" s="37">
+        <f t="shared" si="5"/>
+        <v>0.13631002365048919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="H13">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="J13">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M13">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="P13" s="3">
+        <f>MIN(F13:M13)*1000</f>
+        <v>542</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>MAX(B13:M13)*1000</f>
+        <v>655</v>
+      </c>
+      <c r="R13" s="32">
+        <f t="shared" si="3"/>
+        <v>3.6597235740704691E-2</v>
+      </c>
+      <c r="S13">
+        <v>31.38</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13">
+        <v>46.539000000000001</v>
+      </c>
+      <c r="Z13"/>
+      <c r="AA13">
+        <v>54.366</v>
+      </c>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13">
+        <v>82.186999999999998</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="0"/>
+        <v>31380</v>
+      </c>
+      <c r="AH13" s="3">
+        <f>MAX(S13:AD13)*1000</f>
+        <v>82187</v>
+      </c>
+      <c r="AI13" s="37">
+        <f t="shared" si="4"/>
+        <v>0.14718987195086622</v>
+      </c>
+      <c r="AJ13">
+        <v>85.971260000000001</v>
+      </c>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13">
+        <v>102.33901</v>
+      </c>
+      <c r="AQ13"/>
+      <c r="AR13">
+        <v>137.21832000000001</v>
+      </c>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13">
+        <v>161.33941999999999</v>
+      </c>
+      <c r="AX13" s="4">
+        <f t="shared" si="1"/>
+        <v>85.971260000000001</v>
+      </c>
+      <c r="AY13" s="4">
+        <f t="shared" si="2"/>
+        <v>161.33941999999999</v>
+      </c>
+      <c r="AZ13" s="37">
+        <f t="shared" si="5"/>
+        <v>7.9696993031053723E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H14">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="M14">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="P14" s="3">
+        <f>MIN(F14:M14)*1000</f>
+        <v>512</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>MAX(B14:M14)*1000</f>
+        <v>635</v>
+      </c>
+      <c r="R14" s="32">
+        <f t="shared" si="3"/>
+        <v>1.4049586776859496E-2</v>
+      </c>
+      <c r="S14">
+        <v>49.566000000000003</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14">
+        <v>53.86</v>
+      </c>
+      <c r="Z14"/>
+      <c r="AA14">
+        <v>52.89</v>
+      </c>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14">
+        <v>70.028000000000006</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="0"/>
+        <v>49566</v>
+      </c>
+      <c r="AH14" s="3">
+        <f>MAX(S14:AD14)*1000</f>
+        <v>70028</v>
+      </c>
+      <c r="AI14" s="37">
+        <f t="shared" si="4"/>
+        <v>3.7529391481697504E-2</v>
+      </c>
+      <c r="AJ14">
+        <v>81.48254</v>
+      </c>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14">
+        <v>100.54378</v>
+      </c>
+      <c r="AQ14"/>
+      <c r="AR14">
+        <v>114.99732</v>
+      </c>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14">
+        <v>114.74206</v>
+      </c>
+      <c r="AX14" s="4">
+        <f t="shared" si="1"/>
+        <v>81.48254</v>
+      </c>
+      <c r="AY14" s="4">
+        <f t="shared" si="2"/>
+        <v>114.99732</v>
+      </c>
+      <c r="AZ14" s="37">
+        <f t="shared" si="5"/>
+        <v>3.7107246868749139E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J15">
+        <v>0.42</v>
+      </c>
+      <c r="M15">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="P15" s="3">
+        <f>MIN(F15:M15)*1000</f>
+        <v>282</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>MAX(B15:M15)*1000</f>
+        <v>595</v>
+      </c>
+      <c r="R15" s="32">
+        <f t="shared" si="3"/>
+        <v>0.27457002457002455</v>
+      </c>
+      <c r="S15">
+        <v>5.2709999999999999</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15">
+        <v>10.647</v>
+      </c>
+      <c r="Z15"/>
+      <c r="AA15">
+        <v>17.491</v>
+      </c>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15" s="29">
+        <v>14.8</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="0"/>
+        <v>5271</v>
+      </c>
+      <c r="AH15" s="3">
+        <f>MAX(S15:AD15)*1000</f>
+        <v>17491</v>
+      </c>
+      <c r="AI15" s="37">
+        <f t="shared" si="4"/>
+        <v>0.16434694123937152</v>
+      </c>
+      <c r="AJ15">
+        <v>16.374860000000002</v>
+      </c>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15">
+        <v>65.231049999999996</v>
+      </c>
+      <c r="AQ15"/>
+      <c r="AR15">
+        <v>107.05392000000001</v>
+      </c>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15">
+        <v>182.76051000000001</v>
+      </c>
+      <c r="AX15" s="4">
+        <f t="shared" si="1"/>
+        <v>16.374860000000002</v>
+      </c>
+      <c r="AY15" s="4">
+        <f t="shared" si="2"/>
+        <v>182.76051000000001</v>
+      </c>
+      <c r="AZ15" s="37">
+        <f t="shared" si="5"/>
+        <v>0.92373114529334477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J16">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="M16">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="P16" s="3">
+        <f>MIN(F16:M16)*1000</f>
+        <v>332</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>MAX(B16:M16)*1000</f>
+        <v>541</v>
+      </c>
+      <c r="R16" s="32">
+        <f t="shared" si="3"/>
+        <v>1.577598106882272E-2</v>
+      </c>
+      <c r="S16">
+        <v>27.597999999999999</v>
+      </c>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16">
+        <v>23.515999999999998</v>
+      </c>
+      <c r="Z16"/>
+      <c r="AA16">
+        <v>30.835000000000001</v>
+      </c>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16">
+        <v>49.494999999999997</v>
+      </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="0"/>
+        <v>23516</v>
+      </c>
+      <c r="AH16" s="3">
+        <f>MAX(S16:AD16)*1000</f>
+        <v>49495</v>
+      </c>
+      <c r="AI16" s="37">
+        <f t="shared" si="4"/>
+        <v>7.212973272107992E-2</v>
+      </c>
+      <c r="AJ16">
+        <v>83.910979999999995</v>
+      </c>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16">
+        <v>135.82708</v>
+      </c>
+      <c r="AQ16"/>
+      <c r="AR16">
+        <v>217.15235999999999</v>
+      </c>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16">
+        <v>233.26455000000001</v>
+      </c>
+      <c r="AX16" s="4">
+        <f t="shared" si="1"/>
+        <v>83.910979999999995</v>
+      </c>
+      <c r="AY16" s="4">
+        <f t="shared" si="2"/>
+        <v>233.26455000000001</v>
+      </c>
+      <c r="AZ16" s="37">
+        <f t="shared" si="5"/>
+        <v>0.16180954235938222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0.379</v>
+      </c>
+      <c r="H17">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="P17" s="3">
+        <f>MIN(F17:M17)*1000</f>
+        <v>456</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>MAX(B17:M17)*1000</f>
+        <v>517</v>
+      </c>
+      <c r="R17" s="32">
+        <f t="shared" si="3"/>
+        <v>1.8469656992084436E-2</v>
+      </c>
+      <c r="S17">
+        <v>11.443</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17">
+        <v>23.661000000000001</v>
+      </c>
+      <c r="Z17"/>
+      <c r="AA17">
+        <v>22.387</v>
+      </c>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17">
+        <v>22.373000000000001</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="0"/>
+        <v>11443</v>
+      </c>
+      <c r="AH17" s="3">
+        <f>MAX(S17:AD17)*1000</f>
+        <v>23661</v>
+      </c>
+      <c r="AI17" s="37">
+        <f t="shared" si="4"/>
+        <v>8.6833554455681541E-2</v>
+      </c>
+      <c r="AJ17">
+        <v>36.1965</v>
+      </c>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17">
+        <v>59.054020000000001</v>
+      </c>
+      <c r="AQ17"/>
+      <c r="AR17">
+        <v>70.899839999999998</v>
+      </c>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17">
+        <v>64.458200000000005</v>
+      </c>
+      <c r="AX17" s="4">
+        <f t="shared" si="1"/>
+        <v>36.1965</v>
+      </c>
+      <c r="AY17" s="4">
+        <f t="shared" si="2"/>
+        <v>70.899839999999998</v>
+      </c>
+      <c r="AZ17" s="37">
+        <f t="shared" si="5"/>
+        <v>7.0980494095988708E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.372</v>
+      </c>
+      <c r="H18">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.217</v>
+      </c>
+      <c r="M18">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="P18" s="3">
+        <f>MIN(F18:M18)*1000</f>
+        <v>217</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>MAX(B18:M18)*1000</f>
+        <v>372</v>
+      </c>
+      <c r="R18" s="32">
+        <f t="shared" si="3"/>
+        <v>-3.3968719452590418E-2</v>
+      </c>
+      <c r="S18">
+        <v>127.238</v>
+      </c>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18">
+        <v>51.271000000000001</v>
+      </c>
+      <c r="Z18"/>
+      <c r="AA18">
+        <v>59.411000000000001</v>
+      </c>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18">
+        <v>99.718999999999994</v>
+      </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="0"/>
+        <v>51271</v>
+      </c>
+      <c r="AH18" s="3">
+        <f>MAX(S18:AD18)*1000</f>
+        <v>127238</v>
+      </c>
+      <c r="AI18" s="37">
+        <f t="shared" si="4"/>
+        <v>-1.9661793432207933E-2</v>
+      </c>
+      <c r="AJ18">
+        <v>176.20704000000001</v>
+      </c>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18">
+        <v>217.01246</v>
+      </c>
+      <c r="AQ18"/>
+      <c r="AR18">
+        <v>321.28271999999998</v>
+      </c>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18">
+        <v>428.54602999999997</v>
+      </c>
+      <c r="AX18" s="4">
+        <f t="shared" si="1"/>
+        <v>176.20704000000001</v>
+      </c>
+      <c r="AY18" s="4">
+        <f t="shared" si="2"/>
+        <v>428.54602999999997</v>
+      </c>
+      <c r="AZ18" s="37">
+        <f t="shared" si="5"/>
+        <v>0.13018723986180222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.216</v>
+      </c>
+      <c r="J19">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="P19" s="3">
+        <f>MIN(F19:M19)*1000</f>
+        <v>216</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>MAX(B19:M19)*1000</f>
+        <v>355</v>
+      </c>
+      <c r="R19" s="32">
+        <f t="shared" si="3"/>
+        <v>7.2911859713890151E-2</v>
+      </c>
+      <c r="S19">
+        <v>12.225</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19">
+        <v>20.009</v>
+      </c>
+      <c r="Z19"/>
+      <c r="AA19">
+        <v>16.623999999999999</v>
+      </c>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19">
+        <v>20.716999999999999</v>
+      </c>
+      <c r="AG19" s="3">
+        <f t="shared" si="0"/>
+        <v>12225</v>
+      </c>
+      <c r="AH19" s="3">
+        <f>MAX(S19:AD19)*1000</f>
+        <v>20717</v>
+      </c>
+      <c r="AI19" s="37">
+        <f t="shared" si="4"/>
+        <v>6.3149284253578727E-2</v>
+      </c>
+      <c r="AJ19">
+        <v>11.002319999999999</v>
+      </c>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19">
+        <v>47.168660000000003</v>
+      </c>
+      <c r="AQ19"/>
+      <c r="AR19">
+        <v>109.40184000000001</v>
+      </c>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19">
+        <v>115.0188</v>
+      </c>
+      <c r="AX19" s="4">
+        <f t="shared" si="1"/>
+        <v>11.002319999999999</v>
+      </c>
+      <c r="AY19" s="4">
+        <f t="shared" si="2"/>
+        <v>115.0188</v>
+      </c>
+      <c r="AZ19" s="37">
+        <f t="shared" si="5"/>
+        <v>0.8594590628488934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>0.246</v>
+      </c>
+      <c r="H20">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.247</v>
+      </c>
+      <c r="M20">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="P20" s="3">
+        <f>MIN(F20:M20)*1000</f>
+        <v>247</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>MAX(B20:M20)*1000</f>
+        <v>347</v>
+      </c>
+      <c r="R20" s="32">
+        <f t="shared" si="3"/>
+        <v>3.7324464153732438E-2</v>
+      </c>
+      <c r="S20">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20">
+        <v>8.9849999999999994</v>
+      </c>
+      <c r="Z20"/>
+      <c r="AA20">
+        <v>12.87</v>
+      </c>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20">
+        <v>17.303999999999998</v>
+      </c>
+      <c r="AG20" s="3">
+        <f t="shared" si="0"/>
+        <v>3894</v>
+      </c>
+      <c r="AH20" s="3">
+        <f>MAX(S20:AD20)*1000</f>
+        <v>17304</v>
+      </c>
+      <c r="AI20" s="37">
+        <f t="shared" si="4"/>
+        <v>0.31306905729093704</v>
+      </c>
+      <c r="AJ20">
+        <v>62.299280000000003</v>
+      </c>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20">
+        <v>72.965689999999995</v>
+      </c>
+      <c r="AQ20"/>
+      <c r="AR20">
+        <v>156.51035999999999</v>
+      </c>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20">
+        <v>373.46568000000002</v>
+      </c>
+      <c r="AX20" s="4">
+        <f t="shared" si="1"/>
+        <v>62.299280000000003</v>
+      </c>
+      <c r="AY20" s="4">
+        <f t="shared" si="2"/>
+        <v>373.46568000000002</v>
+      </c>
+      <c r="AZ20" s="37">
+        <f t="shared" si="5"/>
+        <v>0.45406390804925106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="H21">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="J21">
+        <v>0.113</v>
+      </c>
+      <c r="M21">
+        <v>0.129</v>
+      </c>
+      <c r="P21" s="3">
+        <f>MIN(F21:M21)*1000</f>
+        <v>113</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>MAX(B21:M21)*1000</f>
+        <v>338</v>
+      </c>
+      <c r="R21" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.6213017751479293E-2</v>
+      </c>
+      <c r="S21">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21">
+        <v>1.419</v>
+      </c>
+      <c r="Z21"/>
+      <c r="AA21">
+        <v>2.899</v>
+      </c>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+      <c r="AH21" s="3">
+        <f>MAX(S21:AD21)*1000</f>
+        <v>4273</v>
+      </c>
+      <c r="AI21" s="37">
+        <f t="shared" si="4"/>
+        <v>-6.68680722507074E-2</v>
+      </c>
+      <c r="AJ21">
+        <v>11.89204</v>
+      </c>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21">
+        <v>14.55804</v>
+      </c>
+      <c r="AQ21"/>
+      <c r="AR21">
+        <v>14.480639999999999</v>
+      </c>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21">
+        <v>17.455829999999999</v>
+      </c>
+      <c r="AX21" s="4">
+        <f t="shared" si="1"/>
+        <v>11.89204</v>
+      </c>
+      <c r="AY21" s="4">
+        <f t="shared" si="2"/>
+        <v>17.455829999999999</v>
+      </c>
+      <c r="AZ21" s="37">
+        <f t="shared" si="5"/>
+        <v>4.2532575648004112E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.249</v>
+      </c>
+      <c r="J22">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="M22">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="P22" s="3">
+        <f>MIN(F22:M22)*1000</f>
+        <v>205</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>MAX(B22:M22)*1000</f>
+        <v>258</v>
+      </c>
+      <c r="R22" s="32">
+        <f t="shared" si="3"/>
+        <v>1.151250496228662E-2</v>
+      </c>
+      <c r="S22">
+        <v>12.414</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22">
+        <v>16.620999999999999</v>
+      </c>
+      <c r="Z22"/>
+      <c r="AA22">
+        <v>15.845000000000001</v>
+      </c>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22">
+        <v>24.57</v>
+      </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="0"/>
+        <v>12414</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>MAX(S22:AD22)*1000</f>
+        <v>24570</v>
+      </c>
+      <c r="AI22" s="37">
+        <f t="shared" si="4"/>
+        <v>8.9019728459071149E-2</v>
+      </c>
+      <c r="AJ22">
+        <v>27.813780000000001</v>
+      </c>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22">
+        <v>57.468069999999997</v>
+      </c>
+      <c r="AQ22"/>
+      <c r="AR22">
+        <v>56.274479999999997</v>
+      </c>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22">
+        <v>73.429019999999994</v>
+      </c>
+      <c r="AX22" s="4">
+        <f t="shared" si="1"/>
+        <v>27.813780000000001</v>
+      </c>
+      <c r="AY22" s="4">
+        <f t="shared" si="2"/>
+        <v>73.429019999999994</v>
+      </c>
+      <c r="AZ22" s="37">
+        <f t="shared" si="5"/>
+        <v>0.1490930035399719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.254</v>
+      </c>
+      <c r="H23">
+        <v>0.161</v>
+      </c>
+      <c r="J23">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.24</v>
+      </c>
+      <c r="P23" s="3">
+        <f>MIN(F23:M23)*1000</f>
+        <v>161</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>MAX(B23:M23)*1000</f>
+        <v>254</v>
+      </c>
+      <c r="R23" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.0107372942018655E-3</v>
+      </c>
+      <c r="S23">
+        <v>60.091000000000001</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23">
+        <v>50.664000000000001</v>
+      </c>
+      <c r="Z23"/>
+      <c r="AA23">
+        <v>72.266999999999996</v>
+      </c>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23">
+        <v>73.171000000000006</v>
+      </c>
+      <c r="AG23" s="3">
+        <f t="shared" si="0"/>
+        <v>50664</v>
+      </c>
+      <c r="AH23" s="3">
+        <f>MAX(S23:AD23)*1000</f>
+        <v>73171</v>
+      </c>
+      <c r="AI23" s="37">
+        <f t="shared" si="4"/>
+        <v>1.9788169760711412E-2</v>
+      </c>
+      <c r="AJ23">
+        <v>84.075000000000003</v>
+      </c>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23">
+        <v>71.608639999999994</v>
+      </c>
+      <c r="AQ23"/>
+      <c r="AR23">
+        <v>105.8454</v>
+      </c>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23">
+        <v>208.02768</v>
+      </c>
+      <c r="AX23" s="4">
+        <f t="shared" si="1"/>
+        <v>71.608639999999994</v>
+      </c>
+      <c r="AY23" s="4">
+        <f t="shared" si="2"/>
+        <v>208.02768</v>
+      </c>
+      <c r="AZ23" s="37">
+        <f t="shared" si="5"/>
+        <v>0.13402825399399887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>0.22</v>
+      </c>
+      <c r="H24">
+        <v>0.157</v>
+      </c>
+      <c r="J24">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="M24">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="P24" s="3">
+        <f>MIN(F24:M24)*1000</f>
+        <v>157</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>MAX(B24:M24)*1000</f>
+        <v>238</v>
+      </c>
+      <c r="R24" s="32">
+        <f t="shared" si="3"/>
+        <v>7.4380165289256147E-3</v>
+      </c>
+      <c r="S24">
+        <v>62.34</v>
+      </c>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24">
+        <v>46.606000000000002</v>
+      </c>
+      <c r="Z24"/>
+      <c r="AA24">
+        <v>71.427999999999997</v>
+      </c>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24">
+        <v>67.813999999999993</v>
+      </c>
+      <c r="AG24" s="3">
+        <f t="shared" si="0"/>
+        <v>46606</v>
+      </c>
+      <c r="AH24" s="3">
+        <f>MAX(S24:AD24)*1000</f>
+        <v>71428</v>
+      </c>
+      <c r="AI24" s="37">
+        <f t="shared" si="4"/>
+        <v>7.9826173185172065E-3</v>
+      </c>
+      <c r="AJ24">
+        <v>82.872579999999999</v>
+      </c>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24">
+        <v>160.01091</v>
+      </c>
+      <c r="AQ24"/>
+      <c r="AR24">
+        <v>195.80076</v>
+      </c>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24">
+        <v>185.96019000000001</v>
+      </c>
+      <c r="AX24" s="4">
+        <f t="shared" si="1"/>
+        <v>82.872579999999999</v>
+      </c>
+      <c r="AY24" s="4">
+        <f t="shared" si="2"/>
+        <v>195.80076</v>
+      </c>
+      <c r="AZ24" s="37">
+        <f t="shared" si="5"/>
+        <v>0.11308445940853912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.17</v>
+      </c>
+      <c r="J25">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="P25" s="3">
+        <f>MIN(F25:M25)*1000</f>
+        <v>162</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>MAX(B25:M25)*1000</f>
+        <v>238</v>
+      </c>
+      <c r="R25" s="32">
+        <f t="shared" si="3"/>
+        <v>4.2648709315375968E-2</v>
+      </c>
+      <c r="S25">
+        <v>59.185000000000002</v>
+      </c>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25">
+        <v>44.755000000000003</v>
+      </c>
+      <c r="Z25"/>
+      <c r="AA25">
+        <v>43.453000000000003</v>
+      </c>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25">
+        <v>93.86</v>
+      </c>
+      <c r="AG25" s="3">
+        <f t="shared" si="0"/>
+        <v>43453</v>
+      </c>
+      <c r="AH25" s="3">
+        <f>MAX(S25:AD25)*1000</f>
+        <v>93860</v>
+      </c>
+      <c r="AI25" s="37">
+        <f t="shared" si="4"/>
+        <v>5.3261345396176857E-2</v>
+      </c>
+      <c r="AJ25">
+        <v>57.390479999999997</v>
+      </c>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25">
+        <v>82.749529999999993</v>
+      </c>
+      <c r="AQ25"/>
+      <c r="AR25">
+        <v>103.64868</v>
+      </c>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25">
+        <v>186.48034000000001</v>
+      </c>
+      <c r="AX25" s="4">
+        <f t="shared" si="1"/>
+        <v>57.390479999999997</v>
+      </c>
+      <c r="AY25" s="4">
+        <f t="shared" si="2"/>
+        <v>186.48034000000001</v>
+      </c>
+      <c r="AZ25" s="37">
+        <f t="shared" si="5"/>
+        <v>0.20448412033113889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.156</v>
+      </c>
+      <c r="M26">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="P26" s="3">
+        <f>MIN(F26:M26)*1000</f>
+        <v>147</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>MAX(B26:M26)*1000</f>
+        <v>208</v>
+      </c>
+      <c r="R26" s="32">
+        <f t="shared" si="3"/>
+        <v>1.8392012611665794E-2</v>
+      </c>
+      <c r="S26">
+        <v>115.175</v>
+      </c>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26">
+        <v>128.715</v>
+      </c>
+      <c r="Z26"/>
+      <c r="AA26">
+        <v>107.67</v>
+      </c>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26">
+        <v>144.017</v>
+      </c>
+      <c r="AG26" s="3">
+        <f t="shared" si="0"/>
+        <v>107670</v>
+      </c>
+      <c r="AH26" s="3">
+        <f>MAX(S26:AD26)*1000</f>
+        <v>144017</v>
+      </c>
+      <c r="AI26" s="37">
+        <f t="shared" si="4"/>
+        <v>2.2765357065335359E-2</v>
+      </c>
+      <c r="AJ26">
+        <v>29.95194</v>
+      </c>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26">
+        <v>47.586129999999997</v>
+      </c>
+      <c r="AQ26"/>
+      <c r="AR26">
+        <v>57.441960000000002</v>
+      </c>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26">
+        <v>66.121669999999995</v>
+      </c>
+      <c r="AX26" s="4">
+        <f t="shared" si="1"/>
+        <v>29.95194</v>
+      </c>
+      <c r="AY26" s="4">
+        <f t="shared" si="2"/>
+        <v>66.121669999999995</v>
+      </c>
+      <c r="AZ26" s="37">
+        <f t="shared" si="5"/>
+        <v>0.1097811117652904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J27">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M27">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P27" s="3">
+        <f>MIN(F27:M27)*1000</f>
+        <v>75</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>MAX(B27:M27)*1000</f>
+        <v>199</v>
+      </c>
+      <c r="R27" s="32">
+        <f t="shared" si="3"/>
+        <v>-4.4769301050708081E-2</v>
+      </c>
+      <c r="S27">
+        <v>47.642000000000003</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27">
+        <v>13.94</v>
+      </c>
+      <c r="Z27"/>
+      <c r="AA27">
+        <v>38.1</v>
+      </c>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27">
+        <v>15.808</v>
+      </c>
+      <c r="AG27" s="3">
+        <f t="shared" si="0"/>
+        <v>13940</v>
+      </c>
+      <c r="AH27" s="3">
+        <f>MAX(S27:AD27)*1000</f>
+        <v>47642</v>
+      </c>
+      <c r="AI27" s="37">
+        <f t="shared" si="4"/>
+        <v>-6.0744721044456579E-2</v>
+      </c>
+      <c r="AJ27">
+        <v>39.488700000000001</v>
+      </c>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27">
+        <v>23.827400000000001</v>
+      </c>
+      <c r="AQ27"/>
+      <c r="AR27">
+        <v>48.57732</v>
+      </c>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27">
+        <v>71.47972</v>
+      </c>
+      <c r="AX27" s="4">
+        <f t="shared" si="1"/>
+        <v>23.827400000000001</v>
+      </c>
+      <c r="AY27" s="4">
+        <f t="shared" si="2"/>
+        <v>71.47972</v>
+      </c>
+      <c r="AZ27" s="37">
+        <f t="shared" si="5"/>
+        <v>7.3648272681920271E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.107</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="M28">
+        <v>0.185</v>
+      </c>
+      <c r="P28" s="3">
+        <f>MIN(F28:M28)*1000</f>
+        <v>100</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>MAX(B28:M28)*1000</f>
+        <v>185</v>
+      </c>
+      <c r="R28" s="32">
+        <f t="shared" si="3"/>
+        <v>7.2374227714033554E-2</v>
+      </c>
+      <c r="S28">
+        <v>2.74</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28">
+        <v>2.91</v>
+      </c>
+      <c r="Z28"/>
+      <c r="AA28">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28">
+        <v>7.8940000000000001</v>
+      </c>
+      <c r="AG28" s="3">
+        <f t="shared" si="0"/>
+        <v>2740</v>
+      </c>
+      <c r="AH28" s="3">
+        <f>MAX(S28:AD28)*1000</f>
+        <v>7894</v>
+      </c>
+      <c r="AI28" s="37">
+        <f t="shared" si="4"/>
+        <v>0.1710019907100199</v>
+      </c>
+      <c r="AJ28">
+        <v>2.8851</v>
+      </c>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28">
+        <v>8.4551300000000005</v>
+      </c>
+      <c r="AQ28"/>
+      <c r="AR28">
+        <v>13.155480000000001</v>
+      </c>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28">
+        <v>38.843589999999999</v>
+      </c>
+      <c r="AX28" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8851</v>
+      </c>
+      <c r="AY28" s="4">
+        <f t="shared" si="2"/>
+        <v>38.843589999999999</v>
+      </c>
+      <c r="AZ28" s="37">
+        <f t="shared" si="5"/>
+        <v>1.1330469087253947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.18</v>
+      </c>
+      <c r="H29">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="P29" s="3">
+        <f>MIN(F29:M29)*1000</f>
+        <v>163</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>MAX(B29:M29)*1000</f>
+        <v>180</v>
+      </c>
+      <c r="R29" s="32">
+        <f t="shared" si="3"/>
+        <v>-8.5858585858585787E-3</v>
+      </c>
+      <c r="S29">
+        <v>4.9829999999999997</v>
+      </c>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29">
+        <v>11.503</v>
+      </c>
+      <c r="Z29"/>
+      <c r="AA29">
+        <v>10.055999999999999</v>
+      </c>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29">
+        <v>11.477</v>
+      </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="0"/>
+        <v>4983</v>
+      </c>
+      <c r="AH29" s="3">
+        <f>MAX(S29:AD29)*1000</f>
+        <v>11503</v>
+      </c>
+      <c r="AI29" s="37">
+        <f t="shared" si="4"/>
+        <v>0.11847554412274462</v>
+      </c>
+      <c r="AJ29">
+        <v>22.645379999999999</v>
+      </c>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29">
+        <v>45.019179999999999</v>
+      </c>
+      <c r="AQ29"/>
+      <c r="AR29">
+        <v>60.387120000000003</v>
+      </c>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29">
+        <v>63.418909999999997</v>
+      </c>
+      <c r="AX29" s="4">
+        <f t="shared" si="1"/>
+        <v>22.645379999999999</v>
+      </c>
+      <c r="AY29" s="4">
+        <f t="shared" si="2"/>
+        <v>63.418909999999997</v>
+      </c>
+      <c r="AZ29" s="37">
+        <f t="shared" si="5"/>
+        <v>0.16368391899162413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="J30">
+        <v>0.127</v>
+      </c>
+      <c r="M30">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="P30" s="3">
+        <f>MIN(F30:M30)*1000</f>
+        <v>127</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>MAX(B30:M30)*1000</f>
+        <v>179</v>
+      </c>
+      <c r="R30" s="32">
+        <f t="shared" si="3"/>
+        <v>-2.1421107628004171E-2</v>
+      </c>
+      <c r="S30">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30">
+        <v>3.2559999999999998</v>
+      </c>
+      <c r="Z30"/>
+      <c r="AA30">
+        <v>2.931</v>
+      </c>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="AG30" s="3">
+        <f t="shared" si="0"/>
+        <v>1783</v>
+      </c>
+      <c r="AH30" s="3">
+        <f>MAX(S30:AD30)*1000</f>
+        <v>3308</v>
+      </c>
+      <c r="AI30" s="37">
+        <f t="shared" si="4"/>
+        <v>7.7754550553204516E-2</v>
+      </c>
+      <c r="AJ30">
+        <v>17.796759999999999</v>
+      </c>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30">
+        <v>27.004750000000001</v>
+      </c>
+      <c r="AQ30"/>
+      <c r="AR30">
+        <v>28.215</v>
+      </c>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30">
+        <v>33.223950000000002</v>
+      </c>
+      <c r="AX30" s="4">
+        <f t="shared" si="1"/>
+        <v>17.796759999999999</v>
+      </c>
+      <c r="AY30" s="4">
+        <f t="shared" si="2"/>
+        <v>33.223950000000002</v>
+      </c>
+      <c r="AZ30" s="37">
+        <f t="shared" si="5"/>
+        <v>7.8804895845188586E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="J31">
+        <v>0.123</v>
+      </c>
+      <c r="M31">
+        <v>0.126</v>
+      </c>
+      <c r="P31" s="3">
+        <f>MIN(F31:M31)*1000</f>
+        <v>123</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>MAX(B31:M31)*1000</f>
+        <v>172</v>
+      </c>
+      <c r="R31" s="32">
+        <f t="shared" si="3"/>
+        <v>-2.4312896405919656E-2</v>
+      </c>
+      <c r="S31">
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31">
+        <v>7.84</v>
+      </c>
+      <c r="Z31"/>
+      <c r="AA31">
+        <v>4.7270000000000003</v>
+      </c>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31">
+        <v>7.2519999999999998</v>
+      </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="0"/>
+        <v>3271</v>
+      </c>
+      <c r="AH31" s="3">
+        <f>MAX(S31:AD31)*1000</f>
+        <v>7840</v>
+      </c>
+      <c r="AI31" s="37">
+        <f t="shared" si="4"/>
+        <v>0.11064172757844416</v>
+      </c>
+      <c r="AJ31">
+        <v>51.212000000000003</v>
+      </c>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31">
+        <v>62.328380000000003</v>
+      </c>
+      <c r="AQ31"/>
+      <c r="AR31">
+        <v>78.139080000000007</v>
+      </c>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31">
+        <v>87.322580000000002</v>
+      </c>
+      <c r="AX31" s="4">
+        <f t="shared" si="1"/>
+        <v>51.212000000000003</v>
+      </c>
+      <c r="AY31" s="4">
+        <f t="shared" si="2"/>
+        <v>87.322580000000002</v>
+      </c>
+      <c r="AZ31" s="37">
+        <f t="shared" si="5"/>
+        <v>6.4101773021947972E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.15</v>
+      </c>
+      <c r="J32">
+        <v>0.107</v>
+      </c>
+      <c r="M32">
+        <v>0.08</v>
+      </c>
+      <c r="P32" s="3">
+        <f>MIN(F32:M32)*1000</f>
+        <v>80</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>MAX(B32:M32)*1000</f>
+        <v>150</v>
+      </c>
+      <c r="R32" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.9607843137254895E-2</v>
+      </c>
+      <c r="S32">
+        <v>3.42</v>
+      </c>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="Z32"/>
+      <c r="AA32">
+        <v>3.18</v>
+      </c>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32">
+        <v>4.74</v>
+      </c>
+      <c r="AG32" s="3">
+        <f t="shared" si="0"/>
+        <v>3180</v>
+      </c>
+      <c r="AH32" s="3">
+        <f>MAX(S32:AD32)*1000</f>
+        <v>4740</v>
+      </c>
+      <c r="AI32" s="37">
+        <f t="shared" si="4"/>
+        <v>3.5087719298245619E-2</v>
+      </c>
+      <c r="AJ32">
+        <v>12.650779999999999</v>
+      </c>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32">
+        <v>22.72541</v>
+      </c>
+      <c r="AQ32"/>
+      <c r="AR32">
+        <v>9.7739999999999991</v>
+      </c>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32">
+        <v>11.38674</v>
+      </c>
+      <c r="AX32" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7739999999999991</v>
+      </c>
+      <c r="AY32" s="4">
+        <f t="shared" si="2"/>
+        <v>22.72541</v>
+      </c>
+      <c r="AZ32" s="37">
+        <f t="shared" si="5"/>
+        <v>-9.0834499748416488E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.129</v>
+      </c>
+      <c r="H33">
+        <v>0.12</v>
+      </c>
+      <c r="J33">
+        <v>0.111</v>
+      </c>
+      <c r="M33">
+        <v>0.121</v>
+      </c>
+      <c r="P33" s="3">
+        <f>MIN(F33:M33)*1000</f>
+        <v>111</v>
+      </c>
+      <c r="Q33" s="3">
+        <f>MAX(B33:M33)*1000</f>
+        <v>129</v>
+      </c>
+      <c r="R33" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.6377730796335493E-3</v>
+      </c>
+      <c r="S33">
+        <v>3.7050000000000001</v>
+      </c>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="Z33"/>
+      <c r="AA33">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33">
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="AG33" s="3">
+        <f t="shared" si="0"/>
+        <v>3705</v>
+      </c>
+      <c r="AH33" s="3">
+        <f>MAX(S33:AD33)*1000</f>
+        <v>6962</v>
+      </c>
+      <c r="AI33" s="37">
+        <f t="shared" si="4"/>
+        <v>7.9916574653416741E-2</v>
+      </c>
+      <c r="AJ33">
+        <v>12.275539999999999</v>
+      </c>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33">
+        <v>20.680569999999999</v>
+      </c>
+      <c r="AQ33"/>
+      <c r="AR33">
+        <v>19.093319999999999</v>
+      </c>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33">
+        <v>50.580800000000004</v>
+      </c>
+      <c r="AX33" s="4">
+        <f t="shared" si="1"/>
+        <v>12.275539999999999</v>
+      </c>
+      <c r="AY33" s="4">
+        <f t="shared" si="2"/>
+        <v>50.580800000000004</v>
+      </c>
+      <c r="AZ33" s="37">
+        <f t="shared" si="5"/>
+        <v>0.28367765195147132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>0.127</v>
+      </c>
+      <c r="H34">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.114</v>
+      </c>
+      <c r="M34">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="P34" s="3">
+        <f>MIN(F34:M34)*1000</f>
+        <v>94</v>
+      </c>
+      <c r="Q34" s="3">
+        <f>MAX(B34:M34)*1000</f>
+        <v>127</v>
+      </c>
+      <c r="R34" s="32">
+        <f t="shared" si="3"/>
+        <v>-7.1581961345740831E-3</v>
+      </c>
+      <c r="S34">
+        <v>61.832999999999998</v>
+      </c>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34">
+        <v>54.506999999999998</v>
+      </c>
+      <c r="Z34"/>
+      <c r="AA34">
+        <v>47.069000000000003</v>
+      </c>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34">
+        <v>45.951999999999998</v>
+      </c>
+      <c r="AG34" s="3">
+        <f t="shared" si="0"/>
+        <v>45952</v>
+      </c>
+      <c r="AH34" s="3">
+        <f>MAX(S34:AD34)*1000</f>
+        <v>61833</v>
+      </c>
+      <c r="AI34" s="37">
+        <f t="shared" si="4"/>
+        <v>-2.3348814916424446E-2</v>
+      </c>
+      <c r="AJ34">
+        <v>23.211780000000001</v>
+      </c>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34">
+        <v>29.734110000000001</v>
+      </c>
+      <c r="AQ34"/>
+      <c r="AR34">
+        <v>24.560279999999999</v>
+      </c>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34">
+        <v>26.863980000000002</v>
+      </c>
+      <c r="AX34" s="4">
+        <f t="shared" si="1"/>
+        <v>23.211780000000001</v>
+      </c>
+      <c r="AY34" s="4">
+        <f t="shared" si="2"/>
+        <v>29.734110000000001</v>
+      </c>
+      <c r="AZ34" s="37">
+        <f t="shared" si="5"/>
+        <v>1.4303865615570278E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.122</v>
+      </c>
+      <c r="J35">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="M35">
+        <v>6.3E-2</v>
+      </c>
+      <c r="P35" s="3">
+        <f>MIN(F35:M35)*1000</f>
+        <v>57</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>MAX(B35:M35)*1000</f>
+        <v>122</v>
+      </c>
+      <c r="R35" s="32">
+        <f t="shared" si="3"/>
+        <v>-2.1064301552106434E-2</v>
+      </c>
+      <c r="S35">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="Z35"/>
+      <c r="AA35">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="0"/>
+        <v>454</v>
+      </c>
+      <c r="AH35" s="3">
+        <f>MAX(S35:AD35)*1000</f>
+        <v>1045</v>
+      </c>
+      <c r="AI35" s="37">
+        <f t="shared" si="4"/>
+        <v>5.5066079295154176E-2</v>
+      </c>
+      <c r="AJ35">
+        <v>6.0923400000000001</v>
+      </c>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35">
+        <v>4.0133799999999997</v>
+      </c>
+      <c r="AQ35"/>
+      <c r="AR35">
+        <v>7.4984400000000004</v>
+      </c>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35">
+        <v>6.2135199999999999</v>
+      </c>
+      <c r="AX35" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0133799999999997</v>
+      </c>
+      <c r="AY35" s="4">
+        <f t="shared" si="2"/>
+        <v>7.4984400000000004</v>
+      </c>
+      <c r="AZ35" s="37">
+        <f t="shared" si="5"/>
+        <v>1.8082319168601264E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.122</v>
+      </c>
+      <c r="H36">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J36">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M36">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P36" s="3">
+        <f>MIN(F36:M36)*1000</f>
+        <v>53</v>
+      </c>
+      <c r="Q36" s="3">
+        <f>MAX(B36:M36)*1000</f>
+        <v>122</v>
+      </c>
+      <c r="R36" s="32">
+        <f t="shared" si="3"/>
+        <v>-4.0238450074515646E-2</v>
+      </c>
+      <c r="S36">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36">
+        <v>1.077</v>
+      </c>
+      <c r="Z36"/>
+      <c r="AA36">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="AG36" s="3">
+        <f t="shared" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="AH36" s="3">
+        <f>MAX(S36:AD36)*1000</f>
+        <v>1594</v>
+      </c>
+      <c r="AI36" s="37">
+        <f t="shared" si="4"/>
+        <v>1.6590234691124896E-2</v>
+      </c>
+      <c r="AJ36">
+        <v>3.07036</v>
+      </c>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36">
+        <v>8.4867399999999993</v>
+      </c>
+      <c r="AQ36"/>
+      <c r="AR36">
+        <v>9.5374800000000004</v>
+      </c>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36">
+        <v>26.508459999999999</v>
+      </c>
+      <c r="AX36" s="4">
+        <f t="shared" si="1"/>
+        <v>3.07036</v>
+      </c>
+      <c r="AY36" s="4">
+        <f t="shared" si="2"/>
+        <v>26.508459999999999</v>
+      </c>
+      <c r="AZ36" s="37">
+        <f t="shared" si="5"/>
+        <v>0.69396955524315185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J37">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M37">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P37" s="3">
+        <f>MIN(F37:M37)*1000</f>
+        <v>83</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>MAX(B37:M37)*1000</f>
+        <v>117</v>
+      </c>
+      <c r="R37" s="32">
+        <f t="shared" si="3"/>
+        <v>-8.8261253309797089E-4</v>
+      </c>
+      <c r="S37">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37">
+        <v>3.637</v>
+      </c>
+      <c r="Z37"/>
+      <c r="AA37">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37">
+        <v>2.883</v>
+      </c>
+      <c r="AG37" s="3">
+        <f t="shared" si="0"/>
+        <v>1836</v>
+      </c>
+      <c r="AH37" s="3">
+        <f>MAX(S37:AD37)*1000</f>
+        <v>3637</v>
+      </c>
+      <c r="AI37" s="37">
+        <f t="shared" si="4"/>
+        <v>5.1841948900772428E-2</v>
+      </c>
+      <c r="AJ37">
+        <v>6.8982799999999997</v>
+      </c>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37">
+        <v>13.57704</v>
+      </c>
+      <c r="AQ37"/>
+      <c r="AR37">
+        <v>52.091639999999998</v>
+      </c>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37">
+        <v>52.734119999999997</v>
+      </c>
+      <c r="AX37" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8982799999999997</v>
+      </c>
+      <c r="AY37" s="4">
+        <f t="shared" si="2"/>
+        <v>52.734119999999997</v>
+      </c>
+      <c r="AZ37" s="37">
+        <f t="shared" si="5"/>
+        <v>0.60404833457826379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>0.109</v>
+      </c>
+      <c r="H38">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J38">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M38">
+        <v>0.11</v>
+      </c>
+      <c r="P38" s="3">
+        <f>MIN(F38:M38)*1000</f>
+        <v>83</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>MAX(B38:M38)*1000</f>
+        <v>110</v>
+      </c>
+      <c r="R38" s="32">
+        <f t="shared" si="3"/>
+        <v>8.3402835696413751E-4</v>
+      </c>
+      <c r="S38">
+        <v>21.513999999999999</v>
+      </c>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38">
+        <v>17.052</v>
+      </c>
+      <c r="Z38"/>
+      <c r="AA38">
+        <v>21.937999999999999</v>
+      </c>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38">
+        <v>34.68</v>
+      </c>
+      <c r="AG38" s="3">
+        <f t="shared" si="0"/>
+        <v>17052</v>
+      </c>
+      <c r="AH38" s="3">
+        <f>MAX(S38:AD38)*1000</f>
+        <v>34680</v>
+      </c>
+      <c r="AI38" s="37">
+        <f t="shared" si="4"/>
+        <v>5.5633963507906059E-2</v>
+      </c>
+      <c r="AJ38">
+        <v>17.069880000000001</v>
+      </c>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38">
+        <v>18.76435</v>
+      </c>
+      <c r="AQ38"/>
+      <c r="AR38">
+        <v>54.021599999999999</v>
+      </c>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38">
+        <v>69.738479999999996</v>
+      </c>
+      <c r="AX38" s="4">
+        <f t="shared" si="1"/>
+        <v>17.069880000000001</v>
+      </c>
+      <c r="AY38" s="4">
+        <f t="shared" si="2"/>
+        <v>69.738479999999996</v>
+      </c>
+      <c r="AZ38" s="37">
+        <f t="shared" si="5"/>
+        <v>0.28049725864824737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H39">
+        <v>0.08</v>
+      </c>
+      <c r="J39">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M39">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P39" s="3">
+        <f>MIN(F39:M39)*1000</f>
+        <v>68</v>
+      </c>
+      <c r="Q39" s="3">
+        <f>MAX(B39:M39)*1000</f>
+        <v>103</v>
+      </c>
+      <c r="R39" s="32">
+        <f t="shared" si="3"/>
+        <v>-3.089143865842894E-2</v>
+      </c>
+      <c r="S39">
+        <v>53.46</v>
+      </c>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39">
+        <v>31.725999999999999</v>
+      </c>
+      <c r="Z39"/>
+      <c r="AA39">
+        <v>46.856000000000002</v>
+      </c>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39">
+        <v>29.617000000000001</v>
+      </c>
+      <c r="AG39" s="3">
+        <f t="shared" si="0"/>
+        <v>29617</v>
+      </c>
+      <c r="AH39" s="3">
+        <f>MAX(S39:AD39)*1000</f>
+        <v>53460</v>
+      </c>
+      <c r="AI39" s="37">
+        <f t="shared" si="4"/>
+        <v>-4.0545182464374385E-2</v>
+      </c>
+      <c r="AJ39">
+        <v>17.874639999999999</v>
+      </c>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="AQ39"/>
+      <c r="AR39">
+        <v>18.7056</v>
+      </c>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39">
+        <v>14.5642</v>
+      </c>
+      <c r="AX39" s="4">
+        <f t="shared" si="1"/>
+        <v>14.5642</v>
+      </c>
+      <c r="AY39" s="4">
+        <f t="shared" si="2"/>
+        <v>18.7056</v>
+      </c>
+      <c r="AZ39" s="37">
+        <f t="shared" si="5"/>
+        <v>-1.6836651865944765E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.06</v>
+      </c>
+      <c r="J40">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M40">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P40" s="3">
+        <f>MIN(F40:M40)*1000</f>
+        <v>48</v>
+      </c>
+      <c r="Q40" s="3">
+        <f>MAX(B40:M40)*1000</f>
+        <v>95</v>
+      </c>
+      <c r="R40" s="32">
+        <f t="shared" si="3"/>
+        <v>-4.4976076555023919E-2</v>
+      </c>
+      <c r="S40">
+        <v>58.392000000000003</v>
+      </c>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40">
+        <v>48.76</v>
+      </c>
+      <c r="Z40"/>
+      <c r="AA40">
+        <v>39.628</v>
+      </c>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40">
+        <v>38.295999999999999</v>
+      </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="0"/>
+        <v>38296</v>
+      </c>
+      <c r="AH40" s="3">
+        <f>MAX(S40:AD40)*1000</f>
+        <v>58392</v>
+      </c>
+      <c r="AI40" s="37">
+        <f t="shared" si="4"/>
+        <v>-3.1286975799922782E-2</v>
+      </c>
+      <c r="AJ40">
+        <v>15.05326</v>
+      </c>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40">
+        <v>20.119219999999999</v>
+      </c>
+      <c r="AQ40"/>
+      <c r="AR40">
+        <v>28.207439999999998</v>
+      </c>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40">
+        <v>27.172029999999999</v>
+      </c>
+      <c r="AX40" s="4">
+        <f t="shared" si="1"/>
+        <v>15.05326</v>
+      </c>
+      <c r="AY40" s="4">
+        <f t="shared" si="2"/>
+        <v>28.207439999999998</v>
+      </c>
+      <c r="AZ40" s="37">
+        <f t="shared" si="5"/>
+        <v>7.3187227460122503E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J41">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M41">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <f>MIN(F41:M41)*1000</f>
+        <v>34</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>MAX(B41:M41)*1000</f>
+        <v>88</v>
+      </c>
+      <c r="R41" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.5785123966942136E-2</v>
+      </c>
+      <c r="S41">
+        <v>11.98</v>
+      </c>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41">
+        <v>4.4489999999999998</v>
+      </c>
+      <c r="Z41"/>
+      <c r="AA41">
+        <v>7.2880000000000003</v>
+      </c>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41">
+        <v>6.5030000000000001</v>
+      </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="0"/>
+        <v>4449</v>
+      </c>
+      <c r="AH41" s="3">
+        <f>MAX(S41:AD41)*1000</f>
+        <v>11980</v>
+      </c>
+      <c r="AI41" s="37">
+        <f t="shared" si="4"/>
+        <v>-4.1561693731977538E-2</v>
+      </c>
+      <c r="AJ41">
+        <v>6.6127200000000004</v>
+      </c>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="AQ41"/>
+      <c r="AR41">
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41">
+        <v>10.25352</v>
+      </c>
+      <c r="AX41" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9766399999999997</v>
+      </c>
+      <c r="AY41" s="4">
+        <f t="shared" si="2"/>
+        <v>10.25352</v>
+      </c>
+      <c r="AZ41" s="37">
+        <f t="shared" si="5"/>
+        <v>5.0052295905741985E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H42">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P42" s="3">
+        <f>MIN(F42:M42)*1000</f>
+        <v>38</v>
+      </c>
+      <c r="Q42" s="3">
+        <f>MAX(B42:M42)*1000</f>
+        <v>83</v>
+      </c>
+      <c r="R42" s="32">
+        <f t="shared" si="3"/>
+        <v>-4.9288061336254116E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.81</v>
+      </c>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="Z42"/>
+      <c r="AA42">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="0"/>
+        <v>810</v>
+      </c>
+      <c r="AH42" s="3">
+        <f>MAX(S42:AD42)*1000</f>
+        <v>2023.0000000000002</v>
+      </c>
+      <c r="AI42" s="37">
+        <f t="shared" si="4"/>
+        <v>0.13613916947250282</v>
+      </c>
+      <c r="AJ42">
+        <v>1.44668</v>
+      </c>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42">
+        <v>4.3850699999999998</v>
+      </c>
+      <c r="AQ42"/>
+      <c r="AR42">
+        <v>6.0631199999999996</v>
+      </c>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42">
+        <v>9.1213099999999994</v>
+      </c>
+      <c r="AX42" s="4">
+        <f t="shared" si="1"/>
+        <v>1.44668</v>
+      </c>
+      <c r="AY42" s="4">
+        <f t="shared" si="2"/>
+        <v>9.1213099999999994</v>
+      </c>
+      <c r="AZ42" s="37">
+        <f t="shared" si="5"/>
+        <v>0.482272262258161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H43">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J43">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M43">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P43" s="3">
+        <f>MIN(F43:M43)*1000</f>
+        <v>34</v>
+      </c>
+      <c r="Q43" s="3">
+        <f>MAX(B43:M43)*1000</f>
+        <v>67</v>
+      </c>
+      <c r="R43" s="32">
+        <f t="shared" si="3"/>
+        <v>7.8282828282828301E-2</v>
+      </c>
+      <c r="S43">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="Z43"/>
+      <c r="AA43">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43">
+        <v>8.5060000000000002</v>
+      </c>
+      <c r="AG43" s="3">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="AH43" s="3">
+        <f>MAX(S43:AD43)*1000</f>
+        <v>8506</v>
+      </c>
+      <c r="AI43" s="37">
+        <f t="shared" si="4"/>
+        <v>0.21197877719616853</v>
+      </c>
+      <c r="AJ43">
+        <v>15.160640000000001</v>
+      </c>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43" s="29">
+        <v>25.2</v>
+      </c>
+      <c r="AQ43"/>
+      <c r="AR43">
+        <v>42.949440000000003</v>
+      </c>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43">
+        <v>55.884309999999999</v>
+      </c>
+      <c r="AX43" s="4">
+        <f t="shared" si="1"/>
+        <v>15.160640000000001</v>
+      </c>
+      <c r="AY43" s="4">
+        <f t="shared" si="2"/>
+        <v>55.884309999999999</v>
+      </c>
+      <c r="AZ43" s="37">
+        <f t="shared" si="5"/>
+        <v>0.24419495602968067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="13">
+        <f>MIN(F44:M44)*1000</f>
+        <v>48</v>
+      </c>
+      <c r="Q44" s="13">
+        <f>MAX(B44:M44)*1000</f>
+        <v>64</v>
+      </c>
+      <c r="R44" s="32">
+        <f t="shared" si="3"/>
+        <v>4.4709388971684097E-3</v>
+      </c>
+      <c r="S44">
+        <v>274.149</v>
+      </c>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44">
+        <v>52.024999999999999</v>
+      </c>
+      <c r="Z44"/>
+      <c r="AA44">
+        <v>48.512</v>
+      </c>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44">
+        <v>52.658999999999999</v>
+      </c>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="13">
+        <f t="shared" si="0"/>
+        <v>48512</v>
+      </c>
+      <c r="AH44" s="13">
+        <f>MAX(S44:AD44)*1000</f>
+        <v>274149</v>
+      </c>
+      <c r="AI44" s="37">
+        <f t="shared" si="4"/>
+        <v>-7.3447120162592416E-2</v>
+      </c>
+      <c r="AJ44">
+        <v>15.957140000000001</v>
+      </c>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44">
+        <v>18.217169999999999</v>
+      </c>
+      <c r="AQ44"/>
+      <c r="AR44">
+        <v>16.266960000000001</v>
+      </c>
+      <c r="AS44"/>
+      <c r="AT44"/>
+      <c r="AU44">
+        <v>15.795389999999999</v>
+      </c>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="15">
+        <f t="shared" si="1"/>
+        <v>15.795389999999999</v>
+      </c>
+      <c r="AY44" s="15">
+        <f t="shared" si="2"/>
+        <v>18.217169999999999</v>
+      </c>
+      <c r="AZ44" s="37">
+        <f t="shared" si="5"/>
+        <v>-9.2150256590752347E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H45">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J45">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M45">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P45" s="3">
+        <f>MIN(F45:M45)*1000</f>
+        <v>38</v>
+      </c>
+      <c r="Q45" s="3">
+        <f>MAX(B45:M45)*1000</f>
+        <v>63</v>
+      </c>
+      <c r="R45" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.4430014430014441E-3</v>
+      </c>
+      <c r="S45">
+        <v>8.5009999999999994</v>
+      </c>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="Z45"/>
+      <c r="AA45">
+        <v>13.429</v>
+      </c>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45">
+        <v>10.808999999999999</v>
+      </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="0"/>
+        <v>7211</v>
+      </c>
+      <c r="AH45" s="3">
+        <f>MAX(S45:AD45)*1000</f>
+        <v>13429</v>
+      </c>
+      <c r="AI45" s="37">
+        <f t="shared" si="4"/>
+        <v>2.4681588262343467E-2</v>
+      </c>
+      <c r="AJ45">
+        <v>49.650860000000002</v>
+      </c>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45">
+        <v>101.87685</v>
+      </c>
+      <c r="AQ45"/>
+      <c r="AR45">
+        <v>127.2132</v>
+      </c>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45">
+        <v>204.53106</v>
+      </c>
+      <c r="AX45" s="4">
+        <f t="shared" si="1"/>
+        <v>49.650860000000002</v>
+      </c>
+      <c r="AY45" s="4">
+        <f t="shared" si="2"/>
+        <v>204.53106</v>
+      </c>
+      <c r="AZ45" s="37">
+        <f t="shared" si="5"/>
+        <v>0.28358054990020681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H46">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J46">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M46">
+        <v>2.7E-2</v>
+      </c>
+      <c r="P46" s="3">
+        <f>MIN(F46:M46)*1000</f>
+        <v>14</v>
+      </c>
+      <c r="Q46" s="3">
+        <f>MAX(B46:M46)*1000</f>
+        <v>55</v>
+      </c>
+      <c r="R46" s="32">
+        <f t="shared" si="3"/>
+        <v>-4.6280991735537194E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Z46"/>
+      <c r="AA46">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46">
+        <v>1.236</v>
+      </c>
+      <c r="AG46" s="3">
+        <f t="shared" si="0"/>
+        <v>791</v>
+      </c>
+      <c r="AH46" s="3">
+        <f>MAX(S46:AD46)*1000</f>
+        <v>1236</v>
+      </c>
+      <c r="AI46" s="37">
+        <f t="shared" si="4"/>
+        <v>5.1143546718767953E-2</v>
+      </c>
+      <c r="AJ46">
+        <v>0.48261999999999999</v>
+      </c>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="AQ46"/>
+      <c r="AR46">
+        <v>2.1869999999999998</v>
+      </c>
+      <c r="AS46"/>
+      <c r="AT46"/>
+      <c r="AU46">
+        <v>13.487539999999999</v>
+      </c>
+      <c r="AX46" s="4">
+        <f t="shared" si="1"/>
+        <v>0.48261999999999999</v>
+      </c>
+      <c r="AY46" s="4">
+        <f t="shared" si="2"/>
+        <v>13.487539999999999</v>
+      </c>
+      <c r="AZ46" s="37">
+        <f t="shared" si="5"/>
+        <v>2.4496818502039996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H47">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J47">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M47">
+        <v>0.04</v>
+      </c>
+      <c r="P47" s="3">
+        <f>MIN(F47:M47)*1000</f>
+        <v>34</v>
+      </c>
+      <c r="Q47" s="3">
+        <f>MAX(B47:M47)*1000</f>
+        <v>49</v>
+      </c>
+      <c r="R47" s="32">
+        <f t="shared" si="3"/>
+        <v>4.8951048951048959E-2</v>
+      </c>
+      <c r="S47">
+        <v>1.681</v>
+      </c>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47">
+        <v>2.86</v>
+      </c>
+      <c r="Z47"/>
+      <c r="AA47">
+        <v>4.9390000000000001</v>
+      </c>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47">
+        <v>39.622999999999998</v>
+      </c>
+      <c r="AG47" s="3">
+        <f t="shared" si="0"/>
+        <v>1681</v>
+      </c>
+      <c r="AH47" s="3">
+        <f>MAX(S47:AD47)*1000</f>
+        <v>39623</v>
+      </c>
+      <c r="AI47" s="37">
+        <f t="shared" si="4"/>
+        <v>2.0519171488832404</v>
+      </c>
+      <c r="AJ47">
+        <v>3.30518</v>
+      </c>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47">
+        <v>22.251259999999998</v>
+      </c>
+      <c r="AQ47"/>
+      <c r="AR47">
+        <v>31.418279999999999</v>
+      </c>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47">
+        <v>67.471029999999999</v>
+      </c>
+      <c r="AX47" s="4">
+        <f t="shared" si="1"/>
+        <v>3.30518</v>
+      </c>
+      <c r="AY47" s="4">
+        <f t="shared" si="2"/>
+        <v>67.471029999999999</v>
+      </c>
+      <c r="AZ47" s="37">
+        <f t="shared" si="5"/>
+        <v>1.7648839370046687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H48">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J48">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M48">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P48" s="3">
+        <f>MIN(F48:M48)*1000</f>
+        <v>39</v>
+      </c>
+      <c r="Q48" s="3">
+        <f>MAX(B48:M48)*1000</f>
+        <v>47</v>
+      </c>
+      <c r="R48" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3368983957219244E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48">
+        <v>1.089</v>
+      </c>
+      <c r="Z48"/>
+      <c r="AA48">
+        <v>1.28</v>
+      </c>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48">
+        <v>1.946</v>
+      </c>
+      <c r="AG48" s="3">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
+      <c r="AH48" s="3">
+        <f>MAX(S48:AD48)*1000</f>
+        <v>1946</v>
+      </c>
+      <c r="AI48" s="37">
+        <f t="shared" si="4"/>
+        <v>0.33537787513691125</v>
+      </c>
+      <c r="AJ48">
+        <v>2.0225200000000001</v>
+      </c>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="AQ48"/>
+      <c r="AR48">
+        <v>12.47724</v>
+      </c>
+      <c r="AS48"/>
+      <c r="AT48"/>
+      <c r="AU48">
+        <v>21.896799999999999</v>
+      </c>
+      <c r="AX48" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0225200000000001</v>
+      </c>
+      <c r="AY48" s="4">
+        <f t="shared" si="2"/>
+        <v>21.896799999999999</v>
+      </c>
+      <c r="AZ48" s="37">
+        <f t="shared" si="5"/>
+        <v>0.89331760737729515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="13">
+        <f>MIN(F49:M49)*1000</f>
+        <v>11</v>
+      </c>
+      <c r="Q49" s="13">
+        <f>MAX(B49:M49)*1000</f>
+        <v>31</v>
+      </c>
+      <c r="R49" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.8651026392961873E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.438</v>
+      </c>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49">
+        <v>0.626</v>
+      </c>
+      <c r="Z49"/>
+      <c r="AA49">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49">
+        <v>0.879</v>
+      </c>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="13">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="AH49" s="13">
+        <f>MAX(S49:AD49)*1000</f>
+        <v>879</v>
+      </c>
+      <c r="AI49" s="37">
+        <f t="shared" si="4"/>
+        <v>9.1531755915317564E-2</v>
+      </c>
+      <c r="AJ49" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49">
+        <v>1.5216400000000001</v>
+      </c>
+      <c r="AQ49"/>
+      <c r="AR49">
+        <v>2.0682</v>
+      </c>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49" s="29">
+        <v>3</v>
+      </c>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="12"/>
+      <c r="AX49" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AY49" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AZ49" s="37">
+        <f t="shared" si="5"/>
+        <v>0.21212121212121213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H50">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J50">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M50">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P50" s="3">
+        <f>MIN(F50:M50)*1000</f>
+        <v>8</v>
+      </c>
+      <c r="Q50" s="3">
+        <f>MAX(B50:M50)*1000</f>
+        <v>31</v>
+      </c>
+      <c r="R50" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.8651026392961825E-3</v>
+      </c>
+      <c r="S50">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="Z50"/>
+      <c r="AA50">
+        <v>9.4760000000000009</v>
+      </c>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50">
+        <v>3.5979999999999999</v>
+      </c>
+      <c r="AG50" s="3">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="AH50" s="3">
+        <f>MAX(S50:AD50)*1000</f>
+        <v>9476</v>
+      </c>
+      <c r="AI50" s="37">
+        <f t="shared" si="4"/>
+        <v>0.50815850815850805</v>
+      </c>
+      <c r="AJ50" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50">
+        <v>6.54</v>
+      </c>
+      <c r="AQ50"/>
+      <c r="AR50">
+        <v>17.691479999999999</v>
+      </c>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50">
+        <v>29.82227</v>
+      </c>
+      <c r="AX50" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="AY50" s="4">
+        <f t="shared" si="2"/>
+        <v>29.82227</v>
+      </c>
+      <c r="AZ50" s="37">
+        <f t="shared" si="5"/>
+        <v>0.38472519936204147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H51">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J51">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M51">
+        <v>0.02</v>
+      </c>
+      <c r="P51" s="3">
+        <f>MIN(F51:M51)*1000</f>
+        <v>20</v>
+      </c>
+      <c r="Q51" s="3">
+        <f>MAX(B51:M51)*1000</f>
+        <v>28</v>
+      </c>
+      <c r="R51" s="32">
+        <f t="shared" si="3"/>
+        <v>-2.5974025974025972E-2</v>
+      </c>
+      <c r="S51">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Z51"/>
+      <c r="AA51">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51">
+        <v>0.06</v>
+      </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AH51" s="3">
+        <f>MAX(S51:AD51)*1000</f>
+        <v>83</v>
+      </c>
+      <c r="AI51" s="37">
+        <f t="shared" si="4"/>
+        <v>-2.5191675794085436E-2</v>
+      </c>
+      <c r="AJ51">
+        <v>1.31806</v>
+      </c>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51">
+        <v>0.98318000000000005</v>
+      </c>
+      <c r="AQ51"/>
+      <c r="AR51">
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51">
+        <v>2.20079</v>
+      </c>
+      <c r="AX51" s="4">
+        <f t="shared" si="1"/>
+        <v>0.98318000000000005</v>
+      </c>
+      <c r="AY51" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4569999999999999</v>
+      </c>
+      <c r="AZ51" s="37">
+        <f t="shared" si="5"/>
+        <v>6.0883557514970349E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H52">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J52">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="M52">
+        <v>0.01</v>
+      </c>
+      <c r="P52" s="3">
+        <f>MIN(F52:M52)*1000</f>
+        <v>10</v>
+      </c>
+      <c r="Q52" s="3">
+        <f>MAX(B52:M52)*1000</f>
+        <v>23</v>
+      </c>
+      <c r="R52" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.1383399209486161E-2</v>
+      </c>
+      <c r="S52">
+        <v>0.871</v>
+      </c>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52">
+        <v>1.742</v>
+      </c>
+      <c r="Z52"/>
+      <c r="AA52">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52">
+        <v>1.353</v>
+      </c>
+      <c r="AG52" s="3">
+        <f t="shared" si="0"/>
+        <v>871</v>
+      </c>
+      <c r="AH52" s="3">
+        <f>MAX(S52:AD52)*1000</f>
+        <v>2196</v>
+      </c>
+      <c r="AI52" s="37">
+        <f t="shared" si="4"/>
+        <v>5.0307901054169712E-2</v>
+      </c>
+      <c r="AJ52">
+        <v>2.4555799999999999</v>
+      </c>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52">
+        <v>6.0178900000000004</v>
+      </c>
+      <c r="AQ52"/>
+      <c r="AR52">
+        <v>12.009600000000001</v>
+      </c>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52">
+        <v>14.476330000000001</v>
+      </c>
+      <c r="AX52" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4555799999999999</v>
+      </c>
+      <c r="AY52" s="4">
+        <f t="shared" si="2"/>
+        <v>14.476330000000001</v>
+      </c>
+      <c r="AZ52" s="37">
+        <f t="shared" si="5"/>
+        <v>0.44502539300102412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H53">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J53">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M53">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P53" s="3">
+        <f>MIN(F53:M53)*1000</f>
+        <v>8</v>
+      </c>
+      <c r="Q53" s="3">
+        <f>MAX(B53:M53)*1000</f>
+        <v>17</v>
+      </c>
+      <c r="R53" s="32">
+        <f t="shared" si="3"/>
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="S53">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53">
+        <v>0.152</v>
+      </c>
+      <c r="Z53"/>
+      <c r="AA53" s="29">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53" s="29">
+        <v>0.222</v>
+      </c>
+      <c r="AG53" s="3">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="AH53" s="3">
+        <f>MAX(S53:AD53)*1000</f>
+        <v>222</v>
+      </c>
+      <c r="AI53" s="37">
+        <f t="shared" si="4"/>
+        <v>2.1838496698831901E-2</v>
+      </c>
+      <c r="AJ53">
+        <v>0.55696000000000001</v>
+      </c>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53">
+        <v>1.01261</v>
+      </c>
+      <c r="AQ53"/>
+      <c r="AR53" s="29">
+        <v>1.35</v>
+      </c>
+      <c r="AS53"/>
+      <c r="AT53"/>
+      <c r="AU53">
+        <v>1.9</v>
+      </c>
+      <c r="AX53" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55696000000000001</v>
+      </c>
+      <c r="AY53" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9</v>
+      </c>
+      <c r="AZ53" s="37">
+        <f t="shared" si="5"/>
+        <v>0.21921600376067477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54">
+        <v>0.01</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54">
+        <v>2E-3</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="24">
+        <f>MIN(F54:M54)*1000</f>
+        <v>2</v>
+      </c>
+      <c r="Q54" s="24">
+        <f>MAX(B54:M54)*1000</f>
+        <v>12</v>
+      </c>
+      <c r="R54" s="33">
+        <f t="shared" si="3"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="S54">
+        <v>0.105</v>
+      </c>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54">
+        <v>0.104</v>
+      </c>
+      <c r="Z54"/>
+      <c r="AA54" s="29">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54">
+        <v>0.215</v>
+      </c>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="24">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="AH54" s="24">
+        <f>MAX(S54:AD54)*1000</f>
+        <v>215</v>
+      </c>
+      <c r="AI54" s="38">
+        <f t="shared" si="4"/>
+        <v>9.5238095238095247E-2</v>
+      </c>
+      <c r="AJ54" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54">
+        <v>0.27577000000000002</v>
+      </c>
+      <c r="AQ54"/>
+      <c r="AR54" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="AS54"/>
+      <c r="AT54"/>
+      <c r="AU54">
+        <v>13.69964</v>
+      </c>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="7"/>
+      <c r="AX54" s="25">
+        <f t="shared" si="1"/>
+        <v>0.27577000000000002</v>
+      </c>
+      <c r="AY54" s="25">
+        <f t="shared" si="2"/>
+        <v>13.69964</v>
+      </c>
+      <c r="AZ54" s="38">
+        <f t="shared" si="5"/>
+        <v>1.4658681818181818</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AW2:AZ2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AZ4:AZ54">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R54">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI4:AI54">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FA464487-42E3-4EEA-8A51-B19C3DDC0D84}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ4:AU4</xm:f>
+              <xm:sqref>AW4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{760B1C67-4792-4ECD-91C3-AEC956E2609A}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S5:AD5</xm:f>
+              <xm:sqref>AF5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S6:AD6</xm:f>
+              <xm:sqref>AF6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S7:AD7</xm:f>
+              <xm:sqref>AF7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S8:AD8</xm:f>
+              <xm:sqref>AF8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S9:AD9</xm:f>
+              <xm:sqref>AF9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S10:AD10</xm:f>
+              <xm:sqref>AF10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S11:AD11</xm:f>
+              <xm:sqref>AF11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S12:AD12</xm:f>
+              <xm:sqref>AF12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S13:AD13</xm:f>
+              <xm:sqref>AF13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S14:AD14</xm:f>
+              <xm:sqref>AF14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S15:AD15</xm:f>
+              <xm:sqref>AF15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S16:AD16</xm:f>
+              <xm:sqref>AF16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S17:AD17</xm:f>
+              <xm:sqref>AF17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S18:AD18</xm:f>
+              <xm:sqref>AF18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S19:AD19</xm:f>
+              <xm:sqref>AF19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S20:AD20</xm:f>
+              <xm:sqref>AF20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S21:AD21</xm:f>
+              <xm:sqref>AF21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S22:AD22</xm:f>
+              <xm:sqref>AF22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S23:AD23</xm:f>
+              <xm:sqref>AF23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S24:AD24</xm:f>
+              <xm:sqref>AF24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S25:AD25</xm:f>
+              <xm:sqref>AF25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S26:AD26</xm:f>
+              <xm:sqref>AF26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S27:AD27</xm:f>
+              <xm:sqref>AF27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S28:AD28</xm:f>
+              <xm:sqref>AF28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S29:AD29</xm:f>
+              <xm:sqref>AF29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S30:AD30</xm:f>
+              <xm:sqref>AF30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S31:AD31</xm:f>
+              <xm:sqref>AF31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S32:AD32</xm:f>
+              <xm:sqref>AF32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S33:AD33</xm:f>
+              <xm:sqref>AF33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S34:AD34</xm:f>
+              <xm:sqref>AF34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S35:AD35</xm:f>
+              <xm:sqref>AF35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S36:AD36</xm:f>
+              <xm:sqref>AF36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S37:AD37</xm:f>
+              <xm:sqref>AF37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S38:AD38</xm:f>
+              <xm:sqref>AF38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S39:AD39</xm:f>
+              <xm:sqref>AF39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S40:AD40</xm:f>
+              <xm:sqref>AF40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S41:AD41</xm:f>
+              <xm:sqref>AF41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S42:AD42</xm:f>
+              <xm:sqref>AF42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S43:AD43</xm:f>
+              <xm:sqref>AF43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S44:AD44</xm:f>
+              <xm:sqref>AF44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S45:AD45</xm:f>
+              <xm:sqref>AF45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S46:AD46</xm:f>
+              <xm:sqref>AF46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S47:AD47</xm:f>
+              <xm:sqref>AF47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S48:AD48</xm:f>
+              <xm:sqref>AF48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S49:AD49</xm:f>
+              <xm:sqref>AF49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S50:AD50</xm:f>
+              <xm:sqref>AF50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S51:AD51</xm:f>
+              <xm:sqref>AF51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S52:AD52</xm:f>
+              <xm:sqref>AF52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S53:AD53</xm:f>
+              <xm:sqref>AF53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S54:AD54</xm:f>
+              <xm:sqref>AF54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{CF8DBF79-2F52-4BEC-9393-B5BA30E6EC38}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B4:M4</xm:f>
+              <xm:sqref>O4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66B11653-9259-4A24-A205-02DC9BD1D214}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S4:AD4</xm:f>
+              <xm:sqref>AF4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{637D966D-96BD-42C0-80E4-45A820A0BE85}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B5:M5</xm:f>
+              <xm:sqref>O5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B6:M6</xm:f>
+              <xm:sqref>O6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B7:M7</xm:f>
+              <xm:sqref>O7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B8:M8</xm:f>
+              <xm:sqref>O8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B9:M9</xm:f>
+              <xm:sqref>O9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B10:M10</xm:f>
+              <xm:sqref>O10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B11:M11</xm:f>
+              <xm:sqref>O11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B12:M12</xm:f>
+              <xm:sqref>O12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B13:M13</xm:f>
+              <xm:sqref>O13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B15:M15</xm:f>
+              <xm:sqref>O15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B16:M16</xm:f>
+              <xm:sqref>O16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B17:M17</xm:f>
+              <xm:sqref>O17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B18:M18</xm:f>
+              <xm:sqref>O18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B19:M19</xm:f>
+              <xm:sqref>O19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B20:M20</xm:f>
+              <xm:sqref>O20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B21:M21</xm:f>
+              <xm:sqref>O21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B22:M22</xm:f>
+              <xm:sqref>O22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B23:M23</xm:f>
+              <xm:sqref>O23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B24:M24</xm:f>
+              <xm:sqref>O24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B25:M25</xm:f>
+              <xm:sqref>O25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B26:M26</xm:f>
+              <xm:sqref>O26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B27:M27</xm:f>
+              <xm:sqref>O27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B28:M28</xm:f>
+              <xm:sqref>O28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B29:M29</xm:f>
+              <xm:sqref>O29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B30:M30</xm:f>
+              <xm:sqref>O30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B31:M31</xm:f>
+              <xm:sqref>O31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B32:M32</xm:f>
+              <xm:sqref>O32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B33:M33</xm:f>
+              <xm:sqref>O33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B34:M34</xm:f>
+              <xm:sqref>O34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B35:M35</xm:f>
+              <xm:sqref>O35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B36:M36</xm:f>
+              <xm:sqref>O36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B37:M37</xm:f>
+              <xm:sqref>O37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B38:M38</xm:f>
+              <xm:sqref>O38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B39:M39</xm:f>
+              <xm:sqref>O39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B40:M40</xm:f>
+              <xm:sqref>O40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B41:M41</xm:f>
+              <xm:sqref>O41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B42:M42</xm:f>
+              <xm:sqref>O42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B43:M43</xm:f>
+              <xm:sqref>O43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B44:M44</xm:f>
+              <xm:sqref>O44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B45:M45</xm:f>
+              <xm:sqref>O45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B46:M46</xm:f>
+              <xm:sqref>O46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B47:M47</xm:f>
+              <xm:sqref>O47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B48:M48</xm:f>
+              <xm:sqref>O48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B49:M49</xm:f>
+              <xm:sqref>O49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B50:M50</xm:f>
+              <xm:sqref>O50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B51:M51</xm:f>
+              <xm:sqref>O51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B52:M52</xm:f>
+              <xm:sqref>O52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B53:M53</xm:f>
+              <xm:sqref>O53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B54:M54</xm:f>
+              <xm:sqref>O54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FE327BBA-A057-4D37-AD5E-0A5C3B6AF2F6}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ5:AU5</xm:f>
+              <xm:sqref>AW5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ6:AU6</xm:f>
+              <xm:sqref>AW6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ7:AU7</xm:f>
+              <xm:sqref>AW7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ8:AU8</xm:f>
+              <xm:sqref>AW8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ9:AU9</xm:f>
+              <xm:sqref>AW9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ10:AU10</xm:f>
+              <xm:sqref>AW10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ11:AU11</xm:f>
+              <xm:sqref>AW11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ12:AU12</xm:f>
+              <xm:sqref>AW12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ13:AU13</xm:f>
+              <xm:sqref>AW13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ14:AU14</xm:f>
+              <xm:sqref>AW14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ15:AU15</xm:f>
+              <xm:sqref>AW15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ16:AU16</xm:f>
+              <xm:sqref>AW16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ17:AU17</xm:f>
+              <xm:sqref>AW17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ18:AU18</xm:f>
+              <xm:sqref>AW18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ19:AU19</xm:f>
+              <xm:sqref>AW19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ20:AU20</xm:f>
+              <xm:sqref>AW20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ21:AU21</xm:f>
+              <xm:sqref>AW21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ22:AU22</xm:f>
+              <xm:sqref>AW22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ23:AU23</xm:f>
+              <xm:sqref>AW23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ24:AU24</xm:f>
+              <xm:sqref>AW24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ25:AU25</xm:f>
+              <xm:sqref>AW25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ26:AU26</xm:f>
+              <xm:sqref>AW26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ27:AU27</xm:f>
+              <xm:sqref>AW27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ28:AU28</xm:f>
+              <xm:sqref>AW28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ29:AU29</xm:f>
+              <xm:sqref>AW29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ30:AU30</xm:f>
+              <xm:sqref>AW30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ31:AU31</xm:f>
+              <xm:sqref>AW31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ32:AU32</xm:f>
+              <xm:sqref>AW32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ33:AU33</xm:f>
+              <xm:sqref>AW33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ34:AU34</xm:f>
+              <xm:sqref>AW34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ35:AU35</xm:f>
+              <xm:sqref>AW35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ36:AU36</xm:f>
+              <xm:sqref>AW36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ37:AU37</xm:f>
+              <xm:sqref>AW37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ38:AU38</xm:f>
+              <xm:sqref>AW38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ39:AU39</xm:f>
+              <xm:sqref>AW39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ40:AU40</xm:f>
+              <xm:sqref>AW40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ41:AU41</xm:f>
+              <xm:sqref>AW41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ42:AU42</xm:f>
+              <xm:sqref>AW42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ43:AU43</xm:f>
+              <xm:sqref>AW43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ44:AU44</xm:f>
+              <xm:sqref>AW44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ45:AU45</xm:f>
+              <xm:sqref>AW45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ46:AU46</xm:f>
+              <xm:sqref>AW46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ47:AU47</xm:f>
+              <xm:sqref>AW47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ48:AU48</xm:f>
+              <xm:sqref>AW48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ49:AU49</xm:f>
+              <xm:sqref>AW49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ50:AU50</xm:f>
+              <xm:sqref>AW50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ51:AU51</xm:f>
+              <xm:sqref>AW51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ52:AU52</xm:f>
+              <xm:sqref>AW52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ53:AU53</xm:f>
+              <xm:sqref>AW53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ54:AU54</xm:f>
+              <xm:sqref>AW54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDD6589-0E26-4112-8449-00C676A1C756}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/figures/us_organic_sparklines.xlsx
+++ b/figures/us_organic_sparklines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\dev\state_organic_ag\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52198DFC-9568-404B-8838-5A14F9BCB25D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD44CA-A605-4334-827D-DF4F40B7C62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="150" windowWidth="18195" windowHeight="14310" activeTab="1" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
+    <workbookView xWindow="30075" yWindow="2175" windowWidth="24060" windowHeight="9600" activeTab="1" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="all_sparklines" sheetId="11" r:id="rId1"/>
@@ -246,7 +246,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,15 +261,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,13 +275,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -306,21 +294,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -332,12 +305,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -394,18 +366,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -417,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -438,33 +406,28 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF002060"/>
@@ -488,11 +451,6 @@
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
       </font>
     </dxf>
     <dxf>
@@ -915,8 +873,8 @@
   </sheetPr>
   <dimension ref="A2:AX54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,21 +899,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="AF2" s="27" t="s">
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="AF2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AV2" s="28" t="s">
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AV2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5273,7 +5231,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66BB86FA-9C0B-449A-A864-41365A482D32}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5284,204 +5242,252 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!AI5:AT5</xm:f>
-              <xm:sqref>AV5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI6:AT6</xm:f>
-              <xm:sqref>AV6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI7:AT7</xm:f>
-              <xm:sqref>AV7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI8:AT8</xm:f>
-              <xm:sqref>AV8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI9:AT9</xm:f>
-              <xm:sqref>AV9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI10:AT10</xm:f>
-              <xm:sqref>AV10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI11:AT11</xm:f>
-              <xm:sqref>AV11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI12:AT12</xm:f>
-              <xm:sqref>AV12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI13:AT13</xm:f>
-              <xm:sqref>AV13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI14:AT14</xm:f>
-              <xm:sqref>AV14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI15:AT15</xm:f>
-              <xm:sqref>AV15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI16:AT16</xm:f>
-              <xm:sqref>AV16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI17:AT17</xm:f>
-              <xm:sqref>AV17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI18:AT18</xm:f>
-              <xm:sqref>AV18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI19:AT19</xm:f>
-              <xm:sqref>AV19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI20:AT20</xm:f>
-              <xm:sqref>AV20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI21:AT21</xm:f>
-              <xm:sqref>AV21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI22:AT22</xm:f>
-              <xm:sqref>AV22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI23:AT23</xm:f>
-              <xm:sqref>AV23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI24:AT24</xm:f>
-              <xm:sqref>AV24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI25:AT25</xm:f>
-              <xm:sqref>AV25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI26:AT26</xm:f>
-              <xm:sqref>AV26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI27:AT27</xm:f>
-              <xm:sqref>AV27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI28:AT28</xm:f>
-              <xm:sqref>AV28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI29:AT29</xm:f>
-              <xm:sqref>AV29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI30:AT30</xm:f>
-              <xm:sqref>AV30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI31:AT31</xm:f>
-              <xm:sqref>AV31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI32:AT32</xm:f>
-              <xm:sqref>AV32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI33:AT33</xm:f>
-              <xm:sqref>AV33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI34:AT34</xm:f>
-              <xm:sqref>AV34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI35:AT35</xm:f>
-              <xm:sqref>AV35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI36:AT36</xm:f>
-              <xm:sqref>AV36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI37:AT37</xm:f>
-              <xm:sqref>AV37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI38:AT38</xm:f>
-              <xm:sqref>AV38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI39:AT39</xm:f>
-              <xm:sqref>AV39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI40:AT40</xm:f>
-              <xm:sqref>AV40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI41:AT41</xm:f>
-              <xm:sqref>AV41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI42:AT42</xm:f>
-              <xm:sqref>AV42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI43:AT43</xm:f>
-              <xm:sqref>AV43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI44:AT44</xm:f>
-              <xm:sqref>AV44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI45:AT45</xm:f>
-              <xm:sqref>AV45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI46:AT46</xm:f>
-              <xm:sqref>AV46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI47:AT47</xm:f>
-              <xm:sqref>AV47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI48:AT48</xm:f>
-              <xm:sqref>AV48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI49:AT49</xm:f>
-              <xm:sqref>AV49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI50:AT50</xm:f>
-              <xm:sqref>AV50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI51:AT51</xm:f>
-              <xm:sqref>AV51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI52:AT52</xm:f>
-              <xm:sqref>AV52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI53:AT53</xm:f>
-              <xm:sqref>AV53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI54:AT54</xm:f>
-              <xm:sqref>AV54</xm:sqref>
+              <xm:f>all_sparklines!AI4:AT4</xm:f>
+              <xm:sqref>AV4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{E673971A-D794-4C59-87E7-0E6EC2F47029}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B5:N5</xm:f>
+              <xm:sqref>P5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B6:N6</xm:f>
+              <xm:sqref>P6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B7:N7</xm:f>
+              <xm:sqref>P7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B8:N8</xm:f>
+              <xm:sqref>P8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B9:N9</xm:f>
+              <xm:sqref>P9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B10:N10</xm:f>
+              <xm:sqref>P10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B11:N11</xm:f>
+              <xm:sqref>P11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B12:N12</xm:f>
+              <xm:sqref>P12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B13:N13</xm:f>
+              <xm:sqref>P13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B14:N14</xm:f>
+              <xm:sqref>P14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B15:N15</xm:f>
+              <xm:sqref>P15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B16:N16</xm:f>
+              <xm:sqref>P16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B17:N17</xm:f>
+              <xm:sqref>P17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B18:N18</xm:f>
+              <xm:sqref>P18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B19:N19</xm:f>
+              <xm:sqref>P19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B20:N20</xm:f>
+              <xm:sqref>P20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B21:N21</xm:f>
+              <xm:sqref>P21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B22:N22</xm:f>
+              <xm:sqref>P22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B23:N23</xm:f>
+              <xm:sqref>P23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B24:N24</xm:f>
+              <xm:sqref>P24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B25:N25</xm:f>
+              <xm:sqref>P25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B26:N26</xm:f>
+              <xm:sqref>P26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B27:N27</xm:f>
+              <xm:sqref>P27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B28:N28</xm:f>
+              <xm:sqref>P28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B29:N29</xm:f>
+              <xm:sqref>P29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B30:N30</xm:f>
+              <xm:sqref>P30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B31:N31</xm:f>
+              <xm:sqref>P31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B32:N32</xm:f>
+              <xm:sqref>P32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B33:N33</xm:f>
+              <xm:sqref>P33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B34:N34</xm:f>
+              <xm:sqref>P34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B35:N35</xm:f>
+              <xm:sqref>P35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B36:N36</xm:f>
+              <xm:sqref>P36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B37:N37</xm:f>
+              <xm:sqref>P37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B38:N38</xm:f>
+              <xm:sqref>P38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B39:N39</xm:f>
+              <xm:sqref>P39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B40:N40</xm:f>
+              <xm:sqref>P40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B41:N41</xm:f>
+              <xm:sqref>P41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B42:N42</xm:f>
+              <xm:sqref>P42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B43:N43</xm:f>
+              <xm:sqref>P43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B44:N44</xm:f>
+              <xm:sqref>P44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B45:N45</xm:f>
+              <xm:sqref>P45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B46:N46</xm:f>
+              <xm:sqref>P46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B47:N47</xm:f>
+              <xm:sqref>P47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B48:N48</xm:f>
+              <xm:sqref>P48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B49:N49</xm:f>
+              <xm:sqref>P49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B50:N50</xm:f>
+              <xm:sqref>P50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B51:N51</xm:f>
+              <xm:sqref>P51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B52:N52</xm:f>
+              <xm:sqref>P52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B53:N53</xm:f>
+              <xm:sqref>P53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B54:N54</xm:f>
+              <xm:sqref>P54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{C0001913-F8F4-4839-8004-AA78FFFF815D}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S4:AD4</xm:f>
+              <xm:sqref>AF4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{15BAD788-5AA3-4E69-B574-11EFC65880DC}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B4:N4</xm:f>
+              <xm:sqref>P4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5697,7 +5703,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{15BAD788-5AA3-4E69-B574-11EFC65880DC}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5708,252 +5714,204 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!B4:N4</xm:f>
-              <xm:sqref>P4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{C0001913-F8F4-4839-8004-AA78FFFF815D}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S4:AD4</xm:f>
-              <xm:sqref>AF4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{E673971A-D794-4C59-87E7-0E6EC2F47029}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B5:N5</xm:f>
-              <xm:sqref>P5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B6:N6</xm:f>
-              <xm:sqref>P6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B7:N7</xm:f>
-              <xm:sqref>P7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B8:N8</xm:f>
-              <xm:sqref>P8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B9:N9</xm:f>
-              <xm:sqref>P9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B10:N10</xm:f>
-              <xm:sqref>P10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B11:N11</xm:f>
-              <xm:sqref>P11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B12:N12</xm:f>
-              <xm:sqref>P12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B13:N13</xm:f>
-              <xm:sqref>P13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B14:N14</xm:f>
-              <xm:sqref>P14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B15:N15</xm:f>
-              <xm:sqref>P15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B16:N16</xm:f>
-              <xm:sqref>P16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B17:N17</xm:f>
-              <xm:sqref>P17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B18:N18</xm:f>
-              <xm:sqref>P18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B19:N19</xm:f>
-              <xm:sqref>P19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B20:N20</xm:f>
-              <xm:sqref>P20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B21:N21</xm:f>
-              <xm:sqref>P21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B22:N22</xm:f>
-              <xm:sqref>P22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B23:N23</xm:f>
-              <xm:sqref>P23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B24:N24</xm:f>
-              <xm:sqref>P24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B25:N25</xm:f>
-              <xm:sqref>P25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B26:N26</xm:f>
-              <xm:sqref>P26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B27:N27</xm:f>
-              <xm:sqref>P27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B28:N28</xm:f>
-              <xm:sqref>P28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B29:N29</xm:f>
-              <xm:sqref>P29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B30:N30</xm:f>
-              <xm:sqref>P30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B31:N31</xm:f>
-              <xm:sqref>P31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B32:N32</xm:f>
-              <xm:sqref>P32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B33:N33</xm:f>
-              <xm:sqref>P33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B34:N34</xm:f>
-              <xm:sqref>P34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B35:N35</xm:f>
-              <xm:sqref>P35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B36:N36</xm:f>
-              <xm:sqref>P36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B37:N37</xm:f>
-              <xm:sqref>P37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B38:N38</xm:f>
-              <xm:sqref>P38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B39:N39</xm:f>
-              <xm:sqref>P39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B40:N40</xm:f>
-              <xm:sqref>P40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B41:N41</xm:f>
-              <xm:sqref>P41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B42:N42</xm:f>
-              <xm:sqref>P42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B43:N43</xm:f>
-              <xm:sqref>P43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B44:N44</xm:f>
-              <xm:sqref>P44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B45:N45</xm:f>
-              <xm:sqref>P45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B46:N46</xm:f>
-              <xm:sqref>P46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B47:N47</xm:f>
-              <xm:sqref>P47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B48:N48</xm:f>
-              <xm:sqref>P48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B49:N49</xm:f>
-              <xm:sqref>P49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B50:N50</xm:f>
-              <xm:sqref>P50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B51:N51</xm:f>
-              <xm:sqref>P51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B52:N52</xm:f>
-              <xm:sqref>P52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B53:N53</xm:f>
-              <xm:sqref>P53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B54:N54</xm:f>
-              <xm:sqref>P54</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66BB86FA-9C0B-449A-A864-41365A482D32}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI4:AT4</xm:f>
-              <xm:sqref>AV4</xm:sqref>
+              <xm:f>all_sparklines!AI5:AT5</xm:f>
+              <xm:sqref>AV5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI6:AT6</xm:f>
+              <xm:sqref>AV6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI7:AT7</xm:f>
+              <xm:sqref>AV7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI8:AT8</xm:f>
+              <xm:sqref>AV8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI9:AT9</xm:f>
+              <xm:sqref>AV9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI10:AT10</xm:f>
+              <xm:sqref>AV10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI11:AT11</xm:f>
+              <xm:sqref>AV11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI12:AT12</xm:f>
+              <xm:sqref>AV12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI13:AT13</xm:f>
+              <xm:sqref>AV13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI14:AT14</xm:f>
+              <xm:sqref>AV14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI15:AT15</xm:f>
+              <xm:sqref>AV15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI16:AT16</xm:f>
+              <xm:sqref>AV16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI17:AT17</xm:f>
+              <xm:sqref>AV17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI18:AT18</xm:f>
+              <xm:sqref>AV18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI19:AT19</xm:f>
+              <xm:sqref>AV19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI20:AT20</xm:f>
+              <xm:sqref>AV20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI21:AT21</xm:f>
+              <xm:sqref>AV21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI22:AT22</xm:f>
+              <xm:sqref>AV22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI23:AT23</xm:f>
+              <xm:sqref>AV23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI24:AT24</xm:f>
+              <xm:sqref>AV24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI25:AT25</xm:f>
+              <xm:sqref>AV25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI26:AT26</xm:f>
+              <xm:sqref>AV26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI27:AT27</xm:f>
+              <xm:sqref>AV27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI28:AT28</xm:f>
+              <xm:sqref>AV28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI29:AT29</xm:f>
+              <xm:sqref>AV29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI30:AT30</xm:f>
+              <xm:sqref>AV30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI31:AT31</xm:f>
+              <xm:sqref>AV31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI32:AT32</xm:f>
+              <xm:sqref>AV32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI33:AT33</xm:f>
+              <xm:sqref>AV33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI34:AT34</xm:f>
+              <xm:sqref>AV34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI35:AT35</xm:f>
+              <xm:sqref>AV35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI36:AT36</xm:f>
+              <xm:sqref>AV36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI37:AT37</xm:f>
+              <xm:sqref>AV37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI38:AT38</xm:f>
+              <xm:sqref>AV38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI39:AT39</xm:f>
+              <xm:sqref>AV39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI40:AT40</xm:f>
+              <xm:sqref>AV40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI41:AT41</xm:f>
+              <xm:sqref>AV41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI42:AT42</xm:f>
+              <xm:sqref>AV42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI43:AT43</xm:f>
+              <xm:sqref>AV43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI44:AT44</xm:f>
+              <xm:sqref>AV44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI45:AT45</xm:f>
+              <xm:sqref>AV45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI46:AT46</xm:f>
+              <xm:sqref>AV46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI47:AT47</xm:f>
+              <xm:sqref>AV47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI48:AT48</xm:f>
+              <xm:sqref>AV48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI49:AT49</xm:f>
+              <xm:sqref>AV49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI50:AT50</xm:f>
+              <xm:sqref>AV50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI51:AT51</xm:f>
+              <xm:sqref>AV51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI52:AT52</xm:f>
+              <xm:sqref>AV52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI53:AT53</xm:f>
+              <xm:sqref>AV53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI54:AT54</xm:f>
+              <xm:sqref>AV54</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5971,52 +5929,52 @@
   <dimension ref="A2:AZ54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="19.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="5.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="19.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="5.28515625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="19.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="17" width="10.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="14.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="14.42578125" style="2" customWidth="1"/>
     <col min="31" max="31" width="9.140625" style="2"/>
     <col min="32" max="32" width="9.140625" style="1"/>
     <col min="33" max="34" width="10.7109375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="36" max="47" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="36" max="47" width="9.140625" style="1" customWidth="1"/>
     <col min="48" max="49" width="9.140625" style="1"/>
     <col min="50" max="51" width="10.7109375" style="4" customWidth="1"/>
-    <col min="52" max="52" width="10.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="53" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="AF2" s="27" t="s">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="AF2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AW2" s="28" t="s">
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AW2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -6066,7 +6024,7 @@
       <c r="Q3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="29" t="s">
         <v>60</v>
       </c>
       <c r="S3" s="8">
@@ -6113,7 +6071,7 @@
       <c r="AH3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AI3" s="35" t="s">
+      <c r="AI3" s="33" t="s">
         <v>60</v>
       </c>
       <c r="AJ3" s="7">
@@ -6160,7 +6118,7 @@
       <c r="AY3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AZ3" s="35" t="s">
+      <c r="AZ3" s="33" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6168,85 +6126,96 @@
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <f>SUM(B5:B54)</f>
-        <v>14.537000000000001</v>
+        <v>10.903000000000002</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="28">
+        <f>SUM(E5:E54)</f>
+        <v>8.9779999999999998</v>
+      </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="30">
+      <c r="H4" s="28">
         <f>SUM(H5:H54)</f>
-        <v>14.092999999999998</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="30">
+        <v>12.594999999999999</v>
+      </c>
+      <c r="I4" s="28">
+        <f>SUM(I5:I54)</f>
+        <v>12.778999999999998</v>
+      </c>
+      <c r="J4" s="28">
         <f>SUM(J5:J54)</f>
-        <v>14.217000000000004</v>
+        <v>14.184999999999999</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="30">
+      <c r="M4" s="28">
         <f>SUM(M5:M54)</f>
-        <v>16.584000000000003</v>
+        <v>16.475999999999999</v>
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="20"/>
       <c r="P4" s="21">
-        <f>MIN(F4:M4)*1000</f>
-        <v>14092.999999999998</v>
+        <f t="shared" ref="P4:P35" si="0">MIN(F4:M4)*1000</f>
+        <v>12594.999999999998</v>
       </c>
       <c r="Q4" s="21">
-        <f>MAX(B4:M4)*1000</f>
-        <v>16584.000000000004</v>
-      </c>
-      <c r="R4" s="41">
+        <f t="shared" ref="Q4:Q35" si="1">MAX(B4:M4)*1000</f>
+        <v>16476</v>
+      </c>
+      <c r="R4" s="39">
         <f>((M4-B4)/B4)/(2019-2008)</f>
-        <v>1.2801190692089792E-2</v>
-      </c>
-      <c r="S4" s="19">
+        <v>4.6467611082854555E-2</v>
+      </c>
+      <c r="S4" s="22">
         <f>SUM(S5:S54)</f>
-        <v>1650.7430000000002</v>
+        <v>1619.947727616742</v>
       </c>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
+      <c r="V4" s="19">
+        <f>SUM(V5:V54)</f>
+        <v>1475.8248346122473</v>
+      </c>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
       <c r="Y4" s="22">
         <f>SUM(Y5:Y54)</f>
-        <v>1486.0610000000004</v>
-      </c>
-      <c r="Z4" s="22"/>
+        <v>1474.2485777307013</v>
+      </c>
+      <c r="Z4">
+        <v>0.56049185646758304</v>
+      </c>
       <c r="AA4" s="22">
         <f>SUM(AA5:AA54)</f>
-        <v>1752.9530000000004</v>
+        <v>1718.7590020702596</v>
       </c>
       <c r="AB4" s="22"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22">
         <f>SUM(AD5:AD54)</f>
-        <v>2012.8650000000002</v>
+        <v>1996.9956580532496</v>
       </c>
       <c r="AE4" s="22"/>
       <c r="AF4" s="20"/>
       <c r="AG4" s="21">
-        <f t="shared" ref="AG4:AG54" si="0">MIN(S4:AD4)*1000</f>
-        <v>1486061.0000000005</v>
+        <f t="shared" ref="AG4:AG54" si="2">MIN(S4:AD4)*1000</f>
+        <v>560.49185646758303</v>
       </c>
       <c r="AH4" s="21">
-        <f>MAX(S4:AD4)*1000</f>
-        <v>2012865.0000000002</v>
-      </c>
-      <c r="AI4" s="40">
+        <f t="shared" ref="AH4:AH35" si="3">MAX(S4:AD4)*1000</f>
+        <v>1996995.6580532496</v>
+      </c>
+      <c r="AI4" s="38">
         <f>((AD4-S4)/S4)/(2019-2008)</f>
-        <v>1.9942645110826954E-2</v>
+        <v>2.1159376935924536E-2</v>
       </c>
       <c r="AJ4" s="22">
         <f>SUM(AJ5:AJ54)</f>
-        <v>3740.4255800000005</v>
+        <v>3859.5654418199983</v>
       </c>
       <c r="AK4" s="19"/>
       <c r="AL4" s="19"/>
@@ -6255,64 +6224,78 @@
       <c r="AO4" s="23"/>
       <c r="AP4" s="22">
         <f>SUM(AP5:AP54)</f>
-        <v>5962.1572700000015</v>
+        <v>5919.9139999999989</v>
       </c>
       <c r="AQ4" s="19"/>
       <c r="AR4" s="22">
         <f>SUM(AR5:AR54)</f>
-        <v>8159.7387600000047</v>
+        <v>8232.1127300000007</v>
       </c>
       <c r="AS4" s="22"/>
       <c r="AT4" s="22"/>
       <c r="AU4" s="22">
         <f>SUM(AU5:AU54)</f>
-        <v>10027.740039999997</v>
+        <v>10122.076080000001</v>
       </c>
       <c r="AV4" s="19"/>
       <c r="AW4" s="20"/>
       <c r="AX4" s="21">
-        <f t="shared" ref="AX4:AX54" si="1">MIN(AJ4:AU4)</f>
-        <v>3740.4255800000005</v>
+        <f t="shared" ref="AX4:AX54" si="4">MIN(AJ4:AU4)</f>
+        <v>3859.5654418199983</v>
       </c>
       <c r="AY4" s="21">
-        <f t="shared" ref="AY4:AY54" si="2">MAX(AJ4:AU4)</f>
-        <v>10027.740039999997</v>
-      </c>
-      <c r="AZ4" s="36">
+        <f t="shared" ref="AY4:AY54" si="5">MAX(AJ4:AU4)</f>
+        <v>10122.076080000001</v>
+      </c>
+      <c r="AZ4" s="34">
         <f>((AU4-AJ4)/AJ4)/(2019-2008)</f>
-        <v>0.15280989544996679</v>
+        <v>0.14750861398971107</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
+      <c r="A5" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>2.714</v>
-      </c>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5">
-        <v>2.8050000000000002</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J5">
-        <v>2.7130000000000001</v>
-      </c>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="M5">
-        <v>3.012</v>
-      </c>
-      <c r="P5" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13">
         <f>MIN(F5:M5)*1000</f>
-        <v>2713</v>
-      </c>
-      <c r="Q5" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="13">
         <f>MAX(B5:M5)*1000</f>
-        <v>3012</v>
-      </c>
-      <c r="R5" s="32">
-        <f t="shared" ref="R5:R54" si="3">((M5-B5)/B5)/(2019-2008)</f>
-        <v>9.9819119715950973E-3</v>
-      </c>
-      <c r="S5">
-        <v>190.649</v>
+        <v>22</v>
+      </c>
+      <c r="R5" s="30">
+        <f>((M5-B5)/B5)/(2019-2008)</f>
+        <v>0.15909090909090906</v>
+      </c>
+      <c r="S5" s="45">
+        <v>0.14771085026041</v>
       </c>
       <c r="T5"/>
       <c r="U5"/>
@@ -6320,92 +6303,102 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5">
-        <v>278.20600000000002</v>
-      </c>
-      <c r="Z5"/>
+        <v>0.52609343928365204</v>
+      </c>
+      <c r="Z5">
+        <v>0.56049185646758304</v>
+      </c>
       <c r="AA5">
-        <v>433.012</v>
+        <v>0.81504014362867405</v>
       </c>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5">
-        <v>390.79199999999997</v>
-      </c>
-      <c r="AG5" s="3">
-        <f t="shared" si="0"/>
-        <v>190649</v>
-      </c>
-      <c r="AH5" s="3">
+        <v>0.87898073086468698</v>
+      </c>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="13">
+        <f>MIN(S5:AD5)*1000</f>
+        <v>147.71085026041001</v>
+      </c>
+      <c r="AH5" s="13">
         <f>MAX(S5:AD5)*1000</f>
-        <v>433012</v>
-      </c>
-      <c r="AI5" s="37">
-        <f t="shared" ref="AI5:AI54" si="4">((AD5-S5)/S5)/(2019-2008)</f>
-        <v>9.5436210952159095E-2</v>
-      </c>
-      <c r="AJ5">
-        <v>1355.4069999999999</v>
-      </c>
+        <v>878.98073086468696</v>
+      </c>
+      <c r="AI5" s="35">
+        <f>((AD5-S5)/S5)/(2019-2008)</f>
+        <v>0.45006226650062309</v>
+      </c>
+      <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5"/>
       <c r="AP5">
-        <v>2432.05269</v>
-      </c>
-      <c r="AQ5"/>
+        <v>1.4662999999999999</v>
+      </c>
+      <c r="AQ5">
+        <v>1.7754000000000001</v>
+      </c>
       <c r="AR5">
-        <v>3120.2884800000002</v>
+        <v>2.0873499999999998</v>
       </c>
       <c r="AS5"/>
       <c r="AT5"/>
-      <c r="AU5">
-        <v>3632.8922299999999</v>
-      </c>
-      <c r="AX5" s="3">
-        <f t="shared" si="1"/>
-        <v>1355.4069999999999</v>
-      </c>
-      <c r="AY5" s="3">
-        <f t="shared" si="2"/>
-        <v>3632.8922299999999</v>
-      </c>
-      <c r="AZ5" s="37">
-        <f t="shared" ref="AZ5:AZ54" si="5">((AU5-AJ5)/AJ5)/(2019-2008)</f>
-        <v>0.15275419989581127</v>
+      <c r="AU5"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="15">
+        <f>MIN(AJ5:AU5)</f>
+        <v>1.4662999999999999</v>
+      </c>
+      <c r="AY5" s="15">
+        <f>MAX(AJ5:AU5)</f>
+        <v>2.0873499999999998</v>
+      </c>
+      <c r="AZ5" s="35" t="e">
+        <f>((AU5-AJ5)/AJ5)/(2019-2008)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1.222</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H6">
-        <v>1.228</v>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I6">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J6">
-        <v>1.276</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M6">
-        <v>1.3640000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="P6" s="3">
         <f>MIN(F6:M6)*1000</f>
-        <v>1228</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="3">
         <f>MAX(B6:M6)*1000</f>
-        <v>1364</v>
-      </c>
-      <c r="R6" s="32">
-        <f t="shared" si="3"/>
-        <v>1.0563904180925466E-2</v>
-      </c>
-      <c r="S6">
-        <v>79.191000000000003</v>
+        <v>8</v>
+      </c>
+      <c r="R6" s="30">
+        <f>((M6-B6)/B6)/(2019-2008)</f>
+        <v>3.03030303030303E-2</v>
+      </c>
+      <c r="S6" s="45">
+        <v>0.13071398529893799</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
@@ -6413,1333 +6406,1515 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6">
-        <v>92.552999999999997</v>
-      </c>
-      <c r="Z6"/>
-      <c r="AA6">
-        <v>88.738</v>
-      </c>
+        <v>0.114121807598453</v>
+      </c>
+      <c r="Z6">
+        <v>281.33291821680399</v>
+      </c>
+      <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
-      <c r="AD6">
-        <v>101.595</v>
-      </c>
+      <c r="AD6"/>
       <c r="AG6" s="3">
-        <f t="shared" si="0"/>
-        <v>79191</v>
+        <f>MIN(S6:AD6)*1000</f>
+        <v>114.121807598453</v>
       </c>
       <c r="AH6" s="3">
         <f>MAX(S6:AD6)*1000</f>
-        <v>101595</v>
-      </c>
-      <c r="AI6" s="37">
-        <f t="shared" si="4"/>
-        <v>2.57191760771713E-2</v>
+        <v>281332.91821680398</v>
+      </c>
+      <c r="AI6" s="35">
+        <f>((AD6-S6)/S6)/(2019-2008)</f>
+        <v>-9.0909090909090912E-2</v>
       </c>
       <c r="AJ6">
-        <v>156.66152</v>
+        <v>0.57574605999999995</v>
       </c>
       <c r="AK6"/>
       <c r="AL6"/>
-      <c r="AM6"/>
+      <c r="AM6">
+        <v>0.69811325999999996</v>
+      </c>
       <c r="AN6"/>
       <c r="AO6"/>
-      <c r="AP6">
-        <v>218.87200000000001</v>
-      </c>
+      <c r="AP6"/>
       <c r="AQ6"/>
-      <c r="AR6">
-        <v>275.88600000000002</v>
-      </c>
+      <c r="AR6"/>
       <c r="AS6"/>
       <c r="AT6"/>
-      <c r="AU6">
-        <v>271.61021</v>
-      </c>
+      <c r="AU6"/>
       <c r="AX6" s="4">
-        <f t="shared" si="1"/>
-        <v>156.66152</v>
+        <f>MIN(AJ6:AU6)</f>
+        <v>0.57574605999999995</v>
       </c>
       <c r="AY6" s="4">
-        <f t="shared" si="2"/>
-        <v>275.88600000000002</v>
-      </c>
-      <c r="AZ6" s="37">
-        <f t="shared" si="5"/>
-        <v>6.670355878770301E-2</v>
+        <f>MAX(AJ6:AU6)</f>
+        <v>0.69811325999999996</v>
+      </c>
+      <c r="AZ6" s="35">
+        <f>((AU6-AJ6)/AJ6)/(2019-2008)</f>
+        <v>-9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>0.82699999999999996</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H7">
-        <v>0.91700000000000004</v>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I7">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J7">
-        <v>1.0589999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="M7">
-        <v>1.321</v>
+        <v>6.2E-2</v>
       </c>
       <c r="P7" s="3">
         <f>MIN(F7:M7)*1000</f>
-        <v>917</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="3">
         <f>MAX(B7:M7)*1000</f>
-        <v>1321</v>
-      </c>
-      <c r="R7" s="32">
-        <f t="shared" si="3"/>
-        <v>5.4303616576893483E-2</v>
-      </c>
-      <c r="S7">
-        <v>68.188999999999993</v>
+        <v>62</v>
+      </c>
+      <c r="R7" s="30">
+        <f>((M7-B7)/B7)/(2019-2008)</f>
+        <v>5.741626794258374E-2</v>
+      </c>
+      <c r="S7" s="45">
+        <v>8.3227982094673791</v>
       </c>
       <c r="T7"/>
       <c r="U7"/>
-      <c r="V7"/>
+      <c r="V7">
+        <v>5.9792542810892</v>
+      </c>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7">
-        <v>86.114000000000004</v>
-      </c>
-      <c r="Z7"/>
+        <v>7.20748011818604</v>
+      </c>
+      <c r="Z7">
+        <v>9.3345163619359504</v>
+      </c>
       <c r="AA7">
-        <v>106.997</v>
+        <v>13.4287373813457</v>
       </c>
       <c r="AB7"/>
       <c r="AC7"/>
       <c r="AD7">
-        <v>130.80199999999999</v>
+        <v>10.804340493842201</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" si="0"/>
-        <v>68189</v>
+        <f>MIN(S7:AD7)*1000</f>
+        <v>5979.2542810892</v>
       </c>
       <c r="AH7" s="3">
         <f>MAX(S7:AD7)*1000</f>
-        <v>130801.99999999999</v>
-      </c>
-      <c r="AI7" s="37">
-        <f t="shared" si="4"/>
-        <v>8.3475207278166708E-2</v>
+        <v>13428.7373813457</v>
+      </c>
+      <c r="AI7" s="35">
+        <f>((AD7-S7)/S7)/(2019-2008)</f>
+        <v>2.7105637725106015E-2</v>
       </c>
       <c r="AJ7">
-        <v>124.05694</v>
+        <v>51.333522760000001</v>
       </c>
       <c r="AK7"/>
       <c r="AL7"/>
-      <c r="AM7"/>
+      <c r="AM7">
+        <v>90.198634499999997</v>
+      </c>
       <c r="AN7"/>
       <c r="AO7"/>
       <c r="AP7">
-        <v>178.98126999999999</v>
-      </c>
-      <c r="AQ7"/>
+        <v>102.8115</v>
+      </c>
+      <c r="AQ7">
+        <v>141.6481</v>
+      </c>
       <c r="AR7">
-        <v>233.12772000000001</v>
+        <v>128.39109999999999</v>
       </c>
       <c r="AS7"/>
       <c r="AT7"/>
       <c r="AU7">
-        <v>301.4042</v>
+        <v>206.55611999999999</v>
       </c>
       <c r="AX7" s="4">
-        <f t="shared" si="1"/>
-        <v>124.05694</v>
+        <f>MIN(AJ7:AU7)</f>
+        <v>51.333522760000001</v>
       </c>
       <c r="AY7" s="4">
-        <f t="shared" si="2"/>
-        <v>301.4042</v>
-      </c>
-      <c r="AZ7" s="37">
-        <f t="shared" si="5"/>
-        <v>0.12996030840207878</v>
+        <f>MAX(AJ7:AU7)</f>
+        <v>206.55611999999999</v>
+      </c>
+      <c r="AZ7" s="35">
+        <f>((AU7-AJ7)/AJ7)/(2019-2008)</f>
+        <v>0.27489142464682009</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>0.58599999999999997</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.01</v>
       </c>
       <c r="H8">
-        <v>0.67900000000000005</v>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J8">
-        <v>0.80300000000000005</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M8">
-        <v>1.048</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P8" s="3">
         <f>MIN(F8:M8)*1000</f>
-        <v>679</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="3">
         <f>MAX(B8:M8)*1000</f>
-        <v>1048</v>
-      </c>
-      <c r="R8" s="32">
-        <f t="shared" si="3"/>
-        <v>7.1672354948805472E-2</v>
-      </c>
-      <c r="S8">
-        <v>21.71</v>
+        <v>67</v>
+      </c>
+      <c r="R8" s="30">
+        <f>((M8-B8)/B8)/(2019-2008)</f>
+        <v>0.15272727272727271</v>
+      </c>
+      <c r="S8" s="45">
+        <v>2.5337469410422599</v>
       </c>
       <c r="T8"/>
       <c r="U8"/>
-      <c r="V8"/>
+      <c r="V8">
+        <v>1.1464790103773701</v>
+      </c>
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8">
-        <v>39.521000000000001</v>
-      </c>
-      <c r="Z8"/>
+        <v>0.121406178296227</v>
+      </c>
+      <c r="Z8">
+        <v>0.81544483088966102</v>
+      </c>
       <c r="AA8">
-        <v>37.807000000000002</v>
+        <v>1.9712316482697401</v>
       </c>
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8">
-        <v>43.542999999999999</v>
+        <v>8.5020746660848108</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="0"/>
-        <v>21710</v>
+        <f>MIN(S8:AD8)*1000</f>
+        <v>121.40617829622701</v>
       </c>
       <c r="AH8" s="3">
         <f>MAX(S8:AD8)*1000</f>
-        <v>43543</v>
-      </c>
-      <c r="AI8" s="37">
-        <f t="shared" si="4"/>
-        <v>9.1424144717557887E-2</v>
+        <v>8502.0746660848108</v>
+      </c>
+      <c r="AI8" s="35">
+        <f>((AD8-S8)/S8)/(2019-2008)</f>
+        <v>0.21413947815481207</v>
       </c>
       <c r="AJ8">
-        <v>251.03201999999999</v>
+        <v>15.67474666</v>
       </c>
       <c r="AK8"/>
       <c r="AL8"/>
       <c r="AM8"/>
       <c r="AN8"/>
       <c r="AO8"/>
-      <c r="AP8">
-        <v>341.66703999999999</v>
-      </c>
-      <c r="AQ8"/>
+      <c r="AP8"/>
+      <c r="AQ8">
+        <v>17.900300000000001</v>
+      </c>
       <c r="AR8">
-        <v>712.39931999999999</v>
+        <v>43.347119999999997</v>
       </c>
       <c r="AS8"/>
       <c r="AT8"/>
       <c r="AU8">
-        <v>749.18164000000002</v>
+        <v>56.437620000000003</v>
       </c>
       <c r="AX8" s="4">
-        <f t="shared" si="1"/>
-        <v>251.03201999999999</v>
+        <f>MIN(AJ8:AU8)</f>
+        <v>15.67474666</v>
       </c>
       <c r="AY8" s="4">
-        <f t="shared" si="2"/>
-        <v>749.18164000000002</v>
-      </c>
-      <c r="AZ8" s="37">
-        <f t="shared" si="5"/>
-        <v>0.18040060822085205</v>
+        <f>MAX(AJ8:AU8)</f>
+        <v>56.437620000000003</v>
+      </c>
+      <c r="AZ8" s="35">
+        <f>((AU8-AJ8)/AJ8)/(2019-2008)</f>
+        <v>0.23641311968622389</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0.88700000000000001</v>
+        <v>2.286</v>
+      </c>
+      <c r="E9">
+        <v>1.8839999999999999</v>
       </c>
       <c r="H9">
-        <v>0.71599999999999997</v>
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="I9">
+        <v>2.6349999999999998</v>
       </c>
       <c r="J9">
-        <v>0.67700000000000005</v>
+        <v>2.7130000000000001</v>
       </c>
       <c r="M9">
-        <v>0.745</v>
+        <v>3.012</v>
       </c>
       <c r="P9" s="3">
         <f>MIN(F9:M9)*1000</f>
-        <v>677</v>
+        <v>2632</v>
       </c>
       <c r="Q9" s="3">
         <f>MAX(B9:M9)*1000</f>
-        <v>887</v>
-      </c>
-      <c r="R9" s="32">
-        <f t="shared" si="3"/>
-        <v>-1.4553653787024702E-2</v>
-      </c>
-      <c r="S9">
-        <v>33.286000000000001</v>
+        <v>3012</v>
+      </c>
+      <c r="R9" s="30">
+        <f>((M9-B9)/B9)/(2019-2008)</f>
+        <v>2.8871391076115485E-2</v>
+      </c>
+      <c r="S9" s="45">
+        <v>186.79028499218199</v>
       </c>
       <c r="T9"/>
       <c r="U9"/>
-      <c r="V9"/>
+      <c r="V9">
+        <v>236.02858403652201</v>
+      </c>
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9">
-        <v>29.895</v>
-      </c>
-      <c r="Z9"/>
+        <v>277.553948573703</v>
+      </c>
+      <c r="Z9">
+        <v>319.87007201885302</v>
+      </c>
       <c r="AA9">
-        <v>31.866</v>
+        <v>432.99513489349499</v>
       </c>
       <c r="AB9"/>
       <c r="AC9"/>
       <c r="AD9">
-        <v>45.316000000000003</v>
+        <v>390.62721147893899</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="0"/>
-        <v>29895</v>
+        <f>MIN(S9:AD9)*1000</f>
+        <v>186790.28499218199</v>
       </c>
       <c r="AH9" s="3">
         <f>MAX(S9:AD9)*1000</f>
-        <v>45316</v>
-      </c>
-      <c r="AI9" s="37">
-        <f t="shared" si="4"/>
-        <v>3.285574606850819E-2</v>
+        <v>432995.13489349501</v>
+      </c>
+      <c r="AI9" s="35">
+        <f>((AD9-S9)/S9)/(2019-2008)</f>
+        <v>9.9205532457910542E-2</v>
       </c>
       <c r="AJ9">
-        <v>332.72460000000001</v>
+        <v>1401.3533818599999</v>
       </c>
       <c r="AK9"/>
       <c r="AL9"/>
-      <c r="AM9"/>
+      <c r="AM9">
+        <v>1624.9509923399901</v>
+      </c>
       <c r="AN9"/>
       <c r="AO9"/>
       <c r="AP9">
-        <v>561.23773000000006</v>
-      </c>
-      <c r="AQ9"/>
+        <v>2453.6963000000001</v>
+      </c>
+      <c r="AQ9">
+        <v>2679.1534000000001</v>
+      </c>
       <c r="AR9">
-        <v>687.14459999999997</v>
+        <v>3149.1800400000002</v>
       </c>
       <c r="AS9"/>
       <c r="AT9"/>
       <c r="AU9">
-        <v>894.8297</v>
-      </c>
-      <c r="AX9" s="4">
-        <f t="shared" si="1"/>
-        <v>332.72460000000001</v>
-      </c>
-      <c r="AY9" s="4">
-        <f t="shared" si="2"/>
-        <v>894.8297</v>
-      </c>
-      <c r="AZ9" s="37">
-        <f t="shared" si="5"/>
-        <v>0.15358186210566827</v>
+        <v>3668.8614600000001</v>
+      </c>
+      <c r="AX9" s="3">
+        <f>MIN(AJ9:AU9)</f>
+        <v>1401.3533818599999</v>
+      </c>
+      <c r="AY9" s="3">
+        <f>MAX(AJ9:AU9)</f>
+        <v>3668.8614600000001</v>
+      </c>
+      <c r="AZ9" s="35">
+        <f>((AU9-AJ9)/AJ9)/(2019-2008)</f>
+        <v>0.14709858389831973</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.54700000000000004</v>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.11700000000000001</v>
       </c>
       <c r="H10">
-        <v>0.54100000000000004</v>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.13300000000000001</v>
       </c>
       <c r="J10">
-        <v>0.57499999999999996</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="M10">
-        <v>0.78500000000000003</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="P10" s="3">
         <f>MIN(F10:M10)*1000</f>
-        <v>541</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="3">
         <f>MAX(B10:M10)*1000</f>
-        <v>785</v>
-      </c>
-      <c r="R10" s="32">
-        <f t="shared" si="3"/>
-        <v>3.955459531327904E-2</v>
-      </c>
-      <c r="S10">
-        <v>25.1</v>
+        <v>238</v>
+      </c>
+      <c r="R10" s="30">
+        <f>((M10-B10)/B10)/(2019-2008)</f>
+        <v>4.1829336307863903E-2</v>
+      </c>
+      <c r="S10" s="45">
+        <v>60.287880018340601</v>
       </c>
       <c r="T10"/>
       <c r="U10"/>
-      <c r="V10"/>
+      <c r="V10">
+        <v>31.4559361092915</v>
+      </c>
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10">
-        <v>30.117999999999999</v>
-      </c>
-      <c r="Z10"/>
-      <c r="AA10" s="29">
-        <v>33.799999999999997</v>
+        <v>46.437863198306999</v>
+      </c>
+      <c r="Z10">
+        <v>61.338852835125003</v>
+      </c>
+      <c r="AA10">
+        <v>71.425682815236598</v>
       </c>
       <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10">
-        <v>45.311999999999998</v>
+        <v>67.7851162153937</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="0"/>
-        <v>25100</v>
+        <f>MIN(S10:AD10)*1000</f>
+        <v>31455.936109291499</v>
       </c>
       <c r="AH10" s="3">
         <f>MAX(S10:AD10)*1000</f>
-        <v>45312</v>
-      </c>
-      <c r="AI10" s="37">
-        <f t="shared" si="4"/>
-        <v>7.3205360376675105E-2</v>
+        <v>71425.682815236592</v>
+      </c>
+      <c r="AI10" s="35">
+        <f>((AD10-S10)/S10)/(2019-2008)</f>
+        <v>1.1305206399652516E-2</v>
       </c>
       <c r="AJ10">
-        <v>50.462699999999998</v>
+        <v>85.681666280000002</v>
       </c>
       <c r="AK10"/>
       <c r="AL10"/>
-      <c r="AM10"/>
+      <c r="AM10">
+        <v>82.148946749999993</v>
+      </c>
       <c r="AN10"/>
       <c r="AO10"/>
       <c r="AP10">
-        <v>96.842140000000001</v>
-      </c>
-      <c r="AQ10"/>
+        <v>161.40629999999999</v>
+      </c>
+      <c r="AQ10">
+        <v>170.72659999999999</v>
+      </c>
       <c r="AR10">
-        <v>109.34135999999999</v>
+        <v>197.61373</v>
       </c>
       <c r="AS10"/>
       <c r="AT10"/>
       <c r="AU10">
-        <v>118.16898999999999</v>
+        <v>187.80137999999999</v>
       </c>
       <c r="AX10" s="4">
-        <f t="shared" si="1"/>
-        <v>50.462699999999998</v>
+        <f>MIN(AJ10:AU10)</f>
+        <v>82.148946749999993</v>
       </c>
       <c r="AY10" s="4">
-        <f t="shared" si="2"/>
-        <v>118.16898999999999</v>
-      </c>
-      <c r="AZ10" s="37">
-        <f t="shared" si="5"/>
-        <v>0.12197360174400641</v>
+        <f>MAX(AJ10:AU10)</f>
+        <v>197.61373</v>
+      </c>
+      <c r="AZ10" s="35">
+        <f>((AU10-AJ10)/AJ10)/(2019-2008)</f>
+        <v>0.10835002096999155</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>0.51800000000000002</v>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H11">
-        <v>0.61199999999999999</v>
+        <v>7.8E-2</v>
+      </c>
+      <c r="I11">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J11">
-        <v>0.73199999999999998</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="M11">
-        <v>0.77900000000000003</v>
+        <v>6.3E-2</v>
       </c>
       <c r="P11" s="3">
         <f>MIN(F11:M11)*1000</f>
-        <v>612</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="3">
         <f>MAX(B11:M11)*1000</f>
-        <v>779</v>
-      </c>
-      <c r="R11" s="32">
-        <f t="shared" si="3"/>
-        <v>4.5805545805545807E-2</v>
-      </c>
-      <c r="S11">
-        <v>38.286999999999999</v>
+        <v>78</v>
+      </c>
+      <c r="R11" s="30">
+        <f>((M11-B11)/B11)/(2019-2008)</f>
+        <v>6.3882063882063897E-2</v>
+      </c>
+      <c r="S11" s="45">
+        <v>0.19303582349100101</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11"/>
+      <c r="V11">
+        <v>0.120192116513265</v>
+      </c>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11">
-        <v>39.453000000000003</v>
-      </c>
-      <c r="Z11"/>
+        <v>0.90771352639479397</v>
+      </c>
+      <c r="Z11">
+        <v>1.0262868938641101</v>
+      </c>
       <c r="AA11">
-        <v>41.738999999999997</v>
+        <v>0.68432615832973598</v>
       </c>
       <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11">
-        <v>54.125999999999998</v>
+        <v>0.728437069777365</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="0"/>
-        <v>38287</v>
+        <f>MIN(S11:AD11)*1000</f>
+        <v>120.19211651326501</v>
       </c>
       <c r="AH11" s="3">
         <f>MAX(S11:AD11)*1000</f>
-        <v>54126</v>
-      </c>
-      <c r="AI11" s="37">
-        <f t="shared" si="4"/>
-        <v>3.7608302841933054E-2</v>
+        <v>1026.2868938641102</v>
+      </c>
+      <c r="AI11" s="35">
+        <f>((AD11-S11)/S11)/(2019-2008)</f>
+        <v>0.25214408233276281</v>
       </c>
       <c r="AJ11">
-        <v>84.423100000000005</v>
+        <v>6.2988295000000001</v>
       </c>
       <c r="AK11"/>
       <c r="AL11"/>
-      <c r="AM11"/>
+      <c r="AM11">
+        <v>1.3523702399999999</v>
+      </c>
       <c r="AN11"/>
       <c r="AO11"/>
       <c r="AP11">
-        <v>111.86234</v>
-      </c>
-      <c r="AQ11"/>
+        <v>3.9445999999999999</v>
+      </c>
+      <c r="AQ11">
+        <v>5.1447000000000003</v>
+      </c>
       <c r="AR11">
-        <v>141.68304000000001</v>
+        <v>7.5678700000000001</v>
       </c>
       <c r="AS11"/>
       <c r="AT11"/>
       <c r="AU11">
-        <v>146.04195999999999</v>
+        <v>6.2750399999999997</v>
       </c>
       <c r="AX11" s="4">
-        <f t="shared" si="1"/>
-        <v>84.423100000000005</v>
+        <f>MIN(AJ11:AU11)</f>
+        <v>1.3523702399999999</v>
       </c>
       <c r="AY11" s="4">
-        <f t="shared" si="2"/>
-        <v>146.04195999999999</v>
-      </c>
-      <c r="AZ11" s="37">
-        <f t="shared" si="5"/>
-        <v>6.6352864861093042E-2</v>
+        <f>MAX(AJ11:AU11)</f>
+        <v>7.5678700000000001</v>
+      </c>
+      <c r="AZ11" s="35">
+        <f>((AU11-AJ11)/AJ11)/(2019-2008)</f>
+        <v>-3.4334661990483316E-4</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
+      <c r="A12" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>0.65700000000000003</v>
-      </c>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="H12">
-        <v>0.52500000000000002</v>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I12">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J12">
-        <v>0.46100000000000002</v>
-      </c>
+        <v>2E-3</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="P12" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13">
         <f>MIN(F12:M12)*1000</f>
-        <v>456</v>
-      </c>
-      <c r="Q12" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="13">
         <f>MAX(B12:M12)*1000</f>
-        <v>657</v>
-      </c>
-      <c r="R12" s="32">
-        <f t="shared" si="3"/>
-        <v>-2.7812370278123701E-2</v>
-      </c>
-      <c r="S12">
-        <v>42.755000000000003</v>
+        <v>12</v>
+      </c>
+      <c r="R12" s="43">
+        <f>((M12-B12)/B12)/(2019-2008)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="S12" s="45">
+        <v>9.6720255375994602E-2</v>
       </c>
       <c r="T12"/>
       <c r="U12"/>
-      <c r="V12"/>
+      <c r="V12">
+        <v>0.12828586173301301</v>
+      </c>
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12">
-        <v>82.658000000000001</v>
+        <v>8.3770263024396996E-2</v>
       </c>
       <c r="Z12"/>
-      <c r="AA12">
-        <v>78.823999999999998</v>
-      </c>
+      <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
       <c r="AD12">
-        <v>79.37</v>
-      </c>
-      <c r="AG12" s="3">
-        <f t="shared" si="0"/>
-        <v>42755</v>
-      </c>
-      <c r="AH12" s="3">
+        <v>0.21488893558432201</v>
+      </c>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="13">
+        <f>MIN(S12:AD12)*1000</f>
+        <v>83.770263024396996</v>
+      </c>
+      <c r="AH12" s="13">
         <f>MAX(S12:AD12)*1000</f>
-        <v>82658</v>
-      </c>
-      <c r="AI12" s="37">
-        <f t="shared" si="4"/>
-        <v>7.7853733215679177E-2</v>
-      </c>
-      <c r="AJ12">
-        <v>183.62334000000001</v>
-      </c>
+        <v>214.88893558432201</v>
+      </c>
+      <c r="AI12" s="44">
+        <f>((AD12-S12)/S12)/(2019-2008)</f>
+        <v>0.11106884747052043</v>
+      </c>
+      <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12"/>
-      <c r="AM12"/>
+      <c r="AM12">
+        <v>0.62865035999999996</v>
+      </c>
       <c r="AN12"/>
       <c r="AO12"/>
       <c r="AP12">
-        <v>258.46188999999998</v>
+        <v>0.2717</v>
       </c>
       <c r="AQ12"/>
-      <c r="AR12">
-        <v>378.96767999999997</v>
-      </c>
+      <c r="AR12"/>
       <c r="AS12"/>
       <c r="AT12"/>
       <c r="AU12">
-        <v>458.95006000000001</v>
-      </c>
-      <c r="AX12" s="4">
-        <f t="shared" si="1"/>
-        <v>183.62334000000001</v>
-      </c>
-      <c r="AY12" s="4">
-        <f t="shared" si="2"/>
-        <v>458.95006000000001</v>
-      </c>
-      <c r="AZ12" s="37">
-        <f t="shared" si="5"/>
-        <v>0.13631002365048919</v>
+        <v>13.835279999999999</v>
+      </c>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="15">
+        <f>MIN(AJ12:AU12)</f>
+        <v>0.2717</v>
+      </c>
+      <c r="AY12" s="15">
+        <f>MAX(AJ12:AU12)</f>
+        <v>13.835279999999999</v>
+      </c>
+      <c r="AZ12" s="44" t="e">
+        <f>((AU12-AJ12)/AJ12)/(2019-2008)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>0.46700000000000003</v>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E13">
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H13">
-        <v>0.54200000000000004</v>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.159</v>
       </c>
       <c r="J13">
-        <v>0.55600000000000005</v>
+        <v>0.123</v>
       </c>
       <c r="M13">
-        <v>0.65500000000000003</v>
+        <v>0.126</v>
       </c>
       <c r="P13" s="3">
         <f>MIN(F13:M13)*1000</f>
-        <v>542</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="3">
         <f>MAX(B13:M13)*1000</f>
-        <v>655</v>
-      </c>
-      <c r="R13" s="32">
-        <f t="shared" si="3"/>
-        <v>3.6597235740704691E-2</v>
-      </c>
-      <c r="S13">
-        <v>31.38</v>
+        <v>159</v>
+      </c>
+      <c r="R13" s="30">
+        <f>((M13-B13)/B13)/(2019-2008)</f>
+        <v>2.479338842975206E-2</v>
+      </c>
+      <c r="S13" s="45">
+        <v>3.0161341561392798</v>
       </c>
       <c r="T13"/>
       <c r="U13"/>
-      <c r="V13"/>
+      <c r="V13">
+        <v>5.8942699562818399</v>
+      </c>
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13">
-        <v>46.539000000000001</v>
-      </c>
-      <c r="Z13"/>
+        <v>7.7882063377029898</v>
+      </c>
+      <c r="Z13">
+        <v>5.1625953884165803</v>
+      </c>
       <c r="AA13">
-        <v>54.366</v>
+        <v>4.7263425210721302</v>
       </c>
       <c r="AB13"/>
       <c r="AC13"/>
       <c r="AD13">
-        <v>82.186999999999998</v>
+        <v>7.2487582188067599</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="0"/>
-        <v>31380</v>
+        <f>MIN(S13:AD13)*1000</f>
+        <v>3016.1341561392796</v>
       </c>
       <c r="AH13" s="3">
         <f>MAX(S13:AD13)*1000</f>
-        <v>82187</v>
-      </c>
-      <c r="AI13" s="37">
-        <f t="shared" si="4"/>
-        <v>0.14718987195086622</v>
+        <v>7788.2063377029899</v>
+      </c>
+      <c r="AI13" s="35">
+        <f>((AD13-S13)/S13)/(2019-2008)</f>
+        <v>0.12757522901089249</v>
       </c>
       <c r="AJ13">
-        <v>85.971260000000001</v>
+        <v>52.948536799999999</v>
       </c>
       <c r="AK13"/>
       <c r="AL13"/>
-      <c r="AM13"/>
+      <c r="AM13">
+        <v>115.37094698999999</v>
+      </c>
       <c r="AN13"/>
       <c r="AO13"/>
       <c r="AP13">
-        <v>102.33901</v>
-      </c>
-      <c r="AQ13"/>
+        <v>62.813299999999998</v>
+      </c>
+      <c r="AQ13">
+        <v>69.114099999999993</v>
+      </c>
       <c r="AR13">
-        <v>137.21832000000001</v>
+        <v>78.862589999999997</v>
       </c>
       <c r="AS13"/>
       <c r="AT13"/>
       <c r="AU13">
-        <v>161.33941999999999</v>
+        <v>88.187160000000006</v>
       </c>
       <c r="AX13" s="4">
-        <f t="shared" si="1"/>
-        <v>85.971260000000001</v>
+        <f>MIN(AJ13:AU13)</f>
+        <v>52.948536799999999</v>
       </c>
       <c r="AY13" s="4">
-        <f t="shared" si="2"/>
-        <v>161.33941999999999</v>
-      </c>
-      <c r="AZ13" s="37">
-        <f t="shared" si="5"/>
-        <v>7.9696993031053723E-2</v>
+        <f>MAX(AJ13:AU13)</f>
+        <v>115.37094698999999</v>
+      </c>
+      <c r="AZ13" s="35">
+        <f>((AU13-AJ13)/AJ13)/(2019-2008)</f>
+        <v>6.0502355562732008E-2</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>0.55000000000000004</v>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.9E-2</v>
       </c>
       <c r="H14">
-        <v>0.51200000000000001</v>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I14">
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="J14">
-        <v>0.54500000000000004</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="M14">
-        <v>0.63500000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="P14" s="3">
         <f>MIN(F14:M14)*1000</f>
-        <v>512</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="3">
         <f>MAX(B14:M14)*1000</f>
-        <v>635</v>
-      </c>
-      <c r="R14" s="32">
-        <f t="shared" si="3"/>
-        <v>1.4049586776859496E-2</v>
-      </c>
-      <c r="S14">
-        <v>49.566000000000003</v>
+        <v>102</v>
+      </c>
+      <c r="R14" s="30">
+        <f>((M14-B14)/B14)/(2019-2008)</f>
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="S14" s="45">
+        <v>1.5005803637413699</v>
       </c>
       <c r="T14"/>
       <c r="U14"/>
-      <c r="V14"/>
+      <c r="V14">
+        <v>0.66125898445345199</v>
+      </c>
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14">
-        <v>53.86</v>
-      </c>
-      <c r="Z14"/>
+        <v>3.33138553244848</v>
+      </c>
+      <c r="Z14">
+        <v>1.27921643198125</v>
+      </c>
       <c r="AA14">
-        <v>52.89</v>
+        <v>2.1638627844997602</v>
       </c>
       <c r="AB14"/>
       <c r="AC14"/>
       <c r="AD14">
-        <v>70.028000000000006</v>
+        <v>2.8813732982304598</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="0"/>
-        <v>49566</v>
+        <f>MIN(S14:AD14)*1000</f>
+        <v>661.25898445345194</v>
       </c>
       <c r="AH14" s="3">
         <f>MAX(S14:AD14)*1000</f>
-        <v>70028</v>
-      </c>
-      <c r="AI14" s="37">
-        <f t="shared" si="4"/>
-        <v>3.7529391481697504E-2</v>
+        <v>3331.3855324484798</v>
+      </c>
+      <c r="AI14" s="35">
+        <f>((AD14-S14)/S14)/(2019-2008)</f>
+        <v>8.3652054525840791E-2</v>
       </c>
       <c r="AJ14">
-        <v>81.48254</v>
+        <v>7.1318430599999996</v>
       </c>
       <c r="AK14"/>
       <c r="AL14"/>
-      <c r="AM14"/>
+      <c r="AM14">
+        <v>14.70049659</v>
+      </c>
       <c r="AN14"/>
       <c r="AO14"/>
       <c r="AP14">
-        <v>100.54378</v>
-      </c>
-      <c r="AQ14"/>
+        <v>13.5223</v>
+      </c>
+      <c r="AQ14">
+        <v>21.9604</v>
+      </c>
       <c r="AR14">
-        <v>114.99732</v>
+        <v>52.573970000000003</v>
       </c>
       <c r="AS14"/>
       <c r="AT14"/>
       <c r="AU14">
-        <v>114.74206</v>
+        <v>53.256239999999998</v>
       </c>
       <c r="AX14" s="4">
-        <f t="shared" si="1"/>
-        <v>81.48254</v>
+        <f>MIN(AJ14:AU14)</f>
+        <v>7.1318430599999996</v>
       </c>
       <c r="AY14" s="4">
-        <f t="shared" si="2"/>
-        <v>114.99732</v>
-      </c>
-      <c r="AZ14" s="37">
-        <f t="shared" si="5"/>
-        <v>3.7107246868749139E-2</v>
+        <f>MAX(AJ14:AU14)</f>
+        <v>53.256239999999998</v>
+      </c>
+      <c r="AZ14" s="35">
+        <f>((AU14-AJ14)/AJ14)/(2019-2008)</f>
+        <v>0.58794437276154177</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>0.14799999999999999</v>
+        <v>0.18</v>
+      </c>
+      <c r="E15">
+        <v>0.10299999999999999</v>
       </c>
       <c r="H15">
-        <v>0.28199999999999997</v>
+        <v>0.121</v>
+      </c>
+      <c r="I15">
+        <v>0.11899999999999999</v>
       </c>
       <c r="J15">
-        <v>0.42</v>
+        <v>0.113</v>
       </c>
       <c r="M15">
-        <v>0.59499999999999997</v>
+        <v>0.129</v>
       </c>
       <c r="P15" s="3">
         <f>MIN(F15:M15)*1000</f>
-        <v>282</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="3">
         <f>MAX(B15:M15)*1000</f>
-        <v>595</v>
-      </c>
-      <c r="R15" s="32">
-        <f t="shared" si="3"/>
-        <v>0.27457002457002455</v>
-      </c>
-      <c r="S15">
-        <v>5.2709999999999999</v>
+        <v>180</v>
+      </c>
+      <c r="R15" s="30">
+        <f>((M15-B15)/B15)/(2019-2008)</f>
+        <v>-2.5757575757575753E-2</v>
+      </c>
+      <c r="S15" s="45">
+        <v>3.9716007793305899</v>
       </c>
       <c r="T15"/>
       <c r="U15"/>
-      <c r="V15"/>
+      <c r="V15">
+        <v>1.09306029192703</v>
+      </c>
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15">
-        <v>10.647</v>
-      </c>
-      <c r="Z15"/>
+        <v>1.36501013131058</v>
+      </c>
+      <c r="Z15">
+        <v>0.66611523158530195</v>
+      </c>
       <c r="AA15">
-        <v>17.491</v>
+        <v>2.89877485045292</v>
       </c>
       <c r="AB15"/>
       <c r="AC15"/>
-      <c r="AD15" s="29">
-        <v>14.8</v>
+      <c r="AD15">
+        <v>1.1290774581549099</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="0"/>
-        <v>5271</v>
+        <f>MIN(S15:AD15)*1000</f>
+        <v>666.1152315853019</v>
       </c>
       <c r="AH15" s="3">
         <f>MAX(S15:AD15)*1000</f>
-        <v>17491</v>
-      </c>
-      <c r="AI15" s="37">
-        <f t="shared" si="4"/>
-        <v>0.16434694123937152</v>
+        <v>3971.6007793305898</v>
+      </c>
+      <c r="AI15" s="35">
+        <f>((AD15-S15)/S15)/(2019-2008)</f>
+        <v>-6.5064749800841232E-2</v>
       </c>
       <c r="AJ15">
-        <v>16.374860000000002</v>
+        <v>12.294819619999901</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
-      <c r="AM15"/>
+      <c r="AM15">
+        <v>8.7462332099999998</v>
+      </c>
       <c r="AN15"/>
       <c r="AO15"/>
       <c r="AP15">
-        <v>65.231049999999996</v>
-      </c>
-      <c r="AQ15"/>
+        <v>14.5464</v>
+      </c>
+      <c r="AQ15">
+        <v>13.833600000000001</v>
+      </c>
       <c r="AR15">
-        <v>107.05392000000001</v>
+        <v>14.61472</v>
       </c>
       <c r="AS15"/>
       <c r="AT15"/>
       <c r="AU15">
-        <v>182.76051000000001</v>
+        <v>17.62866</v>
       </c>
       <c r="AX15" s="4">
-        <f t="shared" si="1"/>
-        <v>16.374860000000002</v>
+        <f>MIN(AJ15:AU15)</f>
+        <v>8.7462332099999998</v>
       </c>
       <c r="AY15" s="4">
-        <f t="shared" si="2"/>
-        <v>182.76051000000001</v>
-      </c>
-      <c r="AZ15" s="37">
-        <f t="shared" si="5"/>
-        <v>0.92373114529334477</v>
+        <f>MAX(AJ15:AU15)</f>
+        <v>17.62866</v>
+      </c>
+      <c r="AZ15" s="35">
+        <f>((AU15-AJ15)/AJ15)/(2019-2008)</f>
+        <v>3.9438934037814941E-2</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>0.46100000000000002</v>
+        <v>0.219</v>
+      </c>
+      <c r="E16">
+        <v>0.14199999999999999</v>
       </c>
       <c r="H16">
-        <v>0.33200000000000002</v>
+        <v>0.151</v>
+      </c>
+      <c r="I16">
+        <v>0.16800000000000001</v>
       </c>
       <c r="J16">
-        <v>0.40200000000000002</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="M16">
-        <v>0.54100000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="P16" s="3">
         <f>MIN(F16:M16)*1000</f>
-        <v>332</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="3">
         <f>MAX(B16:M16)*1000</f>
-        <v>541</v>
-      </c>
-      <c r="R16" s="32">
-        <f t="shared" si="3"/>
-        <v>1.577598106882272E-2</v>
-      </c>
-      <c r="S16">
-        <v>27.597999999999999</v>
+        <v>240</v>
+      </c>
+      <c r="R16" s="30">
+        <f>((M16-B16)/B16)/(2019-2008)</f>
+        <v>8.7173100871730958E-3</v>
+      </c>
+      <c r="S16" s="45">
+        <v>59.953203653503998</v>
       </c>
       <c r="T16"/>
       <c r="U16"/>
-      <c r="V16"/>
+      <c r="V16">
+        <v>52.801975064595197</v>
+      </c>
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16">
-        <v>23.515999999999998</v>
-      </c>
-      <c r="Z16"/>
+        <v>50.590359183299</v>
+      </c>
+      <c r="Z16">
+        <v>67.656425666399699</v>
+      </c>
       <c r="AA16">
-        <v>30.835000000000001</v>
+        <v>72.263790132741505</v>
       </c>
       <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16">
-        <v>49.494999999999997</v>
+        <v>73.1399380527793</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="0"/>
-        <v>23516</v>
+        <f>MIN(S16:AD16)*1000</f>
+        <v>50590.359183298999</v>
       </c>
       <c r="AH16" s="3">
         <f>MAX(S16:AD16)*1000</f>
-        <v>49495</v>
-      </c>
-      <c r="AI16" s="37">
-        <f t="shared" si="4"/>
-        <v>7.212973272107992E-2</v>
+        <v>73139.938052779296</v>
+      </c>
+      <c r="AI16" s="35">
+        <f>((AD16-S16)/S16)/(2019-2008)</f>
+        <v>1.999549587418404E-2</v>
       </c>
       <c r="AJ16">
-        <v>83.910979999999995</v>
+        <v>86.924475399999906</v>
       </c>
       <c r="AK16"/>
       <c r="AL16"/>
-      <c r="AM16"/>
+      <c r="AM16">
+        <v>62.301670469999998</v>
+      </c>
       <c r="AN16"/>
       <c r="AO16"/>
       <c r="AP16">
-        <v>135.82708</v>
-      </c>
-      <c r="AQ16"/>
+        <v>72.246899999999997</v>
+      </c>
+      <c r="AQ16">
+        <v>93.5154</v>
+      </c>
       <c r="AR16">
-        <v>217.15235999999999</v>
+        <v>106.82545</v>
       </c>
       <c r="AS16"/>
       <c r="AT16"/>
       <c r="AU16">
-        <v>233.26455000000001</v>
+        <v>210.08735999999999</v>
       </c>
       <c r="AX16" s="4">
-        <f t="shared" si="1"/>
-        <v>83.910979999999995</v>
+        <f>MIN(AJ16:AU16)</f>
+        <v>62.301670469999998</v>
       </c>
       <c r="AY16" s="4">
-        <f t="shared" si="2"/>
-        <v>233.26455000000001</v>
-      </c>
-      <c r="AZ16" s="37">
-        <f t="shared" si="5"/>
-        <v>0.16180954235938222</v>
+        <f>MAX(AJ16:AU16)</f>
+        <v>210.08735999999999</v>
+      </c>
+      <c r="AZ16" s="35">
+        <f>((AU16-AJ16)/AJ16)/(2019-2008)</f>
+        <v>0.12880866776824162</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>0.379</v>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.13500000000000001</v>
       </c>
       <c r="H17">
-        <v>0.51700000000000002</v>
+        <v>0.215</v>
+      </c>
+      <c r="I17">
+        <v>0.19600000000000001</v>
       </c>
       <c r="J17">
-        <v>0.49399999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="M17">
-        <v>0.45600000000000002</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="P17" s="3">
         <f>MIN(F17:M17)*1000</f>
-        <v>456</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="3">
         <f>MAX(B17:M17)*1000</f>
-        <v>517</v>
-      </c>
-      <c r="R17" s="32">
-        <f t="shared" si="3"/>
-        <v>1.8469656992084436E-2</v>
-      </c>
-      <c r="S17">
-        <v>11.443</v>
+        <v>258</v>
+      </c>
+      <c r="R17" s="30">
+        <f>((M17-B17)/B17)/(2019-2008)</f>
+        <v>5.387205387205387E-2</v>
+      </c>
+      <c r="S17" s="45">
+        <v>12.094078794609199</v>
       </c>
       <c r="T17"/>
       <c r="U17"/>
-      <c r="V17"/>
+      <c r="V17">
+        <v>11.640019687781299</v>
+      </c>
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17">
-        <v>23.661000000000001</v>
-      </c>
-      <c r="Z17"/>
+        <v>16.382145012031899</v>
+      </c>
+      <c r="Z17">
+        <v>14.954003668007299</v>
+      </c>
       <c r="AA17">
-        <v>22.387</v>
+        <v>15.8447203294406</v>
       </c>
       <c r="AB17"/>
       <c r="AC17"/>
       <c r="AD17">
-        <v>22.373000000000001</v>
+        <v>24.559660494804799</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="0"/>
-        <v>11443</v>
+        <f>MIN(S17:AD17)*1000</f>
+        <v>11640.0196877813</v>
       </c>
       <c r="AH17" s="3">
         <f>MAX(S17:AD17)*1000</f>
-        <v>23661</v>
-      </c>
-      <c r="AI17" s="37">
-        <f t="shared" si="4"/>
-        <v>8.6833554455681541E-2</v>
+        <v>24559.660494804801</v>
+      </c>
+      <c r="AI17" s="35">
+        <f>((AD17-S17)/S17)/(2019-2008)</f>
+        <v>9.370161376184423E-2</v>
       </c>
       <c r="AJ17">
-        <v>36.1965</v>
+        <v>28.756746879999898</v>
       </c>
       <c r="AK17"/>
       <c r="AL17"/>
-      <c r="AM17"/>
+      <c r="AM17">
+        <v>32.607584099999997</v>
+      </c>
       <c r="AN17"/>
       <c r="AO17"/>
       <c r="AP17">
-        <v>59.054020000000001</v>
-      </c>
-      <c r="AQ17"/>
+        <v>57.86</v>
+      </c>
+      <c r="AQ17">
+        <v>58.685000000000002</v>
+      </c>
       <c r="AR17">
-        <v>70.899839999999998</v>
+        <v>56.795540000000003</v>
       </c>
       <c r="AS17"/>
       <c r="AT17"/>
       <c r="AU17">
-        <v>64.458200000000005</v>
+        <v>74.156040000000004</v>
       </c>
       <c r="AX17" s="4">
-        <f t="shared" si="1"/>
-        <v>36.1965</v>
+        <f>MIN(AJ17:AU17)</f>
+        <v>28.756746879999898</v>
       </c>
       <c r="AY17" s="4">
-        <f t="shared" si="2"/>
-        <v>70.899839999999998</v>
-      </c>
-      <c r="AZ17" s="37">
-        <f t="shared" si="5"/>
-        <v>7.0980494095988708E-2</v>
+        <f>MAX(AJ17:AU17)</f>
+        <v>74.156040000000004</v>
+      </c>
+      <c r="AZ17" s="35">
+        <f>((AU17-AJ17)/AJ17)/(2019-2008)</f>
+        <v>0.14352139630665239</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>0.372</v>
+        <v>0.108</v>
+      </c>
+      <c r="E18">
+        <v>0.156</v>
       </c>
       <c r="H18">
-        <v>0.23400000000000001</v>
+        <v>0.251</v>
+      </c>
+      <c r="I18">
+        <v>0.33200000000000002</v>
       </c>
       <c r="J18">
-        <v>0.217</v>
+        <v>0.42</v>
       </c>
       <c r="M18">
-        <v>0.23300000000000001</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="P18" s="3">
         <f>MIN(F18:M18)*1000</f>
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="3">
         <f>MAX(B18:M18)*1000</f>
-        <v>372</v>
-      </c>
-      <c r="R18" s="32">
-        <f t="shared" si="3"/>
-        <v>-3.3968719452590418E-2</v>
-      </c>
-      <c r="S18">
-        <v>127.238</v>
+        <v>595</v>
+      </c>
+      <c r="R18" s="30">
+        <f>((M18-B18)/B18)/(2019-2008)</f>
+        <v>0.40993265993265998</v>
+      </c>
+      <c r="S18" s="45">
+        <v>5.0905610559608201</v>
       </c>
       <c r="T18"/>
       <c r="U18"/>
-      <c r="V18"/>
+      <c r="V18">
+        <v>6.23339788098931</v>
+      </c>
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18">
-        <v>51.271000000000001</v>
-      </c>
-      <c r="Z18"/>
+        <v>10.266511123989901</v>
+      </c>
+      <c r="Z18">
+        <v>14.106588543499599</v>
+      </c>
       <c r="AA18">
-        <v>59.411000000000001</v>
+        <v>17.490178732615501</v>
       </c>
       <c r="AB18"/>
       <c r="AC18"/>
-      <c r="AD18">
-        <v>99.718999999999994</v>
-      </c>
+      <c r="AD18"/>
       <c r="AG18" s="3">
-        <f t="shared" si="0"/>
-        <v>51271</v>
+        <f>MIN(S18:AD18)*1000</f>
+        <v>5090.5610559608203</v>
       </c>
       <c r="AH18" s="3">
         <f>MAX(S18:AD18)*1000</f>
-        <v>127238</v>
-      </c>
-      <c r="AI18" s="37">
-        <f t="shared" si="4"/>
-        <v>-1.9661793432207933E-2</v>
+        <v>17490.178732615503</v>
+      </c>
+      <c r="AI18" s="35">
+        <f>((AD18-S18)/S18)/(2019-2008)</f>
+        <v>-9.0909090909090912E-2</v>
       </c>
       <c r="AJ18">
-        <v>176.20704000000001</v>
+        <v>16.929433700000001</v>
       </c>
       <c r="AK18"/>
       <c r="AL18"/>
-      <c r="AM18"/>
+      <c r="AM18">
+        <v>35.556241499999999</v>
+      </c>
       <c r="AN18"/>
       <c r="AO18"/>
       <c r="AP18">
-        <v>217.01246</v>
-      </c>
-      <c r="AQ18"/>
+        <v>65.631500000000003</v>
+      </c>
+      <c r="AQ18">
+        <v>65.394999999999996</v>
+      </c>
       <c r="AR18">
-        <v>321.28271999999998</v>
+        <v>108.04516</v>
       </c>
       <c r="AS18"/>
       <c r="AT18"/>
       <c r="AU18">
-        <v>428.54602999999997</v>
+        <v>184.57002</v>
       </c>
       <c r="AX18" s="4">
-        <f t="shared" si="1"/>
-        <v>176.20704000000001</v>
+        <f>MIN(AJ18:AU18)</f>
+        <v>16.929433700000001</v>
       </c>
       <c r="AY18" s="4">
-        <f t="shared" si="2"/>
-        <v>428.54602999999997</v>
-      </c>
-      <c r="AZ18" s="37">
-        <f t="shared" si="5"/>
-        <v>0.13018723986180222</v>
+        <f>MAX(AJ18:AU18)</f>
+        <v>184.57002</v>
+      </c>
+      <c r="AZ18" s="35">
+        <f>((AU18-AJ18)/AJ18)/(2019-2008)</f>
+        <v>0.90021046008172145</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0.19700000000000001</v>
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.46600000000000003</v>
       </c>
       <c r="H19">
-        <v>0.216</v>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="I19">
+        <v>0.67200000000000004</v>
       </c>
       <c r="J19">
-        <v>0.30199999999999999</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="M19">
-        <v>0.35499999999999998</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="P19" s="3">
         <f>MIN(F19:M19)*1000</f>
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="Q19" s="3">
         <f>MAX(B19:M19)*1000</f>
-        <v>355</v>
-      </c>
-      <c r="R19" s="32">
-        <f t="shared" si="3"/>
-        <v>7.2911859713890151E-2</v>
-      </c>
-      <c r="S19">
-        <v>12.225</v>
+        <v>779</v>
+      </c>
+      <c r="R19" s="30">
+        <f>((M19-B19)/B19)/(2019-2008)</f>
+        <v>5.786860198624906E-2</v>
+      </c>
+      <c r="S19" s="45">
+        <v>37.822880786406699</v>
       </c>
       <c r="T19"/>
       <c r="U19"/>
-      <c r="V19"/>
+      <c r="V19">
+        <v>33.036239863447399</v>
+      </c>
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19">
-        <v>20.009</v>
-      </c>
-      <c r="Z19"/>
+        <v>39.329936146323902</v>
+      </c>
+      <c r="Z19">
+        <v>37.922029165348597</v>
+      </c>
       <c r="AA19">
-        <v>16.623999999999999</v>
+        <v>41.737825349198999</v>
       </c>
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19">
-        <v>20.716999999999999</v>
+        <v>54.103044608669798</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="0"/>
-        <v>12225</v>
+        <f>MIN(S19:AD19)*1000</f>
+        <v>33036.239863447401</v>
       </c>
       <c r="AH19" s="3">
         <f>MAX(S19:AD19)*1000</f>
-        <v>20717</v>
-      </c>
-      <c r="AI19" s="37">
-        <f t="shared" si="4"/>
-        <v>6.3149284253578727E-2</v>
+        <v>54103.044608669799</v>
+      </c>
+      <c r="AI19" s="35">
+        <f>((AD19-S19)/S19)/(2019-2008)</f>
+        <v>3.9130147206156672E-2</v>
       </c>
       <c r="AJ19">
-        <v>11.002319999999999</v>
+        <v>87.285316019999996</v>
       </c>
       <c r="AK19"/>
       <c r="AL19"/>
-      <c r="AM19"/>
+      <c r="AM19">
+        <v>71.022875039999903</v>
+      </c>
       <c r="AN19"/>
       <c r="AO19"/>
       <c r="AP19">
-        <v>47.168660000000003</v>
-      </c>
-      <c r="AQ19"/>
+        <v>112.78189999999999</v>
+      </c>
+      <c r="AQ19">
+        <v>132.5984</v>
+      </c>
       <c r="AR19">
-        <v>109.40184000000001</v>
+        <v>142.99492000000001</v>
       </c>
       <c r="AS19"/>
       <c r="AT19"/>
       <c r="AU19">
-        <v>115.0188</v>
+        <v>147.48792</v>
       </c>
       <c r="AX19" s="4">
-        <f t="shared" si="1"/>
-        <v>11.002319999999999</v>
+        <f>MIN(AJ19:AU19)</f>
+        <v>71.022875039999903</v>
       </c>
       <c r="AY19" s="4">
-        <f t="shared" si="2"/>
-        <v>115.0188</v>
-      </c>
-      <c r="AZ19" s="37">
-        <f t="shared" si="5"/>
-        <v>0.8594590628488934</v>
+        <f>MAX(AJ19:AU19)</f>
+        <v>147.48792</v>
+      </c>
+      <c r="AZ19" s="35">
+        <f>((AU19-AJ19)/AJ19)/(2019-2008)</f>
+        <v>6.2702001295702234E-2</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.246</v>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E20">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H20">
-        <v>0.26400000000000001</v>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.08</v>
       </c>
       <c r="J20">
-        <v>0.247</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M20">
-        <v>0.34699999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="P20" s="3">
         <f>MIN(F20:M20)*1000</f>
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="3">
         <f>MAX(B20:M20)*1000</f>
-        <v>347</v>
-      </c>
-      <c r="R20" s="32">
-        <f t="shared" si="3"/>
-        <v>3.7324464153732438E-2</v>
-      </c>
-      <c r="S20">
-        <v>3.8940000000000001</v>
+        <v>110</v>
+      </c>
+      <c r="R20" s="30">
+        <f>((M20-B20)/B20)/(2019-2008)</f>
+        <v>2.4033437826541285E-2</v>
+      </c>
+      <c r="S20" s="45">
+        <v>21.386912368663399</v>
       </c>
       <c r="T20"/>
       <c r="U20"/>
-      <c r="V20"/>
+      <c r="V20">
+        <v>22.823956832429701</v>
+      </c>
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20">
-        <v>8.9849999999999994</v>
-      </c>
-      <c r="Z20"/>
+        <v>17.0199321353481</v>
+      </c>
+      <c r="Z20">
+        <v>21.124270336282599</v>
+      </c>
       <c r="AA20">
-        <v>12.87</v>
+        <v>21.9372870436063</v>
       </c>
       <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20">
-        <v>17.303999999999998</v>
+        <v>34.665510776182799</v>
       </c>
       <c r="AG20" s="3">
-        <f t="shared" si="0"/>
-        <v>3894</v>
+        <f>MIN(S20:AD20)*1000</f>
+        <v>17019.932135348099</v>
       </c>
       <c r="AH20" s="3">
         <f>MAX(S20:AD20)*1000</f>
-        <v>17304</v>
-      </c>
-      <c r="AI20" s="37">
-        <f t="shared" si="4"/>
-        <v>0.31306905729093704</v>
+        <v>34665.510776182797</v>
+      </c>
+      <c r="AI20" s="35">
+        <f>((AD20-S20)/S20)/(2019-2008)</f>
+        <v>5.6443178377783426E-2</v>
       </c>
       <c r="AJ20">
-        <v>62.299280000000003</v>
+        <v>17.648526099999899</v>
       </c>
       <c r="AK20"/>
       <c r="AL20"/>
@@ -7747,1022 +7922,1164 @@
       <c r="AN20"/>
       <c r="AO20"/>
       <c r="AP20">
-        <v>72.965689999999995</v>
-      </c>
-      <c r="AQ20"/>
+        <v>18.918900000000001</v>
+      </c>
+      <c r="AQ20">
+        <v>19.579999999999998</v>
+      </c>
       <c r="AR20">
-        <v>156.51035999999999</v>
+        <v>54.521799999999999</v>
       </c>
       <c r="AS20"/>
       <c r="AT20"/>
       <c r="AU20">
-        <v>373.46568000000002</v>
+        <v>70.428960000000004</v>
       </c>
       <c r="AX20" s="4">
-        <f t="shared" si="1"/>
-        <v>62.299280000000003</v>
+        <f>MIN(AJ20:AU20)</f>
+        <v>17.648526099999899</v>
       </c>
       <c r="AY20" s="4">
-        <f t="shared" si="2"/>
-        <v>373.46568000000002</v>
-      </c>
-      <c r="AZ20" s="37">
-        <f t="shared" si="5"/>
-        <v>0.45406390804925106</v>
+        <f>MAX(AJ20:AU20)</f>
+        <v>70.428960000000004</v>
+      </c>
+      <c r="AZ20" s="35">
+        <f>((AU20-AJ20)/AJ20)/(2019-2008)</f>
+        <v>0.27187659957827304</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>0.33800000000000002</v>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H21">
-        <v>0.16600000000000001</v>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I21">
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="J21">
-        <v>0.113</v>
+        <v>0.1</v>
       </c>
       <c r="M21">
-        <v>0.129</v>
+        <v>0.185</v>
       </c>
       <c r="P21" s="3">
         <f>MIN(F21:M21)*1000</f>
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="3">
         <f>MAX(B21:M21)*1000</f>
-        <v>338</v>
-      </c>
-      <c r="R21" s="32">
-        <f t="shared" si="3"/>
-        <v>-5.6213017751479293E-2</v>
-      </c>
-      <c r="S21">
-        <v>4.2729999999999997</v>
+        <v>185</v>
+      </c>
+      <c r="R21" s="30">
+        <f>((M21-B21)/B21)/(2019-2008)</f>
+        <v>0.23251748251748253</v>
+      </c>
+      <c r="S21" s="45">
+        <v>2.1760034023293802</v>
       </c>
       <c r="T21"/>
       <c r="U21"/>
-      <c r="V21"/>
+      <c r="V21">
+        <v>1.41964291154388</v>
+      </c>
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21">
-        <v>1.419</v>
-      </c>
-      <c r="Z21"/>
+        <v>2.8315967651290102</v>
+      </c>
+      <c r="Z21">
+        <v>3.0339403956227202</v>
+      </c>
       <c r="AA21">
-        <v>2.899</v>
+        <v>4.1500678614260398</v>
       </c>
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21">
-        <v>1.1299999999999999</v>
+        <v>7.8909969019938</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="0"/>
-        <v>1130</v>
+        <f>MIN(S21:AD21)*1000</f>
+        <v>1419.64291154388</v>
       </c>
       <c r="AH21" s="3">
         <f>MAX(S21:AD21)*1000</f>
-        <v>4273</v>
-      </c>
-      <c r="AI21" s="37">
-        <f t="shared" si="4"/>
-        <v>-6.68680722507074E-2</v>
+        <v>7890.9969019937998</v>
+      </c>
+      <c r="AI21" s="35">
+        <f>((AD21-S21)/S21)/(2019-2008)</f>
+        <v>0.23876105296972011</v>
       </c>
       <c r="AJ21">
-        <v>11.89204</v>
+        <v>2.98300126</v>
       </c>
       <c r="AK21"/>
       <c r="AL21"/>
-      <c r="AM21"/>
+      <c r="AM21">
+        <v>4.1172873299999999</v>
+      </c>
       <c r="AN21"/>
       <c r="AO21"/>
       <c r="AP21">
-        <v>14.55804</v>
-      </c>
-      <c r="AQ21"/>
+        <v>8.4381000000000004</v>
+      </c>
+      <c r="AQ21">
+        <v>10.309200000000001</v>
+      </c>
       <c r="AR21">
-        <v>14.480639999999999</v>
+        <v>13.277290000000001</v>
       </c>
       <c r="AS21"/>
       <c r="AT21"/>
       <c r="AU21">
-        <v>17.455829999999999</v>
+        <v>39.228180000000002</v>
       </c>
       <c r="AX21" s="4">
-        <f t="shared" si="1"/>
-        <v>11.89204</v>
+        <f>MIN(AJ21:AU21)</f>
+        <v>2.98300126</v>
       </c>
       <c r="AY21" s="4">
-        <f t="shared" si="2"/>
-        <v>17.455829999999999</v>
-      </c>
-      <c r="AZ21" s="37">
-        <f t="shared" si="5"/>
-        <v>4.2532575648004112E-2</v>
+        <f>MAX(AJ21:AU21)</f>
+        <v>39.228180000000002</v>
+      </c>
+      <c r="AZ21" s="35">
+        <f>((AU21-AJ21)/AJ21)/(2019-2008)</f>
+        <v>1.104597672577218</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>0.22900000000000001</v>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H22">
-        <v>0.249</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="I22">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J22">
-        <v>0.20499999999999999</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="M22">
-        <v>0.25800000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="P22" s="3">
         <f>MIN(F22:M22)*1000</f>
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="3">
         <f>MAX(B22:M22)*1000</f>
-        <v>258</v>
-      </c>
-      <c r="R22" s="32">
-        <f t="shared" si="3"/>
-        <v>1.151250496228662E-2</v>
-      </c>
-      <c r="S22">
-        <v>12.414</v>
+        <v>21</v>
+      </c>
+      <c r="R22" s="30">
+        <f>((M22-B22)/B22)/(2019-2008)</f>
+        <v>-3.4090909090909088E-2</v>
+      </c>
+      <c r="S22" s="45">
+        <v>0.85065262259556695</v>
       </c>
       <c r="T22"/>
       <c r="U22"/>
-      <c r="V22"/>
+      <c r="V22">
+        <v>0.82556201241434701</v>
+      </c>
       <c r="W22"/>
       <c r="X22"/>
       <c r="Y22">
-        <v>16.620999999999999</v>
-      </c>
-      <c r="Z22"/>
+        <v>1.62036779299365</v>
+      </c>
+      <c r="Z22">
+        <v>1.0983212263198701</v>
+      </c>
       <c r="AA22">
-        <v>15.845000000000001</v>
+        <v>2.1958330781177602</v>
       </c>
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22">
-        <v>24.57</v>
+        <v>1.3524648262199701</v>
       </c>
       <c r="AG22" s="3">
-        <f t="shared" si="0"/>
-        <v>12414</v>
+        <f>MIN(S22:AD22)*1000</f>
+        <v>825.56201241434701</v>
       </c>
       <c r="AH22" s="3">
         <f>MAX(S22:AD22)*1000</f>
-        <v>24570</v>
-      </c>
-      <c r="AI22" s="37">
-        <f t="shared" si="4"/>
-        <v>8.9019728459071149E-2</v>
+        <v>2195.8330781177601</v>
+      </c>
+      <c r="AI22" s="35">
+        <f>((AD22-S22)/S22)/(2019-2008)</f>
+        <v>5.3628578842660285E-2</v>
       </c>
       <c r="AJ22">
-        <v>27.813780000000001</v>
+        <v>2.5385491600000001</v>
       </c>
       <c r="AK22"/>
       <c r="AL22"/>
-      <c r="AM22"/>
+      <c r="AM22">
+        <v>3.2562960299999899</v>
+      </c>
       <c r="AN22"/>
       <c r="AO22"/>
-      <c r="AP22">
-        <v>57.468069999999997</v>
-      </c>
-      <c r="AQ22"/>
+      <c r="AP22"/>
+      <c r="AQ22">
+        <v>5.6672000000000002</v>
+      </c>
       <c r="AR22">
-        <v>56.274479999999997</v>
+        <v>12.120799999999999</v>
       </c>
       <c r="AS22"/>
       <c r="AT22"/>
       <c r="AU22">
-        <v>73.429019999999994</v>
+        <v>14.61966</v>
       </c>
       <c r="AX22" s="4">
-        <f t="shared" si="1"/>
-        <v>27.813780000000001</v>
+        <f>MIN(AJ22:AU22)</f>
+        <v>2.5385491600000001</v>
       </c>
       <c r="AY22" s="4">
-        <f t="shared" si="2"/>
-        <v>73.429019999999994</v>
-      </c>
-      <c r="AZ22" s="37">
-        <f t="shared" si="5"/>
-        <v>0.1490930035399719</v>
+        <f>MAX(AJ22:AU22)</f>
+        <v>14.61966</v>
+      </c>
+      <c r="AZ22" s="35">
+        <f>((AU22-AJ22)/AJ22)/(2019-2008)</f>
+        <v>0.43264192828803183</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.254</v>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.221</v>
       </c>
       <c r="H23">
-        <v>0.161</v>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.47499999999999998</v>
       </c>
       <c r="J23">
-        <v>0.16600000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="M23">
-        <v>0.24</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="P23" s="3">
         <f>MIN(F23:M23)*1000</f>
-        <v>161</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="3">
         <f>MAX(B23:M23)*1000</f>
-        <v>254</v>
-      </c>
-      <c r="R23" s="32">
-        <f t="shared" si="3"/>
-        <v>-5.0107372942018655E-3</v>
-      </c>
-      <c r="S23">
-        <v>60.091000000000001</v>
+        <v>494</v>
+      </c>
+      <c r="R23" s="30">
+        <f>((M23-B23)/B23)/(2019-2008)</f>
+        <v>5.9288537549407105E-2</v>
+      </c>
+      <c r="S23" s="45">
+        <v>10.657843705364799</v>
       </c>
       <c r="T23"/>
       <c r="U23"/>
-      <c r="V23"/>
+      <c r="V23">
+        <v>10.4498344532172</v>
+      </c>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23">
-        <v>50.664000000000001</v>
-      </c>
-      <c r="Z23"/>
+        <v>22.6576303681639</v>
+      </c>
+      <c r="Z23">
+        <v>19.628141532411998</v>
+      </c>
       <c r="AA23">
-        <v>72.266999999999996</v>
+        <v>22.385680528780401</v>
       </c>
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23">
-        <v>73.171000000000006</v>
+        <v>22.363422729426102</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" si="0"/>
-        <v>50664</v>
+        <f>MIN(S23:AD23)*1000</f>
+        <v>10449.8344532172</v>
       </c>
       <c r="AH23" s="3">
         <f>MAX(S23:AD23)*1000</f>
-        <v>73171</v>
-      </c>
-      <c r="AI23" s="37">
-        <f t="shared" si="4"/>
-        <v>1.9788169760711412E-2</v>
+        <v>22657.6303681639</v>
+      </c>
+      <c r="AI23" s="35">
+        <f>((AD23-S23)/S23)/(2019-2008)</f>
+        <v>9.9846045509776285E-2</v>
       </c>
       <c r="AJ23">
-        <v>84.075000000000003</v>
+        <v>37.42293514</v>
       </c>
       <c r="AK23"/>
       <c r="AL23"/>
-      <c r="AM23"/>
+      <c r="AM23">
+        <v>28.550516669999901</v>
+      </c>
       <c r="AN23"/>
       <c r="AO23"/>
       <c r="AP23">
-        <v>71.608639999999994</v>
-      </c>
-      <c r="AQ23"/>
+        <v>59.296599999999998</v>
+      </c>
+      <c r="AQ23">
+        <v>52.606400000000001</v>
+      </c>
       <c r="AR23">
-        <v>105.8454</v>
+        <v>71.556319999999999</v>
       </c>
       <c r="AS23"/>
       <c r="AT23"/>
       <c r="AU23">
-        <v>208.02768</v>
+        <v>65.096400000000003</v>
       </c>
       <c r="AX23" s="4">
-        <f t="shared" si="1"/>
-        <v>71.608639999999994</v>
+        <f>MIN(AJ23:AU23)</f>
+        <v>28.550516669999901</v>
       </c>
       <c r="AY23" s="4">
-        <f t="shared" si="2"/>
-        <v>208.02768</v>
-      </c>
-      <c r="AZ23" s="37">
-        <f t="shared" si="5"/>
-        <v>0.13402825399399887</v>
+        <f>MAX(AJ23:AU23)</f>
+        <v>71.556319999999999</v>
+      </c>
+      <c r="AZ23" s="35">
+        <f>((AU23-AJ23)/AJ23)/(2019-2008)</f>
+        <v>6.7225339843487039E-2</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.22</v>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H24">
-        <v>0.157</v>
+        <v>0.11</v>
+      </c>
+      <c r="I24">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J24">
-        <v>0.18099999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="M24">
-        <v>0.23799999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="P24" s="3">
         <f>MIN(F24:M24)*1000</f>
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="3">
         <f>MAX(B24:M24)*1000</f>
-        <v>238</v>
-      </c>
-      <c r="R24" s="32">
-        <f t="shared" si="3"/>
-        <v>7.4380165289256147E-3</v>
-      </c>
-      <c r="S24">
-        <v>62.34</v>
+        <v>120</v>
+      </c>
+      <c r="R24" s="30">
+        <f>((M24-B24)/B24)/(2019-2008)</f>
+        <v>2.3923444976076548E-2</v>
+      </c>
+      <c r="S24" s="45">
+        <v>3.5470838425547799</v>
       </c>
       <c r="T24"/>
       <c r="U24"/>
-      <c r="V24"/>
+      <c r="V24">
+        <v>3.3184355400968801</v>
+      </c>
       <c r="W24"/>
       <c r="X24"/>
       <c r="Y24">
-        <v>46.606000000000002</v>
-      </c>
-      <c r="Z24"/>
+        <v>5.6567185340822199</v>
+      </c>
+      <c r="Z24">
+        <v>4.2257443792306901</v>
+      </c>
       <c r="AA24">
-        <v>71.427999999999997</v>
+        <v>5.0383563992934404</v>
       </c>
       <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24">
-        <v>67.813999999999993</v>
+        <v>6.9590021399397601</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" si="0"/>
-        <v>46606</v>
+        <f>MIN(S24:AD24)*1000</f>
+        <v>3318.4355400968802</v>
       </c>
       <c r="AH24" s="3">
         <f>MAX(S24:AD24)*1000</f>
-        <v>71428</v>
-      </c>
-      <c r="AI24" s="37">
-        <f t="shared" si="4"/>
-        <v>7.9826173185172065E-3</v>
+        <v>6959.0021399397601</v>
+      </c>
+      <c r="AI24" s="35">
+        <f>((AD24-S24)/S24)/(2019-2008)</f>
+        <v>8.7444899652543706E-2</v>
       </c>
       <c r="AJ24">
-        <v>82.872579999999999</v>
+        <v>12.692072359999999</v>
       </c>
       <c r="AK24"/>
       <c r="AL24"/>
-      <c r="AM24"/>
+      <c r="AM24">
+        <v>10.54672983</v>
+      </c>
       <c r="AN24"/>
       <c r="AO24"/>
       <c r="AP24">
-        <v>160.01091</v>
-      </c>
-      <c r="AQ24"/>
+        <v>20.819700000000001</v>
+      </c>
+      <c r="AQ24">
+        <v>15.272399999999999</v>
+      </c>
       <c r="AR24">
-        <v>195.80076</v>
+        <v>19.270109999999999</v>
       </c>
       <c r="AS24"/>
       <c r="AT24"/>
       <c r="AU24">
-        <v>185.96019000000001</v>
+        <v>51.081600000000002</v>
       </c>
       <c r="AX24" s="4">
-        <f t="shared" si="1"/>
-        <v>82.872579999999999</v>
+        <f>MIN(AJ24:AU24)</f>
+        <v>10.54672983</v>
       </c>
       <c r="AY24" s="4">
-        <f t="shared" si="2"/>
-        <v>195.80076</v>
-      </c>
-      <c r="AZ24" s="37">
-        <f t="shared" si="5"/>
-        <v>0.11308445940853912</v>
+        <f>MAX(AJ24:AU24)</f>
+        <v>51.081600000000002</v>
+      </c>
+      <c r="AZ24" s="35">
+        <f>((AU24-AJ24)/AJ24)/(2019-2008)</f>
+        <v>0.27497141201153846</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B25">
-        <v>0.16200000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="E25">
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H25">
-        <v>0.17</v>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.13</v>
       </c>
       <c r="J25">
-        <v>0.16200000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="M25">
-        <v>0.23799999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="P25" s="3">
         <f>MIN(F25:M25)*1000</f>
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="3">
         <f>MAX(B25:M25)*1000</f>
-        <v>238</v>
-      </c>
-      <c r="R25" s="32">
-        <f t="shared" si="3"/>
-        <v>4.2648709315375968E-2</v>
-      </c>
-      <c r="S25">
-        <v>59.185000000000002</v>
+        <v>133</v>
+      </c>
+      <c r="R25" s="30">
+        <f>((M25-B25)/B25)/(2019-2008)</f>
+        <v>6.0227272727272733E-2</v>
+      </c>
+      <c r="S25" s="45">
+        <v>1.4892491204337199</v>
       </c>
       <c r="T25"/>
       <c r="U25"/>
-      <c r="V25"/>
+      <c r="V25">
+        <v>1.03640407538879</v>
+      </c>
       <c r="W25"/>
       <c r="X25"/>
       <c r="Y25">
-        <v>44.755000000000003</v>
-      </c>
-      <c r="Z25"/>
+        <v>2.8012452205549501</v>
+      </c>
+      <c r="Z25">
+        <v>2.3743001602132199</v>
+      </c>
       <c r="AA25">
-        <v>43.453000000000003</v>
+        <v>2.9307451440709298</v>
       </c>
       <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25">
-        <v>93.86</v>
+        <v>3.3062949222672602</v>
       </c>
       <c r="AG25" s="3">
-        <f t="shared" si="0"/>
-        <v>43453</v>
+        <f>MIN(S25:AD25)*1000</f>
+        <v>1036.40407538879</v>
       </c>
       <c r="AH25" s="3">
         <f>MAX(S25:AD25)*1000</f>
-        <v>93860</v>
-      </c>
-      <c r="AI25" s="37">
-        <f t="shared" si="4"/>
-        <v>5.3261345396176857E-2</v>
+        <v>3306.2949222672601</v>
+      </c>
+      <c r="AI25" s="35">
+        <f>((AD25-S25)/S25)/(2019-2008)</f>
+        <v>0.11091897233201622</v>
       </c>
       <c r="AJ25">
-        <v>57.390479999999997</v>
+        <v>18.4003584199999</v>
       </c>
       <c r="AK25"/>
       <c r="AL25"/>
-      <c r="AM25"/>
+      <c r="AM25">
+        <v>12.58739001</v>
+      </c>
       <c r="AN25"/>
       <c r="AO25"/>
       <c r="AP25">
-        <v>82.749529999999993</v>
-      </c>
-      <c r="AQ25"/>
+        <v>27.054500000000001</v>
+      </c>
+      <c r="AQ25">
+        <v>33.533499999999997</v>
+      </c>
       <c r="AR25">
-        <v>103.64868</v>
+        <v>28.47625</v>
       </c>
       <c r="AS25"/>
       <c r="AT25"/>
       <c r="AU25">
-        <v>186.48034000000001</v>
+        <v>33.552900000000001</v>
       </c>
       <c r="AX25" s="4">
-        <f t="shared" si="1"/>
-        <v>57.390479999999997</v>
+        <f>MIN(AJ25:AU25)</f>
+        <v>12.58739001</v>
       </c>
       <c r="AY25" s="4">
-        <f t="shared" si="2"/>
-        <v>186.48034000000001</v>
-      </c>
-      <c r="AZ25" s="37">
-        <f t="shared" si="5"/>
-        <v>0.20448412033113889</v>
+        <f>MAX(AJ25:AU25)</f>
+        <v>33.552900000000001</v>
+      </c>
+      <c r="AZ25" s="35">
+        <f>((AU25-AJ25)/AJ25)/(2019-2008)</f>
+        <v>7.4862877589534291E-2</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>0.17299999999999999</v>
+        <v>0.309</v>
+      </c>
+      <c r="E26">
+        <v>0.219</v>
       </c>
       <c r="H26">
-        <v>0.14699999999999999</v>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I26">
+        <v>0.29799999999999999</v>
       </c>
       <c r="J26">
-        <v>0.156</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="M26">
-        <v>0.20799999999999999</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="P26" s="3">
         <f>MIN(F26:M26)*1000</f>
-        <v>147</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="3">
         <f>MAX(B26:M26)*1000</f>
-        <v>208</v>
-      </c>
-      <c r="R26" s="32">
-        <f t="shared" si="3"/>
-        <v>1.8392012611665794E-2</v>
-      </c>
-      <c r="S26">
-        <v>115.175</v>
+        <v>541</v>
+      </c>
+      <c r="R26" s="30">
+        <f>((M26-B26)/B26)/(2019-2008)</f>
+        <v>6.8255369226243034E-2</v>
+      </c>
+      <c r="S26" s="45">
+        <v>26.8198388474196</v>
       </c>
       <c r="T26"/>
       <c r="U26"/>
-      <c r="V26"/>
+      <c r="V26">
+        <v>25.8020503860362</v>
+      </c>
       <c r="W26"/>
       <c r="X26"/>
       <c r="Y26">
-        <v>128.715</v>
-      </c>
-      <c r="Z26"/>
+        <v>23.267494070472001</v>
+      </c>
+      <c r="Z26">
+        <v>22.632539757982698</v>
+      </c>
       <c r="AA26">
-        <v>107.67</v>
+        <v>30.833931789153901</v>
       </c>
       <c r="AB26"/>
       <c r="AC26"/>
       <c r="AD26">
-        <v>144.017</v>
+        <v>49.474231717495599</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="0"/>
-        <v>107670</v>
+        <f>MIN(S26:AD26)*1000</f>
+        <v>22632.539757982697</v>
       </c>
       <c r="AH26" s="3">
         <f>MAX(S26:AD26)*1000</f>
-        <v>144017</v>
-      </c>
-      <c r="AI26" s="37">
-        <f t="shared" si="4"/>
-        <v>2.2765357065335359E-2</v>
+        <v>49474.231717495597</v>
+      </c>
+      <c r="AI26" s="35">
+        <f>((AD26-S26)/S26)/(2019-2008)</f>
+        <v>7.6789807449351932E-2</v>
       </c>
       <c r="AJ26">
-        <v>29.95194</v>
+        <v>86.755195520000001</v>
       </c>
       <c r="AK26"/>
       <c r="AL26"/>
-      <c r="AM26"/>
+      <c r="AM26">
+        <v>116.070780149999</v>
+      </c>
       <c r="AN26"/>
       <c r="AO26"/>
       <c r="AP26">
-        <v>47.586129999999997</v>
-      </c>
-      <c r="AQ26"/>
+        <v>136.9709</v>
+      </c>
+      <c r="AQ26">
+        <v>205.60980000000001</v>
+      </c>
       <c r="AR26">
-        <v>57.441960000000002</v>
+        <v>219.16302999999999</v>
       </c>
       <c r="AS26"/>
       <c r="AT26"/>
       <c r="AU26">
-        <v>66.121669999999995</v>
+        <v>235.57409999999999</v>
       </c>
       <c r="AX26" s="4">
-        <f t="shared" si="1"/>
-        <v>29.95194</v>
+        <f>MIN(AJ26:AU26)</f>
+        <v>86.755195520000001</v>
       </c>
       <c r="AY26" s="4">
-        <f t="shared" si="2"/>
-        <v>66.121669999999995</v>
-      </c>
-      <c r="AZ26" s="37">
-        <f t="shared" si="5"/>
-        <v>0.1097811117652904</v>
+        <f>MAX(AJ26:AU26)</f>
+        <v>235.57409999999999</v>
+      </c>
+      <c r="AZ26" s="35">
+        <f>((AU26-AJ26)/AJ26)/(2019-2008)</f>
+        <v>0.15594445076485067</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>0.19900000000000001</v>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E27">
+        <v>0.434</v>
       </c>
       <c r="H27">
-        <v>0.11600000000000001</v>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.43099999999999999</v>
       </c>
       <c r="J27">
-        <v>7.4999999999999997E-2</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="M27">
-        <v>0.10100000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="P27" s="3">
         <f>MIN(F27:M27)*1000</f>
-        <v>75</v>
+        <v>431</v>
       </c>
       <c r="Q27" s="3">
         <f>MAX(B27:M27)*1000</f>
-        <v>199</v>
-      </c>
-      <c r="R27" s="32">
-        <f t="shared" si="3"/>
-        <v>-4.4769301050708081E-2</v>
-      </c>
-      <c r="S27">
-        <v>47.642000000000003</v>
+        <v>635</v>
+      </c>
+      <c r="R27" s="30">
+        <f>((M27-B27)/B27)/(2019-2008)</f>
+        <v>3.4041715859897674E-2</v>
+      </c>
+      <c r="S27" s="45">
+        <v>48.578254121669502</v>
       </c>
       <c r="T27"/>
       <c r="U27"/>
-      <c r="V27"/>
+      <c r="V27">
+        <v>50.441838958516598</v>
+      </c>
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27">
-        <v>13.94</v>
-      </c>
-      <c r="Z27"/>
+        <v>53.110751444728699</v>
+      </c>
+      <c r="Z27">
+        <v>46.668939624330797</v>
+      </c>
       <c r="AA27">
-        <v>38.1</v>
+        <v>52.887768763924598</v>
       </c>
       <c r="AB27"/>
       <c r="AC27"/>
       <c r="AD27">
-        <v>15.808</v>
+        <v>69.997946158472899</v>
       </c>
       <c r="AG27" s="3">
-        <f t="shared" si="0"/>
-        <v>13940</v>
+        <f>MIN(S27:AD27)*1000</f>
+        <v>46668.9396243308</v>
       </c>
       <c r="AH27" s="3">
         <f>MAX(S27:AD27)*1000</f>
-        <v>47642</v>
-      </c>
-      <c r="AI27" s="37">
-        <f t="shared" si="4"/>
-        <v>-6.0744721044456579E-2</v>
+        <v>69997.9461584729</v>
+      </c>
+      <c r="AI27" s="35">
+        <f>((AD27-S27)/S27)/(2019-2008)</f>
+        <v>4.008469974531001E-2</v>
       </c>
       <c r="AJ27">
-        <v>39.488700000000001</v>
+        <v>84.244696599999997</v>
       </c>
       <c r="AK27"/>
       <c r="AL27"/>
-      <c r="AM27"/>
+      <c r="AM27">
+        <v>80.9419782599999</v>
+      </c>
       <c r="AN27"/>
       <c r="AO27"/>
       <c r="AP27">
-        <v>23.827400000000001</v>
-      </c>
-      <c r="AQ27"/>
+        <v>101.2968</v>
+      </c>
+      <c r="AQ27">
+        <v>101.1923</v>
+      </c>
       <c r="AR27">
-        <v>48.57732</v>
+        <v>116.06211</v>
       </c>
       <c r="AS27"/>
       <c r="AT27"/>
       <c r="AU27">
-        <v>71.47972</v>
+        <v>115.87812</v>
       </c>
       <c r="AX27" s="4">
-        <f t="shared" si="1"/>
-        <v>23.827400000000001</v>
+        <f>MIN(AJ27:AU27)</f>
+        <v>80.9419782599999</v>
       </c>
       <c r="AY27" s="4">
-        <f t="shared" si="2"/>
-        <v>71.47972</v>
-      </c>
-      <c r="AZ27" s="37">
-        <f t="shared" si="5"/>
-        <v>7.3648272681920271E-2</v>
+        <f>MAX(AJ27:AU27)</f>
+        <v>116.06211</v>
+      </c>
+      <c r="AZ27" s="35">
+        <f>((AU27-AJ27)/AJ27)/(2019-2008)</f>
+        <v>3.4135867059866216E-2</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.10299999999999999</v>
+        <v>0.01</v>
+      </c>
+      <c r="E28">
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H28">
-        <v>0.107</v>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I28">
+        <v>1.2E-2</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="M28">
-        <v>0.185</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="P28" s="3">
         <f>MIN(F28:M28)*1000</f>
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="Q28" s="3">
         <f>MAX(B28:M28)*1000</f>
-        <v>185</v>
-      </c>
-      <c r="R28" s="32">
-        <f t="shared" si="3"/>
-        <v>7.2374227714033554E-2</v>
-      </c>
-      <c r="S28">
-        <v>2.74</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="R28" s="30">
+        <f>((M28-B28)/B28)/(2019-2008)</f>
+        <v>0.17272727272727276</v>
+      </c>
+      <c r="S28" s="45"/>
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28">
-        <v>2.91</v>
-      </c>
-      <c r="Z28"/>
+        <v>1.13393370528676</v>
+      </c>
+      <c r="Z28">
+        <v>1.2318680224457199</v>
+      </c>
       <c r="AA28">
-        <v>4.1500000000000004</v>
+        <v>9.4753475287595705</v>
       </c>
       <c r="AB28"/>
       <c r="AC28"/>
       <c r="AD28">
-        <v>7.8940000000000001</v>
+        <v>3.5964556883952401</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="0"/>
-        <v>2740</v>
+        <f>MIN(S28:AD28)*1000</f>
+        <v>1133.93370528676</v>
       </c>
       <c r="AH28" s="3">
         <f>MAX(S28:AD28)*1000</f>
-        <v>7894</v>
-      </c>
-      <c r="AI28" s="37">
-        <f t="shared" si="4"/>
-        <v>0.1710019907100199</v>
-      </c>
-      <c r="AJ28">
-        <v>2.8851</v>
-      </c>
+        <v>9475.3475287595702</v>
+      </c>
+      <c r="AI28" s="35" t="e">
+        <f>((AD28-S28)/S28)/(2019-2008)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28"/>
       <c r="AM28"/>
       <c r="AN28"/>
       <c r="AO28"/>
       <c r="AP28">
-        <v>8.4551300000000005</v>
-      </c>
-      <c r="AQ28"/>
+        <v>6.6</v>
+      </c>
+      <c r="AQ28">
+        <v>8.1047999999999991</v>
+      </c>
       <c r="AR28">
-        <v>13.155480000000001</v>
+        <v>17.85529</v>
       </c>
       <c r="AS28"/>
       <c r="AT28"/>
       <c r="AU28">
-        <v>38.843589999999999</v>
+        <v>30.117540000000002</v>
       </c>
       <c r="AX28" s="4">
-        <f t="shared" si="1"/>
-        <v>2.8851</v>
+        <f>MIN(AJ28:AU28)</f>
+        <v>6.6</v>
       </c>
       <c r="AY28" s="4">
-        <f t="shared" si="2"/>
-        <v>38.843589999999999</v>
-      </c>
-      <c r="AZ28" s="37">
-        <f t="shared" si="5"/>
-        <v>1.1330469087253947</v>
+        <f>MAX(AJ28:AU28)</f>
+        <v>30.117540000000002</v>
+      </c>
+      <c r="AZ28" s="35" t="e">
+        <f>((AU28-AJ28)/AJ28)/(2019-2008)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>0.18</v>
+        <v>0.115</v>
+      </c>
+      <c r="E29">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H29">
-        <v>0.16700000000000001</v>
+        <v>0.182</v>
+      </c>
+      <c r="I29">
+        <v>0.17599999999999999</v>
       </c>
       <c r="J29">
-        <v>0.16500000000000001</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="M29">
-        <v>0.16300000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="P29" s="3">
         <f>MIN(F29:M29)*1000</f>
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="3">
         <f>MAX(B29:M29)*1000</f>
-        <v>180</v>
-      </c>
-      <c r="R29" s="32">
-        <f t="shared" si="3"/>
-        <v>-8.5858585858585787E-3</v>
-      </c>
-      <c r="S29">
-        <v>4.9829999999999997</v>
+        <v>355</v>
+      </c>
+      <c r="R29" s="30">
+        <f>((M29-B29)/B29)/(2019-2008)</f>
+        <v>0.18972332015810275</v>
+      </c>
+      <c r="S29" s="45">
+        <v>11.111902812192699</v>
       </c>
       <c r="T29"/>
       <c r="U29"/>
-      <c r="V29"/>
+      <c r="V29">
+        <v>8.9949837499674992</v>
+      </c>
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29">
-        <v>11.503</v>
-      </c>
-      <c r="Z29"/>
+        <v>19.679941501818401</v>
+      </c>
+      <c r="Z29">
+        <v>12.8208971153426</v>
+      </c>
       <c r="AA29">
-        <v>10.055999999999999</v>
+        <v>16.623743306841401</v>
       </c>
       <c r="AB29"/>
       <c r="AC29"/>
       <c r="AD29">
-        <v>11.477</v>
+        <v>20.7082518319875</v>
       </c>
       <c r="AG29" s="3">
-        <f t="shared" si="0"/>
-        <v>4983</v>
+        <f>MIN(S29:AD29)*1000</f>
+        <v>8994.9837499674995</v>
       </c>
       <c r="AH29" s="3">
         <f>MAX(S29:AD29)*1000</f>
-        <v>11503</v>
-      </c>
-      <c r="AI29" s="37">
-        <f t="shared" si="4"/>
-        <v>0.11847554412274462</v>
+        <v>20708.251831987502</v>
+      </c>
+      <c r="AI29" s="35">
+        <f>((AD29-S29)/S29)/(2019-2008)</f>
+        <v>7.8509988809355155E-2</v>
       </c>
       <c r="AJ29">
-        <v>22.645379999999999</v>
+        <v>11.374810299999901</v>
       </c>
       <c r="AK29"/>
       <c r="AL29"/>
-      <c r="AM29"/>
+      <c r="AM29">
+        <v>46.804932719999996</v>
+      </c>
       <c r="AN29"/>
       <c r="AO29"/>
       <c r="AP29">
-        <v>45.019179999999999</v>
-      </c>
-      <c r="AQ29"/>
+        <v>47.496899999999997</v>
+      </c>
+      <c r="AQ29">
+        <v>101.7808</v>
+      </c>
       <c r="AR29">
-        <v>60.387120000000003</v>
+        <v>110.41482000000001</v>
       </c>
       <c r="AS29"/>
       <c r="AT29"/>
       <c r="AU29">
-        <v>63.418909999999997</v>
+        <v>116.1576</v>
       </c>
       <c r="AX29" s="4">
-        <f t="shared" si="1"/>
-        <v>22.645379999999999</v>
+        <f>MIN(AJ29:AU29)</f>
+        <v>11.374810299999901</v>
       </c>
       <c r="AY29" s="4">
-        <f t="shared" si="2"/>
-        <v>63.418909999999997</v>
-      </c>
-      <c r="AZ29" s="37">
-        <f t="shared" si="5"/>
-        <v>0.16368391899162413</v>
+        <f>MAX(AJ29:AU29)</f>
+        <v>116.1576</v>
+      </c>
+      <c r="AZ29" s="35">
+        <f>((AU29-AJ29)/AJ29)/(2019-2008)</f>
+        <v>0.83743885861072764</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B30">
-        <v>0.17399999999999999</v>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E30">
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="H30">
-        <v>0.17899999999999999</v>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.13800000000000001</v>
       </c>
       <c r="J30">
-        <v>0.127</v>
+        <v>0.156</v>
       </c>
       <c r="M30">
-        <v>0.13300000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="P30" s="3">
         <f>MIN(F30:M30)*1000</f>
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="3">
         <f>MAX(B30:M30)*1000</f>
-        <v>179</v>
-      </c>
-      <c r="R30" s="32">
-        <f t="shared" si="3"/>
-        <v>-2.1421107628004171E-2</v>
-      </c>
-      <c r="S30">
-        <v>1.7829999999999999</v>
+        <v>208</v>
+      </c>
+      <c r="R30" s="30">
+        <f>((M30-B30)/B30)/(2019-2008)</f>
+        <v>5.1264524948735457E-2</v>
+      </c>
+      <c r="S30" s="45">
+        <v>114.943727425519</v>
       </c>
       <c r="T30"/>
       <c r="U30"/>
-      <c r="V30"/>
+      <c r="V30">
+        <v>81.970214087524894</v>
+      </c>
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30">
-        <v>3.2559999999999998</v>
-      </c>
-      <c r="Z30"/>
+        <v>128.64117714816001</v>
+      </c>
+      <c r="Z30">
+        <v>101.38670418244</v>
+      </c>
       <c r="AA30">
-        <v>2.931</v>
+        <v>107.666236411182</v>
       </c>
       <c r="AB30"/>
       <c r="AC30"/>
       <c r="AD30">
-        <v>3.3079999999999998</v>
+        <v>143.95656654022901</v>
       </c>
       <c r="AG30" s="3">
-        <f t="shared" si="0"/>
-        <v>1783</v>
+        <f>MIN(S30:AD30)*1000</f>
+        <v>81970.214087524888</v>
       </c>
       <c r="AH30" s="3">
         <f>MAX(S30:AD30)*1000</f>
-        <v>3308</v>
-      </c>
-      <c r="AI30" s="37">
-        <f t="shared" si="4"/>
-        <v>7.7754550553204516E-2</v>
+        <v>143956.56654022902</v>
+      </c>
+      <c r="AI30" s="35">
+        <f>((AD30-S30)/S30)/(2019-2008)</f>
+        <v>2.2946278911296504E-2</v>
       </c>
       <c r="AJ30">
-        <v>17.796759999999999</v>
+        <v>30.966809820000002</v>
       </c>
       <c r="AK30"/>
       <c r="AL30"/>
-      <c r="AM30"/>
+      <c r="AM30">
+        <v>34.301499569999997</v>
+      </c>
       <c r="AN30"/>
       <c r="AO30"/>
       <c r="AP30">
-        <v>27.004750000000001</v>
-      </c>
-      <c r="AQ30"/>
+        <v>47.963299999999997</v>
+      </c>
+      <c r="AQ30">
+        <v>53.809800000000003</v>
+      </c>
       <c r="AR30">
-        <v>28.215</v>
+        <v>57.97383</v>
       </c>
       <c r="AS30"/>
       <c r="AT30"/>
       <c r="AU30">
-        <v>33.223950000000002</v>
+        <v>66.776340000000005</v>
       </c>
       <c r="AX30" s="4">
-        <f t="shared" si="1"/>
-        <v>17.796759999999999</v>
+        <f>MIN(AJ30:AU30)</f>
+        <v>30.966809820000002</v>
       </c>
       <c r="AY30" s="4">
-        <f t="shared" si="2"/>
-        <v>33.223950000000002</v>
-      </c>
-      <c r="AZ30" s="37">
-        <f t="shared" si="5"/>
-        <v>7.8804895845188586E-2</v>
+        <f>MAX(AJ30:AU30)</f>
+        <v>66.776340000000005</v>
+      </c>
+      <c r="AZ30" s="35">
+        <f>((AU30-AJ30)/AJ30)/(2019-2008)</f>
+        <v>0.10512583806559685</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>0.17199999999999999</v>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.127</v>
       </c>
       <c r="H31">
         <v>0.16600000000000001</v>
       </c>
+      <c r="I31">
+        <v>0.161</v>
+      </c>
       <c r="J31">
-        <v>0.123</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="M31">
-        <v>0.126</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="P31" s="3">
         <f>MIN(F31:M31)*1000</f>
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="3">
         <f>MAX(B31:M31)*1000</f>
-        <v>172</v>
-      </c>
-      <c r="R31" s="32">
-        <f t="shared" si="3"/>
-        <v>-2.4312896405919656E-2</v>
-      </c>
-      <c r="S31">
-        <v>3.2709999999999999</v>
+        <v>238</v>
+      </c>
+      <c r="R31" s="30">
+        <f>((M31-B31)/B31)/(2019-2008)</f>
+        <v>5.7285180572851813E-2</v>
+      </c>
+      <c r="S31" s="45">
+        <v>59.073413548117401</v>
       </c>
       <c r="T31"/>
       <c r="U31"/>
-      <c r="V31"/>
+      <c r="V31">
+        <v>56.002646611744801</v>
+      </c>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31">
-        <v>7.84</v>
-      </c>
-      <c r="Z31"/>
+        <v>44.574278361459903</v>
+      </c>
+      <c r="Z31">
+        <v>48.885411752758898</v>
+      </c>
       <c r="AA31">
-        <v>4.7270000000000003</v>
+        <v>43.451675899480797</v>
       </c>
       <c r="AB31"/>
       <c r="AC31"/>
       <c r="AD31">
-        <v>7.2519999999999998</v>
+        <v>93.819861776497703</v>
       </c>
       <c r="AG31" s="3">
-        <f t="shared" si="0"/>
-        <v>3271</v>
+        <f>MIN(S31:AD31)*1000</f>
+        <v>43451.675899480797</v>
       </c>
       <c r="AH31" s="3">
         <f>MAX(S31:AD31)*1000</f>
-        <v>7840</v>
-      </c>
-      <c r="AI31" s="37">
-        <f t="shared" si="4"/>
-        <v>0.11064172757844416</v>
+        <v>93819.86177649771</v>
+      </c>
+      <c r="AI31" s="35">
+        <f>((AD31-S31)/S31)/(2019-2008)</f>
+        <v>5.3471906074784664E-2</v>
       </c>
       <c r="AJ31">
-        <v>51.212000000000003</v>
+        <v>59.336300639999997</v>
       </c>
       <c r="AK31"/>
       <c r="AL31"/>
@@ -8770,2230 +9087,2505 @@
       <c r="AN31"/>
       <c r="AO31"/>
       <c r="AP31">
-        <v>62.328380000000003</v>
-      </c>
-      <c r="AQ31"/>
+        <v>83.497699999999995</v>
+      </c>
+      <c r="AQ31">
+        <v>79.221999999999994</v>
+      </c>
       <c r="AR31">
-        <v>78.139080000000007</v>
+        <v>104.60839</v>
       </c>
       <c r="AS31"/>
       <c r="AT31"/>
       <c r="AU31">
-        <v>87.322580000000002</v>
+        <v>188.32668000000001</v>
       </c>
       <c r="AX31" s="4">
-        <f t="shared" si="1"/>
-        <v>51.212000000000003</v>
+        <f>MIN(AJ31:AU31)</f>
+        <v>59.336300639999997</v>
       </c>
       <c r="AY31" s="4">
-        <f t="shared" si="2"/>
-        <v>87.322580000000002</v>
-      </c>
-      <c r="AZ31" s="37">
-        <f t="shared" si="5"/>
-        <v>6.4101773021947972E-2</v>
+        <f>MAX(AJ31:AU31)</f>
+        <v>188.32668000000001</v>
+      </c>
+      <c r="AZ31" s="35">
+        <f>((AU31-AJ31)/AJ31)/(2019-2008)</f>
+        <v>0.19762603999837705</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>0.10199999999999999</v>
+        <v>0.02</v>
+      </c>
+      <c r="E32">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H32">
-        <v>0.15</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I32">
+        <v>3.1E-2</v>
       </c>
       <c r="J32">
-        <v>0.107</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M32">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="P32" s="3">
         <f>MIN(F32:M32)*1000</f>
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="3">
         <f>MAX(B32:M32)*1000</f>
-        <v>150</v>
-      </c>
-      <c r="R32" s="32">
-        <f t="shared" si="3"/>
-        <v>-1.9607843137254895E-2</v>
-      </c>
-      <c r="S32">
-        <v>3.42</v>
+        <v>45</v>
+      </c>
+      <c r="R32" s="30">
+        <f>((M32-B32)/B32)/(2019-2008)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S32" s="45">
+        <v>1.6272474764304301</v>
       </c>
       <c r="T32"/>
       <c r="U32"/>
-      <c r="V32"/>
+      <c r="V32">
+        <v>2.6915749728273601</v>
+      </c>
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32">
-        <v>3.2549999999999999</v>
-      </c>
-      <c r="Z32"/>
+        <v>2.8558780007882598</v>
+      </c>
+      <c r="Z32">
+        <v>4.9707736267085396</v>
+      </c>
       <c r="AA32">
-        <v>3.18</v>
+        <v>4.9383986458295404</v>
       </c>
       <c r="AB32"/>
       <c r="AC32"/>
       <c r="AD32">
-        <v>4.74</v>
+        <v>39.605932858317303</v>
       </c>
       <c r="AG32" s="3">
-        <f t="shared" si="0"/>
-        <v>3180</v>
+        <f>MIN(S32:AD32)*1000</f>
+        <v>1627.2474764304302</v>
       </c>
       <c r="AH32" s="3">
         <f>MAX(S32:AD32)*1000</f>
-        <v>4740</v>
-      </c>
-      <c r="AI32" s="37">
-        <f t="shared" si="4"/>
-        <v>3.5087719298245619E-2</v>
+        <v>39605.932858317305</v>
+      </c>
+      <c r="AI32" s="35">
+        <f>((AD32-S32)/S32)/(2019-2008)</f>
+        <v>2.1217471908842289</v>
       </c>
       <c r="AJ32">
-        <v>12.650779999999999</v>
+        <v>3.4170796999999999</v>
       </c>
       <c r="AK32"/>
       <c r="AL32"/>
-      <c r="AM32"/>
+      <c r="AM32">
+        <v>2.3807288699999898</v>
+      </c>
       <c r="AN32"/>
       <c r="AO32"/>
-      <c r="AP32">
-        <v>22.72541</v>
-      </c>
-      <c r="AQ32"/>
+      <c r="AP32"/>
+      <c r="AQ32">
+        <v>20.631599999999999</v>
+      </c>
       <c r="AR32">
-        <v>9.7739999999999991</v>
+        <v>31.70919</v>
       </c>
       <c r="AS32"/>
       <c r="AT32"/>
       <c r="AU32">
-        <v>11.38674</v>
+        <v>68.139060000000001</v>
       </c>
       <c r="AX32" s="4">
-        <f t="shared" si="1"/>
-        <v>9.7739999999999991</v>
+        <f>MIN(AJ32:AU32)</f>
+        <v>2.3807288699999898</v>
       </c>
       <c r="AY32" s="4">
-        <f t="shared" si="2"/>
-        <v>22.72541</v>
-      </c>
-      <c r="AZ32" s="37">
-        <f t="shared" si="5"/>
-        <v>-9.0834499748416488E-3</v>
+        <f>MAX(AJ32:AU32)</f>
+        <v>68.139060000000001</v>
+      </c>
+      <c r="AZ32" s="35">
+        <f>((AU32-AJ32)/AJ32)/(2019-2008)</f>
+        <v>1.7218844473861965</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>0.129</v>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E33">
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="H33">
-        <v>0.12</v>
+        <v>0.112</v>
+      </c>
+      <c r="I33">
+        <v>0.10100000000000001</v>
       </c>
       <c r="J33">
-        <v>0.111</v>
+        <v>0.107</v>
       </c>
       <c r="M33">
-        <v>0.121</v>
+        <v>0.08</v>
       </c>
       <c r="P33" s="3">
         <f>MIN(F33:M33)*1000</f>
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="3">
         <f>MAX(B33:M33)*1000</f>
-        <v>129</v>
-      </c>
-      <c r="R33" s="32">
-        <f t="shared" si="3"/>
-        <v>-5.6377730796335493E-3</v>
-      </c>
-      <c r="S33">
-        <v>3.7050000000000001</v>
+        <v>112</v>
+      </c>
+      <c r="R33" s="30">
+        <f>((M33-B33)/B33)/(2019-2008)</f>
+        <v>1.1507479861910253E-3</v>
+      </c>
+      <c r="S33" s="45">
+        <v>3.3224824127067598</v>
       </c>
       <c r="T33"/>
       <c r="U33"/>
-      <c r="V33"/>
+      <c r="V33">
+        <v>2.01250974889046</v>
+      </c>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33">
-        <v>5.6719999999999997</v>
-      </c>
-      <c r="Z33"/>
+        <v>2.9554310669911601</v>
+      </c>
+      <c r="Z33">
+        <v>3.7563071564852799</v>
+      </c>
       <c r="AA33">
-        <v>5.0389999999999997</v>
+        <v>3.1800324968391802</v>
       </c>
       <c r="AB33"/>
       <c r="AC33"/>
       <c r="AD33">
-        <v>6.9619999999999997</v>
+        <v>4.7380784516407699</v>
       </c>
       <c r="AG33" s="3">
-        <f t="shared" si="0"/>
-        <v>3705</v>
+        <f>MIN(S33:AD33)*1000</f>
+        <v>2012.5097488904601</v>
       </c>
       <c r="AH33" s="3">
         <f>MAX(S33:AD33)*1000</f>
-        <v>6962</v>
-      </c>
-      <c r="AI33" s="37">
-        <f t="shared" si="4"/>
-        <v>7.9916574653416741E-2</v>
+        <v>4738.0784516407703</v>
+      </c>
+      <c r="AI33" s="35">
+        <f>((AD33-S33)/S33)/(2019-2008)</f>
+        <v>3.8733252131546818E-2</v>
       </c>
       <c r="AJ33">
-        <v>12.275539999999999</v>
+        <v>13.07979812</v>
       </c>
       <c r="AK33"/>
       <c r="AL33"/>
-      <c r="AM33"/>
+      <c r="AM33">
+        <v>19.68752448</v>
+      </c>
       <c r="AN33"/>
       <c r="AO33"/>
       <c r="AP33">
-        <v>20.680569999999999</v>
-      </c>
-      <c r="AQ33"/>
+        <v>22.808499999999999</v>
+      </c>
+      <c r="AQ33">
+        <v>20.619499999999999</v>
+      </c>
       <c r="AR33">
-        <v>19.093319999999999</v>
+        <v>9.8644999999999996</v>
       </c>
       <c r="AS33"/>
       <c r="AT33"/>
       <c r="AU33">
-        <v>50.580800000000004</v>
+        <v>11.49948</v>
       </c>
       <c r="AX33" s="4">
-        <f t="shared" si="1"/>
-        <v>12.275539999999999</v>
+        <f>MIN(AJ33:AU33)</f>
+        <v>9.8644999999999996</v>
       </c>
       <c r="AY33" s="4">
-        <f t="shared" si="2"/>
-        <v>50.580800000000004</v>
-      </c>
-      <c r="AZ33" s="37">
-        <f t="shared" si="5"/>
-        <v>0.28367765195147132</v>
+        <f>MAX(AJ33:AU33)</f>
+        <v>22.808499999999999</v>
+      </c>
+      <c r="AZ33" s="35">
+        <f>((AU33-AJ33)/AJ33)/(2019-2008)</f>
+        <v>-1.0983753901880833E-2</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.127</v>
+        <v>6.2E-2</v>
+      </c>
+      <c r="E34">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H34">
-        <v>9.4E-2</v>
+        <v>0.06</v>
+      </c>
+      <c r="I34">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="J34">
-        <v>0.114</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="M34">
-        <v>0.11700000000000001</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="P34" s="3">
         <f>MIN(F34:M34)*1000</f>
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="Q34" s="3">
         <f>MAX(B34:M34)*1000</f>
-        <v>127</v>
-      </c>
-      <c r="R34" s="32">
-        <f t="shared" si="3"/>
-        <v>-7.1581961345740831E-3</v>
-      </c>
-      <c r="S34">
-        <v>61.832999999999998</v>
+        <v>75</v>
+      </c>
+      <c r="R34" s="30">
+        <f>((M34-B34)/B34)/(2019-2008)</f>
+        <v>8.7976539589442893E-3</v>
+      </c>
+      <c r="S34" s="45">
+        <v>1.0914415428830799</v>
       </c>
       <c r="T34"/>
       <c r="U34"/>
-      <c r="V34"/>
+      <c r="V34">
+        <v>0.66490116980233904</v>
+      </c>
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34">
-        <v>54.506999999999998</v>
-      </c>
-      <c r="Z34"/>
+        <v>0.94656350344958695</v>
+      </c>
+      <c r="Z34">
+        <v>0.95061037605946097</v>
+      </c>
       <c r="AA34">
-        <v>47.069000000000003</v>
+        <v>0.61552932396187299</v>
       </c>
       <c r="AB34"/>
       <c r="AC34"/>
       <c r="AD34">
-        <v>45.951999999999998</v>
+        <v>1.5932537465074901</v>
       </c>
       <c r="AG34" s="3">
-        <f t="shared" si="0"/>
-        <v>45952</v>
+        <f>MIN(S34:AD34)*1000</f>
+        <v>615.52932396187293</v>
       </c>
       <c r="AH34" s="3">
         <f>MAX(S34:AD34)*1000</f>
-        <v>61833</v>
-      </c>
-      <c r="AI34" s="37">
-        <f t="shared" si="4"/>
-        <v>-2.3348814916424446E-2</v>
+        <v>1593.2537465074902</v>
+      </c>
+      <c r="AI34" s="35">
+        <f>((AD34-S34)/S34)/(2019-2008)</f>
+        <v>4.1797283176593987E-2</v>
       </c>
       <c r="AJ34">
-        <v>23.211780000000001</v>
+        <v>3.1739715199999998</v>
       </c>
       <c r="AK34"/>
       <c r="AL34"/>
-      <c r="AM34"/>
+      <c r="AM34">
+        <v>7.4589781499999903</v>
+      </c>
       <c r="AN34"/>
       <c r="AO34"/>
       <c r="AP34">
-        <v>29.734110000000001</v>
-      </c>
-      <c r="AQ34"/>
+        <v>8.3963000000000001</v>
+      </c>
+      <c r="AQ34">
+        <v>12.401400000000001</v>
+      </c>
       <c r="AR34">
-        <v>24.560279999999999</v>
+        <v>9.6257900000000003</v>
       </c>
       <c r="AS34"/>
       <c r="AT34"/>
       <c r="AU34">
-        <v>26.863980000000002</v>
+        <v>26.77092</v>
       </c>
       <c r="AX34" s="4">
-        <f t="shared" si="1"/>
-        <v>23.211780000000001</v>
+        <f>MIN(AJ34:AU34)</f>
+        <v>3.1739715199999998</v>
       </c>
       <c r="AY34" s="4">
-        <f t="shared" si="2"/>
-        <v>29.734110000000001</v>
-      </c>
-      <c r="AZ34" s="37">
-        <f t="shared" si="5"/>
-        <v>1.4303865615570278E-2</v>
+        <f>MAX(AJ34:AU34)</f>
+        <v>26.77092</v>
+      </c>
+      <c r="AZ34" s="35">
+        <f>((AU34-AJ34)/AJ34)/(2019-2008)</f>
+        <v>0.67586527510664451</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>8.2000000000000003E-2</v>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E35">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H35">
-        <v>0.122</v>
+        <v>0.105</v>
+      </c>
+      <c r="I35">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J35">
-        <v>5.7000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="M35">
-        <v>6.3E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="P35" s="3">
         <f>MIN(F35:M35)*1000</f>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="Q35" s="3">
         <f>MAX(B35:M35)*1000</f>
-        <v>122</v>
-      </c>
-      <c r="R35" s="32">
-        <f t="shared" si="3"/>
-        <v>-2.1064301552106434E-2</v>
-      </c>
-      <c r="S35">
-        <v>0.45400000000000001</v>
+        <v>139</v>
+      </c>
+      <c r="R35" s="30">
+        <f>((M35-B35)/B35)/(2019-2008)</f>
+        <v>-2.4852844996729892E-2</v>
+      </c>
+      <c r="S35" s="45">
+        <v>47.338292354003997</v>
       </c>
       <c r="T35"/>
       <c r="U35"/>
-      <c r="V35"/>
+      <c r="V35">
+        <v>59.993672379602799</v>
+      </c>
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="Z35"/>
+        <v>13.926098025099201</v>
+      </c>
+      <c r="Z35">
+        <v>20.8972407828686</v>
+      </c>
       <c r="AA35">
-        <v>0.68400000000000005</v>
+        <v>38.098472811139096</v>
       </c>
       <c r="AB35"/>
       <c r="AC35"/>
       <c r="AD35">
-        <v>0.72899999999999998</v>
+        <v>15.801014105254</v>
       </c>
       <c r="AG35" s="3">
-        <f t="shared" si="0"/>
-        <v>454</v>
+        <f>MIN(S35:AD35)*1000</f>
+        <v>13926.0980250992</v>
       </c>
       <c r="AH35" s="3">
         <f>MAX(S35:AD35)*1000</f>
-        <v>1045</v>
-      </c>
-      <c r="AI35" s="37">
-        <f t="shared" si="4"/>
-        <v>5.5066079295154176E-2</v>
+        <v>59993.672379602802</v>
+      </c>
+      <c r="AI35" s="35">
+        <f>((AD35-S35)/S35)/(2019-2008)</f>
+        <v>-6.0564611708018412E-2</v>
       </c>
       <c r="AJ35">
-        <v>6.0923400000000001</v>
+        <v>40.827464699999901</v>
       </c>
       <c r="AK35"/>
       <c r="AL35"/>
-      <c r="AM35"/>
+      <c r="AM35">
+        <v>25.957322819999899</v>
+      </c>
       <c r="AN35"/>
       <c r="AO35"/>
       <c r="AP35">
-        <v>4.0133799999999997</v>
-      </c>
-      <c r="AQ35"/>
+        <v>24.017399999999999</v>
+      </c>
+      <c r="AQ35">
+        <v>35.357300000000002</v>
+      </c>
       <c r="AR35">
-        <v>7.4984400000000004</v>
+        <v>49.02711</v>
       </c>
       <c r="AS35"/>
       <c r="AT35"/>
       <c r="AU35">
-        <v>6.2135199999999999</v>
+        <v>72.187439999999995</v>
       </c>
       <c r="AX35" s="4">
-        <f t="shared" si="1"/>
-        <v>4.0133799999999997</v>
+        <f>MIN(AJ35:AU35)</f>
+        <v>24.017399999999999</v>
       </c>
       <c r="AY35" s="4">
-        <f t="shared" si="2"/>
-        <v>7.4984400000000004</v>
-      </c>
-      <c r="AZ35" s="37">
-        <f t="shared" si="5"/>
-        <v>1.8082319168601264E-3</v>
+        <f>MAX(AJ35:AU35)</f>
+        <v>72.187439999999995</v>
+      </c>
+      <c r="AZ35" s="35">
+        <f>((AU35-AJ35)/AJ35)/(2019-2008)</f>
+        <v>6.9828162644999137E-2</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>0.122</v>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E36">
+        <v>0.59</v>
       </c>
       <c r="H36">
-        <v>8.6999999999999994E-2</v>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I36">
+        <v>0.93100000000000005</v>
       </c>
       <c r="J36">
-        <v>5.2999999999999999E-2</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="M36">
-        <v>6.8000000000000005E-2</v>
+        <v>1.321</v>
       </c>
       <c r="P36" s="3">
         <f>MIN(F36:M36)*1000</f>
-        <v>53</v>
+        <v>855</v>
       </c>
       <c r="Q36" s="3">
         <f>MAX(B36:M36)*1000</f>
-        <v>122</v>
-      </c>
-      <c r="R36" s="32">
-        <f t="shared" si="3"/>
-        <v>-4.0238450074515646E-2</v>
-      </c>
-      <c r="S36">
-        <v>1.3480000000000001</v>
+        <v>1321</v>
+      </c>
+      <c r="R36" s="30">
+        <f>((M36-B36)/B36)/(2019-2008)</f>
+        <v>8.4662413609782008E-2</v>
+      </c>
+      <c r="S36" s="45">
+        <v>66.482427922275093</v>
       </c>
       <c r="T36"/>
       <c r="U36"/>
-      <c r="V36"/>
+      <c r="V36">
+        <v>67.100790057063904</v>
+      </c>
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36">
-        <v>1.077</v>
-      </c>
-      <c r="Z36"/>
+        <v>85.336807411679303</v>
+      </c>
+      <c r="Z36">
+        <v>96.598849197698399</v>
+      </c>
       <c r="AA36">
-        <v>0.61599999999999999</v>
+        <v>106.99324149616</v>
       </c>
       <c r="AB36"/>
       <c r="AC36"/>
       <c r="AD36">
-        <v>1.5940000000000001</v>
+        <v>130.74676496707801</v>
       </c>
       <c r="AG36" s="3">
-        <f t="shared" si="0"/>
-        <v>616</v>
+        <f>MIN(S36:AD36)*1000</f>
+        <v>66482.427922275092</v>
       </c>
       <c r="AH36" s="3">
         <f>MAX(S36:AD36)*1000</f>
-        <v>1594</v>
-      </c>
-      <c r="AI36" s="37">
-        <f t="shared" si="4"/>
-        <v>1.6590234691124896E-2</v>
+        <v>130746.76496707801</v>
+      </c>
+      <c r="AI36" s="35">
+        <f>((AD36-S36)/S36)/(2019-2008)</f>
+        <v>8.7876039446823512E-2</v>
       </c>
       <c r="AJ36">
-        <v>3.07036</v>
+        <v>128.26262965999999</v>
       </c>
       <c r="AK36"/>
       <c r="AL36"/>
-      <c r="AM36"/>
+      <c r="AM36">
+        <v>124.925308559999</v>
+      </c>
       <c r="AN36"/>
       <c r="AO36"/>
       <c r="AP36">
-        <v>8.4867399999999993</v>
-      </c>
-      <c r="AQ36"/>
+        <v>180.24930000000001</v>
+      </c>
+      <c r="AQ36">
+        <v>242.935</v>
+      </c>
       <c r="AR36">
-        <v>9.5374800000000004</v>
+        <v>235.28630999999999</v>
       </c>
       <c r="AS36"/>
       <c r="AT36"/>
       <c r="AU36">
-        <v>26.508459999999999</v>
+        <v>304.38839999999999</v>
       </c>
       <c r="AX36" s="4">
-        <f t="shared" si="1"/>
-        <v>3.07036</v>
+        <f>MIN(AJ36:AU36)</f>
+        <v>124.925308559999</v>
       </c>
       <c r="AY36" s="4">
-        <f t="shared" si="2"/>
-        <v>26.508459999999999</v>
-      </c>
-      <c r="AZ36" s="37">
-        <f t="shared" si="5"/>
-        <v>0.69396955524315185</v>
+        <f>MAX(AJ36:AU36)</f>
+        <v>304.38839999999999</v>
+      </c>
+      <c r="AZ36" s="35">
+        <f>((AU36-AJ36)/AJ36)/(2019-2008)</f>
+        <v>0.12483319350083509</v>
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B37">
-        <v>0.10299999999999999</v>
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E37">
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H37">
-        <v>0.11700000000000001</v>
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>0.20300000000000001</v>
       </c>
       <c r="J37">
-        <v>8.3000000000000004E-2</v>
+        <v>0.247</v>
       </c>
       <c r="M37">
-        <v>0.10199999999999999</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="P37" s="3">
         <f>MIN(F37:M37)*1000</f>
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="3">
         <f>MAX(B37:M37)*1000</f>
-        <v>117</v>
-      </c>
-      <c r="R37" s="32">
-        <f t="shared" si="3"/>
-        <v>-8.8261253309797089E-4</v>
-      </c>
-      <c r="S37">
-        <v>1.8360000000000001</v>
+        <v>347</v>
+      </c>
+      <c r="R37" s="30">
+        <f>((M37-B37)/B37)/(2019-2008)</f>
+        <v>0.14450474898236088</v>
+      </c>
+      <c r="S37" s="45">
+        <v>3.4851666916237001</v>
       </c>
       <c r="T37"/>
       <c r="U37"/>
-      <c r="V37"/>
+      <c r="V37">
+        <v>4.8894314872500697</v>
+      </c>
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37">
-        <v>3.637</v>
-      </c>
-      <c r="Z37"/>
+        <v>8.7392214010234408</v>
+      </c>
+      <c r="Z37">
+        <v>11.625450946385699</v>
+      </c>
       <c r="AA37">
-        <v>2.1640000000000001</v>
+        <v>12.8690548994001</v>
       </c>
       <c r="AB37"/>
       <c r="AC37"/>
       <c r="AD37">
-        <v>2.883</v>
+        <v>17.2963335346025</v>
       </c>
       <c r="AG37" s="3">
-        <f t="shared" si="0"/>
-        <v>1836</v>
+        <f>MIN(S37:AD37)*1000</f>
+        <v>3485.1666916237</v>
       </c>
       <c r="AH37" s="3">
         <f>MAX(S37:AD37)*1000</f>
-        <v>3637</v>
-      </c>
-      <c r="AI37" s="37">
-        <f t="shared" si="4"/>
-        <v>5.1841948900772428E-2</v>
+        <v>17296.333534602501</v>
+      </c>
+      <c r="AI37" s="35">
+        <f>((AD37-S37)/S37)/(2019-2008)</f>
+        <v>0.36025841320778551</v>
       </c>
       <c r="AJ37">
-        <v>6.8982799999999997</v>
+        <v>64.410542939999999</v>
       </c>
       <c r="AK37"/>
       <c r="AL37"/>
-      <c r="AM37"/>
+      <c r="AM37">
+        <v>28.245643919999999</v>
+      </c>
       <c r="AN37"/>
       <c r="AO37"/>
       <c r="AP37">
-        <v>13.57704</v>
-      </c>
-      <c r="AQ37"/>
+        <v>73.357900000000001</v>
+      </c>
+      <c r="AQ37">
+        <v>90.669700000000006</v>
+      </c>
       <c r="AR37">
-        <v>52.091639999999998</v>
+        <v>157.95953</v>
       </c>
       <c r="AS37"/>
       <c r="AT37"/>
       <c r="AU37">
-        <v>52.734119999999997</v>
+        <v>377.16336000000001</v>
       </c>
       <c r="AX37" s="4">
-        <f t="shared" si="1"/>
-        <v>6.8982799999999997</v>
+        <f>MIN(AJ37:AU37)</f>
+        <v>28.245643919999999</v>
       </c>
       <c r="AY37" s="4">
-        <f t="shared" si="2"/>
-        <v>52.734119999999997</v>
-      </c>
-      <c r="AZ37" s="37">
-        <f t="shared" si="5"/>
-        <v>0.60404833457826379</v>
+        <f>MAX(AJ37:AU37)</f>
+        <v>377.16336000000001</v>
+      </c>
+      <c r="AZ37" s="35">
+        <f>((AU37-AJ37)/AJ37)/(2019-2008)</f>
+        <v>0.44141957170997598</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>0.109</v>
+        <v>0.124</v>
+      </c>
+      <c r="E38">
+        <v>0.112</v>
       </c>
       <c r="H38">
-        <v>8.3000000000000004E-2</v>
+        <v>9.4E-2</v>
+      </c>
+      <c r="I38">
+        <v>0.1</v>
       </c>
       <c r="J38">
-        <v>8.5999999999999993E-2</v>
+        <v>0.114</v>
       </c>
       <c r="M38">
-        <v>0.11</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="P38" s="3">
         <f>MIN(F38:M38)*1000</f>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="Q38" s="3">
         <f>MAX(B38:M38)*1000</f>
-        <v>110</v>
-      </c>
-      <c r="R38" s="32">
-        <f t="shared" si="3"/>
-        <v>8.3402835696413751E-4</v>
-      </c>
-      <c r="S38">
-        <v>21.513999999999999</v>
+        <v>124</v>
+      </c>
+      <c r="R38" s="30">
+        <f>((M38-B38)/B38)/(2019-2008)</f>
+        <v>-5.1319648093841588E-3</v>
+      </c>
+      <c r="S38" s="45">
+        <v>61.805052559782503</v>
       </c>
       <c r="T38"/>
       <c r="U38"/>
-      <c r="V38"/>
+      <c r="V38">
+        <v>49.560025416824999</v>
+      </c>
       <c r="W38"/>
       <c r="X38"/>
       <c r="Y38">
-        <v>17.052</v>
-      </c>
-      <c r="Z38"/>
+        <v>54.483855321259</v>
+      </c>
+      <c r="Z38">
+        <v>44.832873521230901</v>
+      </c>
       <c r="AA38">
-        <v>21.937999999999999</v>
+        <v>47.067151889142401</v>
       </c>
       <c r="AB38"/>
       <c r="AC38"/>
       <c r="AD38">
-        <v>34.68</v>
+        <v>45.932813496594697</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" si="0"/>
-        <v>17052</v>
+        <f>MIN(S38:AD38)*1000</f>
+        <v>44832.873521230904</v>
       </c>
       <c r="AH38" s="3">
         <f>MAX(S38:AD38)*1000</f>
-        <v>34680</v>
-      </c>
-      <c r="AI38" s="37">
-        <f t="shared" si="4"/>
-        <v>5.5633963507906059E-2</v>
+        <v>61805.052559782504</v>
+      </c>
+      <c r="AI38" s="35">
+        <f>((AD38-S38)/S38)/(2019-2008)</f>
+        <v>-2.3346486479086038E-2</v>
       </c>
       <c r="AJ38">
-        <v>17.069880000000001</v>
+        <v>23.999047000000001</v>
       </c>
       <c r="AK38"/>
       <c r="AL38"/>
-      <c r="AM38"/>
+      <c r="AM38">
+        <v>24.91794045</v>
+      </c>
       <c r="AN38"/>
       <c r="AO38"/>
       <c r="AP38">
-        <v>18.76435</v>
-      </c>
-      <c r="AQ38"/>
+        <v>30.006900000000002</v>
+      </c>
+      <c r="AQ38">
+        <v>23.456399999999999</v>
+      </c>
       <c r="AR38">
-        <v>54.021599999999999</v>
+        <v>24.787690000000001</v>
       </c>
       <c r="AS38"/>
       <c r="AT38"/>
       <c r="AU38">
-        <v>69.738479999999996</v>
+        <v>27.129960000000001</v>
       </c>
       <c r="AX38" s="4">
-        <f t="shared" si="1"/>
-        <v>17.069880000000001</v>
+        <f>MIN(AJ38:AU38)</f>
+        <v>23.456399999999999</v>
       </c>
       <c r="AY38" s="4">
-        <f t="shared" si="2"/>
-        <v>69.738479999999996</v>
-      </c>
-      <c r="AZ38" s="37">
-        <f t="shared" si="5"/>
-        <v>0.28049725864824737</v>
+        <f>MAX(AJ38:AU38)</f>
+        <v>30.006900000000002</v>
+      </c>
+      <c r="AZ38" s="35">
+        <f>((AU38-AJ38)/AJ38)/(2019-2008)</f>
+        <v>1.1859989879825415E-2</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>0.10299999999999999</v>
+        <v>0.42</v>
+      </c>
+      <c r="E39">
+        <v>0.32900000000000001</v>
       </c>
       <c r="H39">
-        <v>0.08</v>
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.46300000000000002</v>
       </c>
       <c r="J39">
-        <v>8.5999999999999993E-2</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="M39">
-        <v>6.8000000000000005E-2</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="P39" s="3">
         <f>MIN(F39:M39)*1000</f>
-        <v>68</v>
+        <v>463</v>
       </c>
       <c r="Q39" s="3">
         <f>MAX(B39:M39)*1000</f>
-        <v>103</v>
-      </c>
-      <c r="R39" s="32">
-        <f t="shared" si="3"/>
-        <v>-3.089143865842894E-2</v>
-      </c>
-      <c r="S39">
-        <v>53.46</v>
+        <v>785</v>
+      </c>
+      <c r="R39" s="30">
+        <f>((M39-B39)/B39)/(2019-2008)</f>
+        <v>7.9004329004329021E-2</v>
+      </c>
+      <c r="S39" s="45">
+        <v>24.159829480949199</v>
       </c>
       <c r="T39"/>
       <c r="U39"/>
-      <c r="V39"/>
+      <c r="V39">
+        <v>22.045743229550901</v>
+      </c>
       <c r="W39"/>
       <c r="X39"/>
       <c r="Y39">
-        <v>31.725999999999999</v>
-      </c>
-      <c r="Z39"/>
-      <c r="AA39">
-        <v>46.856000000000002</v>
-      </c>
+        <v>29.697569960301202</v>
+      </c>
+      <c r="Z39">
+        <v>26.976452817421698</v>
+      </c>
+      <c r="AA39"/>
       <c r="AB39"/>
       <c r="AC39"/>
       <c r="AD39">
-        <v>29.617000000000001</v>
+        <v>45.292598249712597</v>
       </c>
       <c r="AG39" s="3">
-        <f t="shared" si="0"/>
-        <v>29617</v>
+        <f>MIN(S39:AD39)*1000</f>
+        <v>22045.743229550902</v>
       </c>
       <c r="AH39" s="3">
         <f>MAX(S39:AD39)*1000</f>
-        <v>53460</v>
-      </c>
-      <c r="AI39" s="37">
-        <f t="shared" si="4"/>
-        <v>-4.0545182464374385E-2</v>
+        <v>45292.598249712595</v>
+      </c>
+      <c r="AI39" s="35">
+        <f>((AD39-S39)/S39)/(2019-2008)</f>
+        <v>7.9518806151972474E-2</v>
       </c>
       <c r="AJ39">
-        <v>17.874639999999999</v>
+        <v>52.173387839999997</v>
       </c>
       <c r="AK39"/>
       <c r="AL39"/>
-      <c r="AM39"/>
+      <c r="AM39">
+        <v>65.883206610000002</v>
+      </c>
       <c r="AN39"/>
       <c r="AO39"/>
       <c r="AP39">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="AQ39"/>
+        <v>97.602999999999994</v>
+      </c>
+      <c r="AQ39">
+        <v>84.715400000000002</v>
+      </c>
       <c r="AR39">
-        <v>18.7056</v>
+        <v>110.35378</v>
       </c>
       <c r="AS39"/>
       <c r="AT39"/>
       <c r="AU39">
-        <v>14.5642</v>
+        <v>119.33898000000001</v>
       </c>
       <c r="AX39" s="4">
-        <f t="shared" si="1"/>
-        <v>14.5642</v>
+        <f>MIN(AJ39:AU39)</f>
+        <v>52.173387839999997</v>
       </c>
       <c r="AY39" s="4">
-        <f t="shared" si="2"/>
-        <v>18.7056</v>
-      </c>
-      <c r="AZ39" s="37">
-        <f t="shared" si="5"/>
-        <v>-1.6836651865944765E-2</v>
+        <f>MAX(AJ39:AU39)</f>
+        <v>119.33898000000001</v>
+      </c>
+      <c r="AZ39" s="35">
+        <f>((AU39-AJ39)/AJ39)/(2019-2008)</f>
+        <v>0.11703213412863867</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>9.5000000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H40">
-        <v>0.06</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I40">
+        <v>2.3E-2</v>
       </c>
       <c r="J40">
-        <v>5.0999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M40">
-        <v>4.8000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P40" s="3">
         <f>MIN(F40:M40)*1000</f>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="3">
         <f>MAX(B40:M40)*1000</f>
-        <v>95</v>
-      </c>
-      <c r="R40" s="32">
-        <f t="shared" si="3"/>
-        <v>-4.4976076555023919E-2</v>
-      </c>
-      <c r="S40">
-        <v>58.392000000000003</v>
+        <v>58</v>
+      </c>
+      <c r="R40" s="30">
+        <f>((M40-B40)/B40)/(2019-2008)</f>
+        <v>-3.7617554858934171E-2</v>
+      </c>
+      <c r="S40" s="45">
+        <v>11.134969986069001</v>
       </c>
       <c r="T40"/>
       <c r="U40"/>
-      <c r="V40"/>
+      <c r="V40">
+        <v>5.8380184270045898</v>
+      </c>
       <c r="W40"/>
       <c r="X40"/>
       <c r="Y40">
-        <v>48.76</v>
-      </c>
-      <c r="Z40"/>
+        <v>4.2059147034423097</v>
+      </c>
+      <c r="Z40">
+        <v>2.46130792132552</v>
+      </c>
       <c r="AA40">
-        <v>39.628</v>
+        <v>7.2876081958615497</v>
       </c>
       <c r="AB40"/>
       <c r="AC40"/>
       <c r="AD40">
-        <v>38.295999999999999</v>
+        <v>6.5004914732410102</v>
       </c>
       <c r="AG40" s="3">
-        <f t="shared" si="0"/>
-        <v>38296</v>
+        <f>MIN(S40:AD40)*1000</f>
+        <v>2461.3079213255201</v>
       </c>
       <c r="AH40" s="3">
         <f>MAX(S40:AD40)*1000</f>
-        <v>58392</v>
-      </c>
-      <c r="AI40" s="37">
-        <f t="shared" si="4"/>
-        <v>-3.1286975799922782E-2</v>
+        <v>11134.969986069</v>
+      </c>
+      <c r="AI40" s="35">
+        <f>((AD40-S40)/S40)/(2019-2008)</f>
+        <v>-3.7837212759982149E-2</v>
       </c>
       <c r="AJ40">
-        <v>15.05326</v>
+        <v>6.837307</v>
       </c>
       <c r="AK40"/>
       <c r="AL40"/>
-      <c r="AM40"/>
+      <c r="AM40">
+        <v>1.5659888399999999</v>
+      </c>
       <c r="AN40"/>
       <c r="AO40"/>
-      <c r="AP40">
-        <v>20.119219999999999</v>
-      </c>
-      <c r="AQ40"/>
+      <c r="AP40"/>
+      <c r="AQ40">
+        <v>2.2803</v>
+      </c>
       <c r="AR40">
-        <v>28.207439999999998</v>
+        <v>5.0227199999999996</v>
       </c>
       <c r="AS40"/>
       <c r="AT40"/>
       <c r="AU40">
-        <v>27.172029999999999</v>
+        <v>10.355040000000001</v>
       </c>
       <c r="AX40" s="4">
-        <f t="shared" si="1"/>
-        <v>15.05326</v>
+        <f>MIN(AJ40:AU40)</f>
+        <v>1.5659888399999999</v>
       </c>
       <c r="AY40" s="4">
-        <f t="shared" si="2"/>
-        <v>28.207439999999998</v>
-      </c>
-      <c r="AZ40" s="37">
-        <f t="shared" si="5"/>
-        <v>7.3187227460122503E-2</v>
+        <f>MAX(AJ40:AU40)</f>
+        <v>10.355040000000001</v>
+      </c>
+      <c r="AZ40" s="35">
+        <f>((AU40-AJ40)/AJ40)/(2019-2008)</f>
+        <v>4.6771910211273117E-2</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>8.7999999999999995E-2</v>
+        <v>0.433</v>
+      </c>
+      <c r="E41">
+        <v>0.35199999999999998</v>
       </c>
       <c r="H41">
-        <v>4.4999999999999998E-2</v>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="I41">
+        <v>0.40899999999999997</v>
       </c>
       <c r="J41">
-        <v>3.4000000000000002E-2</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="M41">
-        <v>3.4000000000000002E-2</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="P41" s="3">
         <f>MIN(F41:M41)*1000</f>
-        <v>34</v>
+        <v>409</v>
       </c>
       <c r="Q41" s="3">
         <f>MAX(B41:M41)*1000</f>
-        <v>88</v>
-      </c>
-      <c r="R41" s="32">
-        <f t="shared" si="3"/>
-        <v>-5.5785123966942136E-2</v>
-      </c>
-      <c r="S41">
-        <v>11.98</v>
+        <v>461</v>
+      </c>
+      <c r="R41" s="30">
+        <f>((M41-B41)/B41)/(2019-2008)</f>
+        <v>4.6189376443418056E-3</v>
+      </c>
+      <c r="S41" s="45">
+        <v>40.531047936934499</v>
       </c>
       <c r="T41"/>
       <c r="U41"/>
-      <c r="V41"/>
+      <c r="V41">
+        <v>53.733160452127301</v>
+      </c>
       <c r="W41"/>
       <c r="X41"/>
       <c r="Y41">
-        <v>4.4489999999999998</v>
-      </c>
-      <c r="Z41"/>
+        <v>82.376115410295299</v>
+      </c>
+      <c r="Z41">
+        <v>71.093434573965894</v>
+      </c>
       <c r="AA41">
-        <v>7.2880000000000003</v>
+        <v>78.820533135259794</v>
       </c>
       <c r="AB41"/>
       <c r="AC41"/>
       <c r="AD41">
-        <v>6.5030000000000001</v>
+        <v>79.336914080279698</v>
       </c>
       <c r="AG41" s="3">
-        <f t="shared" si="0"/>
-        <v>4449</v>
+        <f>MIN(S41:AD41)*1000</f>
+        <v>40531.047936934498</v>
       </c>
       <c r="AH41" s="3">
         <f>MAX(S41:AD41)*1000</f>
-        <v>11980</v>
-      </c>
-      <c r="AI41" s="37">
-        <f t="shared" si="4"/>
-        <v>-4.1561693731977538E-2</v>
+        <v>82376.115410295301</v>
+      </c>
+      <c r="AI41" s="35">
+        <f>((AD41-S41)/S41)/(2019-2008)</f>
+        <v>8.7039595386740984E-2</v>
       </c>
       <c r="AJ41">
-        <v>6.6127200000000004</v>
+        <v>189.84772335999901</v>
       </c>
       <c r="AK41"/>
       <c r="AL41"/>
-      <c r="AM41"/>
+      <c r="AM41">
+        <v>273.13852409999998</v>
+      </c>
       <c r="AN41"/>
       <c r="AO41"/>
-      <c r="AP41" s="29">
-        <v>6.6</v>
-      </c>
-      <c r="AQ41"/>
+      <c r="AP41">
+        <v>260.55149999999998</v>
+      </c>
+      <c r="AQ41">
+        <v>296.40820000000002</v>
+      </c>
       <c r="AR41">
-        <v>4.9766399999999997</v>
+        <v>382.47663999999997</v>
       </c>
       <c r="AS41"/>
       <c r="AT41"/>
       <c r="AU41">
-        <v>10.25352</v>
+        <v>463.49412000000001</v>
       </c>
       <c r="AX41" s="4">
-        <f t="shared" si="1"/>
-        <v>4.9766399999999997</v>
+        <f>MIN(AJ41:AU41)</f>
+        <v>189.84772335999901</v>
       </c>
       <c r="AY41" s="4">
-        <f t="shared" si="2"/>
-        <v>10.25352</v>
-      </c>
-      <c r="AZ41" s="37">
-        <f t="shared" si="5"/>
-        <v>5.0052295905741985E-2</v>
+        <f>MAX(AJ41:AU41)</f>
+        <v>463.49412000000001</v>
+      </c>
+      <c r="AZ41" s="35">
+        <f>((AU41-AJ41)/AJ41)/(2019-2008)</f>
+        <v>0.13103631009531813</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>8.3000000000000004E-2</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E42">
+        <v>0.435</v>
       </c>
       <c r="H42">
-        <v>5.3999999999999999E-2</v>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="I42">
+        <v>0.66800000000000004</v>
       </c>
       <c r="J42">
-        <v>3.7999999999999999E-2</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="M42">
-        <v>3.7999999999999999E-2</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="P42" s="3">
         <f>MIN(F42:M42)*1000</f>
-        <v>38</v>
+        <v>644</v>
       </c>
       <c r="Q42" s="3">
         <f>MAX(B42:M42)*1000</f>
-        <v>83</v>
-      </c>
-      <c r="R42" s="32">
-        <f t="shared" si="3"/>
-        <v>-4.9288061336254116E-2</v>
-      </c>
-      <c r="S42">
-        <v>0.81</v>
+        <v>944</v>
+      </c>
+      <c r="R42" s="30">
+        <f>((M42-B42)/B42)/(2019-2008)</f>
+        <v>9.3250097541943022E-2</v>
+      </c>
+      <c r="S42" s="45">
+        <v>20.9348766981404</v>
       </c>
       <c r="T42"/>
       <c r="U42"/>
-      <c r="V42"/>
+      <c r="V42">
+        <v>24.787499422740702</v>
+      </c>
       <c r="W42"/>
       <c r="X42"/>
       <c r="Y42">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="Z42"/>
+        <v>39.237667450818698</v>
+      </c>
+      <c r="Z42">
+        <v>34.464785894732998</v>
+      </c>
       <c r="AA42">
-        <v>1.3520000000000001</v>
+        <v>37.805074546923201</v>
       </c>
       <c r="AB42"/>
       <c r="AC42"/>
       <c r="AD42">
-        <v>2.0230000000000001</v>
+        <v>43.524114919197501</v>
       </c>
       <c r="AG42" s="3">
-        <f t="shared" si="0"/>
-        <v>810</v>
+        <f>MIN(S42:AD42)*1000</f>
+        <v>20934.876698140401</v>
       </c>
       <c r="AH42" s="3">
         <f>MAX(S42:AD42)*1000</f>
-        <v>2023.0000000000002</v>
-      </c>
-      <c r="AI42" s="37">
-        <f t="shared" si="4"/>
-        <v>0.13613916947250282</v>
+        <v>43524.114919197498</v>
+      </c>
+      <c r="AI42" s="35">
+        <f>((AD42-S42)/S42)/(2019-2008)</f>
+        <v>9.8093107526523185E-2</v>
       </c>
       <c r="AJ42">
-        <v>1.44668</v>
+        <v>259.54200090000001</v>
       </c>
       <c r="AK42"/>
       <c r="AL42"/>
-      <c r="AM42"/>
+      <c r="AM42">
+        <v>144.08753813999999</v>
+      </c>
       <c r="AN42"/>
       <c r="AO42"/>
       <c r="AP42">
-        <v>4.3850699999999998</v>
-      </c>
-      <c r="AQ42"/>
+        <v>344.73559999999998</v>
+      </c>
+      <c r="AQ42">
+        <v>364.6533</v>
+      </c>
       <c r="AR42">
-        <v>6.0631199999999996</v>
+        <v>718.99561000000006</v>
       </c>
       <c r="AS42"/>
       <c r="AT42"/>
       <c r="AU42">
-        <v>9.1213099999999994</v>
+        <v>756.59928000000002</v>
       </c>
       <c r="AX42" s="4">
-        <f t="shared" si="1"/>
-        <v>1.44668</v>
+        <f>MIN(AJ42:AU42)</f>
+        <v>144.08753813999999</v>
       </c>
       <c r="AY42" s="4">
-        <f t="shared" si="2"/>
-        <v>9.1213099999999994</v>
-      </c>
-      <c r="AZ42" s="37">
-        <f t="shared" si="5"/>
-        <v>0.482272262258161</v>
+        <f>MAX(AJ42:AU42)</f>
+        <v>756.59928000000002</v>
+      </c>
+      <c r="AZ42" s="35">
+        <f>((AU42-AJ42)/AJ42)/(2019-2008)</f>
+        <v>0.1741029398557252</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>3.5999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E43">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H43">
-        <v>3.4000000000000002E-2</v>
+        <v>2.3E-2</v>
+      </c>
+      <c r="I43">
+        <v>1.9E-2</v>
       </c>
       <c r="J43">
-        <v>6.4000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M43">
-        <v>6.7000000000000004E-2</v>
+        <v>0.02</v>
       </c>
       <c r="P43" s="3">
         <f>MIN(F43:M43)*1000</f>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Q43" s="3">
         <f>MAX(B43:M43)*1000</f>
-        <v>67</v>
-      </c>
-      <c r="R43" s="32">
-        <f t="shared" si="3"/>
-        <v>7.8282828282828301E-2</v>
-      </c>
-      <c r="S43">
-        <v>2.5529999999999999</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="R43" s="30">
+        <f>((M43-B43)/B43)/(2019-2008)</f>
+        <v>-8.2644628099173487E-3</v>
+      </c>
+      <c r="S43" s="45"/>
       <c r="T43"/>
       <c r="U43"/>
-      <c r="V43"/>
+      <c r="V43">
+        <v>3.9254664315780202E-2</v>
+      </c>
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43">
-        <v>0.32800000000000001</v>
+        <v>2.5899984703195201E-2</v>
       </c>
       <c r="Z43"/>
       <c r="AA43">
-        <v>1.9710000000000001</v>
+        <v>5.5442154755277202E-2</v>
       </c>
       <c r="AB43"/>
       <c r="AC43"/>
       <c r="AD43">
-        <v>8.5060000000000002</v>
+        <v>5.9893714626138898E-2</v>
       </c>
       <c r="AG43" s="3">
-        <f t="shared" si="0"/>
-        <v>328</v>
+        <f>MIN(S43:AD43)*1000</f>
+        <v>25.899984703195202</v>
       </c>
       <c r="AH43" s="3">
         <f>MAX(S43:AD43)*1000</f>
-        <v>8506</v>
-      </c>
-      <c r="AI43" s="37">
-        <f t="shared" si="4"/>
-        <v>0.21197877719616853</v>
+        <v>59.893714626138902</v>
+      </c>
+      <c r="AI43" s="35" t="e">
+        <f>((AD43-S43)/S43)/(2019-2008)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AJ43">
-        <v>15.160640000000001</v>
+        <v>1.36242402</v>
       </c>
       <c r="AK43"/>
       <c r="AL43"/>
-      <c r="AM43"/>
+      <c r="AM43">
+        <v>0.35910926999999998</v>
+      </c>
       <c r="AN43"/>
       <c r="AO43"/>
-      <c r="AP43" s="29">
-        <v>25.2</v>
-      </c>
-      <c r="AQ43"/>
+      <c r="AP43"/>
+      <c r="AQ43">
+        <v>0.52139999999999997</v>
+      </c>
       <c r="AR43">
-        <v>42.949440000000003</v>
+        <v>2.4797500000000001</v>
       </c>
       <c r="AS43"/>
       <c r="AT43"/>
       <c r="AU43">
-        <v>55.884309999999999</v>
+        <v>2.22257999999999</v>
       </c>
       <c r="AX43" s="4">
-        <f t="shared" si="1"/>
-        <v>15.160640000000001</v>
+        <f>MIN(AJ43:AU43)</f>
+        <v>0.35910926999999998</v>
       </c>
       <c r="AY43" s="4">
-        <f t="shared" si="2"/>
-        <v>55.884309999999999</v>
-      </c>
-      <c r="AZ43" s="37">
-        <f t="shared" si="5"/>
-        <v>0.24419495602968067</v>
+        <f>MAX(AJ43:AU43)</f>
+        <v>2.4797500000000001</v>
+      </c>
+      <c r="AZ43" s="35">
+        <f>((AU43-AJ43)/AJ43)/(2019-2008)</f>
+        <v>5.7394758925211314E-2</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>4</v>
+      <c r="A44" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B44">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E44">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="H44">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I44" s="12"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I44">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="J44">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="M44">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="13">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P44" s="3">
         <f>MIN(F44:M44)*1000</f>
-        <v>48</v>
-      </c>
-      <c r="Q44" s="13">
+        <v>26</v>
+      </c>
+      <c r="Q44" s="3">
         <f>MAX(B44:M44)*1000</f>
-        <v>64</v>
-      </c>
-      <c r="R44" s="32">
-        <f t="shared" si="3"/>
-        <v>4.4709388971684097E-3</v>
-      </c>
-      <c r="S44">
-        <v>274.149</v>
+        <v>44</v>
+      </c>
+      <c r="R44" s="30">
+        <f>((M44-B44)/B44)/(2019-2008)</f>
+        <v>0.13068181818181818</v>
+      </c>
+      <c r="S44" s="45">
+        <v>0.22702955341394501</v>
       </c>
       <c r="T44"/>
       <c r="U44"/>
-      <c r="V44"/>
+      <c r="V44">
+        <v>0.31525137630920402</v>
+      </c>
       <c r="W44"/>
       <c r="X44"/>
       <c r="Y44">
-        <v>52.024999999999999</v>
-      </c>
-      <c r="Z44"/>
+        <v>0.99553066202906504</v>
+      </c>
+      <c r="Z44">
+        <v>1.1092477823665301</v>
+      </c>
       <c r="AA44">
-        <v>48.512</v>
+        <v>1.28002580650322</v>
       </c>
       <c r="AB44"/>
       <c r="AC44"/>
       <c r="AD44">
-        <v>52.658999999999999</v>
-      </c>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="13">
-        <f t="shared" si="0"/>
-        <v>48512</v>
-      </c>
-      <c r="AH44" s="13">
+        <v>1.9449269763055601</v>
+      </c>
+      <c r="AG44" s="3">
+        <f>MIN(S44:AD44)*1000</f>
+        <v>227.02955341394502</v>
+      </c>
+      <c r="AH44" s="3">
         <f>MAX(S44:AD44)*1000</f>
-        <v>274149</v>
-      </c>
-      <c r="AI44" s="37">
-        <f t="shared" si="4"/>
-        <v>-7.3447120162592416E-2</v>
+        <v>1944.9269763055602</v>
+      </c>
+      <c r="AI44" s="35">
+        <f>((AD44-S44)/S44)/(2019-2008)</f>
+        <v>0.68789499270782661</v>
       </c>
       <c r="AJ44">
-        <v>15.957140000000001</v>
+        <v>2.0913691399999998</v>
       </c>
       <c r="AK44"/>
       <c r="AL44"/>
       <c r="AM44"/>
       <c r="AN44"/>
       <c r="AO44"/>
-      <c r="AP44">
-        <v>18.217169999999999</v>
-      </c>
-      <c r="AQ44"/>
+      <c r="AP44"/>
+      <c r="AQ44">
+        <v>11.099</v>
+      </c>
       <c r="AR44">
-        <v>16.266960000000001</v>
+        <v>12.59277</v>
       </c>
       <c r="AS44"/>
       <c r="AT44"/>
       <c r="AU44">
-        <v>15.795389999999999</v>
-      </c>
-      <c r="AV44" s="12"/>
-      <c r="AW44" s="12"/>
-      <c r="AX44" s="15">
-        <f t="shared" si="1"/>
-        <v>15.795389999999999</v>
-      </c>
-      <c r="AY44" s="15">
-        <f t="shared" si="2"/>
-        <v>18.217169999999999</v>
-      </c>
-      <c r="AZ44" s="37">
-        <f t="shared" si="5"/>
-        <v>-9.2150256590752347E-4</v>
+        <v>22.113600000000002</v>
+      </c>
+      <c r="AX44" s="4">
+        <f>MIN(AJ44:AU44)</f>
+        <v>2.0913691399999998</v>
+      </c>
+      <c r="AY44" s="4">
+        <f>MAX(AJ44:AU44)</f>
+        <v>22.113600000000002</v>
+      </c>
+      <c r="AZ44" s="35">
+        <f>((AU44-AJ44)/AJ44)/(2019-2008)</f>
+        <v>0.87034028122579343</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>6.3E-2</v>
+        <v>9.4E-2</v>
+      </c>
+      <c r="E45">
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H45">
-        <v>6.0999999999999999E-2</v>
+        <v>7.8E-2</v>
+      </c>
+      <c r="I45">
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="J45">
-        <v>3.7999999999999999E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="M45">
-        <v>6.2E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="P45" s="3">
         <f>MIN(F45:M45)*1000</f>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="Q45" s="3">
         <f>MAX(B45:M45)*1000</f>
-        <v>63</v>
-      </c>
-      <c r="R45" s="32">
-        <f t="shared" si="3"/>
-        <v>-1.4430014430014441E-3</v>
-      </c>
-      <c r="S45">
-        <v>8.5009999999999994</v>
+        <v>97</v>
+      </c>
+      <c r="R45" s="30">
+        <f>((M45-B45)/B45)/(2019-2008)</f>
+        <v>-2.5145067698259183E-2</v>
+      </c>
+      <c r="S45" s="45">
+        <v>53.387962218505002</v>
       </c>
       <c r="T45"/>
       <c r="U45"/>
-      <c r="V45"/>
+      <c r="V45">
+        <v>40.504743264970401</v>
+      </c>
       <c r="W45"/>
       <c r="X45"/>
       <c r="Y45">
-        <v>7.2110000000000003</v>
-      </c>
-      <c r="Z45"/>
+        <v>31.694296906013101</v>
+      </c>
+      <c r="Z45">
+        <v>37.418193525419298</v>
+      </c>
       <c r="AA45">
-        <v>13.429</v>
+        <v>46.854691077124002</v>
       </c>
       <c r="AB45"/>
       <c r="AC45"/>
       <c r="AD45">
-        <v>10.808999999999999</v>
+        <v>29.604087203013101</v>
       </c>
       <c r="AG45" s="3">
-        <f t="shared" si="0"/>
-        <v>7211</v>
+        <f>MIN(S45:AD45)*1000</f>
+        <v>29604.087203013099</v>
       </c>
       <c r="AH45" s="3">
         <f>MAX(S45:AD45)*1000</f>
-        <v>13429</v>
-      </c>
-      <c r="AI45" s="37">
-        <f t="shared" si="4"/>
-        <v>2.4681588262343467E-2</v>
+        <v>53387.962218505003</v>
+      </c>
+      <c r="AI45" s="35">
+        <f>((AD45-S45)/S45)/(2019-2008)</f>
+        <v>-4.0499213045527539E-2</v>
       </c>
       <c r="AJ45">
-        <v>49.650860000000002</v>
+        <v>18.480146419999901</v>
       </c>
       <c r="AK45"/>
       <c r="AL45"/>
-      <c r="AM45"/>
+      <c r="AM45">
+        <v>13.3385206499999</v>
+      </c>
       <c r="AN45"/>
       <c r="AO45"/>
-      <c r="AP45">
-        <v>101.87685</v>
-      </c>
-      <c r="AQ45"/>
+      <c r="AP45"/>
+      <c r="AQ45">
+        <v>19.2181</v>
+      </c>
       <c r="AR45">
-        <v>127.2132</v>
+        <v>18.878799999999998</v>
       </c>
       <c r="AS45"/>
       <c r="AT45"/>
       <c r="AU45">
-        <v>204.53106</v>
+        <v>14.708399999999999</v>
       </c>
       <c r="AX45" s="4">
-        <f t="shared" si="1"/>
-        <v>49.650860000000002</v>
+        <f>MIN(AJ45:AU45)</f>
+        <v>13.3385206499999</v>
       </c>
       <c r="AY45" s="4">
-        <f t="shared" si="2"/>
-        <v>204.53106</v>
-      </c>
-      <c r="AZ45" s="37">
-        <f t="shared" si="5"/>
-        <v>0.28358054990020681</v>
+        <f>MAX(AJ45:AU45)</f>
+        <v>19.2181</v>
+      </c>
+      <c r="AZ45" s="35">
+        <f>((AU45-AJ45)/AJ45)/(2019-2008)</f>
+        <v>-1.855429228692286E-2</v>
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>5.5E-2</v>
+        <v>1.9E-2</v>
+      </c>
+      <c r="E46">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H46">
-        <v>2.4E-2</v>
+        <v>0.03</v>
+      </c>
+      <c r="I46">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J46">
-        <v>1.4E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="M46">
-        <v>2.7E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="P46" s="3">
         <f>MIN(F46:M46)*1000</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q46" s="3">
         <f>MAX(B46:M46)*1000</f>
-        <v>55</v>
-      </c>
-      <c r="R46" s="32">
-        <f t="shared" si="3"/>
-        <v>-4.6280991735537194E-2</v>
-      </c>
-      <c r="S46">
-        <v>0.79100000000000004</v>
+        <v>38</v>
+      </c>
+      <c r="R46" s="30">
+        <f>((M46-B46)/B46)/(2019-2008)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S46" s="45">
+        <v>0.49209970936070901</v>
       </c>
       <c r="T46"/>
       <c r="U46"/>
-      <c r="V46"/>
+      <c r="V46">
+        <v>0.62524181822557101</v>
+      </c>
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="Z46"/>
+        <v>1.28771486446198</v>
+      </c>
+      <c r="Z46">
+        <v>0.93927913275181296</v>
+      </c>
       <c r="AA46">
-        <v>0.95599999999999996</v>
+        <v>1.3520601389589799</v>
       </c>
       <c r="AB46"/>
       <c r="AC46"/>
       <c r="AD46">
-        <v>1.236</v>
+        <v>2.0222222431541601</v>
       </c>
       <c r="AG46" s="3">
-        <f t="shared" si="0"/>
-        <v>791</v>
+        <f>MIN(S46:AD46)*1000</f>
+        <v>492.09970936070903</v>
       </c>
       <c r="AH46" s="3">
         <f>MAX(S46:AD46)*1000</f>
-        <v>1236</v>
-      </c>
-      <c r="AI46" s="37">
-        <f t="shared" si="4"/>
-        <v>5.1143546718767953E-2</v>
+        <v>2022.2222431541602</v>
+      </c>
+      <c r="AI46" s="35">
+        <f>((AD46-S46)/S46)/(2019-2008)</f>
+        <v>0.28267045454545392</v>
       </c>
       <c r="AJ46">
-        <v>0.48261999999999999</v>
+        <v>1.49522468</v>
       </c>
       <c r="AK46"/>
       <c r="AL46"/>
       <c r="AM46"/>
       <c r="AN46"/>
       <c r="AO46"/>
-      <c r="AP46" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="AQ46"/>
+      <c r="AP46">
+        <v>4.3658999999999999</v>
+      </c>
+      <c r="AQ46">
+        <v>5.1567999999999996</v>
+      </c>
       <c r="AR46">
-        <v>2.1869999999999998</v>
+        <v>6.1192599999999997</v>
       </c>
       <c r="AS46"/>
       <c r="AT46"/>
       <c r="AU46">
-        <v>13.487539999999999</v>
+        <v>9.2116199999999999</v>
       </c>
       <c r="AX46" s="4">
-        <f t="shared" si="1"/>
-        <v>0.48261999999999999</v>
+        <f>MIN(AJ46:AU46)</f>
+        <v>1.49522468</v>
       </c>
       <c r="AY46" s="4">
-        <f t="shared" si="2"/>
-        <v>13.487539999999999</v>
-      </c>
-      <c r="AZ46" s="37">
-        <f t="shared" si="5"/>
-        <v>2.4496818502039996</v>
+        <f>MAX(AJ46:AU46)</f>
+        <v>9.2116199999999999</v>
+      </c>
+      <c r="AZ46" s="35">
+        <f>((AU46-AJ46)/AJ46)/(2019-2008)</f>
+        <v>0.46915389574519573</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>2.5999999999999999E-2</v>
+        <v>0.185</v>
+      </c>
+      <c r="E47">
+        <v>0.13300000000000001</v>
       </c>
       <c r="H47">
-        <v>4.9000000000000002E-2</v>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="I47">
+        <v>0.13300000000000001</v>
       </c>
       <c r="J47">
-        <v>3.4000000000000002E-2</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="M47">
-        <v>0.04</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="P47" s="3">
         <f>MIN(F47:M47)*1000</f>
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="Q47" s="3">
         <f>MAX(B47:M47)*1000</f>
-        <v>49</v>
-      </c>
-      <c r="R47" s="32">
-        <f t="shared" si="3"/>
-        <v>4.8951048951048959E-2</v>
-      </c>
-      <c r="S47">
-        <v>1.681</v>
+        <v>233</v>
+      </c>
+      <c r="R47" s="30">
+        <f>((M47-B47)/B47)/(2019-2008)</f>
+        <v>2.3587223587223594E-2</v>
+      </c>
+      <c r="S47" s="45">
+        <v>124.916030910771</v>
       </c>
       <c r="T47"/>
       <c r="U47"/>
-      <c r="V47"/>
+      <c r="V47">
+        <v>32.7869525106792</v>
+      </c>
       <c r="W47"/>
       <c r="X47"/>
       <c r="Y47">
-        <v>2.86</v>
-      </c>
-      <c r="Z47"/>
+        <v>50.7368559717764</v>
+      </c>
+      <c r="Z47">
+        <v>35.072221473475203</v>
+      </c>
       <c r="AA47">
-        <v>4.9390000000000001</v>
+        <v>59.408494600215001</v>
       </c>
       <c r="AB47"/>
       <c r="AC47"/>
       <c r="AD47">
-        <v>39.622999999999998</v>
+        <v>99.677305192029706</v>
       </c>
       <c r="AG47" s="3">
-        <f t="shared" si="0"/>
-        <v>1681</v>
+        <f>MIN(S47:AD47)*1000</f>
+        <v>32786.952510679199</v>
       </c>
       <c r="AH47" s="3">
         <f>MAX(S47:AD47)*1000</f>
-        <v>39623</v>
-      </c>
-      <c r="AI47" s="37">
-        <f t="shared" si="4"/>
-        <v>2.0519171488832404</v>
+        <v>124916.03091077101</v>
+      </c>
+      <c r="AI47" s="35">
+        <f>((AD47-S47)/S47)/(2019-2008)</f>
+        <v>-1.8367775489389358E-2</v>
       </c>
       <c r="AJ47">
-        <v>3.30518</v>
+        <v>182.18011852000001</v>
       </c>
       <c r="AK47"/>
       <c r="AL47"/>
-      <c r="AM47"/>
+      <c r="AM47">
+        <v>193.63374225000001</v>
+      </c>
       <c r="AN47"/>
       <c r="AO47"/>
       <c r="AP47">
-        <v>22.251259999999998</v>
-      </c>
-      <c r="AQ47"/>
+        <v>218.71190000000001</v>
+      </c>
+      <c r="AQ47">
+        <v>231.32230000000001</v>
+      </c>
       <c r="AR47">
-        <v>31.418279999999999</v>
+        <v>324.25756000000001</v>
       </c>
       <c r="AS47"/>
       <c r="AT47"/>
       <c r="AU47">
-        <v>67.471029999999999</v>
+        <v>432.78906000000001</v>
       </c>
       <c r="AX47" s="4">
-        <f t="shared" si="1"/>
-        <v>3.30518</v>
+        <f>MIN(AJ47:AU47)</f>
+        <v>182.18011852000001</v>
       </c>
       <c r="AY47" s="4">
-        <f t="shared" si="2"/>
-        <v>67.471029999999999</v>
-      </c>
-      <c r="AZ47" s="37">
-        <f t="shared" si="5"/>
-        <v>1.7648839370046687</v>
+        <f>MAX(AJ47:AU47)</f>
+        <v>432.78906000000001</v>
+      </c>
+      <c r="AZ47" s="35">
+        <f>((AU47-AJ47)/AJ47)/(2019-2008)</f>
+        <v>0.12505552871915193</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>3.4000000000000002E-2</v>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E48">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H48">
-        <v>4.7E-2</v>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I48">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J48">
-        <v>4.3999999999999997E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="M48">
-        <v>3.9E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P48" s="3">
         <f>MIN(F48:M48)*1000</f>
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q48" s="3">
         <f>MAX(B48:M48)*1000</f>
-        <v>47</v>
-      </c>
-      <c r="R48" s="32">
-        <f t="shared" si="3"/>
-        <v>1.3368983957219244E-2</v>
-      </c>
-      <c r="S48">
-        <v>0.41499999999999998</v>
+        <v>59</v>
+      </c>
+      <c r="R48" s="30">
+        <f>((M48-B48)/B48)/(2019-2008)</f>
+        <v>-1.0101010101010098E-2</v>
+      </c>
+      <c r="S48" s="45">
+        <v>57.9326001593938</v>
       </c>
       <c r="T48"/>
       <c r="U48"/>
-      <c r="V48"/>
+      <c r="V48">
+        <v>31.474956410557901</v>
+      </c>
       <c r="W48"/>
       <c r="X48"/>
       <c r="Y48">
-        <v>1.089</v>
-      </c>
-      <c r="Z48"/>
+        <v>48.739319651542502</v>
+      </c>
+      <c r="Z48">
+        <v>40.677140038151002</v>
+      </c>
       <c r="AA48">
-        <v>1.28</v>
+        <v>39.626571908627596</v>
       </c>
       <c r="AB48"/>
       <c r="AC48"/>
       <c r="AD48">
-        <v>1.946</v>
+        <v>38.2797727040615</v>
       </c>
       <c r="AG48" s="3">
-        <f t="shared" si="0"/>
-        <v>415</v>
+        <f>MIN(S48:AD48)*1000</f>
+        <v>31474.956410557901</v>
       </c>
       <c r="AH48" s="3">
         <f>MAX(S48:AD48)*1000</f>
-        <v>1946</v>
-      </c>
-      <c r="AI48" s="37">
-        <f t="shared" si="4"/>
-        <v>0.33537787513691125</v>
+        <v>57932.600159393798</v>
+      </c>
+      <c r="AI48" s="35">
+        <f>((AD48-S48)/S48)/(2019-2008)</f>
+        <v>-3.0839642495621364E-2</v>
       </c>
       <c r="AJ48">
-        <v>2.0225200000000001</v>
+        <v>15.56340458</v>
       </c>
       <c r="AK48"/>
       <c r="AL48"/>
-      <c r="AM48"/>
+      <c r="AM48">
+        <v>13.133410289999899</v>
+      </c>
       <c r="AN48"/>
       <c r="AO48"/>
-      <c r="AP48" s="29">
-        <v>8.5</v>
-      </c>
-      <c r="AQ48"/>
+      <c r="AP48">
+        <v>20.303799999999999</v>
+      </c>
+      <c r="AQ48">
+        <v>31.145399999999999</v>
+      </c>
       <c r="AR48">
-        <v>12.47724</v>
+        <v>28.468620000000001</v>
       </c>
       <c r="AS48"/>
       <c r="AT48"/>
       <c r="AU48">
-        <v>21.896799999999999</v>
+        <v>27.44106</v>
       </c>
       <c r="AX48" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0225200000000001</v>
+        <f>MIN(AJ48:AU48)</f>
+        <v>13.133410289999899</v>
       </c>
       <c r="AY48" s="4">
-        <f t="shared" si="2"/>
-        <v>21.896799999999999</v>
-      </c>
-      <c r="AZ48" s="37">
-        <f t="shared" si="5"/>
-        <v>0.89331760737729515</v>
+        <f>MAX(AJ48:AU48)</f>
+        <v>31.145399999999999</v>
+      </c>
+      <c r="AZ48" s="35">
+        <f>((AU48-AJ48)/AJ48)/(2019-2008)</f>
+        <v>6.9379861637166043E-2</v>
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>39</v>
+      <c r="A49" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+        <v>0.41</v>
+      </c>
+      <c r="E49">
+        <v>0.373</v>
+      </c>
       <c r="H49">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I49" s="12"/>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I49">
+        <v>0.56799999999999995</v>
+      </c>
       <c r="J49">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M49">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="13">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="P49" s="3">
         <f>MIN(F49:M49)*1000</f>
-        <v>11</v>
-      </c>
-      <c r="Q49" s="13">
+        <v>506</v>
+      </c>
+      <c r="Q49" s="3">
         <f>MAX(B49:M49)*1000</f>
-        <v>31</v>
-      </c>
-      <c r="R49" s="32">
-        <f t="shared" si="3"/>
-        <v>-5.8651026392961873E-2</v>
-      </c>
-      <c r="S49">
-        <v>0.438</v>
+        <v>655</v>
+      </c>
+      <c r="R49" s="30">
+        <f>((M49-B49)/B49)/(2019-2008)</f>
+        <v>5.4323725055432391E-2</v>
+      </c>
+      <c r="S49" s="45">
+        <v>30.689053749720401</v>
       </c>
       <c r="T49"/>
       <c r="U49"/>
-      <c r="V49"/>
+      <c r="V49">
+        <v>33.143886674870103</v>
+      </c>
       <c r="W49"/>
       <c r="X49"/>
       <c r="Y49">
-        <v>0.626</v>
-      </c>
-      <c r="Z49"/>
+        <v>45.656412097340301</v>
+      </c>
+      <c r="Z49">
+        <v>53.678932359154999</v>
+      </c>
       <c r="AA49">
-        <v>0.81499999999999995</v>
+        <v>54.364067892006702</v>
       </c>
       <c r="AB49"/>
       <c r="AC49"/>
       <c r="AD49">
-        <v>0.879</v>
-      </c>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="13">
-        <f t="shared" si="0"/>
-        <v>438</v>
-      </c>
-      <c r="AH49" s="13">
+        <v>82.152323354969198</v>
+      </c>
+      <c r="AG49" s="3">
+        <f>MIN(S49:AD49)*1000</f>
+        <v>30689.053749720402</v>
+      </c>
+      <c r="AH49" s="3">
         <f>MAX(S49:AD49)*1000</f>
-        <v>879</v>
-      </c>
-      <c r="AI49" s="37">
-        <f t="shared" si="4"/>
-        <v>9.1531755915317564E-2</v>
-      </c>
-      <c r="AJ49" s="29">
-        <v>0.9</v>
+        <v>82152.323354969194</v>
+      </c>
+      <c r="AI49" s="35">
+        <f>((AD49-S49)/S49)/(2019-2008)</f>
+        <v>0.15244781064861743</v>
+      </c>
+      <c r="AJ49">
+        <v>88.885197179999906</v>
       </c>
       <c r="AK49"/>
       <c r="AL49"/>
-      <c r="AM49"/>
+      <c r="AM49">
+        <v>76.948348229999993</v>
+      </c>
       <c r="AN49"/>
       <c r="AO49"/>
       <c r="AP49">
-        <v>1.5216400000000001</v>
-      </c>
-      <c r="AQ49"/>
+        <v>103.16240000000001</v>
+      </c>
+      <c r="AQ49">
+        <v>119.5557</v>
+      </c>
       <c r="AR49">
-        <v>2.0682</v>
+        <v>138.48885999999999</v>
       </c>
       <c r="AS49"/>
       <c r="AT49"/>
-      <c r="AU49" s="29">
-        <v>3</v>
-      </c>
-      <c r="AV49" s="12"/>
-      <c r="AW49" s="12"/>
-      <c r="AX49" s="15">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="AY49" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AZ49" s="37">
-        <f t="shared" si="5"/>
-        <v>0.21212121212121213</v>
+      <c r="AU49">
+        <v>162.93683999999999</v>
+      </c>
+      <c r="AX49" s="4">
+        <f>MIN(AJ49:AU49)</f>
+        <v>76.948348229999993</v>
+      </c>
+      <c r="AY49" s="4">
+        <f>MAX(AJ49:AU49)</f>
+        <v>162.93683999999999</v>
+      </c>
+      <c r="AZ49" s="35">
+        <f>((AU49-AJ49)/AJ49)/(2019-2008)</f>
+        <v>7.5737780222933218E-2</v>
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>3.1E-2</v>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E50">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H50">
-        <v>8.0000000000000002E-3</v>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="I50">
+        <v>0.13600000000000001</v>
       </c>
       <c r="J50">
-        <v>2.9000000000000001E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="M50">
-        <v>2.9000000000000001E-2</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="P50" s="3">
         <f>MIN(F50:M50)*1000</f>
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="Q50" s="3">
         <f>MAX(B50:M50)*1000</f>
-        <v>31</v>
-      </c>
-      <c r="R50" s="32">
-        <f t="shared" si="3"/>
-        <v>-5.8651026392961825E-3</v>
-      </c>
-      <c r="S50">
-        <v>0.54600000000000004</v>
+        <v>165</v>
+      </c>
+      <c r="R50" s="30">
+        <f>((M50-B50)/B50)/(2019-2008)</f>
+        <v>8.3422459893048126E-2</v>
+      </c>
+      <c r="S50" s="45">
+        <v>4.30708651868916</v>
       </c>
       <c r="T50"/>
       <c r="U50"/>
-      <c r="V50"/>
+      <c r="V50">
+        <v>5.0998688629635298</v>
+      </c>
       <c r="W50"/>
       <c r="X50"/>
       <c r="Y50">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="Z50"/>
+        <v>11.3692839101807</v>
+      </c>
+      <c r="Z50">
+        <v>9.4911303319380806</v>
+      </c>
       <c r="AA50">
-        <v>9.4760000000000009</v>
+        <v>10.0556690610155</v>
       </c>
       <c r="AB50"/>
       <c r="AC50"/>
       <c r="AD50">
-        <v>3.5979999999999999</v>
+        <v>11.4716697872105</v>
       </c>
       <c r="AG50" s="3">
-        <f t="shared" si="0"/>
-        <v>546</v>
+        <f>MIN(S50:AD50)*1000</f>
+        <v>4307.0865186891597</v>
       </c>
       <c r="AH50" s="3">
         <f>MAX(S50:AD50)*1000</f>
-        <v>9476</v>
-      </c>
-      <c r="AI50" s="37">
-        <f t="shared" si="4"/>
-        <v>0.50815850815850805</v>
-      </c>
-      <c r="AJ50" s="29">
-        <v>5.7</v>
+        <v>11471.6697872105</v>
+      </c>
+      <c r="AI50" s="35">
+        <f>((AD50-S50)/S50)/(2019-2008)</f>
+        <v>0.15122188719858498</v>
+      </c>
+      <c r="AJ50">
+        <v>23.412694259999999</v>
       </c>
       <c r="AK50"/>
       <c r="AL50"/>
-      <c r="AM50"/>
+      <c r="AM50">
+        <v>24.987369419999901</v>
+      </c>
       <c r="AN50"/>
       <c r="AO50"/>
       <c r="AP50">
-        <v>6.54</v>
-      </c>
-      <c r="AQ50"/>
+        <v>45.368400000000001</v>
+      </c>
+      <c r="AQ50">
+        <v>50.705599999999997</v>
+      </c>
       <c r="AR50">
-        <v>17.691479999999999</v>
+        <v>60.946260000000002</v>
       </c>
       <c r="AS50"/>
       <c r="AT50"/>
       <c r="AU50">
-        <v>29.82227</v>
+        <v>64.046819999999997</v>
       </c>
       <c r="AX50" s="4">
-        <f t="shared" si="1"/>
-        <v>5.7</v>
+        <f>MIN(AJ50:AU50)</f>
+        <v>23.412694259999999</v>
       </c>
       <c r="AY50" s="4">
-        <f t="shared" si="2"/>
-        <v>29.82227</v>
-      </c>
-      <c r="AZ50" s="37">
-        <f t="shared" si="5"/>
-        <v>0.38472519936204147</v>
+        <f>MAX(AJ50:AU50)</f>
+        <v>64.046819999999997</v>
+      </c>
+      <c r="AZ50" s="35">
+        <f>((AU50-AJ50)/AJ50)/(2019-2008)</f>
+        <v>0.15777814333911228</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>2.8000000000000001E-2</v>
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E51">
+        <v>0.49099999999999999</v>
       </c>
       <c r="H51">
-        <v>2.4E-2</v>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="I51">
+        <v>0.59799999999999998</v>
       </c>
       <c r="J51">
-        <v>2.5000000000000001E-2</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="M51">
-        <v>0.02</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="P51" s="3">
         <f>MIN(F51:M51)*1000</f>
-        <v>20</v>
+        <v>598</v>
       </c>
       <c r="Q51" s="3">
         <f>MAX(B51:M51)*1000</f>
-        <v>28</v>
-      </c>
-      <c r="R51" s="32">
-        <f t="shared" si="3"/>
-        <v>-2.5974025974025972E-2</v>
-      </c>
-      <c r="S51">
-        <v>8.3000000000000004E-2</v>
+        <v>743</v>
+      </c>
+      <c r="R51" s="30">
+        <f>((M51-B51)/B51)/(2019-2008)</f>
+        <v>4.6290343320046336E-3</v>
+      </c>
+      <c r="S51" s="45">
+        <v>32.498410493595102</v>
       </c>
       <c r="T51"/>
       <c r="U51"/>
-      <c r="V51"/>
+      <c r="V51">
+        <v>29.091753130602999</v>
+      </c>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="Z51"/>
+        <v>29.720637134177402</v>
+      </c>
+      <c r="Z51">
+        <v>29.048856280938299</v>
+      </c>
       <c r="AA51">
-        <v>5.5E-2</v>
+        <v>31.864670242888799</v>
       </c>
       <c r="AB51"/>
       <c r="AC51"/>
       <c r="AD51">
-        <v>0.06</v>
+        <v>45.296645122322502</v>
       </c>
       <c r="AG51" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>MIN(S51:AD51)*1000</f>
+        <v>29048.8562809383</v>
       </c>
       <c r="AH51" s="3">
         <f>MAX(S51:AD51)*1000</f>
-        <v>83</v>
-      </c>
-      <c r="AI51" s="37">
-        <f t="shared" si="4"/>
-        <v>-2.5191675794085436E-2</v>
+        <v>45296.645122322501</v>
+      </c>
+      <c r="AI51" s="35">
+        <f>((AD51-S51)/S51)/(2019-2008)</f>
+        <v>3.5801008654505001E-2</v>
       </c>
       <c r="AJ51">
-        <v>1.31806</v>
+        <v>344.00309012000002</v>
       </c>
       <c r="AK51"/>
       <c r="AL51"/>
-      <c r="AM51"/>
+      <c r="AM51">
+        <v>347.61188006999998</v>
+      </c>
       <c r="AN51"/>
       <c r="AO51"/>
       <c r="AP51">
-        <v>0.98318000000000005</v>
-      </c>
-      <c r="AQ51"/>
+        <v>566.07650000000001</v>
+      </c>
+      <c r="AQ51">
+        <v>689.08950000000004</v>
+      </c>
       <c r="AR51">
-        <v>2.4569999999999999</v>
+        <v>693.50705000000005</v>
       </c>
       <c r="AS51"/>
       <c r="AT51"/>
       <c r="AU51">
-        <v>2.20079</v>
+        <v>903.68939999999998</v>
       </c>
       <c r="AX51" s="4">
-        <f t="shared" si="1"/>
-        <v>0.98318000000000005</v>
+        <f>MIN(AJ51:AU51)</f>
+        <v>344.00309012000002</v>
       </c>
       <c r="AY51" s="4">
-        <f t="shared" si="2"/>
-        <v>2.4569999999999999</v>
-      </c>
-      <c r="AZ51" s="37">
-        <f t="shared" si="5"/>
-        <v>6.0883557514970349E-2</v>
+        <f>MAX(AJ51:AU51)</f>
+        <v>903.68939999999998</v>
+      </c>
+      <c r="AZ51" s="35">
+        <f>((AU51-AJ51)/AJ51)/(2019-2008)</f>
+        <v>0.14790731562238485</v>
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>2.3E-2</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E52">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H52">
-        <v>2.3E-2</v>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I52">
+        <v>1.6E-2</v>
       </c>
       <c r="J52">
-        <v>2.1000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="M52">
-        <v>0.01</v>
+        <v>2.7E-2</v>
       </c>
       <c r="P52" s="3">
         <f>MIN(F52:M52)*1000</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q52" s="3">
         <f>MAX(B52:M52)*1000</f>
-        <v>23</v>
-      </c>
-      <c r="R52" s="32">
-        <f t="shared" si="3"/>
-        <v>-5.1383399209486161E-2</v>
-      </c>
-      <c r="S52">
-        <v>0.871</v>
+        <v>27</v>
+      </c>
+      <c r="R52" s="30">
+        <f>((M52-B52)/B52)/(2019-2008)</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="S52" s="45">
+        <v>5.6251529277252098E-2</v>
       </c>
       <c r="T52"/>
       <c r="U52"/>
-      <c r="V52"/>
+      <c r="V52">
+        <v>9.1459320983158093E-2</v>
+      </c>
       <c r="W52"/>
       <c r="X52"/>
       <c r="Y52">
-        <v>1.742</v>
-      </c>
-      <c r="Z52"/>
+        <v>0.77538079205190602</v>
+      </c>
+      <c r="Z52">
+        <v>0.98703222954833003</v>
+      </c>
       <c r="AA52">
-        <v>2.1960000000000002</v>
+        <v>0.95587131045229801</v>
       </c>
       <c r="AB52"/>
       <c r="AC52"/>
       <c r="AD52">
-        <v>1.353</v>
+        <v>1.23591489505559</v>
       </c>
       <c r="AG52" s="3">
-        <f t="shared" si="0"/>
-        <v>871</v>
+        <f>MIN(S52:AD52)*1000</f>
+        <v>56.251529277252097</v>
       </c>
       <c r="AH52" s="3">
         <f>MAX(S52:AD52)*1000</f>
-        <v>2196</v>
-      </c>
-      <c r="AI52" s="37">
-        <f t="shared" si="4"/>
-        <v>5.0307901054169712E-2</v>
+        <v>1235.91489505559</v>
+      </c>
+      <c r="AI52" s="35">
+        <f>((AD52-S52)/S52)/(2019-2008)</f>
+        <v>1.9064748201438746</v>
       </c>
       <c r="AJ52">
-        <v>2.4555799999999999</v>
+        <v>0.49862009999999901</v>
       </c>
       <c r="AK52"/>
       <c r="AL52"/>
-      <c r="AM52"/>
+      <c r="AM52">
+        <v>0.15821675999999901</v>
+      </c>
       <c r="AN52"/>
       <c r="AO52"/>
-      <c r="AP52">
-        <v>6.0178900000000004</v>
-      </c>
-      <c r="AQ52"/>
+      <c r="AP52"/>
+      <c r="AQ52">
+        <v>4.2470999999999997</v>
+      </c>
       <c r="AR52">
-        <v>12.009600000000001</v>
+        <v>2.2072500000000002</v>
       </c>
       <c r="AS52"/>
       <c r="AT52"/>
       <c r="AU52">
-        <v>14.476330000000001</v>
+        <v>13.621079999999999</v>
       </c>
       <c r="AX52" s="4">
-        <f t="shared" si="1"/>
-        <v>2.4555799999999999</v>
+        <f>MIN(AJ52:AU52)</f>
+        <v>0.15821675999999901</v>
       </c>
       <c r="AY52" s="4">
-        <f t="shared" si="2"/>
-        <v>14.476330000000001</v>
-      </c>
-      <c r="AZ52" s="37">
-        <f t="shared" si="5"/>
-        <v>0.44502539300102412</v>
+        <f>MAX(AJ52:AU52)</f>
+        <v>13.621079999999999</v>
+      </c>
+      <c r="AZ52" s="35">
+        <f>((AU52-AJ52)/AJ52)/(2019-2008)</f>
+        <v>2.3925046342897178</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>1.6E-2</v>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.86299999999999999</v>
       </c>
       <c r="H53">
-        <v>1.7000000000000001E-2</v>
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="I53">
+        <v>1.204</v>
       </c>
       <c r="J53">
-        <v>8.0000000000000002E-3</v>
+        <v>1.276</v>
       </c>
       <c r="M53">
-        <v>8.0000000000000002E-3</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="P53" s="3">
         <f>MIN(F53:M53)*1000</f>
-        <v>8</v>
+        <v>1128</v>
       </c>
       <c r="Q53" s="3">
         <f>MAX(B53:M53)*1000</f>
-        <v>17</v>
-      </c>
-      <c r="R53" s="32">
-        <f t="shared" si="3"/>
-        <v>-4.5454545454545456E-2</v>
-      </c>
-      <c r="S53">
-        <v>0.17899999999999999</v>
+        <v>1364</v>
+      </c>
+      <c r="R53" s="30">
+        <f>((M53-B53)/B53)/(2019-2008)</f>
+        <v>3.3839400036583145E-2</v>
+      </c>
+      <c r="S53" s="45">
+        <v>77.163338801516304</v>
       </c>
       <c r="T53"/>
       <c r="U53"/>
-      <c r="V53"/>
+      <c r="V53">
+        <v>70.4333896512954</v>
+      </c>
       <c r="W53"/>
       <c r="X53"/>
       <c r="Y53">
-        <v>0.152</v>
-      </c>
-      <c r="Z53"/>
-      <c r="AA53" s="29">
-        <v>0.19500000000000001</v>
+        <v>91.481983469773297</v>
+      </c>
+      <c r="Z53">
+        <v>84.828520211879095</v>
+      </c>
+      <c r="AA53">
+        <v>88.734156967668696</v>
       </c>
       <c r="AB53"/>
       <c r="AC53"/>
-      <c r="AD53" s="29">
-        <v>0.222</v>
+      <c r="AD53">
+        <v>101.552221272184</v>
       </c>
       <c r="AG53" s="3">
-        <f t="shared" si="0"/>
-        <v>152</v>
+        <f>MIN(S53:AD53)*1000</f>
+        <v>70433.389651295394</v>
       </c>
       <c r="AH53" s="3">
         <f>MAX(S53:AD53)*1000</f>
-        <v>222</v>
-      </c>
-      <c r="AI53" s="37">
-        <f t="shared" si="4"/>
-        <v>2.1838496698831901E-2</v>
+        <v>101552.221272184</v>
+      </c>
+      <c r="AI53" s="35">
+        <f>((AD53-S53)/S53)/(2019-2008)</f>
+        <v>2.8733478464432315E-2</v>
       </c>
       <c r="AJ53">
-        <v>0.55696000000000001</v>
+        <v>161.97233863999901</v>
       </c>
       <c r="AK53"/>
       <c r="AL53"/>
-      <c r="AM53"/>
+      <c r="AM53">
+        <v>154.97509248</v>
+      </c>
       <c r="AN53"/>
       <c r="AO53"/>
       <c r="AP53">
-        <v>1.01261</v>
-      </c>
-      <c r="AQ53"/>
-      <c r="AR53" s="29">
-        <v>1.35</v>
+        <v>220.46199999999999</v>
+      </c>
+      <c r="AQ53">
+        <v>244.67189999999999</v>
+      </c>
+      <c r="AR53">
+        <v>278.44049999999999</v>
       </c>
       <c r="AS53"/>
       <c r="AT53"/>
       <c r="AU53">
-        <v>1.9</v>
+        <v>274.29942</v>
       </c>
       <c r="AX53" s="4">
-        <f t="shared" si="1"/>
-        <v>0.55696000000000001</v>
+        <f>MIN(AJ53:AU53)</f>
+        <v>154.97509248</v>
       </c>
       <c r="AY53" s="4">
-        <f t="shared" si="2"/>
-        <v>1.9</v>
-      </c>
-      <c r="AZ53" s="37">
-        <f t="shared" si="5"/>
-        <v>0.21921600376067477</v>
+        <f>MAX(AJ53:AU53)</f>
+        <v>278.44049999999999</v>
+      </c>
+      <c r="AZ53" s="35">
+        <f>((AU53-AJ53)/AJ53)/(2019-2008)</f>
+        <v>6.304504174385886E-2</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>8.0000000000000002E-3</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="E54">
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54">
-        <v>0.01</v>
-      </c>
-      <c r="I54" s="7"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I54">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="J54">
-        <v>2E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54">
-        <v>1.2E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="24">
+      <c r="P54" s="26">
         <f>MIN(F54:M54)*1000</f>
-        <v>2</v>
-      </c>
-      <c r="Q54" s="24">
+        <v>48</v>
+      </c>
+      <c r="Q54" s="26">
         <f>MAX(B54:M54)*1000</f>
-        <v>12</v>
-      </c>
-      <c r="R54" s="33">
-        <f t="shared" si="3"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="S54">
-        <v>0.105</v>
+        <v>64</v>
+      </c>
+      <c r="R54" s="31">
+        <f>((M54-B54)/B54)/(2019-2008)</f>
+        <v>3.2882011605415866E-2</v>
+      </c>
+      <c r="S54" s="45">
+        <v>273.77821642868997</v>
       </c>
       <c r="T54"/>
       <c r="U54"/>
-      <c r="V54"/>
+      <c r="V54">
+        <v>289.59622739890602</v>
+      </c>
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54">
-        <v>0.104</v>
-      </c>
-      <c r="Z54"/>
-      <c r="AA54" s="29">
-        <v>0.13200000000000001</v>
+        <v>52.003122411406103</v>
+      </c>
+      <c r="Z54">
+        <v>52.049661446419599</v>
+      </c>
+      <c r="AA54">
+        <v>48.509861974562597</v>
       </c>
       <c r="AB54"/>
       <c r="AC54"/>
       <c r="AD54">
-        <v>0.215</v>
+        <v>52.636457974851403</v>
       </c>
       <c r="AE54" s="8"/>
       <c r="AF54" s="7"/>
-      <c r="AG54" s="24">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="AH54" s="24">
+      <c r="AG54" s="26">
+        <f>MIN(S54:AD54)*1000</f>
+        <v>48509.861974562598</v>
+      </c>
+      <c r="AH54" s="26">
         <f>MAX(S54:AD54)*1000</f>
-        <v>215</v>
-      </c>
-      <c r="AI54" s="38">
-        <f t="shared" si="4"/>
-        <v>9.5238095238095247E-2</v>
-      </c>
-      <c r="AJ54" s="29">
-        <v>0.8</v>
+        <v>289596.22739890602</v>
+      </c>
+      <c r="AI54" s="36">
+        <f>((AD54-S54)/S54)/(2019-2008)</f>
+        <v>-7.3430956214562804E-2</v>
+      </c>
+      <c r="AJ54">
+        <v>16.497541500000001</v>
       </c>
       <c r="AK54"/>
       <c r="AL54"/>
-      <c r="AM54"/>
+      <c r="AM54">
+        <v>21.007173329999901</v>
+      </c>
       <c r="AN54"/>
       <c r="AO54"/>
       <c r="AP54">
-        <v>0.27577000000000002</v>
-      </c>
-      <c r="AQ54"/>
-      <c r="AR54" s="29">
-        <v>1.8</v>
+        <v>18.3843</v>
+      </c>
+      <c r="AQ54">
+        <v>18.323799999999999</v>
+      </c>
+      <c r="AR54">
+        <v>16.417580000000001</v>
       </c>
       <c r="AS54"/>
       <c r="AT54"/>
       <c r="AU54">
-        <v>13.69964</v>
+        <v>15.951779999999999</v>
       </c>
       <c r="AV54" s="7"/>
       <c r="AW54" s="7"/>
-      <c r="AX54" s="25">
-        <f t="shared" si="1"/>
-        <v>0.27577000000000002</v>
-      </c>
-      <c r="AY54" s="25">
-        <f t="shared" si="2"/>
-        <v>13.69964</v>
-      </c>
-      <c r="AZ54" s="38">
-        <f t="shared" si="5"/>
-        <v>1.4658681818181818</v>
+      <c r="AX54" s="27">
+        <f>MIN(AJ54:AU54)</f>
+        <v>15.951779999999999</v>
+      </c>
+      <c r="AY54" s="27">
+        <f>MAX(AJ54:AU54)</f>
+        <v>21.007173329999901</v>
+      </c>
+      <c r="AZ54" s="36">
+        <f>((AU54-AJ54)/AJ54)/(2019-2008)</f>
+        <v>-3.0073985156019709E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AZ54">
+    <sortCondition ref="A5:A54"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AW2:AZ2"/>
   </mergeCells>
   <conditionalFormatting sqref="AZ4:AZ54">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R54">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11010,7 +11602,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FA464487-42E3-4EEA-8A51-B19C3DDC0D84}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FE327BBA-A057-4D37-AD5E-0A5C3B6AF2F6}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11021,8 +11613,448 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ4:AU4</xm:f>
-              <xm:sqref>AW4</xm:sqref>
+              <xm:f>all_sparklines_estimates!AJ5:AU5</xm:f>
+              <xm:sqref>AW5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ6:AU6</xm:f>
+              <xm:sqref>AW6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ7:AU7</xm:f>
+              <xm:sqref>AW7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ8:AU8</xm:f>
+              <xm:sqref>AW8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ9:AU9</xm:f>
+              <xm:sqref>AW9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ10:AU10</xm:f>
+              <xm:sqref>AW10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ11:AU11</xm:f>
+              <xm:sqref>AW11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ12:AU12</xm:f>
+              <xm:sqref>AW12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ13:AU13</xm:f>
+              <xm:sqref>AW13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ14:AU14</xm:f>
+              <xm:sqref>AW14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ15:AU15</xm:f>
+              <xm:sqref>AW15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ16:AU16</xm:f>
+              <xm:sqref>AW16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ17:AU17</xm:f>
+              <xm:sqref>AW17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ18:AU18</xm:f>
+              <xm:sqref>AW18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ19:AU19</xm:f>
+              <xm:sqref>AW19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ20:AU20</xm:f>
+              <xm:sqref>AW20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ21:AU21</xm:f>
+              <xm:sqref>AW21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ22:AU22</xm:f>
+              <xm:sqref>AW22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ23:AU23</xm:f>
+              <xm:sqref>AW23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ24:AU24</xm:f>
+              <xm:sqref>AW24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ25:AU25</xm:f>
+              <xm:sqref>AW25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ26:AU26</xm:f>
+              <xm:sqref>AW26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ27:AU27</xm:f>
+              <xm:sqref>AW27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ28:AU28</xm:f>
+              <xm:sqref>AW28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ29:AU29</xm:f>
+              <xm:sqref>AW29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ30:AU30</xm:f>
+              <xm:sqref>AW30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ31:AU31</xm:f>
+              <xm:sqref>AW31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ32:AU32</xm:f>
+              <xm:sqref>AW32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ33:AU33</xm:f>
+              <xm:sqref>AW33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ34:AU34</xm:f>
+              <xm:sqref>AW34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ35:AU35</xm:f>
+              <xm:sqref>AW35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ36:AU36</xm:f>
+              <xm:sqref>AW36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ37:AU37</xm:f>
+              <xm:sqref>AW37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ38:AU38</xm:f>
+              <xm:sqref>AW38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ39:AU39</xm:f>
+              <xm:sqref>AW39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ40:AU40</xm:f>
+              <xm:sqref>AW40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ41:AU41</xm:f>
+              <xm:sqref>AW41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ42:AU42</xm:f>
+              <xm:sqref>AW42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ43:AU43</xm:f>
+              <xm:sqref>AW43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ44:AU44</xm:f>
+              <xm:sqref>AW44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ45:AU45</xm:f>
+              <xm:sqref>AW45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ46:AU46</xm:f>
+              <xm:sqref>AW46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ47:AU47</xm:f>
+              <xm:sqref>AW47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ48:AU48</xm:f>
+              <xm:sqref>AW48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ49:AU49</xm:f>
+              <xm:sqref>AW49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ50:AU50</xm:f>
+              <xm:sqref>AW50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ51:AU51</xm:f>
+              <xm:sqref>AW51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ52:AU52</xm:f>
+              <xm:sqref>AW52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ53:AU53</xm:f>
+              <xm:sqref>AW53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ54:AU54</xm:f>
+              <xm:sqref>AW54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{637D966D-96BD-42C0-80E4-45A820A0BE85}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B5:M5</xm:f>
+              <xm:sqref>O5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B6:M6</xm:f>
+              <xm:sqref>O6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B7:M7</xm:f>
+              <xm:sqref>O7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B8:M8</xm:f>
+              <xm:sqref>O8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B9:M9</xm:f>
+              <xm:sqref>O9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B10:M10</xm:f>
+              <xm:sqref>O10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B11:M11</xm:f>
+              <xm:sqref>O11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B12:M12</xm:f>
+              <xm:sqref>O12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B13:M13</xm:f>
+              <xm:sqref>O13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B14:M14</xm:f>
+              <xm:sqref>O14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B15:M15</xm:f>
+              <xm:sqref>O15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B16:M16</xm:f>
+              <xm:sqref>O16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B17:M17</xm:f>
+              <xm:sqref>O17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B18:M18</xm:f>
+              <xm:sqref>O18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B19:M19</xm:f>
+              <xm:sqref>O19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B20:M20</xm:f>
+              <xm:sqref>O20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B21:M21</xm:f>
+              <xm:sqref>O21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B22:M22</xm:f>
+              <xm:sqref>O22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B23:M23</xm:f>
+              <xm:sqref>O23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B24:M24</xm:f>
+              <xm:sqref>O24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B25:M25</xm:f>
+              <xm:sqref>O25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B26:M26</xm:f>
+              <xm:sqref>O26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B27:M27</xm:f>
+              <xm:sqref>O27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B28:M28</xm:f>
+              <xm:sqref>O28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B29:M29</xm:f>
+              <xm:sqref>O29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B30:M30</xm:f>
+              <xm:sqref>O30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B31:M31</xm:f>
+              <xm:sqref>O31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B32:M32</xm:f>
+              <xm:sqref>O32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B33:M33</xm:f>
+              <xm:sqref>O33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B34:M34</xm:f>
+              <xm:sqref>O34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B35:M35</xm:f>
+              <xm:sqref>O35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B36:M36</xm:f>
+              <xm:sqref>O36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B37:M37</xm:f>
+              <xm:sqref>O37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B38:M38</xm:f>
+              <xm:sqref>O38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B39:M39</xm:f>
+              <xm:sqref>O39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B40:M40</xm:f>
+              <xm:sqref>O40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B41:M41</xm:f>
+              <xm:sqref>O41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B42:M42</xm:f>
+              <xm:sqref>O42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B43:M43</xm:f>
+              <xm:sqref>O43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B44:M44</xm:f>
+              <xm:sqref>O44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B45:M45</xm:f>
+              <xm:sqref>O45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B46:M46</xm:f>
+              <xm:sqref>O46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B47:M47</xm:f>
+              <xm:sqref>O47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B48:M48</xm:f>
+              <xm:sqref>O48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B49:M49</xm:f>
+              <xm:sqref>O49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B50:M50</xm:f>
+              <xm:sqref>O50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B51:M51</xm:f>
+              <xm:sqref>O51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B52:M52</xm:f>
+              <xm:sqref>O52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B53:M53</xm:f>
+              <xm:sqref>O53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B54:M54</xm:f>
+              <xm:sqref>O54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66B11653-9259-4A24-A205-02DC9BD1D214}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S4:AD4</xm:f>
+              <xm:sqref>AF4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{CF8DBF79-2F52-4BEC-9393-B5BA30E6EC38}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B4:M4</xm:f>
+              <xm:sqref>O4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -11238,7 +12270,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{CF8DBF79-2F52-4BEC-9393-B5BA30E6EC38}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FA464487-42E3-4EEA-8A51-B19C3DDC0D84}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11249,448 +12281,8 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B4:M4</xm:f>
-              <xm:sqref>O4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66B11653-9259-4A24-A205-02DC9BD1D214}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S4:AD4</xm:f>
-              <xm:sqref>AF4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{637D966D-96BD-42C0-80E4-45A820A0BE85}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B5:M5</xm:f>
-              <xm:sqref>O5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B6:M6</xm:f>
-              <xm:sqref>O6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B7:M7</xm:f>
-              <xm:sqref>O7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B8:M8</xm:f>
-              <xm:sqref>O8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B9:M9</xm:f>
-              <xm:sqref>O9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B10:M10</xm:f>
-              <xm:sqref>O10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B11:M11</xm:f>
-              <xm:sqref>O11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B12:M12</xm:f>
-              <xm:sqref>O12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B13:M13</xm:f>
-              <xm:sqref>O13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B14:M14</xm:f>
-              <xm:sqref>O14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B15:M15</xm:f>
-              <xm:sqref>O15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B16:M16</xm:f>
-              <xm:sqref>O16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B17:M17</xm:f>
-              <xm:sqref>O17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B18:M18</xm:f>
-              <xm:sqref>O18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B19:M19</xm:f>
-              <xm:sqref>O19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B20:M20</xm:f>
-              <xm:sqref>O20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B21:M21</xm:f>
-              <xm:sqref>O21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B22:M22</xm:f>
-              <xm:sqref>O22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B23:M23</xm:f>
-              <xm:sqref>O23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B24:M24</xm:f>
-              <xm:sqref>O24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B25:M25</xm:f>
-              <xm:sqref>O25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B26:M26</xm:f>
-              <xm:sqref>O26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B27:M27</xm:f>
-              <xm:sqref>O27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B28:M28</xm:f>
-              <xm:sqref>O28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B29:M29</xm:f>
-              <xm:sqref>O29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B30:M30</xm:f>
-              <xm:sqref>O30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B31:M31</xm:f>
-              <xm:sqref>O31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B32:M32</xm:f>
-              <xm:sqref>O32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B33:M33</xm:f>
-              <xm:sqref>O33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B34:M34</xm:f>
-              <xm:sqref>O34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B35:M35</xm:f>
-              <xm:sqref>O35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B36:M36</xm:f>
-              <xm:sqref>O36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B37:M37</xm:f>
-              <xm:sqref>O37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B38:M38</xm:f>
-              <xm:sqref>O38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B39:M39</xm:f>
-              <xm:sqref>O39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B40:M40</xm:f>
-              <xm:sqref>O40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B41:M41</xm:f>
-              <xm:sqref>O41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B42:M42</xm:f>
-              <xm:sqref>O42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B43:M43</xm:f>
-              <xm:sqref>O43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B44:M44</xm:f>
-              <xm:sqref>O44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B45:M45</xm:f>
-              <xm:sqref>O45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B46:M46</xm:f>
-              <xm:sqref>O46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B47:M47</xm:f>
-              <xm:sqref>O47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B48:M48</xm:f>
-              <xm:sqref>O48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B49:M49</xm:f>
-              <xm:sqref>O49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B50:M50</xm:f>
-              <xm:sqref>O50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B51:M51</xm:f>
-              <xm:sqref>O51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B52:M52</xm:f>
-              <xm:sqref>O52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B53:M53</xm:f>
-              <xm:sqref>O53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B54:M54</xm:f>
-              <xm:sqref>O54</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FE327BBA-A057-4D37-AD5E-0A5C3B6AF2F6}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ5:AU5</xm:f>
-              <xm:sqref>AW5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ6:AU6</xm:f>
-              <xm:sqref>AW6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ7:AU7</xm:f>
-              <xm:sqref>AW7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ8:AU8</xm:f>
-              <xm:sqref>AW8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ9:AU9</xm:f>
-              <xm:sqref>AW9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ10:AU10</xm:f>
-              <xm:sqref>AW10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ11:AU11</xm:f>
-              <xm:sqref>AW11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ12:AU12</xm:f>
-              <xm:sqref>AW12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ13:AU13</xm:f>
-              <xm:sqref>AW13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ14:AU14</xm:f>
-              <xm:sqref>AW14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ15:AU15</xm:f>
-              <xm:sqref>AW15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ16:AU16</xm:f>
-              <xm:sqref>AW16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ17:AU17</xm:f>
-              <xm:sqref>AW17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ18:AU18</xm:f>
-              <xm:sqref>AW18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ19:AU19</xm:f>
-              <xm:sqref>AW19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ20:AU20</xm:f>
-              <xm:sqref>AW20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ21:AU21</xm:f>
-              <xm:sqref>AW21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ22:AU22</xm:f>
-              <xm:sqref>AW22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ23:AU23</xm:f>
-              <xm:sqref>AW23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ24:AU24</xm:f>
-              <xm:sqref>AW24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ25:AU25</xm:f>
-              <xm:sqref>AW25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ26:AU26</xm:f>
-              <xm:sqref>AW26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ27:AU27</xm:f>
-              <xm:sqref>AW27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ28:AU28</xm:f>
-              <xm:sqref>AW28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ29:AU29</xm:f>
-              <xm:sqref>AW29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ30:AU30</xm:f>
-              <xm:sqref>AW30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ31:AU31</xm:f>
-              <xm:sqref>AW31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ32:AU32</xm:f>
-              <xm:sqref>AW32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ33:AU33</xm:f>
-              <xm:sqref>AW33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ34:AU34</xm:f>
-              <xm:sqref>AW34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ35:AU35</xm:f>
-              <xm:sqref>AW35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ36:AU36</xm:f>
-              <xm:sqref>AW36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ37:AU37</xm:f>
-              <xm:sqref>AW37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ38:AU38</xm:f>
-              <xm:sqref>AW38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ39:AU39</xm:f>
-              <xm:sqref>AW39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ40:AU40</xm:f>
-              <xm:sqref>AW40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ41:AU41</xm:f>
-              <xm:sqref>AW41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ42:AU42</xm:f>
-              <xm:sqref>AW42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ43:AU43</xm:f>
-              <xm:sqref>AW43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ44:AU44</xm:f>
-              <xm:sqref>AW44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ45:AU45</xm:f>
-              <xm:sqref>AW45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ46:AU46</xm:f>
-              <xm:sqref>AW46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ47:AU47</xm:f>
-              <xm:sqref>AW47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ48:AU48</xm:f>
-              <xm:sqref>AW48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ49:AU49</xm:f>
-              <xm:sqref>AW49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ50:AU50</xm:f>
-              <xm:sqref>AW50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ51:AU51</xm:f>
-              <xm:sqref>AW51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ52:AU52</xm:f>
-              <xm:sqref>AW52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ53:AU53</xm:f>
-              <xm:sqref>AW53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ54:AU54</xm:f>
-              <xm:sqref>AW54</xm:sqref>
+              <xm:f>all_sparklines_estimates!AJ4:AU4</xm:f>
+              <xm:sqref>AW4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/figures/us_organic_sparklines.xlsx
+++ b/figures/us_organic_sparklines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\dev\state_organic_ag\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD44CA-A605-4334-827D-DF4F40B7C62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB01550-CDFB-4CEA-A7A1-FC38843B11F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="2175" windowWidth="24060" windowHeight="9600" activeTab="1" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{BC2FEE57-8ABC-4FF3-B96F-27BAE26B3EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="all_sparklines" sheetId="11" r:id="rId1"/>
@@ -406,6 +406,13 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,13 +422,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,12 +450,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF002060"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF002060"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
   </dxfs>
@@ -899,21 +899,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="AF2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AV2" s="42" t="s">
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AV2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5231,7 +5231,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66BB86FA-9C0B-449A-A864-41365A482D32}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5242,8 +5242,448 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!AI4:AT4</xm:f>
-              <xm:sqref>AV4</xm:sqref>
+              <xm:f>all_sparklines!AI5:AT5</xm:f>
+              <xm:sqref>AV5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI6:AT6</xm:f>
+              <xm:sqref>AV6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI7:AT7</xm:f>
+              <xm:sqref>AV7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI8:AT8</xm:f>
+              <xm:sqref>AV8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI9:AT9</xm:f>
+              <xm:sqref>AV9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI10:AT10</xm:f>
+              <xm:sqref>AV10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI11:AT11</xm:f>
+              <xm:sqref>AV11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI12:AT12</xm:f>
+              <xm:sqref>AV12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI13:AT13</xm:f>
+              <xm:sqref>AV13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI14:AT14</xm:f>
+              <xm:sqref>AV14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI15:AT15</xm:f>
+              <xm:sqref>AV15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI16:AT16</xm:f>
+              <xm:sqref>AV16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI17:AT17</xm:f>
+              <xm:sqref>AV17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI18:AT18</xm:f>
+              <xm:sqref>AV18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI19:AT19</xm:f>
+              <xm:sqref>AV19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI20:AT20</xm:f>
+              <xm:sqref>AV20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI21:AT21</xm:f>
+              <xm:sqref>AV21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI22:AT22</xm:f>
+              <xm:sqref>AV22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI23:AT23</xm:f>
+              <xm:sqref>AV23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI24:AT24</xm:f>
+              <xm:sqref>AV24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI25:AT25</xm:f>
+              <xm:sqref>AV25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI26:AT26</xm:f>
+              <xm:sqref>AV26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI27:AT27</xm:f>
+              <xm:sqref>AV27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI28:AT28</xm:f>
+              <xm:sqref>AV28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI29:AT29</xm:f>
+              <xm:sqref>AV29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI30:AT30</xm:f>
+              <xm:sqref>AV30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI31:AT31</xm:f>
+              <xm:sqref>AV31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI32:AT32</xm:f>
+              <xm:sqref>AV32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI33:AT33</xm:f>
+              <xm:sqref>AV33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI34:AT34</xm:f>
+              <xm:sqref>AV34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI35:AT35</xm:f>
+              <xm:sqref>AV35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI36:AT36</xm:f>
+              <xm:sqref>AV36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI37:AT37</xm:f>
+              <xm:sqref>AV37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI38:AT38</xm:f>
+              <xm:sqref>AV38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI39:AT39</xm:f>
+              <xm:sqref>AV39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI40:AT40</xm:f>
+              <xm:sqref>AV40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI41:AT41</xm:f>
+              <xm:sqref>AV41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI42:AT42</xm:f>
+              <xm:sqref>AV42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI43:AT43</xm:f>
+              <xm:sqref>AV43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI44:AT44</xm:f>
+              <xm:sqref>AV44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI45:AT45</xm:f>
+              <xm:sqref>AV45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI46:AT46</xm:f>
+              <xm:sqref>AV46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI47:AT47</xm:f>
+              <xm:sqref>AV47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI48:AT48</xm:f>
+              <xm:sqref>AV48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI49:AT49</xm:f>
+              <xm:sqref>AV49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI50:AT50</xm:f>
+              <xm:sqref>AV50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI51:AT51</xm:f>
+              <xm:sqref>AV51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI52:AT52</xm:f>
+              <xm:sqref>AV52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI53:AT53</xm:f>
+              <xm:sqref>AV53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!AI54:AT54</xm:f>
+              <xm:sqref>AV54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{D4CBD035-6366-4643-AE79-83E460EEAE57}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S5:AD5</xm:f>
+              <xm:sqref>AF5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S6:AD6</xm:f>
+              <xm:sqref>AF6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S7:AD7</xm:f>
+              <xm:sqref>AF7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S8:AD8</xm:f>
+              <xm:sqref>AF8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S9:AD9</xm:f>
+              <xm:sqref>AF9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S10:AD10</xm:f>
+              <xm:sqref>AF10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S11:AD11</xm:f>
+              <xm:sqref>AF11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S12:AD12</xm:f>
+              <xm:sqref>AF12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S13:AD13</xm:f>
+              <xm:sqref>AF13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S14:AD14</xm:f>
+              <xm:sqref>AF14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S15:AD15</xm:f>
+              <xm:sqref>AF15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S16:AD16</xm:f>
+              <xm:sqref>AF16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S17:AD17</xm:f>
+              <xm:sqref>AF17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S18:AD18</xm:f>
+              <xm:sqref>AF18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S19:AD19</xm:f>
+              <xm:sqref>AF19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S20:AD20</xm:f>
+              <xm:sqref>AF20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S21:AD21</xm:f>
+              <xm:sqref>AF21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S22:AD22</xm:f>
+              <xm:sqref>AF22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S23:AD23</xm:f>
+              <xm:sqref>AF23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S24:AD24</xm:f>
+              <xm:sqref>AF24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S25:AD25</xm:f>
+              <xm:sqref>AF25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S26:AD26</xm:f>
+              <xm:sqref>AF26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S27:AD27</xm:f>
+              <xm:sqref>AF27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S28:AD28</xm:f>
+              <xm:sqref>AF28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S29:AD29</xm:f>
+              <xm:sqref>AF29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S30:AD30</xm:f>
+              <xm:sqref>AF30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S31:AD31</xm:f>
+              <xm:sqref>AF31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S32:AD32</xm:f>
+              <xm:sqref>AF32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S33:AD33</xm:f>
+              <xm:sqref>AF33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S34:AD34</xm:f>
+              <xm:sqref>AF34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S35:AD35</xm:f>
+              <xm:sqref>AF35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S36:AD36</xm:f>
+              <xm:sqref>AF36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S37:AD37</xm:f>
+              <xm:sqref>AF37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S38:AD38</xm:f>
+              <xm:sqref>AF38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S39:AD39</xm:f>
+              <xm:sqref>AF39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S40:AD40</xm:f>
+              <xm:sqref>AF40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S41:AD41</xm:f>
+              <xm:sqref>AF41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S42:AD42</xm:f>
+              <xm:sqref>AF42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S43:AD43</xm:f>
+              <xm:sqref>AF43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S44:AD44</xm:f>
+              <xm:sqref>AF44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S45:AD45</xm:f>
+              <xm:sqref>AF45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S46:AD46</xm:f>
+              <xm:sqref>AF46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S47:AD47</xm:f>
+              <xm:sqref>AF47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S48:AD48</xm:f>
+              <xm:sqref>AF48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S49:AD49</xm:f>
+              <xm:sqref>AF49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S50:AD50</xm:f>
+              <xm:sqref>AF50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S51:AD51</xm:f>
+              <xm:sqref>AF51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S52:AD52</xm:f>
+              <xm:sqref>AF52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S53:AD53</xm:f>
+              <xm:sqref>AF53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S54:AD54</xm:f>
+              <xm:sqref>AF54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{15BAD788-5AA3-4E69-B574-11EFC65880DC}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!B4:N4</xm:f>
+              <xm:sqref>P4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{C0001913-F8F4-4839-8004-AA78FFFF815D}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines!S4:AD4</xm:f>
+              <xm:sqref>AF4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5459,7 +5899,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{C0001913-F8F4-4839-8004-AA78FFFF815D}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66BB86FA-9C0B-449A-A864-41365A482D32}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5470,448 +5910,8 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines!S4:AD4</xm:f>
-              <xm:sqref>AF4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{15BAD788-5AA3-4E69-B574-11EFC65880DC}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!B4:N4</xm:f>
-              <xm:sqref>P4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{D4CBD035-6366-4643-AE79-83E460EEAE57}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S5:AD5</xm:f>
-              <xm:sqref>AF5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S6:AD6</xm:f>
-              <xm:sqref>AF6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S7:AD7</xm:f>
-              <xm:sqref>AF7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S8:AD8</xm:f>
-              <xm:sqref>AF8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S9:AD9</xm:f>
-              <xm:sqref>AF9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S10:AD10</xm:f>
-              <xm:sqref>AF10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S11:AD11</xm:f>
-              <xm:sqref>AF11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S12:AD12</xm:f>
-              <xm:sqref>AF12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S13:AD13</xm:f>
-              <xm:sqref>AF13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S14:AD14</xm:f>
-              <xm:sqref>AF14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S15:AD15</xm:f>
-              <xm:sqref>AF15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S16:AD16</xm:f>
-              <xm:sqref>AF16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S17:AD17</xm:f>
-              <xm:sqref>AF17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S18:AD18</xm:f>
-              <xm:sqref>AF18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S19:AD19</xm:f>
-              <xm:sqref>AF19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S20:AD20</xm:f>
-              <xm:sqref>AF20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S21:AD21</xm:f>
-              <xm:sqref>AF21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S22:AD22</xm:f>
-              <xm:sqref>AF22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S23:AD23</xm:f>
-              <xm:sqref>AF23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S24:AD24</xm:f>
-              <xm:sqref>AF24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S25:AD25</xm:f>
-              <xm:sqref>AF25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S26:AD26</xm:f>
-              <xm:sqref>AF26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S27:AD27</xm:f>
-              <xm:sqref>AF27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S28:AD28</xm:f>
-              <xm:sqref>AF28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S29:AD29</xm:f>
-              <xm:sqref>AF29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S30:AD30</xm:f>
-              <xm:sqref>AF30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S31:AD31</xm:f>
-              <xm:sqref>AF31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S32:AD32</xm:f>
-              <xm:sqref>AF32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S33:AD33</xm:f>
-              <xm:sqref>AF33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S34:AD34</xm:f>
-              <xm:sqref>AF34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S35:AD35</xm:f>
-              <xm:sqref>AF35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S36:AD36</xm:f>
-              <xm:sqref>AF36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S37:AD37</xm:f>
-              <xm:sqref>AF37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S38:AD38</xm:f>
-              <xm:sqref>AF38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S39:AD39</xm:f>
-              <xm:sqref>AF39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S40:AD40</xm:f>
-              <xm:sqref>AF40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S41:AD41</xm:f>
-              <xm:sqref>AF41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S42:AD42</xm:f>
-              <xm:sqref>AF42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S43:AD43</xm:f>
-              <xm:sqref>AF43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S44:AD44</xm:f>
-              <xm:sqref>AF44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S45:AD45</xm:f>
-              <xm:sqref>AF45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S46:AD46</xm:f>
-              <xm:sqref>AF46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S47:AD47</xm:f>
-              <xm:sqref>AF47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S48:AD48</xm:f>
-              <xm:sqref>AF48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S49:AD49</xm:f>
-              <xm:sqref>AF49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S50:AD50</xm:f>
-              <xm:sqref>AF50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S51:AD51</xm:f>
-              <xm:sqref>AF51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S52:AD52</xm:f>
-              <xm:sqref>AF52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S53:AD53</xm:f>
-              <xm:sqref>AF53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!S54:AD54</xm:f>
-              <xm:sqref>AF54</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{A336323A-FCF6-4865-82C6-0CE23DD417EB}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="9" tint="-0.499984740745262"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI5:AT5</xm:f>
-              <xm:sqref>AV5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI6:AT6</xm:f>
-              <xm:sqref>AV6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI7:AT7</xm:f>
-              <xm:sqref>AV7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI8:AT8</xm:f>
-              <xm:sqref>AV8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI9:AT9</xm:f>
-              <xm:sqref>AV9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI10:AT10</xm:f>
-              <xm:sqref>AV10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI11:AT11</xm:f>
-              <xm:sqref>AV11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI12:AT12</xm:f>
-              <xm:sqref>AV12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI13:AT13</xm:f>
-              <xm:sqref>AV13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI14:AT14</xm:f>
-              <xm:sqref>AV14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI15:AT15</xm:f>
-              <xm:sqref>AV15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI16:AT16</xm:f>
-              <xm:sqref>AV16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI17:AT17</xm:f>
-              <xm:sqref>AV17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI18:AT18</xm:f>
-              <xm:sqref>AV18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI19:AT19</xm:f>
-              <xm:sqref>AV19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI20:AT20</xm:f>
-              <xm:sqref>AV20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI21:AT21</xm:f>
-              <xm:sqref>AV21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI22:AT22</xm:f>
-              <xm:sqref>AV22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI23:AT23</xm:f>
-              <xm:sqref>AV23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI24:AT24</xm:f>
-              <xm:sqref>AV24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI25:AT25</xm:f>
-              <xm:sqref>AV25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI26:AT26</xm:f>
-              <xm:sqref>AV26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI27:AT27</xm:f>
-              <xm:sqref>AV27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI28:AT28</xm:f>
-              <xm:sqref>AV28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI29:AT29</xm:f>
-              <xm:sqref>AV29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI30:AT30</xm:f>
-              <xm:sqref>AV30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI31:AT31</xm:f>
-              <xm:sqref>AV31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI32:AT32</xm:f>
-              <xm:sqref>AV32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI33:AT33</xm:f>
-              <xm:sqref>AV33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI34:AT34</xm:f>
-              <xm:sqref>AV34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI35:AT35</xm:f>
-              <xm:sqref>AV35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI36:AT36</xm:f>
-              <xm:sqref>AV36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI37:AT37</xm:f>
-              <xm:sqref>AV37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI38:AT38</xm:f>
-              <xm:sqref>AV38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI39:AT39</xm:f>
-              <xm:sqref>AV39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI40:AT40</xm:f>
-              <xm:sqref>AV40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI41:AT41</xm:f>
-              <xm:sqref>AV41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI42:AT42</xm:f>
-              <xm:sqref>AV42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI43:AT43</xm:f>
-              <xm:sqref>AV43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI44:AT44</xm:f>
-              <xm:sqref>AV44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI45:AT45</xm:f>
-              <xm:sqref>AV45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI46:AT46</xm:f>
-              <xm:sqref>AV46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI47:AT47</xm:f>
-              <xm:sqref>AV47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI48:AT48</xm:f>
-              <xm:sqref>AV48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI49:AT49</xm:f>
-              <xm:sqref>AV49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI50:AT50</xm:f>
-              <xm:sqref>AV50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI51:AT51</xm:f>
-              <xm:sqref>AV51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI52:AT52</xm:f>
-              <xm:sqref>AV52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI53:AT53</xm:f>
-              <xm:sqref>AV53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines!AI54:AT54</xm:f>
-              <xm:sqref>AV54</xm:sqref>
+              <xm:f>all_sparklines!AI4:AT4</xm:f>
+              <xm:sqref>AV4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5928,8 +5928,8 @@
   </sheetPr>
   <dimension ref="A2:AZ54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5957,24 +5957,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="AF2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AW2" s="42" t="s">
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AW2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -6159,26 +6159,26 @@
       <c r="N4" s="19"/>
       <c r="O4" s="20"/>
       <c r="P4" s="21">
-        <f t="shared" ref="P4:P35" si="0">MIN(F4:M4)*1000</f>
+        <f t="shared" ref="P4" si="0">MIN(F4:M4)*1000</f>
         <v>12594.999999999998</v>
       </c>
       <c r="Q4" s="21">
-        <f t="shared" ref="Q4:Q35" si="1">MAX(B4:M4)*1000</f>
+        <f t="shared" ref="Q4" si="1">MAX(B4:M4)*1000</f>
         <v>16476</v>
       </c>
       <c r="R4" s="39">
-        <f>((M4-B4)/B4)/(2019-2008)</f>
+        <f t="shared" ref="R4" si="2">((M4-B4)/B4)/(2019-2008)</f>
         <v>4.6467611082854555E-2</v>
       </c>
       <c r="S4" s="22">
         <f>SUM(S5:S54)</f>
-        <v>1619.947727616742</v>
+        <v>1621.5597276167446</v>
       </c>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
       <c r="V4" s="19">
         <f>SUM(V5:V54)</f>
-        <v>1475.8248346122473</v>
+        <v>1479.2538346122496</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
@@ -6202,20 +6202,20 @@
       <c r="AE4" s="22"/>
       <c r="AF4" s="20"/>
       <c r="AG4" s="21">
-        <f t="shared" ref="AG4:AG54" si="2">MIN(S4:AD4)*1000</f>
+        <f t="shared" ref="AG4" si="3">MIN(S4:AD4)*1000</f>
         <v>560.49185646758303</v>
       </c>
       <c r="AH4" s="21">
-        <f t="shared" ref="AH4:AH35" si="3">MAX(S4:AD4)*1000</f>
+        <f t="shared" ref="AH4" si="4">MAX(S4:AD4)*1000</f>
         <v>1996995.6580532496</v>
       </c>
       <c r="AI4" s="38">
-        <f>((AD4-S4)/S4)/(2019-2008)</f>
-        <v>2.1159376935924536E-2</v>
+        <f t="shared" ref="AI4:AI35" si="5">((AD4-S4)/S4)/(2019-2008)</f>
+        <v>2.1047969155446437E-2</v>
       </c>
       <c r="AJ4" s="22">
         <f>SUM(AJ5:AJ54)</f>
-        <v>3859.5654418199983</v>
+        <v>3865.1354418200008</v>
       </c>
       <c r="AK4" s="19"/>
       <c r="AL4" s="19"/>
@@ -6224,32 +6224,32 @@
       <c r="AO4" s="23"/>
       <c r="AP4" s="22">
         <f>SUM(AP5:AP54)</f>
-        <v>5919.9139999999989</v>
+        <v>5994.7309999999998</v>
       </c>
       <c r="AQ4" s="19"/>
       <c r="AR4" s="22">
         <f>SUM(AR5:AR54)</f>
-        <v>8232.1127300000007</v>
+        <v>8235.645730000002</v>
       </c>
       <c r="AS4" s="22"/>
       <c r="AT4" s="22"/>
       <c r="AU4" s="22">
         <f>SUM(AU5:AU54)</f>
-        <v>10122.076080000001</v>
+        <v>10127.119080000002</v>
       </c>
       <c r="AV4" s="19"/>
       <c r="AW4" s="20"/>
       <c r="AX4" s="21">
-        <f t="shared" ref="AX4:AX54" si="4">MIN(AJ4:AU4)</f>
-        <v>3859.5654418199983</v>
+        <f t="shared" ref="AX4" si="6">MIN(AJ4:AU4)</f>
+        <v>3865.1354418200008</v>
       </c>
       <c r="AY4" s="21">
-        <f t="shared" ref="AY4:AY54" si="5">MAX(AJ4:AU4)</f>
-        <v>10122.076080000001</v>
+        <f t="shared" ref="AY4" si="7">MAX(AJ4:AU4)</f>
+        <v>10127.119080000002</v>
       </c>
       <c r="AZ4" s="34">
-        <f>((AU4-AJ4)/AJ4)/(2019-2008)</f>
-        <v>0.14750861398971107</v>
+        <f t="shared" ref="AZ4:AZ35" si="8">((AU4-AJ4)/AJ4)/(2019-2008)</f>
+        <v>0.14728364591707277</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
@@ -6283,7 +6283,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="13">
-        <f>MIN(F5:M5)*1000</f>
+        <f t="shared" ref="P5:P36" si="9">MIN(F5:M5)*1000</f>
         <v>11</v>
       </c>
       <c r="Q5" s="13">
@@ -6294,12 +6294,14 @@
         <f>((M5-B5)/B5)/(2019-2008)</f>
         <v>0.15909090909090906</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="42">
         <v>0.14771085026041</v>
       </c>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5"/>
+      <c r="V5">
+        <v>0.32100000000000001</v>
+      </c>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5">
@@ -6319,21 +6321,25 @@
       <c r="AE5" s="14"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="13">
-        <f>MIN(S5:AD5)*1000</f>
+        <f t="shared" ref="AG5:AG36" si="10">MIN(S5:AD5)*1000</f>
         <v>147.71085026041001</v>
       </c>
       <c r="AH5" s="13">
-        <f>MAX(S5:AD5)*1000</f>
+        <f t="shared" ref="AH5:AH36" si="11">MAX(S5:AD5)*1000</f>
         <v>878.98073086468696</v>
       </c>
       <c r="AI5" s="35">
-        <f>((AD5-S5)/S5)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>0.45006226650062309</v>
       </c>
-      <c r="AJ5"/>
+      <c r="AJ5">
+        <v>0.61299999999999999</v>
+      </c>
       <c r="AK5"/>
       <c r="AL5"/>
-      <c r="AM5"/>
+      <c r="AM5">
+        <v>0.871</v>
+      </c>
       <c r="AN5"/>
       <c r="AO5"/>
       <c r="AP5">
@@ -6347,20 +6353,22 @@
       </c>
       <c r="AS5"/>
       <c r="AT5"/>
-      <c r="AU5"/>
+      <c r="AU5">
+        <v>2.177</v>
+      </c>
       <c r="AV5" s="12"/>
       <c r="AW5" s="12"/>
       <c r="AX5" s="15">
-        <f>MIN(AJ5:AU5)</f>
-        <v>1.4662999999999999</v>
+        <f t="shared" ref="AX5:AX36" si="12">MIN(AJ5:AU5)</f>
+        <v>0.61299999999999999</v>
       </c>
       <c r="AY5" s="15">
-        <f>MAX(AJ5:AU5)</f>
-        <v>2.0873499999999998</v>
-      </c>
-      <c r="AZ5" s="35" t="e">
-        <f>((AU5-AJ5)/AJ5)/(2019-2008)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="AY5:AY36" si="13">MAX(AJ5:AU5)</f>
+        <v>2.177</v>
+      </c>
+      <c r="AZ5" s="35">
+        <f t="shared" si="8"/>
+        <v>0.23194423846952397</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
@@ -6386,7 +6394,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="P6" s="3">
-        <f>MIN(F6:M6)*1000</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="Q6" s="3">
@@ -6397,12 +6405,14 @@
         <f>((M6-B6)/B6)/(2019-2008)</f>
         <v>3.03030303030303E-2</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="42">
         <v>0.13071398529893799</v>
       </c>
       <c r="T6"/>
       <c r="U6"/>
-      <c r="V6"/>
+      <c r="V6">
+        <v>1.1479999999999999</v>
+      </c>
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6">
@@ -6416,15 +6426,15 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AG6" s="3">
-        <f>MIN(S6:AD6)*1000</f>
+        <f t="shared" si="10"/>
         <v>114.121807598453</v>
       </c>
       <c r="AH6" s="3">
-        <f>MAX(S6:AD6)*1000</f>
+        <f t="shared" si="11"/>
         <v>281332.91821680398</v>
       </c>
       <c r="AI6" s="35">
-        <f>((AD6-S6)/S6)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>-9.0909090909090912E-2</v>
       </c>
       <c r="AJ6">
@@ -6437,23 +6447,31 @@
       </c>
       <c r="AN6"/>
       <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
+      <c r="AP6">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="AQ6">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="AR6">
+        <v>1.974</v>
+      </c>
       <c r="AS6"/>
       <c r="AT6"/>
-      <c r="AU6"/>
+      <c r="AU6">
+        <v>2.8660000000000001</v>
+      </c>
       <c r="AX6" s="4">
-        <f>MIN(AJ6:AU6)</f>
+        <f t="shared" si="12"/>
         <v>0.57574605999999995</v>
       </c>
       <c r="AY6" s="4">
-        <f>MAX(AJ6:AU6)</f>
-        <v>0.69811325999999996</v>
+        <f t="shared" si="13"/>
+        <v>2.8660000000000001</v>
       </c>
       <c r="AZ6" s="35">
-        <f>((AU6-AJ6)/AJ6)/(2019-2008)</f>
-        <v>-9.0909090909090912E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.36162627606407532</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
@@ -6479,7 +6497,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="P7" s="3">
-        <f>MIN(F7:M7)*1000</f>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="Q7" s="3">
@@ -6490,13 +6508,13 @@
         <f>((M7-B7)/B7)/(2019-2008)</f>
         <v>5.741626794258374E-2</v>
       </c>
-      <c r="S7" s="45">
-        <v>8.3227982094673791</v>
+      <c r="S7" s="42">
+        <v>8.3227982094673898</v>
       </c>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7">
-        <v>5.9792542810892</v>
+        <v>5.9792542810892098</v>
       </c>
       <c r="W7"/>
       <c r="X7"/>
@@ -6515,16 +6533,16 @@
         <v>10.804340493842201</v>
       </c>
       <c r="AG7" s="3">
-        <f>MIN(S7:AD7)*1000</f>
-        <v>5979.2542810892</v>
+        <f t="shared" si="10"/>
+        <v>5979.2542810892101</v>
       </c>
       <c r="AH7" s="3">
-        <f>MAX(S7:AD7)*1000</f>
+        <f t="shared" si="11"/>
         <v>13428.7373813457</v>
       </c>
       <c r="AI7" s="35">
-        <f>((AD7-S7)/S7)/(2019-2008)</f>
-        <v>2.7105637725106015E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.7105637725105866E-2</v>
       </c>
       <c r="AJ7">
         <v>51.333522760000001</v>
@@ -6551,15 +6569,15 @@
         <v>206.55611999999999</v>
       </c>
       <c r="AX7" s="4">
-        <f>MIN(AJ7:AU7)</f>
+        <f t="shared" si="12"/>
         <v>51.333522760000001</v>
       </c>
       <c r="AY7" s="4">
-        <f>MAX(AJ7:AU7)</f>
+        <f t="shared" si="13"/>
         <v>206.55611999999999</v>
       </c>
       <c r="AZ7" s="35">
-        <f>((AU7-AJ7)/AJ7)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.27489142464682009</v>
       </c>
     </row>
@@ -6586,7 +6604,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="P8" s="3">
-        <f>MIN(F8:M8)*1000</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="Q8" s="3">
@@ -6597,13 +6615,13 @@
         <f>((M8-B8)/B8)/(2019-2008)</f>
         <v>0.15272727272727271</v>
       </c>
-      <c r="S8" s="45">
-        <v>2.5337469410422599</v>
+      <c r="S8" s="42">
+        <v>2.5337469410422702</v>
       </c>
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8">
-        <v>1.1464790103773701</v>
+        <v>1.1464790103773801</v>
       </c>
       <c r="W8"/>
       <c r="X8"/>
@@ -6622,26 +6640,30 @@
         <v>8.5020746660848108</v>
       </c>
       <c r="AG8" s="3">
-        <f>MIN(S8:AD8)*1000</f>
+        <f t="shared" si="10"/>
         <v>121.40617829622701</v>
       </c>
       <c r="AH8" s="3">
-        <f>MAX(S8:AD8)*1000</f>
+        <f t="shared" si="11"/>
         <v>8502.0746660848108</v>
       </c>
       <c r="AI8" s="35">
-        <f>((AD8-S8)/S8)/(2019-2008)</f>
-        <v>0.21413947815481207</v>
+        <f t="shared" si="5"/>
+        <v>0.21413947815481083</v>
       </c>
       <c r="AJ8">
         <v>15.67474666</v>
       </c>
       <c r="AK8"/>
       <c r="AL8"/>
-      <c r="AM8"/>
+      <c r="AM8">
+        <v>14.413</v>
+      </c>
       <c r="AN8"/>
       <c r="AO8"/>
-      <c r="AP8"/>
+      <c r="AP8">
+        <v>20.739000000000001</v>
+      </c>
       <c r="AQ8">
         <v>17.900300000000001</v>
       </c>
@@ -6654,15 +6676,15 @@
         <v>56.437620000000003</v>
       </c>
       <c r="AX8" s="4">
-        <f>MIN(AJ8:AU8)</f>
-        <v>15.67474666</v>
+        <f t="shared" si="12"/>
+        <v>14.413</v>
       </c>
       <c r="AY8" s="4">
-        <f>MAX(AJ8:AU8)</f>
+        <f t="shared" si="13"/>
         <v>56.437620000000003</v>
       </c>
       <c r="AZ8" s="35">
-        <f>((AU8-AJ8)/AJ8)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.23641311968622389</v>
       </c>
     </row>
@@ -6689,7 +6711,7 @@
         <v>3.012</v>
       </c>
       <c r="P9" s="3">
-        <f>MIN(F9:M9)*1000</f>
+        <f t="shared" si="9"/>
         <v>2632</v>
       </c>
       <c r="Q9" s="3">
@@ -6700,13 +6722,13 @@
         <f>((M9-B9)/B9)/(2019-2008)</f>
         <v>2.8871391076115485E-2</v>
       </c>
-      <c r="S9" s="45">
-        <v>186.79028499218199</v>
+      <c r="S9" s="42">
+        <v>186.79028499218299</v>
       </c>
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9">
-        <v>236.02858403652201</v>
+        <v>236.028584036523</v>
       </c>
       <c r="W9"/>
       <c r="X9"/>
@@ -6725,16 +6747,16 @@
         <v>390.62721147893899</v>
       </c>
       <c r="AG9" s="3">
-        <f>MIN(S9:AD9)*1000</f>
-        <v>186790.28499218199</v>
+        <f t="shared" si="10"/>
+        <v>186790.28499218298</v>
       </c>
       <c r="AH9" s="3">
-        <f>MAX(S9:AD9)*1000</f>
+        <f t="shared" si="11"/>
         <v>432995.13489349501</v>
       </c>
       <c r="AI9" s="35">
-        <f>((AD9-S9)/S9)/(2019-2008)</f>
-        <v>9.9205532457910542E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.9205532457909529E-2</v>
       </c>
       <c r="AJ9">
         <v>1401.3533818599999</v>
@@ -6742,7 +6764,7 @@
       <c r="AK9"/>
       <c r="AL9"/>
       <c r="AM9">
-        <v>1624.9509923399901</v>
+        <v>1624.9509923400001</v>
       </c>
       <c r="AN9"/>
       <c r="AO9"/>
@@ -6761,15 +6783,15 @@
         <v>3668.8614600000001</v>
       </c>
       <c r="AX9" s="3">
-        <f>MIN(AJ9:AU9)</f>
+        <f t="shared" si="12"/>
         <v>1401.3533818599999</v>
       </c>
       <c r="AY9" s="3">
-        <f>MAX(AJ9:AU9)</f>
+        <f t="shared" si="13"/>
         <v>3668.8614600000001</v>
       </c>
       <c r="AZ9" s="35">
-        <f>((AU9-AJ9)/AJ9)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.14709858389831973</v>
       </c>
     </row>
@@ -6796,7 +6818,7 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="P10" s="3">
-        <f>MIN(F10:M10)*1000</f>
+        <f t="shared" si="9"/>
         <v>133</v>
       </c>
       <c r="Q10" s="3">
@@ -6807,13 +6829,13 @@
         <f>((M10-B10)/B10)/(2019-2008)</f>
         <v>4.1829336307863903E-2</v>
       </c>
-      <c r="S10" s="45">
-        <v>60.287880018340601</v>
+      <c r="S10" s="42">
+        <v>60.287880018340701</v>
       </c>
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10">
-        <v>31.4559361092915</v>
+        <v>31.455936109291599</v>
       </c>
       <c r="W10"/>
       <c r="X10"/>
@@ -6832,16 +6854,16 @@
         <v>67.7851162153937</v>
       </c>
       <c r="AG10" s="3">
-        <f>MIN(S10:AD10)*1000</f>
-        <v>31455.936109291499</v>
+        <f t="shared" si="10"/>
+        <v>31455.936109291601</v>
       </c>
       <c r="AH10" s="3">
-        <f>MAX(S10:AD10)*1000</f>
+        <f t="shared" si="11"/>
         <v>71425.682815236592</v>
       </c>
       <c r="AI10" s="35">
-        <f>((AD10-S10)/S10)/(2019-2008)</f>
-        <v>1.1305206399652516E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.1305206399652346E-2</v>
       </c>
       <c r="AJ10">
         <v>85.681666280000002</v>
@@ -6868,15 +6890,15 @@
         <v>187.80137999999999</v>
       </c>
       <c r="AX10" s="4">
-        <f>MIN(AJ10:AU10)</f>
+        <f t="shared" si="12"/>
         <v>82.148946749999993</v>
       </c>
       <c r="AY10" s="4">
-        <f>MAX(AJ10:AU10)</f>
+        <f t="shared" si="13"/>
         <v>197.61373</v>
       </c>
       <c r="AZ10" s="35">
-        <f>((AU10-AJ10)/AJ10)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.10835002096999155</v>
       </c>
     </row>
@@ -6903,7 +6925,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="P11" s="3">
-        <f>MIN(F11:M11)*1000</f>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="Q11" s="3">
@@ -6914,8 +6936,8 @@
         <f>((M11-B11)/B11)/(2019-2008)</f>
         <v>6.3882063882063897E-2</v>
       </c>
-      <c r="S11" s="45">
-        <v>0.19303582349100101</v>
+      <c r="S11" s="42">
+        <v>0.19303582349100201</v>
       </c>
       <c r="T11"/>
       <c r="U11"/>
@@ -6939,16 +6961,16 @@
         <v>0.728437069777365</v>
       </c>
       <c r="AG11" s="3">
-        <f>MIN(S11:AD11)*1000</f>
+        <f t="shared" si="10"/>
         <v>120.19211651326501</v>
       </c>
       <c r="AH11" s="3">
-        <f>MAX(S11:AD11)*1000</f>
+        <f t="shared" si="11"/>
         <v>1026.2868938641102</v>
       </c>
       <c r="AI11" s="35">
-        <f>((AD11-S11)/S11)/(2019-2008)</f>
-        <v>0.25214408233276281</v>
+        <f t="shared" si="5"/>
+        <v>0.25214408233276103</v>
       </c>
       <c r="AJ11">
         <v>6.2988295000000001</v>
@@ -6975,15 +6997,15 @@
         <v>6.2750399999999997</v>
       </c>
       <c r="AX11" s="4">
-        <f>MIN(AJ11:AU11)</f>
+        <f t="shared" si="12"/>
         <v>1.3523702399999999</v>
       </c>
       <c r="AY11" s="4">
-        <f>MAX(AJ11:AU11)</f>
+        <f t="shared" si="13"/>
         <v>7.5678700000000001</v>
       </c>
       <c r="AZ11" s="35">
-        <f>((AU11-AJ11)/AJ11)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>-3.4334661990483316E-4</v>
       </c>
     </row>
@@ -7018,24 +7040,24 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="13">
-        <f>MIN(F12:M12)*1000</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="Q12" s="13">
         <f>MAX(B12:M12)*1000</f>
         <v>12</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="40">
         <f>((M12-B12)/B12)/(2019-2008)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="42">
         <v>9.6720255375994602E-2</v>
       </c>
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12">
-        <v>0.12828586173301301</v>
+        <v>0.12828586173301401</v>
       </c>
       <c r="W12"/>
       <c r="X12"/>
@@ -7052,18 +7074,20 @@
       <c r="AE12" s="14"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="13">
-        <f>MIN(S12:AD12)*1000</f>
+        <f t="shared" si="10"/>
         <v>83.770263024396996</v>
       </c>
       <c r="AH12" s="13">
-        <f>MAX(S12:AD12)*1000</f>
+        <f t="shared" si="11"/>
         <v>214.88893558432201</v>
       </c>
-      <c r="AI12" s="44">
-        <f>((AD12-S12)/S12)/(2019-2008)</f>
+      <c r="AI12" s="41">
+        <f t="shared" si="5"/>
         <v>0.11106884747052043</v>
       </c>
-      <c r="AJ12"/>
+      <c r="AJ12">
+        <v>0.218</v>
+      </c>
       <c r="AK12"/>
       <c r="AL12"/>
       <c r="AM12">
@@ -7074,8 +7098,12 @@
       <c r="AP12">
         <v>0.2717</v>
       </c>
-      <c r="AQ12"/>
-      <c r="AR12"/>
+      <c r="AQ12">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="AR12">
+        <v>1.5589999999999999</v>
+      </c>
       <c r="AS12"/>
       <c r="AT12"/>
       <c r="AU12">
@@ -7084,16 +7112,16 @@
       <c r="AV12" s="12"/>
       <c r="AW12" s="12"/>
       <c r="AX12" s="15">
-        <f>MIN(AJ12:AU12)</f>
-        <v>0.2717</v>
+        <f t="shared" si="12"/>
+        <v>0.218</v>
       </c>
       <c r="AY12" s="15">
-        <f>MAX(AJ12:AU12)</f>
+        <f t="shared" si="13"/>
         <v>13.835279999999999</v>
       </c>
-      <c r="AZ12" s="44" t="e">
-        <f>((AU12-AJ12)/AJ12)/(2019-2008)</f>
-        <v>#DIV/0!</v>
+      <c r="AZ12" s="41">
+        <f t="shared" si="8"/>
+        <v>5.6785988323602998</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
@@ -7119,7 +7147,7 @@
         <v>0.126</v>
       </c>
       <c r="P13" s="3">
-        <f>MIN(F13:M13)*1000</f>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="Q13" s="3">
@@ -7130,13 +7158,13 @@
         <f>((M13-B13)/B13)/(2019-2008)</f>
         <v>2.479338842975206E-2</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="42">
         <v>3.0161341561392798</v>
       </c>
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13">
-        <v>5.8942699562818399</v>
+        <v>5.8942699562818497</v>
       </c>
       <c r="W13"/>
       <c r="X13"/>
@@ -7155,15 +7183,15 @@
         <v>7.2487582188067599</v>
       </c>
       <c r="AG13" s="3">
-        <f>MIN(S13:AD13)*1000</f>
+        <f t="shared" si="10"/>
         <v>3016.1341561392796</v>
       </c>
       <c r="AH13" s="3">
-        <f>MAX(S13:AD13)*1000</f>
+        <f t="shared" si="11"/>
         <v>7788.2063377029899</v>
       </c>
       <c r="AI13" s="35">
-        <f>((AD13-S13)/S13)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>0.12757522901089249</v>
       </c>
       <c r="AJ13">
@@ -7191,15 +7219,15 @@
         <v>88.187160000000006</v>
       </c>
       <c r="AX13" s="4">
-        <f>MIN(AJ13:AU13)</f>
+        <f t="shared" si="12"/>
         <v>52.948536799999999</v>
       </c>
       <c r="AY13" s="4">
-        <f>MAX(AJ13:AU13)</f>
+        <f t="shared" si="13"/>
         <v>115.37094698999999</v>
       </c>
       <c r="AZ13" s="35">
-        <f>((AU13-AJ13)/AJ13)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>6.0502355562732008E-2</v>
       </c>
     </row>
@@ -7226,7 +7254,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="P14" s="3">
-        <f>MIN(F14:M14)*1000</f>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="Q14" s="3">
@@ -7237,13 +7265,13 @@
         <f>((M14-B14)/B14)/(2019-2008)</f>
         <v>6.8965517241379296E-2</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="42">
         <v>1.5005803637413699</v>
       </c>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14">
-        <v>0.66125898445345199</v>
+        <v>0.66125898445345299</v>
       </c>
       <c r="W14"/>
       <c r="X14"/>
@@ -7262,15 +7290,15 @@
         <v>2.8813732982304598</v>
       </c>
       <c r="AG14" s="3">
-        <f>MIN(S14:AD14)*1000</f>
-        <v>661.25898445345194</v>
+        <f t="shared" si="10"/>
+        <v>661.25898445345297</v>
       </c>
       <c r="AH14" s="3">
-        <f>MAX(S14:AD14)*1000</f>
+        <f t="shared" si="11"/>
         <v>3331.3855324484798</v>
       </c>
       <c r="AI14" s="35">
-        <f>((AD14-S14)/S14)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>8.3652054525840791E-2</v>
       </c>
       <c r="AJ14">
@@ -7298,15 +7326,15 @@
         <v>53.256239999999998</v>
       </c>
       <c r="AX14" s="4">
-        <f>MIN(AJ14:AU14)</f>
+        <f t="shared" si="12"/>
         <v>7.1318430599999996</v>
       </c>
       <c r="AY14" s="4">
-        <f>MAX(AJ14:AU14)</f>
+        <f t="shared" si="13"/>
         <v>53.256239999999998</v>
       </c>
       <c r="AZ14" s="35">
-        <f>((AU14-AJ14)/AJ14)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.58794437276154177</v>
       </c>
     </row>
@@ -7333,7 +7361,7 @@
         <v>0.129</v>
       </c>
       <c r="P15" s="3">
-        <f>MIN(F15:M15)*1000</f>
+        <f t="shared" si="9"/>
         <v>113</v>
       </c>
       <c r="Q15" s="3">
@@ -7344,13 +7372,13 @@
         <f>((M15-B15)/B15)/(2019-2008)</f>
         <v>-2.5757575757575753E-2</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="42">
         <v>3.9716007793305899</v>
       </c>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15">
-        <v>1.09306029192703</v>
+        <v>1.09306029192704</v>
       </c>
       <c r="W15"/>
       <c r="X15"/>
@@ -7369,19 +7397,19 @@
         <v>1.1290774581549099</v>
       </c>
       <c r="AG15" s="3">
-        <f>MIN(S15:AD15)*1000</f>
+        <f t="shared" si="10"/>
         <v>666.1152315853019</v>
       </c>
       <c r="AH15" s="3">
-        <f>MAX(S15:AD15)*1000</f>
+        <f t="shared" si="11"/>
         <v>3971.6007793305898</v>
       </c>
       <c r="AI15" s="35">
-        <f>((AD15-S15)/S15)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>-6.5064749800841232E-2</v>
       </c>
       <c r="AJ15">
-        <v>12.294819619999901</v>
+        <v>12.29481962</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -7405,16 +7433,16 @@
         <v>17.62866</v>
       </c>
       <c r="AX15" s="4">
-        <f>MIN(AJ15:AU15)</f>
+        <f t="shared" si="12"/>
         <v>8.7462332099999998</v>
       </c>
       <c r="AY15" s="4">
-        <f>MAX(AJ15:AU15)</f>
+        <f t="shared" si="13"/>
         <v>17.62866</v>
       </c>
       <c r="AZ15" s="35">
-        <f>((AU15-AJ15)/AJ15)/(2019-2008)</f>
-        <v>3.9438934037814941E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.9438934037813886E-2</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
@@ -7440,7 +7468,7 @@
         <v>0.24</v>
       </c>
       <c r="P16" s="3">
-        <f>MIN(F16:M16)*1000</f>
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
       <c r="Q16" s="3">
@@ -7451,13 +7479,13 @@
         <f>((M16-B16)/B16)/(2019-2008)</f>
         <v>8.7173100871730958E-3</v>
       </c>
-      <c r="S16" s="45">
-        <v>59.953203653503998</v>
+      <c r="S16" s="42">
+        <v>59.953203653504097</v>
       </c>
       <c r="T16"/>
       <c r="U16"/>
       <c r="V16">
-        <v>52.801975064595197</v>
+        <v>52.801975064595297</v>
       </c>
       <c r="W16"/>
       <c r="X16"/>
@@ -7476,19 +7504,19 @@
         <v>73.1399380527793</v>
       </c>
       <c r="AG16" s="3">
-        <f>MIN(S16:AD16)*1000</f>
+        <f t="shared" si="10"/>
         <v>50590.359183298999</v>
       </c>
       <c r="AH16" s="3">
-        <f>MAX(S16:AD16)*1000</f>
+        <f t="shared" si="11"/>
         <v>73139.938052779296</v>
       </c>
       <c r="AI16" s="35">
-        <f>((AD16-S16)/S16)/(2019-2008)</f>
-        <v>1.999549587418404E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.9995495874183856E-2</v>
       </c>
       <c r="AJ16">
-        <v>86.924475399999906</v>
+        <v>86.924475400000006</v>
       </c>
       <c r="AK16"/>
       <c r="AL16"/>
@@ -7512,16 +7540,16 @@
         <v>210.08735999999999</v>
       </c>
       <c r="AX16" s="4">
-        <f>MIN(AJ16:AU16)</f>
+        <f t="shared" si="12"/>
         <v>62.301670469999998</v>
       </c>
       <c r="AY16" s="4">
-        <f>MAX(AJ16:AU16)</f>
+        <f t="shared" si="13"/>
         <v>210.08735999999999</v>
       </c>
       <c r="AZ16" s="35">
-        <f>((AU16-AJ16)/AJ16)/(2019-2008)</f>
-        <v>0.12880866776824162</v>
+        <f t="shared" si="8"/>
+        <v>0.12880866776824137</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
@@ -7547,7 +7575,7 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="P17" s="3">
-        <f>MIN(F17:M17)*1000</f>
+        <f t="shared" si="9"/>
         <v>196</v>
       </c>
       <c r="Q17" s="3">
@@ -7558,7 +7586,7 @@
         <f>((M17-B17)/B17)/(2019-2008)</f>
         <v>5.387205387205387E-2</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="42">
         <v>12.094078794609199</v>
       </c>
       <c r="T17"/>
@@ -7583,19 +7611,19 @@
         <v>24.559660494804799</v>
       </c>
       <c r="AG17" s="3">
-        <f>MIN(S17:AD17)*1000</f>
+        <f t="shared" si="10"/>
         <v>11640.0196877813</v>
       </c>
       <c r="AH17" s="3">
-        <f>MAX(S17:AD17)*1000</f>
+        <f t="shared" si="11"/>
         <v>24559.660494804801</v>
       </c>
       <c r="AI17" s="35">
-        <f>((AD17-S17)/S17)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>9.370161376184423E-2</v>
       </c>
       <c r="AJ17">
-        <v>28.756746879999898</v>
+        <v>28.756746880000001</v>
       </c>
       <c r="AK17"/>
       <c r="AL17"/>
@@ -7619,16 +7647,16 @@
         <v>74.156040000000004</v>
       </c>
       <c r="AX17" s="4">
-        <f>MIN(AJ17:AU17)</f>
-        <v>28.756746879999898</v>
+        <f t="shared" si="12"/>
+        <v>28.756746880000001</v>
       </c>
       <c r="AY17" s="4">
-        <f>MAX(AJ17:AU17)</f>
+        <f t="shared" si="13"/>
         <v>74.156040000000004</v>
       </c>
       <c r="AZ17" s="35">
-        <f>((AU17-AJ17)/AJ17)/(2019-2008)</f>
-        <v>0.14352139630665239</v>
+        <f t="shared" si="8"/>
+        <v>0.14352139630665153</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
@@ -7654,7 +7682,7 @@
         <v>0.59499999999999997</v>
       </c>
       <c r="P18" s="3">
-        <f>MIN(F18:M18)*1000</f>
+        <f t="shared" si="9"/>
         <v>251</v>
       </c>
       <c r="Q18" s="3">
@@ -7665,7 +7693,7 @@
         <f>((M18-B18)/B18)/(2019-2008)</f>
         <v>0.40993265993265998</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="42">
         <v>5.0905610559608201</v>
       </c>
       <c r="T18"/>
@@ -7688,15 +7716,15 @@
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AG18" s="3">
-        <f>MIN(S18:AD18)*1000</f>
+        <f t="shared" si="10"/>
         <v>5090.5610559608203</v>
       </c>
       <c r="AH18" s="3">
-        <f>MAX(S18:AD18)*1000</f>
+        <f t="shared" si="11"/>
         <v>17490.178732615503</v>
       </c>
       <c r="AI18" s="35">
-        <f>((AD18-S18)/S18)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>-9.0909090909090912E-2</v>
       </c>
       <c r="AJ18">
@@ -7724,15 +7752,15 @@
         <v>184.57002</v>
       </c>
       <c r="AX18" s="4">
-        <f>MIN(AJ18:AU18)</f>
+        <f t="shared" si="12"/>
         <v>16.929433700000001</v>
       </c>
       <c r="AY18" s="4">
-        <f>MAX(AJ18:AU18)</f>
+        <f t="shared" si="13"/>
         <v>184.57002</v>
       </c>
       <c r="AZ18" s="35">
-        <f>((AU18-AJ18)/AJ18)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.90021046008172145</v>
       </c>
     </row>
@@ -7759,7 +7787,7 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="P19" s="3">
-        <f>MIN(F19:M19)*1000</f>
+        <f t="shared" si="9"/>
         <v>583</v>
       </c>
       <c r="Q19" s="3">
@@ -7770,13 +7798,13 @@
         <f>((M19-B19)/B19)/(2019-2008)</f>
         <v>5.786860198624906E-2</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="42">
         <v>37.822880786406699</v>
       </c>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19">
-        <v>33.036239863447399</v>
+        <v>33.036239863447499</v>
       </c>
       <c r="W19"/>
       <c r="X19"/>
@@ -7795,15 +7823,15 @@
         <v>54.103044608669798</v>
       </c>
       <c r="AG19" s="3">
-        <f>MIN(S19:AD19)*1000</f>
-        <v>33036.239863447401</v>
+        <f t="shared" si="10"/>
+        <v>33036.239863447496</v>
       </c>
       <c r="AH19" s="3">
-        <f>MAX(S19:AD19)*1000</f>
+        <f t="shared" si="11"/>
         <v>54103.044608669799</v>
       </c>
       <c r="AI19" s="35">
-        <f>((AD19-S19)/S19)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>3.9130147206156672E-2</v>
       </c>
       <c r="AJ19">
@@ -7812,7 +7840,7 @@
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19">
-        <v>71.022875039999903</v>
+        <v>71.022875040000002</v>
       </c>
       <c r="AN19"/>
       <c r="AO19"/>
@@ -7831,15 +7859,15 @@
         <v>147.48792</v>
       </c>
       <c r="AX19" s="4">
-        <f>MIN(AJ19:AU19)</f>
-        <v>71.022875039999903</v>
+        <f t="shared" si="12"/>
+        <v>71.022875040000002</v>
       </c>
       <c r="AY19" s="4">
-        <f>MAX(AJ19:AU19)</f>
+        <f t="shared" si="13"/>
         <v>147.48792</v>
       </c>
       <c r="AZ19" s="35">
-        <f>((AU19-AJ19)/AJ19)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>6.2702001295702234E-2</v>
       </c>
     </row>
@@ -7866,7 +7894,7 @@
         <v>0.11</v>
       </c>
       <c r="P20" s="3">
-        <f>MIN(F20:M20)*1000</f>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="Q20" s="3">
@@ -7877,13 +7905,13 @@
         <f>((M20-B20)/B20)/(2019-2008)</f>
         <v>2.4033437826541285E-2</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="42">
         <v>21.386912368663399</v>
       </c>
       <c r="T20"/>
       <c r="U20"/>
       <c r="V20">
-        <v>22.823956832429701</v>
+        <v>22.823956832429801</v>
       </c>
       <c r="W20"/>
       <c r="X20"/>
@@ -7902,23 +7930,25 @@
         <v>34.665510776182799</v>
       </c>
       <c r="AG20" s="3">
-        <f>MIN(S20:AD20)*1000</f>
+        <f t="shared" si="10"/>
         <v>17019.932135348099</v>
       </c>
       <c r="AH20" s="3">
-        <f>MAX(S20:AD20)*1000</f>
+        <f t="shared" si="11"/>
         <v>34665.510776182797</v>
       </c>
       <c r="AI20" s="35">
-        <f>((AD20-S20)/S20)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>5.6443178377783426E-2</v>
       </c>
       <c r="AJ20">
-        <v>17.648526099999899</v>
+        <v>17.648526100000002</v>
       </c>
       <c r="AK20"/>
       <c r="AL20"/>
-      <c r="AM20"/>
+      <c r="AM20">
+        <v>19.170999999999999</v>
+      </c>
       <c r="AN20"/>
       <c r="AO20"/>
       <c r="AP20">
@@ -7936,16 +7966,16 @@
         <v>70.428960000000004</v>
       </c>
       <c r="AX20" s="4">
-        <f>MIN(AJ20:AU20)</f>
-        <v>17.648526099999899</v>
+        <f t="shared" si="12"/>
+        <v>17.648526100000002</v>
       </c>
       <c r="AY20" s="4">
-        <f>MAX(AJ20:AU20)</f>
+        <f t="shared" si="13"/>
         <v>70.428960000000004</v>
       </c>
       <c r="AZ20" s="35">
-        <f>((AU20-AJ20)/AJ20)/(2019-2008)</f>
-        <v>0.27187659957827304</v>
+        <f t="shared" si="8"/>
+        <v>0.27187659957827093</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
@@ -7971,7 +8001,7 @@
         <v>0.185</v>
       </c>
       <c r="P21" s="3">
-        <f>MIN(F21:M21)*1000</f>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="Q21" s="3">
@@ -7982,13 +8012,13 @@
         <f>((M21-B21)/B21)/(2019-2008)</f>
         <v>0.23251748251748253</v>
       </c>
-      <c r="S21" s="45">
-        <v>2.1760034023293802</v>
+      <c r="S21" s="42">
+        <v>2.1760034023293899</v>
       </c>
       <c r="T21"/>
       <c r="U21"/>
       <c r="V21">
-        <v>1.41964291154388</v>
+        <v>1.41964291154389</v>
       </c>
       <c r="W21"/>
       <c r="X21"/>
@@ -8007,16 +8037,16 @@
         <v>7.8909969019938</v>
       </c>
       <c r="AG21" s="3">
-        <f>MIN(S21:AD21)*1000</f>
-        <v>1419.64291154388</v>
+        <f t="shared" si="10"/>
+        <v>1419.64291154389</v>
       </c>
       <c r="AH21" s="3">
-        <f>MAX(S21:AD21)*1000</f>
+        <f t="shared" si="11"/>
         <v>7890.9969019937998</v>
       </c>
       <c r="AI21" s="35">
-        <f>((AD21-S21)/S21)/(2019-2008)</f>
-        <v>0.23876105296972011</v>
+        <f t="shared" si="5"/>
+        <v>0.23876105296971864</v>
       </c>
       <c r="AJ21">
         <v>2.98300126</v>
@@ -8043,15 +8073,15 @@
         <v>39.228180000000002</v>
       </c>
       <c r="AX21" s="4">
-        <f>MIN(AJ21:AU21)</f>
+        <f t="shared" si="12"/>
         <v>2.98300126</v>
       </c>
       <c r="AY21" s="4">
-        <f>MAX(AJ21:AU21)</f>
+        <f t="shared" si="13"/>
         <v>39.228180000000002</v>
       </c>
       <c r="AZ21" s="35">
-        <f>((AU21-AJ21)/AJ21)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>1.104597672577218</v>
       </c>
     </row>
@@ -8078,7 +8108,7 @@
         <v>0.01</v>
       </c>
       <c r="P22" s="3">
-        <f>MIN(F22:M22)*1000</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q22" s="3">
@@ -8089,8 +8119,8 @@
         <f>((M22-B22)/B22)/(2019-2008)</f>
         <v>-3.4090909090909088E-2</v>
       </c>
-      <c r="S22" s="45">
-        <v>0.85065262259556695</v>
+      <c r="S22" s="42">
+        <v>0.85065262259556795</v>
       </c>
       <c r="T22"/>
       <c r="U22"/>
@@ -8114,16 +8144,16 @@
         <v>1.3524648262199701</v>
       </c>
       <c r="AG22" s="3">
-        <f>MIN(S22:AD22)*1000</f>
+        <f t="shared" si="10"/>
         <v>825.56201241434701</v>
       </c>
       <c r="AH22" s="3">
-        <f>MAX(S22:AD22)*1000</f>
+        <f t="shared" si="11"/>
         <v>2195.8330781177601</v>
       </c>
       <c r="AI22" s="35">
-        <f>((AD22-S22)/S22)/(2019-2008)</f>
-        <v>5.3628578842660285E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.3628578842660118E-2</v>
       </c>
       <c r="AJ22">
         <v>2.5385491600000001</v>
@@ -8131,11 +8161,13 @@
       <c r="AK22"/>
       <c r="AL22"/>
       <c r="AM22">
-        <v>3.2562960299999899</v>
+        <v>3.2562960300000001</v>
       </c>
       <c r="AN22"/>
       <c r="AO22"/>
-      <c r="AP22"/>
+      <c r="AP22">
+        <v>6.6859999999999999</v>
+      </c>
       <c r="AQ22">
         <v>5.6672000000000002</v>
       </c>
@@ -8148,15 +8180,15 @@
         <v>14.61966</v>
       </c>
       <c r="AX22" s="4">
-        <f>MIN(AJ22:AU22)</f>
+        <f t="shared" si="12"/>
         <v>2.5385491600000001</v>
       </c>
       <c r="AY22" s="4">
-        <f>MAX(AJ22:AU22)</f>
+        <f t="shared" si="13"/>
         <v>14.61966</v>
       </c>
       <c r="AZ22" s="35">
-        <f>((AU22-AJ22)/AJ22)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.43264192828803183</v>
       </c>
     </row>
@@ -8183,7 +8215,7 @@
         <v>0.45600000000000002</v>
       </c>
       <c r="P23" s="3">
-        <f>MIN(F23:M23)*1000</f>
+        <f t="shared" si="9"/>
         <v>444</v>
       </c>
       <c r="Q23" s="3">
@@ -8194,13 +8226,13 @@
         <f>((M23-B23)/B23)/(2019-2008)</f>
         <v>5.9288537549407105E-2</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="42">
         <v>10.657843705364799</v>
       </c>
       <c r="T23"/>
       <c r="U23"/>
       <c r="V23">
-        <v>10.4498344532172</v>
+        <v>10.449834453217299</v>
       </c>
       <c r="W23"/>
       <c r="X23"/>
@@ -8219,15 +8251,15 @@
         <v>22.363422729426102</v>
       </c>
       <c r="AG23" s="3">
-        <f>MIN(S23:AD23)*1000</f>
-        <v>10449.8344532172</v>
+        <f t="shared" si="10"/>
+        <v>10449.8344532173</v>
       </c>
       <c r="AH23" s="3">
-        <f>MAX(S23:AD23)*1000</f>
+        <f t="shared" si="11"/>
         <v>22657.6303681639</v>
       </c>
       <c r="AI23" s="35">
-        <f>((AD23-S23)/S23)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>9.9846045509776285E-2</v>
       </c>
       <c r="AJ23">
@@ -8236,7 +8268,7 @@
       <c r="AK23"/>
       <c r="AL23"/>
       <c r="AM23">
-        <v>28.550516669999901</v>
+        <v>28.55051667</v>
       </c>
       <c r="AN23"/>
       <c r="AO23"/>
@@ -8255,15 +8287,15 @@
         <v>65.096400000000003</v>
       </c>
       <c r="AX23" s="4">
-        <f>MIN(AJ23:AU23)</f>
-        <v>28.550516669999901</v>
+        <f t="shared" si="12"/>
+        <v>28.55051667</v>
       </c>
       <c r="AY23" s="4">
-        <f>MAX(AJ23:AU23)</f>
+        <f t="shared" si="13"/>
         <v>71.556319999999999</v>
       </c>
       <c r="AZ23" s="35">
-        <f>((AU23-AJ23)/AJ23)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>6.7225339843487039E-2</v>
       </c>
     </row>
@@ -8290,7 +8322,7 @@
         <v>0.12</v>
       </c>
       <c r="P24" s="3">
-        <f>MIN(F24:M24)*1000</f>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="Q24" s="3">
@@ -8301,13 +8333,13 @@
         <f>((M24-B24)/B24)/(2019-2008)</f>
         <v>2.3923444976076548E-2</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="42">
         <v>3.5470838425547799</v>
       </c>
       <c r="T24"/>
       <c r="U24"/>
       <c r="V24">
-        <v>3.3184355400968801</v>
+        <v>3.3184355400968899</v>
       </c>
       <c r="W24"/>
       <c r="X24"/>
@@ -8326,15 +8358,15 @@
         <v>6.9590021399397601</v>
       </c>
       <c r="AG24" s="3">
-        <f>MIN(S24:AD24)*1000</f>
-        <v>3318.4355400968802</v>
+        <f t="shared" si="10"/>
+        <v>3318.4355400968898</v>
       </c>
       <c r="AH24" s="3">
-        <f>MAX(S24:AD24)*1000</f>
+        <f t="shared" si="11"/>
         <v>6959.0021399397601</v>
       </c>
       <c r="AI24" s="35">
-        <f>((AD24-S24)/S24)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>8.7444899652543706E-2</v>
       </c>
       <c r="AJ24">
@@ -8362,15 +8394,15 @@
         <v>51.081600000000002</v>
       </c>
       <c r="AX24" s="4">
-        <f>MIN(AJ24:AU24)</f>
+        <f t="shared" si="12"/>
         <v>10.54672983</v>
       </c>
       <c r="AY24" s="4">
-        <f>MAX(AJ24:AU24)</f>
+        <f t="shared" si="13"/>
         <v>51.081600000000002</v>
       </c>
       <c r="AZ24" s="35">
-        <f>((AU24-AJ24)/AJ24)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.27497141201153846</v>
       </c>
     </row>
@@ -8397,7 +8429,7 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="P25" s="3">
-        <f>MIN(F25:M25)*1000</f>
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
       <c r="Q25" s="3">
@@ -8408,13 +8440,13 @@
         <f>((M25-B25)/B25)/(2019-2008)</f>
         <v>6.0227272727272733E-2</v>
       </c>
-      <c r="S25" s="45">
+      <c r="S25" s="42">
         <v>1.4892491204337199</v>
       </c>
       <c r="T25"/>
       <c r="U25"/>
       <c r="V25">
-        <v>1.03640407538879</v>
+        <v>1.0364040753888</v>
       </c>
       <c r="W25"/>
       <c r="X25"/>
@@ -8433,19 +8465,19 @@
         <v>3.3062949222672602</v>
       </c>
       <c r="AG25" s="3">
-        <f>MIN(S25:AD25)*1000</f>
-        <v>1036.40407538879</v>
+        <f t="shared" si="10"/>
+        <v>1036.4040753888</v>
       </c>
       <c r="AH25" s="3">
-        <f>MAX(S25:AD25)*1000</f>
+        <f t="shared" si="11"/>
         <v>3306.2949222672601</v>
       </c>
       <c r="AI25" s="35">
-        <f>((AD25-S25)/S25)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>0.11091897233201622</v>
       </c>
       <c r="AJ25">
-        <v>18.4003584199999</v>
+        <v>18.40035842</v>
       </c>
       <c r="AK25"/>
       <c r="AL25"/>
@@ -8469,16 +8501,16 @@
         <v>33.552900000000001</v>
       </c>
       <c r="AX25" s="4">
-        <f>MIN(AJ25:AU25)</f>
+        <f t="shared" si="12"/>
         <v>12.58739001</v>
       </c>
       <c r="AY25" s="4">
-        <f>MAX(AJ25:AU25)</f>
+        <f t="shared" si="13"/>
         <v>33.552900000000001</v>
       </c>
       <c r="AZ25" s="35">
-        <f>((AU25-AJ25)/AJ25)/(2019-2008)</f>
-        <v>7.4862877589534291E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.4862877589533389E-2</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
@@ -8504,7 +8536,7 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="P26" s="3">
-        <f>MIN(F26:M26)*1000</f>
+        <f t="shared" si="9"/>
         <v>285</v>
       </c>
       <c r="Q26" s="3">
@@ -8515,13 +8547,13 @@
         <f>((M26-B26)/B26)/(2019-2008)</f>
         <v>6.8255369226243034E-2</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="42">
         <v>26.8198388474196</v>
       </c>
       <c r="T26"/>
       <c r="U26"/>
       <c r="V26">
-        <v>25.8020503860362</v>
+        <v>25.802050386036299</v>
       </c>
       <c r="W26"/>
       <c r="X26"/>
@@ -8540,15 +8572,15 @@
         <v>49.474231717495599</v>
       </c>
       <c r="AG26" s="3">
-        <f>MIN(S26:AD26)*1000</f>
+        <f t="shared" si="10"/>
         <v>22632.539757982697</v>
       </c>
       <c r="AH26" s="3">
-        <f>MAX(S26:AD26)*1000</f>
+        <f t="shared" si="11"/>
         <v>49474.231717495597</v>
       </c>
       <c r="AI26" s="35">
-        <f>((AD26-S26)/S26)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>7.6789807449351932E-2</v>
       </c>
       <c r="AJ26">
@@ -8557,7 +8589,7 @@
       <c r="AK26"/>
       <c r="AL26"/>
       <c r="AM26">
-        <v>116.070780149999</v>
+        <v>116.07078015</v>
       </c>
       <c r="AN26"/>
       <c r="AO26"/>
@@ -8576,15 +8608,15 @@
         <v>235.57409999999999</v>
       </c>
       <c r="AX26" s="4">
-        <f>MIN(AJ26:AU26)</f>
+        <f t="shared" si="12"/>
         <v>86.755195520000001</v>
       </c>
       <c r="AY26" s="4">
-        <f>MAX(AJ26:AU26)</f>
+        <f t="shared" si="13"/>
         <v>235.57409999999999</v>
       </c>
       <c r="AZ26" s="35">
-        <f>((AU26-AJ26)/AJ26)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.15594445076485067</v>
       </c>
     </row>
@@ -8611,7 +8643,7 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="P27" s="3">
-        <f>MIN(F27:M27)*1000</f>
+        <f t="shared" si="9"/>
         <v>431</v>
       </c>
       <c r="Q27" s="3">
@@ -8622,7 +8654,7 @@
         <f>((M27-B27)/B27)/(2019-2008)</f>
         <v>3.4041715859897674E-2</v>
       </c>
-      <c r="S27" s="45">
+      <c r="S27" s="42">
         <v>48.578254121669502</v>
       </c>
       <c r="T27"/>
@@ -8647,15 +8679,15 @@
         <v>69.997946158472899</v>
       </c>
       <c r="AG27" s="3">
-        <f>MIN(S27:AD27)*1000</f>
+        <f t="shared" si="10"/>
         <v>46668.9396243308</v>
       </c>
       <c r="AH27" s="3">
-        <f>MAX(S27:AD27)*1000</f>
+        <f t="shared" si="11"/>
         <v>69997.9461584729</v>
       </c>
       <c r="AI27" s="35">
-        <f>((AD27-S27)/S27)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>4.008469974531001E-2</v>
       </c>
       <c r="AJ27">
@@ -8664,7 +8696,7 @@
       <c r="AK27"/>
       <c r="AL27"/>
       <c r="AM27">
-        <v>80.9419782599999</v>
+        <v>80.941978259999999</v>
       </c>
       <c r="AN27"/>
       <c r="AO27"/>
@@ -8683,15 +8715,15 @@
         <v>115.87812</v>
       </c>
       <c r="AX27" s="4">
-        <f>MIN(AJ27:AU27)</f>
-        <v>80.9419782599999</v>
+        <f t="shared" si="12"/>
+        <v>80.941978259999999</v>
       </c>
       <c r="AY27" s="4">
-        <f>MAX(AJ27:AU27)</f>
+        <f t="shared" si="13"/>
         <v>116.06211</v>
       </c>
       <c r="AZ27" s="35">
-        <f>((AU27-AJ27)/AJ27)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>3.4135867059866216E-2</v>
       </c>
     </row>
@@ -8718,7 +8750,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="P28" s="3">
-        <f>MIN(F28:M28)*1000</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="Q28" s="3">
@@ -8729,10 +8761,14 @@
         <f>((M28-B28)/B28)/(2019-2008)</f>
         <v>0.17272727272727276</v>
       </c>
-      <c r="S28" s="45"/>
+      <c r="S28" s="42">
+        <v>1.5720000000000001</v>
+      </c>
       <c r="T28"/>
       <c r="U28"/>
-      <c r="V28"/>
+      <c r="V28">
+        <v>1.96</v>
+      </c>
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28">
@@ -8750,21 +8786,25 @@
         <v>3.5964556883952401</v>
       </c>
       <c r="AG28" s="3">
-        <f>MIN(S28:AD28)*1000</f>
+        <f t="shared" si="10"/>
         <v>1133.93370528676</v>
       </c>
       <c r="AH28" s="3">
-        <f>MAX(S28:AD28)*1000</f>
+        <f t="shared" si="11"/>
         <v>9475.3475287595702</v>
       </c>
-      <c r="AI28" s="35" t="e">
-        <f>((AD28-S28)/S28)/(2019-2008)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ28"/>
+      <c r="AI28" s="35">
+        <f t="shared" si="5"/>
+        <v>0.11707469861179966</v>
+      </c>
+      <c r="AJ28">
+        <v>4.7389999999999999</v>
+      </c>
       <c r="AK28"/>
       <c r="AL28"/>
-      <c r="AM28"/>
+      <c r="AM28">
+        <v>7.0720000000000001</v>
+      </c>
       <c r="AN28"/>
       <c r="AO28"/>
       <c r="AP28">
@@ -8782,16 +8822,16 @@
         <v>30.117540000000002</v>
       </c>
       <c r="AX28" s="4">
-        <f>MIN(AJ28:AU28)</f>
-        <v>6.6</v>
+        <f t="shared" si="12"/>
+        <v>4.7389999999999999</v>
       </c>
       <c r="AY28" s="4">
-        <f>MAX(AJ28:AU28)</f>
+        <f t="shared" si="13"/>
         <v>30.117540000000002</v>
       </c>
-      <c r="AZ28" s="35" t="e">
-        <f>((AU28-AJ28)/AJ28)/(2019-2008)</f>
-        <v>#DIV/0!</v>
+      <c r="AZ28" s="35">
+        <f t="shared" si="8"/>
+        <v>0.48684110571850603</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
@@ -8817,7 +8857,7 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="P29" s="3">
-        <f>MIN(F29:M29)*1000</f>
+        <f t="shared" si="9"/>
         <v>176</v>
       </c>
       <c r="Q29" s="3">
@@ -8828,7 +8868,7 @@
         <f>((M29-B29)/B29)/(2019-2008)</f>
         <v>0.18972332015810275</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="42">
         <v>11.111902812192699</v>
       </c>
       <c r="T29"/>
@@ -8853,19 +8893,19 @@
         <v>20.7082518319875</v>
       </c>
       <c r="AG29" s="3">
-        <f>MIN(S29:AD29)*1000</f>
+        <f t="shared" si="10"/>
         <v>8994.9837499674995</v>
       </c>
       <c r="AH29" s="3">
-        <f>MAX(S29:AD29)*1000</f>
+        <f t="shared" si="11"/>
         <v>20708.251831987502</v>
       </c>
       <c r="AI29" s="35">
-        <f>((AD29-S29)/S29)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>7.8509988809355155E-2</v>
       </c>
       <c r="AJ29">
-        <v>11.374810299999901</v>
+        <v>11.3748103</v>
       </c>
       <c r="AK29"/>
       <c r="AL29"/>
@@ -8889,16 +8929,16 @@
         <v>116.1576</v>
       </c>
       <c r="AX29" s="4">
-        <f>MIN(AJ29:AU29)</f>
-        <v>11.374810299999901</v>
+        <f t="shared" si="12"/>
+        <v>11.3748103</v>
       </c>
       <c r="AY29" s="4">
-        <f>MAX(AJ29:AU29)</f>
+        <f t="shared" si="13"/>
         <v>116.1576</v>
       </c>
       <c r="AZ29" s="35">
-        <f>((AU29-AJ29)/AJ29)/(2019-2008)</f>
-        <v>0.83743885861072764</v>
+        <f t="shared" si="8"/>
+        <v>0.83743885861071943</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
@@ -8924,7 +8964,7 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="P30" s="3">
-        <f>MIN(F30:M30)*1000</f>
+        <f t="shared" si="9"/>
         <v>138</v>
       </c>
       <c r="Q30" s="3">
@@ -8935,13 +8975,13 @@
         <f>((M30-B30)/B30)/(2019-2008)</f>
         <v>5.1264524948735457E-2</v>
       </c>
-      <c r="S30" s="45">
+      <c r="S30" s="42">
         <v>114.943727425519</v>
       </c>
       <c r="T30"/>
       <c r="U30"/>
       <c r="V30">
-        <v>81.970214087524894</v>
+        <v>81.970214087524994</v>
       </c>
       <c r="W30"/>
       <c r="X30"/>
@@ -8960,15 +9000,15 @@
         <v>143.95656654022901</v>
       </c>
       <c r="AG30" s="3">
-        <f>MIN(S30:AD30)*1000</f>
-        <v>81970.214087524888</v>
+        <f t="shared" si="10"/>
+        <v>81970.21408752499</v>
       </c>
       <c r="AH30" s="3">
-        <f>MAX(S30:AD30)*1000</f>
+        <f t="shared" si="11"/>
         <v>143956.56654022902</v>
       </c>
       <c r="AI30" s="35">
-        <f>((AD30-S30)/S30)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>2.2946278911296504E-2</v>
       </c>
       <c r="AJ30">
@@ -8996,15 +9036,15 @@
         <v>66.776340000000005</v>
       </c>
       <c r="AX30" s="4">
-        <f>MIN(AJ30:AU30)</f>
+        <f t="shared" si="12"/>
         <v>30.966809820000002</v>
       </c>
       <c r="AY30" s="4">
-        <f>MAX(AJ30:AU30)</f>
+        <f t="shared" si="13"/>
         <v>66.776340000000005</v>
       </c>
       <c r="AZ30" s="35">
-        <f>((AU30-AJ30)/AJ30)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.10512583806559685</v>
       </c>
     </row>
@@ -9031,7 +9071,7 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="P31" s="3">
-        <f>MIN(F31:M31)*1000</f>
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
       <c r="Q31" s="3">
@@ -9042,7 +9082,7 @@
         <f>((M31-B31)/B31)/(2019-2008)</f>
         <v>5.7285180572851813E-2</v>
       </c>
-      <c r="S31" s="45">
+      <c r="S31" s="42">
         <v>59.073413548117401</v>
       </c>
       <c r="T31"/>
@@ -9067,15 +9107,15 @@
         <v>93.819861776497703</v>
       </c>
       <c r="AG31" s="3">
-        <f>MIN(S31:AD31)*1000</f>
+        <f t="shared" si="10"/>
         <v>43451.675899480797</v>
       </c>
       <c r="AH31" s="3">
-        <f>MAX(S31:AD31)*1000</f>
+        <f t="shared" si="11"/>
         <v>93819.86177649771</v>
       </c>
       <c r="AI31" s="35">
-        <f>((AD31-S31)/S31)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>5.3471906074784664E-2</v>
       </c>
       <c r="AJ31">
@@ -9083,7 +9123,9 @@
       </c>
       <c r="AK31"/>
       <c r="AL31"/>
-      <c r="AM31"/>
+      <c r="AM31">
+        <v>63.177</v>
+      </c>
       <c r="AN31"/>
       <c r="AO31"/>
       <c r="AP31">
@@ -9101,15 +9143,15 @@
         <v>188.32668000000001</v>
       </c>
       <c r="AX31" s="4">
-        <f>MIN(AJ31:AU31)</f>
+        <f t="shared" si="12"/>
         <v>59.336300639999997</v>
       </c>
       <c r="AY31" s="4">
-        <f>MAX(AJ31:AU31)</f>
+        <f t="shared" si="13"/>
         <v>188.32668000000001</v>
       </c>
       <c r="AZ31" s="35">
-        <f>((AU31-AJ31)/AJ31)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.19762603999837705</v>
       </c>
     </row>
@@ -9136,7 +9178,7 @@
         <v>0.04</v>
       </c>
       <c r="P32" s="3">
-        <f>MIN(F32:M32)*1000</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="Q32" s="3">
@@ -9147,13 +9189,13 @@
         <f>((M32-B32)/B32)/(2019-2008)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S32" s="45">
-        <v>1.6272474764304301</v>
+      <c r="S32" s="42">
+        <v>1.6272474764304401</v>
       </c>
       <c r="T32"/>
       <c r="U32"/>
       <c r="V32">
-        <v>2.6915749728273601</v>
+        <v>2.6915749728273699</v>
       </c>
       <c r="W32"/>
       <c r="X32"/>
@@ -9172,16 +9214,16 @@
         <v>39.605932858317303</v>
       </c>
       <c r="AG32" s="3">
-        <f>MIN(S32:AD32)*1000</f>
-        <v>1627.2474764304302</v>
+        <f t="shared" si="10"/>
+        <v>1627.2474764304402</v>
       </c>
       <c r="AH32" s="3">
-        <f>MAX(S32:AD32)*1000</f>
+        <f t="shared" si="11"/>
         <v>39605.932858317305</v>
       </c>
       <c r="AI32" s="35">
-        <f>((AD32-S32)/S32)/(2019-2008)</f>
-        <v>2.1217471908842289</v>
+        <f t="shared" si="5"/>
+        <v>2.1217471908842152</v>
       </c>
       <c r="AJ32">
         <v>3.4170796999999999</v>
@@ -9189,11 +9231,13 @@
       <c r="AK32"/>
       <c r="AL32"/>
       <c r="AM32">
-        <v>2.3807288699999898</v>
+        <v>2.38072887</v>
       </c>
       <c r="AN32"/>
       <c r="AO32"/>
-      <c r="AP32"/>
+      <c r="AP32">
+        <v>13.827999999999999</v>
+      </c>
       <c r="AQ32">
         <v>20.631599999999999</v>
       </c>
@@ -9206,15 +9250,15 @@
         <v>68.139060000000001</v>
       </c>
       <c r="AX32" s="4">
-        <f>MIN(AJ32:AU32)</f>
-        <v>2.3807288699999898</v>
+        <f t="shared" si="12"/>
+        <v>2.38072887</v>
       </c>
       <c r="AY32" s="4">
-        <f>MAX(AJ32:AU32)</f>
+        <f t="shared" si="13"/>
         <v>68.139060000000001</v>
       </c>
       <c r="AZ32" s="35">
-        <f>((AU32-AJ32)/AJ32)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>1.7218844473861965</v>
       </c>
     </row>
@@ -9241,7 +9285,7 @@
         <v>0.08</v>
       </c>
       <c r="P33" s="3">
-        <f>MIN(F33:M33)*1000</f>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="Q33" s="3">
@@ -9252,13 +9296,13 @@
         <f>((M33-B33)/B33)/(2019-2008)</f>
         <v>1.1507479861910253E-3</v>
       </c>
-      <c r="S33" s="45">
+      <c r="S33" s="42">
         <v>3.3224824127067598</v>
       </c>
       <c r="T33"/>
       <c r="U33"/>
       <c r="V33">
-        <v>2.01250974889046</v>
+        <v>2.0125097488904702</v>
       </c>
       <c r="W33"/>
       <c r="X33"/>
@@ -9277,15 +9321,15 @@
         <v>4.7380784516407699</v>
       </c>
       <c r="AG33" s="3">
-        <f>MIN(S33:AD33)*1000</f>
-        <v>2012.5097488904601</v>
+        <f t="shared" si="10"/>
+        <v>2012.5097488904703</v>
       </c>
       <c r="AH33" s="3">
-        <f>MAX(S33:AD33)*1000</f>
+        <f t="shared" si="11"/>
         <v>4738.0784516407703</v>
       </c>
       <c r="AI33" s="35">
-        <f>((AD33-S33)/S33)/(2019-2008)</f>
+        <f t="shared" si="5"/>
         <v>3.8733252131546818E-2</v>
       </c>
       <c r="AJ33">
@@ -9313,15 +9357,15 @@
         <v>11.49948</v>
       </c>
       <c r="AX33" s="4">
-        <f>MIN(AJ33:AU33)</f>
+        <f t="shared" si="12"/>
         <v>9.8644999999999996</v>
       </c>
       <c r="AY33" s="4">
-        <f>MAX(AJ33:AU33)</f>
+        <f t="shared" si="13"/>
         <v>22.808499999999999</v>
       </c>
       <c r="AZ33" s="35">
-        <f>((AU33-AJ33)/AJ33)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>-1.0983753901880833E-2</v>
       </c>
     </row>
@@ -9348,7 +9392,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="P34" s="3">
-        <f>MIN(F34:M34)*1000</f>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="Q34" s="3">
@@ -9359,13 +9403,13 @@
         <f>((M34-B34)/B34)/(2019-2008)</f>
         <v>8.7976539589442893E-3</v>
       </c>
-      <c r="S34" s="45">
-        <v>1.0914415428830799</v>
+      <c r="S34" s="42">
+        <v>1.0914415428830899</v>
       </c>
       <c r="T34"/>
       <c r="U34"/>
       <c r="V34">
-        <v>0.66490116980233904</v>
+        <v>0.66490116980234004</v>
       </c>
       <c r="W34"/>
       <c r="X34"/>
@@ -9384,16 +9428,16 @@
         <v>1.5932537465074901</v>
       </c>
       <c r="AG34" s="3">
-        <f>MIN(S34:AD34)*1000</f>
+        <f t="shared" si="10"/>
         <v>615.52932396187293</v>
       </c>
       <c r="AH34" s="3">
-        <f>MAX(S34:AD34)*1000</f>
+        <f t="shared" si="11"/>
         <v>1593.2537465074902</v>
       </c>
       <c r="AI34" s="35">
-        <f>((AD34-S34)/S34)/(2019-2008)</f>
-        <v>4.1797283176593987E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.1797283176592766E-2</v>
       </c>
       <c r="AJ34">
         <v>3.1739715199999998</v>
@@ -9401,7 +9445,7 @@
       <c r="AK34"/>
       <c r="AL34"/>
       <c r="AM34">
-        <v>7.4589781499999903</v>
+        <v>7.4589781500000001</v>
       </c>
       <c r="AN34"/>
       <c r="AO34"/>
@@ -9420,15 +9464,15 @@
         <v>26.77092</v>
       </c>
       <c r="AX34" s="4">
-        <f>MIN(AJ34:AU34)</f>
+        <f t="shared" si="12"/>
         <v>3.1739715199999998</v>
       </c>
       <c r="AY34" s="4">
-        <f>MAX(AJ34:AU34)</f>
+        <f t="shared" si="13"/>
         <v>26.77092</v>
       </c>
       <c r="AZ34" s="35">
-        <f>((AU34-AJ34)/AJ34)/(2019-2008)</f>
+        <f t="shared" si="8"/>
         <v>0.67586527510664451</v>
       </c>
     </row>
@@ -9455,7 +9499,7 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="P35" s="3">
-        <f>MIN(F35:M35)*1000</f>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="Q35" s="3">
@@ -9466,8 +9510,8 @@
         <f>((M35-B35)/B35)/(2019-2008)</f>
         <v>-2.4852844996729892E-2</v>
       </c>
-      <c r="S35" s="45">
-        <v>47.338292354003997</v>
+      <c r="S35" s="42">
+        <v>47.338292354004103</v>
       </c>
       <c r="T35"/>
       <c r="U35"/>
@@ -9491,24 +9535,24 @@
         <v>15.801014105254</v>
       </c>
       <c r="AG35" s="3">
-        <f>MIN(S35:AD35)*1000</f>
+        <f t="shared" si="10"/>
         <v>13926.0980250992</v>
       </c>
       <c r="AH35" s="3">
-        <f>MAX(S35:AD35)*1000</f>
+        <f t="shared" si="11"/>
         <v>59993.672379602802</v>
       </c>
       <c r="AI35" s="35">
-        <f>((AD35-S35)/S35)/(2019-2008)</f>
-        <v>-6.0564611708018412E-2</v>
+        <f t="shared" si="5"/>
+        <v>-6.0564611708018481E-2</v>
       </c>
       <c r="AJ35">
-        <v>40.827464699999901</v>
+        <v>40.8274647</v>
       </c>
       <c r="AK35"/>
       <c r="AL35"/>
       <c r="AM35">
-        <v>25.957322819999899</v>
+        <v>25.957322820000002</v>
       </c>
       <c r="AN35"/>
       <c r="AO35"/>
@@ -9527,16 +9571,16 @@
         <v>72.187439999999995</v>
       </c>
       <c r="AX35" s="4">
-        <f>MIN(AJ35:AU35)</f>
+        <f t="shared" si="12"/>
         <v>24.017399999999999</v>
       </c>
       <c r="AY35" s="4">
-        <f>MAX(AJ35:AU35)</f>
+        <f t="shared" si="13"/>
         <v>72.187439999999995</v>
       </c>
       <c r="AZ35" s="35">
-        <f>((AU35-AJ35)/AJ35)/(2019-2008)</f>
-        <v>6.9828162644999137E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.9828162644998748E-2</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
@@ -9562,7 +9606,7 @@
         <v>1.321</v>
       </c>
       <c r="P36" s="3">
-        <f>MIN(F36:M36)*1000</f>
+        <f t="shared" si="9"/>
         <v>855</v>
       </c>
       <c r="Q36" s="3">
@@ -9573,13 +9617,13 @@
         <f>((M36-B36)/B36)/(2019-2008)</f>
         <v>8.4662413609782008E-2</v>
       </c>
-      <c r="S36" s="45">
-        <v>66.482427922275093</v>
+      <c r="S36" s="42">
+        <v>66.482427922275207</v>
       </c>
       <c r="T36"/>
       <c r="U36"/>
       <c r="V36">
-        <v>67.100790057063904</v>
+        <v>67.100790057064003</v>
       </c>
       <c r="W36"/>
       <c r="X36"/>
@@ -9598,16 +9642,16 @@
         <v>130.74676496707801</v>
       </c>
       <c r="AG36" s="3">
-        <f>MIN(S36:AD36)*1000</f>
-        <v>66482.427922275092</v>
+        <f t="shared" si="10"/>
+        <v>66482.427922275208</v>
       </c>
       <c r="AH36" s="3">
-        <f>MAX(S36:AD36)*1000</f>
+        <f t="shared" si="11"/>
         <v>130746.76496707801</v>
       </c>
       <c r="AI36" s="35">
-        <f>((AD36-S36)/S36)/(2019-2008)</f>
-        <v>8.7876039446823512E-2</v>
+        <f t="shared" ref="AI36:AI54" si="14">((AD36-S36)/S36)/(2019-2008)</f>
+        <v>8.7876039446823206E-2</v>
       </c>
       <c r="AJ36">
         <v>128.26262965999999</v>
@@ -9615,7 +9659,7 @@
       <c r="AK36"/>
       <c r="AL36"/>
       <c r="AM36">
-        <v>124.925308559999</v>
+        <v>124.92530856</v>
       </c>
       <c r="AN36"/>
       <c r="AO36"/>
@@ -9634,15 +9678,15 @@
         <v>304.38839999999999</v>
       </c>
       <c r="AX36" s="4">
-        <f>MIN(AJ36:AU36)</f>
-        <v>124.925308559999</v>
+        <f t="shared" si="12"/>
+        <v>124.92530856</v>
       </c>
       <c r="AY36" s="4">
-        <f>MAX(AJ36:AU36)</f>
+        <f t="shared" si="13"/>
         <v>304.38839999999999</v>
       </c>
       <c r="AZ36" s="35">
-        <f>((AU36-AJ36)/AJ36)/(2019-2008)</f>
+        <f t="shared" ref="AZ36:AZ54" si="15">((AU36-AJ36)/AJ36)/(2019-2008)</f>
         <v>0.12483319350083509</v>
       </c>
     </row>
@@ -9669,7 +9713,7 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="P37" s="3">
-        <f>MIN(F37:M37)*1000</f>
+        <f t="shared" ref="P37:P54" si="16">MIN(F37:M37)*1000</f>
         <v>200</v>
       </c>
       <c r="Q37" s="3">
@@ -9680,8 +9724,8 @@
         <f>((M37-B37)/B37)/(2019-2008)</f>
         <v>0.14450474898236088</v>
       </c>
-      <c r="S37" s="45">
-        <v>3.4851666916237001</v>
+      <c r="S37" s="42">
+        <v>3.4851666916237098</v>
       </c>
       <c r="T37"/>
       <c r="U37"/>
@@ -9705,16 +9749,16 @@
         <v>17.2963335346025</v>
       </c>
       <c r="AG37" s="3">
-        <f>MIN(S37:AD37)*1000</f>
-        <v>3485.1666916237</v>
+        <f t="shared" ref="AG37:AG54" si="17">MIN(S37:AD37)*1000</f>
+        <v>3485.16669162371</v>
       </c>
       <c r="AH37" s="3">
-        <f>MAX(S37:AD37)*1000</f>
+        <f t="shared" ref="AH37:AH54" si="18">MAX(S37:AD37)*1000</f>
         <v>17296.333534602501</v>
       </c>
       <c r="AI37" s="35">
-        <f>((AD37-S37)/S37)/(2019-2008)</f>
-        <v>0.36025841320778551</v>
+        <f t="shared" si="14"/>
+        <v>0.36025841320778423</v>
       </c>
       <c r="AJ37">
         <v>64.410542939999999</v>
@@ -9741,15 +9785,15 @@
         <v>377.16336000000001</v>
       </c>
       <c r="AX37" s="4">
-        <f>MIN(AJ37:AU37)</f>
+        <f t="shared" ref="AX37:AX54" si="19">MIN(AJ37:AU37)</f>
         <v>28.245643919999999</v>
       </c>
       <c r="AY37" s="4">
-        <f>MAX(AJ37:AU37)</f>
+        <f t="shared" ref="AY37:AY54" si="20">MAX(AJ37:AU37)</f>
         <v>377.16336000000001</v>
       </c>
       <c r="AZ37" s="35">
-        <f>((AU37-AJ37)/AJ37)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>0.44141957170997598</v>
       </c>
     </row>
@@ -9776,7 +9820,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="P38" s="3">
-        <f>MIN(F38:M38)*1000</f>
+        <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="Q38" s="3">
@@ -9787,7 +9831,7 @@
         <f>((M38-B38)/B38)/(2019-2008)</f>
         <v>-5.1319648093841588E-3</v>
       </c>
-      <c r="S38" s="45">
+      <c r="S38" s="42">
         <v>61.805052559782503</v>
       </c>
       <c r="T38"/>
@@ -9812,15 +9856,15 @@
         <v>45.932813496594697</v>
       </c>
       <c r="AG38" s="3">
-        <f>MIN(S38:AD38)*1000</f>
+        <f t="shared" si="17"/>
         <v>44832.873521230904</v>
       </c>
       <c r="AH38" s="3">
-        <f>MAX(S38:AD38)*1000</f>
+        <f t="shared" si="18"/>
         <v>61805.052559782504</v>
       </c>
       <c r="AI38" s="35">
-        <f>((AD38-S38)/S38)/(2019-2008)</f>
+        <f t="shared" si="14"/>
         <v>-2.3346486479086038E-2</v>
       </c>
       <c r="AJ38">
@@ -9848,15 +9892,15 @@
         <v>27.129960000000001</v>
       </c>
       <c r="AX38" s="4">
-        <f>MIN(AJ38:AU38)</f>
+        <f t="shared" si="19"/>
         <v>23.456399999999999</v>
       </c>
       <c r="AY38" s="4">
-        <f>MAX(AJ38:AU38)</f>
+        <f t="shared" si="20"/>
         <v>30.006900000000002</v>
       </c>
       <c r="AZ38" s="35">
-        <f>((AU38-AJ38)/AJ38)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>1.1859989879825415E-2</v>
       </c>
     </row>
@@ -9883,7 +9927,7 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="P39" s="3">
-        <f>MIN(F39:M39)*1000</f>
+        <f t="shared" si="16"/>
         <v>463</v>
       </c>
       <c r="Q39" s="3">
@@ -9894,13 +9938,13 @@
         <f>((M39-B39)/B39)/(2019-2008)</f>
         <v>7.9004329004329021E-2</v>
       </c>
-      <c r="S39" s="45">
-        <v>24.159829480949199</v>
+      <c r="S39" s="42">
+        <v>24.159829480949298</v>
       </c>
       <c r="T39"/>
       <c r="U39"/>
       <c r="V39">
-        <v>22.045743229550901</v>
+        <v>22.045743229551</v>
       </c>
       <c r="W39"/>
       <c r="X39"/>
@@ -9917,16 +9961,16 @@
         <v>45.292598249712597</v>
       </c>
       <c r="AG39" s="3">
-        <f>MIN(S39:AD39)*1000</f>
-        <v>22045.743229550902</v>
+        <f t="shared" si="17"/>
+        <v>22045.743229551001</v>
       </c>
       <c r="AH39" s="3">
-        <f>MAX(S39:AD39)*1000</f>
+        <f t="shared" si="18"/>
         <v>45292.598249712595</v>
       </c>
       <c r="AI39" s="35">
-        <f>((AD39-S39)/S39)/(2019-2008)</f>
-        <v>7.9518806151972474E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.9518806151971766E-2</v>
       </c>
       <c r="AJ39">
         <v>52.173387839999997</v>
@@ -9953,15 +9997,15 @@
         <v>119.33898000000001</v>
       </c>
       <c r="AX39" s="4">
-        <f>MIN(AJ39:AU39)</f>
+        <f t="shared" si="19"/>
         <v>52.173387839999997</v>
       </c>
       <c r="AY39" s="4">
-        <f>MAX(AJ39:AU39)</f>
+        <f t="shared" si="20"/>
         <v>119.33898000000001</v>
       </c>
       <c r="AZ39" s="35">
-        <f>((AU39-AJ39)/AJ39)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>0.11703213412863867</v>
       </c>
     </row>
@@ -9988,7 +10032,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="P40" s="3">
-        <f>MIN(F40:M40)*1000</f>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="Q40" s="3">
@@ -9999,13 +10043,13 @@
         <f>((M40-B40)/B40)/(2019-2008)</f>
         <v>-3.7617554858934171E-2</v>
       </c>
-      <c r="S40" s="45">
+      <c r="S40" s="42">
         <v>11.134969986069001</v>
       </c>
       <c r="T40"/>
       <c r="U40"/>
       <c r="V40">
-        <v>5.8380184270045898</v>
+        <v>5.8380184270045996</v>
       </c>
       <c r="W40"/>
       <c r="X40"/>
@@ -10024,15 +10068,15 @@
         <v>6.5004914732410102</v>
       </c>
       <c r="AG40" s="3">
-        <f>MIN(S40:AD40)*1000</f>
+        <f t="shared" si="17"/>
         <v>2461.3079213255201</v>
       </c>
       <c r="AH40" s="3">
-        <f>MAX(S40:AD40)*1000</f>
+        <f t="shared" si="18"/>
         <v>11134.969986069</v>
       </c>
       <c r="AI40" s="35">
-        <f>((AD40-S40)/S40)/(2019-2008)</f>
+        <f t="shared" si="14"/>
         <v>-3.7837212759982149E-2</v>
       </c>
       <c r="AJ40">
@@ -10045,7 +10089,9 @@
       </c>
       <c r="AN40"/>
       <c r="AO40"/>
-      <c r="AP40"/>
+      <c r="AP40">
+        <v>4.3339999999999996</v>
+      </c>
       <c r="AQ40">
         <v>2.2803</v>
       </c>
@@ -10058,15 +10104,15 @@
         <v>10.355040000000001</v>
       </c>
       <c r="AX40" s="4">
-        <f>MIN(AJ40:AU40)</f>
+        <f t="shared" si="19"/>
         <v>1.5659888399999999</v>
       </c>
       <c r="AY40" s="4">
-        <f>MAX(AJ40:AU40)</f>
+        <f t="shared" si="20"/>
         <v>10.355040000000001</v>
       </c>
       <c r="AZ40" s="35">
-        <f>((AU40-AJ40)/AJ40)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>4.6771910211273117E-2</v>
       </c>
     </row>
@@ -10093,7 +10139,7 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="P41" s="3">
-        <f>MIN(F41:M41)*1000</f>
+        <f t="shared" si="16"/>
         <v>409</v>
       </c>
       <c r="Q41" s="3">
@@ -10104,13 +10150,13 @@
         <f>((M41-B41)/B41)/(2019-2008)</f>
         <v>4.6189376443418056E-3</v>
       </c>
-      <c r="S41" s="45">
-        <v>40.531047936934499</v>
+      <c r="S41" s="42">
+        <v>40.531047936934598</v>
       </c>
       <c r="T41"/>
       <c r="U41"/>
       <c r="V41">
-        <v>53.733160452127301</v>
+        <v>53.7331604521274</v>
       </c>
       <c r="W41"/>
       <c r="X41"/>
@@ -10129,19 +10175,19 @@
         <v>79.336914080279698</v>
       </c>
       <c r="AG41" s="3">
-        <f>MIN(S41:AD41)*1000</f>
-        <v>40531.047936934498</v>
+        <f t="shared" si="17"/>
+        <v>40531.047936934599</v>
       </c>
       <c r="AH41" s="3">
-        <f>MAX(S41:AD41)*1000</f>
+        <f t="shared" si="18"/>
         <v>82376.115410295301</v>
       </c>
       <c r="AI41" s="35">
-        <f>((AD41-S41)/S41)/(2019-2008)</f>
-        <v>8.7039595386740984E-2</v>
+        <f t="shared" si="14"/>
+        <v>8.703959538674054E-2</v>
       </c>
       <c r="AJ41">
-        <v>189.84772335999901</v>
+        <v>189.84772336</v>
       </c>
       <c r="AK41"/>
       <c r="AL41"/>
@@ -10165,16 +10211,16 @@
         <v>463.49412000000001</v>
       </c>
       <c r="AX41" s="4">
-        <f>MIN(AJ41:AU41)</f>
-        <v>189.84772335999901</v>
+        <f t="shared" si="19"/>
+        <v>189.84772336</v>
       </c>
       <c r="AY41" s="4">
-        <f>MAX(AJ41:AU41)</f>
+        <f t="shared" si="20"/>
         <v>463.49412000000001</v>
       </c>
       <c r="AZ41" s="35">
-        <f>((AU41-AJ41)/AJ41)/(2019-2008)</f>
-        <v>0.13103631009531813</v>
+        <f t="shared" si="15"/>
+        <v>0.13103631009531697</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
@@ -10200,7 +10246,7 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="P42" s="3">
-        <f>MIN(F42:M42)*1000</f>
+        <f t="shared" si="16"/>
         <v>644</v>
       </c>
       <c r="Q42" s="3">
@@ -10211,13 +10257,13 @@
         <f>((M42-B42)/B42)/(2019-2008)</f>
         <v>9.3250097541943022E-2</v>
       </c>
-      <c r="S42" s="45">
-        <v>20.9348766981404</v>
+      <c r="S42" s="42">
+        <v>20.934876698140499</v>
       </c>
       <c r="T42"/>
       <c r="U42"/>
       <c r="V42">
-        <v>24.787499422740702</v>
+        <v>24.787499422740801</v>
       </c>
       <c r="W42"/>
       <c r="X42"/>
@@ -10236,16 +10282,16 @@
         <v>43.524114919197501</v>
       </c>
       <c r="AG42" s="3">
-        <f>MIN(S42:AD42)*1000</f>
-        <v>20934.876698140401</v>
+        <f t="shared" si="17"/>
+        <v>20934.876698140499</v>
       </c>
       <c r="AH42" s="3">
-        <f>MAX(S42:AD42)*1000</f>
+        <f t="shared" si="18"/>
         <v>43524.114919197498</v>
       </c>
       <c r="AI42" s="35">
-        <f>((AD42-S42)/S42)/(2019-2008)</f>
-        <v>9.8093107526523185E-2</v>
+        <f t="shared" si="14"/>
+        <v>9.8093107526522297E-2</v>
       </c>
       <c r="AJ42">
         <v>259.54200090000001</v>
@@ -10272,15 +10318,15 @@
         <v>756.59928000000002</v>
       </c>
       <c r="AX42" s="4">
-        <f>MIN(AJ42:AU42)</f>
+        <f t="shared" si="19"/>
         <v>144.08753813999999</v>
       </c>
       <c r="AY42" s="4">
-        <f>MAX(AJ42:AU42)</f>
+        <f t="shared" si="20"/>
         <v>756.59928000000002</v>
       </c>
       <c r="AZ42" s="35">
-        <f>((AU42-AJ42)/AJ42)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>0.1741029398557252</v>
       </c>
     </row>
@@ -10307,7 +10353,7 @@
         <v>0.02</v>
       </c>
       <c r="P43" s="3">
-        <f>MIN(F43:M43)*1000</f>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="Q43" s="3">
@@ -10318,7 +10364,9 @@
         <f>((M43-B43)/B43)/(2019-2008)</f>
         <v>-8.2644628099173487E-3</v>
       </c>
-      <c r="S43" s="45"/>
+      <c r="S43" s="42">
+        <v>0.04</v>
+      </c>
       <c r="T43"/>
       <c r="U43"/>
       <c r="V43">
@@ -10339,16 +10387,16 @@
         <v>5.9893714626138898E-2</v>
       </c>
       <c r="AG43" s="3">
-        <f>MIN(S43:AD43)*1000</f>
+        <f t="shared" si="17"/>
         <v>25.899984703195202</v>
       </c>
       <c r="AH43" s="3">
-        <f>MAX(S43:AD43)*1000</f>
+        <f t="shared" si="18"/>
         <v>59.893714626138902</v>
       </c>
-      <c r="AI43" s="35" t="e">
-        <f>((AD43-S43)/S43)/(2019-2008)</f>
-        <v>#DIV/0!</v>
+      <c r="AI43" s="35">
+        <f t="shared" si="14"/>
+        <v>4.5212987786679308E-2</v>
       </c>
       <c r="AJ43">
         <v>1.36242402</v>
@@ -10360,7 +10408,9 @@
       </c>
       <c r="AN43"/>
       <c r="AO43"/>
-      <c r="AP43"/>
+      <c r="AP43">
+        <v>1.149</v>
+      </c>
       <c r="AQ43">
         <v>0.52139999999999997</v>
       </c>
@@ -10373,15 +10423,15 @@
         <v>2.22257999999999</v>
       </c>
       <c r="AX43" s="4">
-        <f>MIN(AJ43:AU43)</f>
+        <f t="shared" si="19"/>
         <v>0.35910926999999998</v>
       </c>
       <c r="AY43" s="4">
-        <f>MAX(AJ43:AU43)</f>
+        <f t="shared" si="20"/>
         <v>2.4797500000000001</v>
       </c>
       <c r="AZ43" s="35">
-        <f>((AU43-AJ43)/AJ43)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>5.7394758925211314E-2</v>
       </c>
     </row>
@@ -10408,7 +10458,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="P44" s="3">
-        <f>MIN(F44:M44)*1000</f>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="Q44" s="3">
@@ -10419,8 +10469,8 @@
         <f>((M44-B44)/B44)/(2019-2008)</f>
         <v>0.13068181818181818</v>
       </c>
-      <c r="S44" s="45">
-        <v>0.22702955341394501</v>
+      <c r="S44" s="42">
+        <v>0.22702955341394601</v>
       </c>
       <c r="T44"/>
       <c r="U44"/>
@@ -10444,26 +10494,30 @@
         <v>1.9449269763055601</v>
       </c>
       <c r="AG44" s="3">
-        <f>MIN(S44:AD44)*1000</f>
-        <v>227.02955341394502</v>
+        <f t="shared" si="17"/>
+        <v>227.02955341394602</v>
       </c>
       <c r="AH44" s="3">
-        <f>MAX(S44:AD44)*1000</f>
+        <f t="shared" si="18"/>
         <v>1944.9269763055602</v>
       </c>
       <c r="AI44" s="35">
-        <f>((AD44-S44)/S44)/(2019-2008)</f>
-        <v>0.68789499270782661</v>
+        <f t="shared" si="14"/>
+        <v>0.68789499270782317</v>
       </c>
       <c r="AJ44">
         <v>2.0913691399999998</v>
       </c>
       <c r="AK44"/>
       <c r="AL44"/>
-      <c r="AM44"/>
+      <c r="AM44">
+        <v>4.9660000000000002</v>
+      </c>
       <c r="AN44"/>
       <c r="AO44"/>
-      <c r="AP44"/>
+      <c r="AP44">
+        <v>8.1539999999999999</v>
+      </c>
       <c r="AQ44">
         <v>11.099</v>
       </c>
@@ -10476,15 +10530,15 @@
         <v>22.113600000000002</v>
       </c>
       <c r="AX44" s="4">
-        <f>MIN(AJ44:AU44)</f>
+        <f t="shared" si="19"/>
         <v>2.0913691399999998</v>
       </c>
       <c r="AY44" s="4">
-        <f>MAX(AJ44:AU44)</f>
+        <f t="shared" si="20"/>
         <v>22.113600000000002</v>
       </c>
       <c r="AZ44" s="35">
-        <f>((AU44-AJ44)/AJ44)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>0.87034028122579343</v>
       </c>
     </row>
@@ -10511,7 +10565,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="P45" s="3">
-        <f>MIN(F45:M45)*1000</f>
+        <f t="shared" si="16"/>
         <v>68</v>
       </c>
       <c r="Q45" s="3">
@@ -10522,8 +10576,8 @@
         <f>((M45-B45)/B45)/(2019-2008)</f>
         <v>-2.5145067698259183E-2</v>
       </c>
-      <c r="S45" s="45">
-        <v>53.387962218505002</v>
+      <c r="S45" s="42">
+        <v>53.387962218505102</v>
       </c>
       <c r="T45"/>
       <c r="U45"/>
@@ -10547,28 +10601,30 @@
         <v>29.604087203013101</v>
       </c>
       <c r="AG45" s="3">
-        <f>MIN(S45:AD45)*1000</f>
+        <f t="shared" si="17"/>
         <v>29604.087203013099</v>
       </c>
       <c r="AH45" s="3">
-        <f>MAX(S45:AD45)*1000</f>
-        <v>53387.962218505003</v>
+        <f t="shared" si="18"/>
+        <v>53387.962218505105</v>
       </c>
       <c r="AI45" s="35">
-        <f>((AD45-S45)/S45)/(2019-2008)</f>
-        <v>-4.0499213045527539E-2</v>
+        <f t="shared" si="14"/>
+        <v>-4.0499213045527636E-2</v>
       </c>
       <c r="AJ45">
-        <v>18.480146419999901</v>
+        <v>18.480146420000001</v>
       </c>
       <c r="AK45"/>
       <c r="AL45"/>
       <c r="AM45">
-        <v>13.3385206499999</v>
+        <v>13.33852065</v>
       </c>
       <c r="AN45"/>
       <c r="AO45"/>
-      <c r="AP45"/>
+      <c r="AP45">
+        <v>16.606000000000002</v>
+      </c>
       <c r="AQ45">
         <v>19.2181</v>
       </c>
@@ -10581,16 +10637,16 @@
         <v>14.708399999999999</v>
       </c>
       <c r="AX45" s="4">
-        <f>MIN(AJ45:AU45)</f>
-        <v>13.3385206499999</v>
+        <f t="shared" si="19"/>
+        <v>13.33852065</v>
       </c>
       <c r="AY45" s="4">
-        <f>MAX(AJ45:AU45)</f>
+        <f t="shared" si="20"/>
         <v>19.2181</v>
       </c>
       <c r="AZ45" s="35">
-        <f>((AU45-AJ45)/AJ45)/(2019-2008)</f>
-        <v>-1.855429228692286E-2</v>
+        <f t="shared" si="15"/>
+        <v>-1.8554292286923249E-2</v>
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
@@ -10616,7 +10672,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="P46" s="3">
-        <f>MIN(F46:M46)*1000</f>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="Q46" s="3">
@@ -10627,13 +10683,13 @@
         <f>((M46-B46)/B46)/(2019-2008)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="S46" s="45">
+      <c r="S46" s="42">
         <v>0.49209970936070901</v>
       </c>
       <c r="T46"/>
       <c r="U46"/>
       <c r="V46">
-        <v>0.62524181822557101</v>
+        <v>0.62524181822557201</v>
       </c>
       <c r="W46"/>
       <c r="X46"/>
@@ -10652,15 +10708,15 @@
         <v>2.0222222431541601</v>
       </c>
       <c r="AG46" s="3">
-        <f>MIN(S46:AD46)*1000</f>
+        <f t="shared" si="17"/>
         <v>492.09970936070903</v>
       </c>
       <c r="AH46" s="3">
-        <f>MAX(S46:AD46)*1000</f>
+        <f t="shared" si="18"/>
         <v>2022.2222431541602</v>
       </c>
       <c r="AI46" s="35">
-        <f>((AD46-S46)/S46)/(2019-2008)</f>
+        <f t="shared" si="14"/>
         <v>0.28267045454545392</v>
       </c>
       <c r="AJ46">
@@ -10668,7 +10724,9 @@
       </c>
       <c r="AK46"/>
       <c r="AL46"/>
-      <c r="AM46"/>
+      <c r="AM46">
+        <v>2.7610000000000001</v>
+      </c>
       <c r="AN46"/>
       <c r="AO46"/>
       <c r="AP46">
@@ -10686,15 +10744,15 @@
         <v>9.2116199999999999</v>
       </c>
       <c r="AX46" s="4">
-        <f>MIN(AJ46:AU46)</f>
+        <f t="shared" si="19"/>
         <v>1.49522468</v>
       </c>
       <c r="AY46" s="4">
-        <f>MAX(AJ46:AU46)</f>
+        <f t="shared" si="20"/>
         <v>9.2116199999999999</v>
       </c>
       <c r="AZ46" s="35">
-        <f>((AU46-AJ46)/AJ46)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>0.46915389574519573</v>
       </c>
     </row>
@@ -10721,7 +10779,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="P47" s="3">
-        <f>MIN(F47:M47)*1000</f>
+        <f t="shared" si="16"/>
         <v>133</v>
       </c>
       <c r="Q47" s="3">
@@ -10732,7 +10790,7 @@
         <f>((M47-B47)/B47)/(2019-2008)</f>
         <v>2.3587223587223594E-2</v>
       </c>
-      <c r="S47" s="45">
+      <c r="S47" s="42">
         <v>124.916030910771</v>
       </c>
       <c r="T47"/>
@@ -10757,15 +10815,15 @@
         <v>99.677305192029706</v>
       </c>
       <c r="AG47" s="3">
-        <f>MIN(S47:AD47)*1000</f>
+        <f t="shared" si="17"/>
         <v>32786.952510679199</v>
       </c>
       <c r="AH47" s="3">
-        <f>MAX(S47:AD47)*1000</f>
+        <f t="shared" si="18"/>
         <v>124916.03091077101</v>
       </c>
       <c r="AI47" s="35">
-        <f>((AD47-S47)/S47)/(2019-2008)</f>
+        <f t="shared" si="14"/>
         <v>-1.8367775489389358E-2</v>
       </c>
       <c r="AJ47">
@@ -10793,15 +10851,15 @@
         <v>432.78906000000001</v>
       </c>
       <c r="AX47" s="4">
-        <f>MIN(AJ47:AU47)</f>
+        <f t="shared" si="19"/>
         <v>182.18011852000001</v>
       </c>
       <c r="AY47" s="4">
-        <f>MAX(AJ47:AU47)</f>
+        <f t="shared" si="20"/>
         <v>432.78906000000001</v>
       </c>
       <c r="AZ47" s="35">
-        <f>((AU47-AJ47)/AJ47)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>0.12505552871915193</v>
       </c>
     </row>
@@ -10828,7 +10886,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="P48" s="3">
-        <f>MIN(F48:M48)*1000</f>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="Q48" s="3">
@@ -10839,13 +10897,13 @@
         <f>((M48-B48)/B48)/(2019-2008)</f>
         <v>-1.0101010101010098E-2</v>
       </c>
-      <c r="S48" s="45">
-        <v>57.9326001593938</v>
+      <c r="S48" s="42">
+        <v>57.9326001593939</v>
       </c>
       <c r="T48"/>
       <c r="U48"/>
       <c r="V48">
-        <v>31.474956410557901</v>
+        <v>31.474956410558001</v>
       </c>
       <c r="W48"/>
       <c r="X48"/>
@@ -10864,16 +10922,16 @@
         <v>38.2797727040615</v>
       </c>
       <c r="AG48" s="3">
-        <f>MIN(S48:AD48)*1000</f>
-        <v>31474.956410557901</v>
+        <f t="shared" si="17"/>
+        <v>31474.956410557999</v>
       </c>
       <c r="AH48" s="3">
-        <f>MAX(S48:AD48)*1000</f>
-        <v>57932.600159393798</v>
+        <f t="shared" si="18"/>
+        <v>57932.6001593939</v>
       </c>
       <c r="AI48" s="35">
-        <f>((AD48-S48)/S48)/(2019-2008)</f>
-        <v>-3.0839642495621364E-2</v>
+        <f t="shared" si="14"/>
+        <v>-3.0839642495621464E-2</v>
       </c>
       <c r="AJ48">
         <v>15.56340458</v>
@@ -10881,7 +10939,7 @@
       <c r="AK48"/>
       <c r="AL48"/>
       <c r="AM48">
-        <v>13.133410289999899</v>
+        <v>13.13341029</v>
       </c>
       <c r="AN48"/>
       <c r="AO48"/>
@@ -10900,15 +10958,15 @@
         <v>27.44106</v>
       </c>
       <c r="AX48" s="4">
-        <f>MIN(AJ48:AU48)</f>
-        <v>13.133410289999899</v>
+        <f t="shared" si="19"/>
+        <v>13.13341029</v>
       </c>
       <c r="AY48" s="4">
-        <f>MAX(AJ48:AU48)</f>
+        <f t="shared" si="20"/>
         <v>31.145399999999999</v>
       </c>
       <c r="AZ48" s="35">
-        <f>((AU48-AJ48)/AJ48)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>6.9379861637166043E-2</v>
       </c>
     </row>
@@ -10935,7 +10993,7 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="P49" s="3">
-        <f>MIN(F49:M49)*1000</f>
+        <f t="shared" si="16"/>
         <v>506</v>
       </c>
       <c r="Q49" s="3">
@@ -10946,7 +11004,7 @@
         <f>((M49-B49)/B49)/(2019-2008)</f>
         <v>5.4323725055432391E-2</v>
       </c>
-      <c r="S49" s="45">
+      <c r="S49" s="42">
         <v>30.689053749720401</v>
       </c>
       <c r="T49"/>
@@ -10971,19 +11029,19 @@
         <v>82.152323354969198</v>
       </c>
       <c r="AG49" s="3">
-        <f>MIN(S49:AD49)*1000</f>
+        <f t="shared" si="17"/>
         <v>30689.053749720402</v>
       </c>
       <c r="AH49" s="3">
-        <f>MAX(S49:AD49)*1000</f>
+        <f t="shared" si="18"/>
         <v>82152.323354969194</v>
       </c>
       <c r="AI49" s="35">
-        <f>((AD49-S49)/S49)/(2019-2008)</f>
+        <f t="shared" si="14"/>
         <v>0.15244781064861743</v>
       </c>
       <c r="AJ49">
-        <v>88.885197179999906</v>
+        <v>88.885197180000006</v>
       </c>
       <c r="AK49"/>
       <c r="AL49"/>
@@ -11007,16 +11065,16 @@
         <v>162.93683999999999</v>
       </c>
       <c r="AX49" s="4">
-        <f>MIN(AJ49:AU49)</f>
+        <f t="shared" si="19"/>
         <v>76.948348229999993</v>
       </c>
       <c r="AY49" s="4">
-        <f>MAX(AJ49:AU49)</f>
+        <f t="shared" si="20"/>
         <v>162.93683999999999</v>
       </c>
       <c r="AZ49" s="35">
-        <f>((AU49-AJ49)/AJ49)/(2019-2008)</f>
-        <v>7.5737780222933218E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.5737780222933038E-2</v>
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
@@ -11042,7 +11100,7 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="P50" s="3">
-        <f>MIN(F50:M50)*1000</f>
+        <f t="shared" si="16"/>
         <v>136</v>
       </c>
       <c r="Q50" s="3">
@@ -11053,8 +11111,8 @@
         <f>((M50-B50)/B50)/(2019-2008)</f>
         <v>8.3422459893048126E-2</v>
       </c>
-      <c r="S50" s="45">
-        <v>4.30708651868916</v>
+      <c r="S50" s="42">
+        <v>4.3070865186891698</v>
       </c>
       <c r="T50"/>
       <c r="U50"/>
@@ -11078,16 +11136,16 @@
         <v>11.4716697872105</v>
       </c>
       <c r="AG50" s="3">
-        <f>MIN(S50:AD50)*1000</f>
-        <v>4307.0865186891597</v>
+        <f t="shared" si="17"/>
+        <v>4307.0865186891697</v>
       </c>
       <c r="AH50" s="3">
-        <f>MAX(S50:AD50)*1000</f>
+        <f t="shared" si="18"/>
         <v>11471.6697872105</v>
       </c>
       <c r="AI50" s="35">
-        <f>((AD50-S50)/S50)/(2019-2008)</f>
-        <v>0.15122188719858498</v>
+        <f t="shared" si="14"/>
+        <v>0.1512218871985844</v>
       </c>
       <c r="AJ50">
         <v>23.412694259999999</v>
@@ -11095,7 +11153,7 @@
       <c r="AK50"/>
       <c r="AL50"/>
       <c r="AM50">
-        <v>24.987369419999901</v>
+        <v>24.98736942</v>
       </c>
       <c r="AN50"/>
       <c r="AO50"/>
@@ -11114,15 +11172,15 @@
         <v>64.046819999999997</v>
       </c>
       <c r="AX50" s="4">
-        <f>MIN(AJ50:AU50)</f>
+        <f t="shared" si="19"/>
         <v>23.412694259999999</v>
       </c>
       <c r="AY50" s="4">
-        <f>MAX(AJ50:AU50)</f>
+        <f t="shared" si="20"/>
         <v>64.046819999999997</v>
       </c>
       <c r="AZ50" s="35">
-        <f>((AU50-AJ50)/AJ50)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>0.15777814333911228</v>
       </c>
     </row>
@@ -11149,7 +11207,7 @@
         <v>0.74299999999999999</v>
       </c>
       <c r="P51" s="3">
-        <f>MIN(F51:M51)*1000</f>
+        <f t="shared" si="16"/>
         <v>598</v>
       </c>
       <c r="Q51" s="3">
@@ -11160,8 +11218,8 @@
         <f>((M51-B51)/B51)/(2019-2008)</f>
         <v>4.6290343320046336E-3</v>
       </c>
-      <c r="S51" s="45">
-        <v>32.498410493595102</v>
+      <c r="S51" s="42">
+        <v>32.498410493595202</v>
       </c>
       <c r="T51"/>
       <c r="U51"/>
@@ -11185,16 +11243,16 @@
         <v>45.296645122322502</v>
       </c>
       <c r="AG51" s="3">
-        <f>MIN(S51:AD51)*1000</f>
+        <f t="shared" si="17"/>
         <v>29048.8562809383</v>
       </c>
       <c r="AH51" s="3">
-        <f>MAX(S51:AD51)*1000</f>
+        <f t="shared" si="18"/>
         <v>45296.645122322501</v>
       </c>
       <c r="AI51" s="35">
-        <f>((AD51-S51)/S51)/(2019-2008)</f>
-        <v>3.5801008654505001E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.5801008654504612E-2</v>
       </c>
       <c r="AJ51">
         <v>344.00309012000002</v>
@@ -11221,15 +11279,15 @@
         <v>903.68939999999998</v>
       </c>
       <c r="AX51" s="4">
-        <f>MIN(AJ51:AU51)</f>
+        <f t="shared" si="19"/>
         <v>344.00309012000002</v>
       </c>
       <c r="AY51" s="4">
-        <f>MAX(AJ51:AU51)</f>
+        <f t="shared" si="20"/>
         <v>903.68939999999998</v>
       </c>
       <c r="AZ51" s="35">
-        <f>((AU51-AJ51)/AJ51)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>0.14790731562238485</v>
       </c>
     </row>
@@ -11256,7 +11314,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="P52" s="3">
-        <f>MIN(F52:M52)*1000</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="Q52" s="3">
@@ -11267,7 +11325,7 @@
         <f>((M52-B52)/B52)/(2019-2008)</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="S52" s="45">
+      <c r="S52" s="42">
         <v>5.6251529277252098E-2</v>
       </c>
       <c r="T52"/>
@@ -11292,28 +11350,30 @@
         <v>1.23591489505559</v>
       </c>
       <c r="AG52" s="3">
-        <f>MIN(S52:AD52)*1000</f>
+        <f t="shared" si="17"/>
         <v>56.251529277252097</v>
       </c>
       <c r="AH52" s="3">
-        <f>MAX(S52:AD52)*1000</f>
+        <f t="shared" si="18"/>
         <v>1235.91489505559</v>
       </c>
       <c r="AI52" s="35">
-        <f>((AD52-S52)/S52)/(2019-2008)</f>
+        <f t="shared" si="14"/>
         <v>1.9064748201438746</v>
       </c>
       <c r="AJ52">
-        <v>0.49862009999999901</v>
+        <v>0.49862010000000001</v>
       </c>
       <c r="AK52"/>
       <c r="AL52"/>
       <c r="AM52">
-        <v>0.15821675999999901</v>
+        <v>0.15821676000000001</v>
       </c>
       <c r="AN52"/>
       <c r="AO52"/>
-      <c r="AP52"/>
+      <c r="AP52">
+        <v>1.778</v>
+      </c>
       <c r="AQ52">
         <v>4.2470999999999997</v>
       </c>
@@ -11326,16 +11386,16 @@
         <v>13.621079999999999</v>
       </c>
       <c r="AX52" s="4">
-        <f>MIN(AJ52:AU52)</f>
-        <v>0.15821675999999901</v>
+        <f t="shared" si="19"/>
+        <v>0.15821676000000001</v>
       </c>
       <c r="AY52" s="4">
-        <f>MAX(AJ52:AU52)</f>
+        <f t="shared" si="20"/>
         <v>13.621079999999999</v>
       </c>
       <c r="AZ52" s="35">
-        <f>((AU52-AJ52)/AJ52)/(2019-2008)</f>
-        <v>2.3925046342897178</v>
+        <f t="shared" si="15"/>
+        <v>2.3925046342897125</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
@@ -11361,7 +11421,7 @@
         <v>1.3640000000000001</v>
       </c>
       <c r="P53" s="3">
-        <f>MIN(F53:M53)*1000</f>
+        <f t="shared" si="16"/>
         <v>1128</v>
       </c>
       <c r="Q53" s="3">
@@ -11372,7 +11432,7 @@
         <f>((M53-B53)/B53)/(2019-2008)</f>
         <v>3.3839400036583145E-2</v>
       </c>
-      <c r="S53" s="45">
+      <c r="S53" s="42">
         <v>77.163338801516304</v>
       </c>
       <c r="T53"/>
@@ -11397,19 +11457,19 @@
         <v>101.552221272184</v>
       </c>
       <c r="AG53" s="3">
-        <f>MIN(S53:AD53)*1000</f>
+        <f t="shared" si="17"/>
         <v>70433.389651295394</v>
       </c>
       <c r="AH53" s="3">
-        <f>MAX(S53:AD53)*1000</f>
+        <f t="shared" si="18"/>
         <v>101552.221272184</v>
       </c>
       <c r="AI53" s="35">
-        <f>((AD53-S53)/S53)/(2019-2008)</f>
+        <f t="shared" si="14"/>
         <v>2.8733478464432315E-2</v>
       </c>
       <c r="AJ53">
-        <v>161.97233863999901</v>
+        <v>161.97233864</v>
       </c>
       <c r="AK53"/>
       <c r="AL53"/>
@@ -11433,16 +11493,16 @@
         <v>274.29942</v>
       </c>
       <c r="AX53" s="4">
-        <f>MIN(AJ53:AU53)</f>
+        <f t="shared" si="19"/>
         <v>154.97509248</v>
       </c>
       <c r="AY53" s="4">
-        <f>MAX(AJ53:AU53)</f>
+        <f t="shared" si="20"/>
         <v>278.44049999999999</v>
       </c>
       <c r="AZ53" s="35">
-        <f>((AU53-AJ53)/AJ53)/(2019-2008)</f>
-        <v>6.304504174385886E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.3045041743857916E-2</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
@@ -11476,7 +11536,7 @@
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="26">
-        <f>MIN(F54:M54)*1000</f>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="Q54" s="26">
@@ -11487,8 +11547,8 @@
         <f>((M54-B54)/B54)/(2019-2008)</f>
         <v>3.2882011605415866E-2</v>
       </c>
-      <c r="S54" s="45">
-        <v>273.77821642868997</v>
+      <c r="S54" s="42">
+        <v>273.778216428691</v>
       </c>
       <c r="T54"/>
       <c r="U54"/>
@@ -11514,16 +11574,16 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="26">
-        <f>MIN(S54:AD54)*1000</f>
+        <f t="shared" si="17"/>
         <v>48509.861974562598</v>
       </c>
       <c r="AH54" s="26">
-        <f>MAX(S54:AD54)*1000</f>
+        <f t="shared" si="18"/>
         <v>289596.22739890602</v>
       </c>
       <c r="AI54" s="36">
-        <f>((AD54-S54)/S54)/(2019-2008)</f>
-        <v>-7.3430956214562804E-2</v>
+        <f t="shared" si="14"/>
+        <v>-7.3430956214562873E-2</v>
       </c>
       <c r="AJ54">
         <v>16.497541500000001</v>
@@ -11531,7 +11591,7 @@
       <c r="AK54"/>
       <c r="AL54"/>
       <c r="AM54">
-        <v>21.007173329999901</v>
+        <v>21.007173330000001</v>
       </c>
       <c r="AN54"/>
       <c r="AO54"/>
@@ -11552,15 +11612,15 @@
       <c r="AV54" s="7"/>
       <c r="AW54" s="7"/>
       <c r="AX54" s="27">
-        <f>MIN(AJ54:AU54)</f>
+        <f t="shared" si="19"/>
         <v>15.951779999999999</v>
       </c>
       <c r="AY54" s="27">
-        <f>MAX(AJ54:AU54)</f>
-        <v>21.007173329999901</v>
+        <f t="shared" si="20"/>
+        <v>21.007173330000001</v>
       </c>
       <c r="AZ54" s="36">
-        <f>((AU54-AJ54)/AJ54)/(2019-2008)</f>
+        <f t="shared" si="15"/>
         <v>-3.0073985156019709E-3</v>
       </c>
     </row>
@@ -11574,10 +11634,10 @@
     <mergeCell ref="AW2:AZ2"/>
   </mergeCells>
   <conditionalFormatting sqref="AZ4:AZ54">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11602,7 +11662,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FE327BBA-A057-4D37-AD5E-0A5C3B6AF2F6}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FA464487-42E3-4EEA-8A51-B19C3DDC0D84}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -11613,204 +11673,252 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ5:AU5</xm:f>
-              <xm:sqref>AW5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ6:AU6</xm:f>
-              <xm:sqref>AW6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ7:AU7</xm:f>
-              <xm:sqref>AW7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ8:AU8</xm:f>
-              <xm:sqref>AW8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ9:AU9</xm:f>
-              <xm:sqref>AW9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ10:AU10</xm:f>
-              <xm:sqref>AW10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ11:AU11</xm:f>
-              <xm:sqref>AW11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ12:AU12</xm:f>
-              <xm:sqref>AW12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ13:AU13</xm:f>
-              <xm:sqref>AW13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ14:AU14</xm:f>
-              <xm:sqref>AW14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ15:AU15</xm:f>
-              <xm:sqref>AW15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ16:AU16</xm:f>
-              <xm:sqref>AW16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ17:AU17</xm:f>
-              <xm:sqref>AW17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ18:AU18</xm:f>
-              <xm:sqref>AW18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ19:AU19</xm:f>
-              <xm:sqref>AW19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ20:AU20</xm:f>
-              <xm:sqref>AW20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ21:AU21</xm:f>
-              <xm:sqref>AW21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ22:AU22</xm:f>
-              <xm:sqref>AW22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ23:AU23</xm:f>
-              <xm:sqref>AW23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ24:AU24</xm:f>
-              <xm:sqref>AW24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ25:AU25</xm:f>
-              <xm:sqref>AW25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ26:AU26</xm:f>
-              <xm:sqref>AW26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ27:AU27</xm:f>
-              <xm:sqref>AW27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ28:AU28</xm:f>
-              <xm:sqref>AW28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ29:AU29</xm:f>
-              <xm:sqref>AW29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ30:AU30</xm:f>
-              <xm:sqref>AW30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ31:AU31</xm:f>
-              <xm:sqref>AW31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ32:AU32</xm:f>
-              <xm:sqref>AW32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ33:AU33</xm:f>
-              <xm:sqref>AW33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ34:AU34</xm:f>
-              <xm:sqref>AW34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ35:AU35</xm:f>
-              <xm:sqref>AW35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ36:AU36</xm:f>
-              <xm:sqref>AW36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ37:AU37</xm:f>
-              <xm:sqref>AW37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ38:AU38</xm:f>
-              <xm:sqref>AW38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ39:AU39</xm:f>
-              <xm:sqref>AW39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ40:AU40</xm:f>
-              <xm:sqref>AW40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ41:AU41</xm:f>
-              <xm:sqref>AW41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ42:AU42</xm:f>
-              <xm:sqref>AW42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ43:AU43</xm:f>
-              <xm:sqref>AW43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ44:AU44</xm:f>
-              <xm:sqref>AW44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ45:AU45</xm:f>
-              <xm:sqref>AW45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ46:AU46</xm:f>
-              <xm:sqref>AW46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ47:AU47</xm:f>
-              <xm:sqref>AW47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ48:AU48</xm:f>
-              <xm:sqref>AW48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ49:AU49</xm:f>
-              <xm:sqref>AW49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ50:AU50</xm:f>
-              <xm:sqref>AW50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ51:AU51</xm:f>
-              <xm:sqref>AW51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ52:AU52</xm:f>
-              <xm:sqref>AW52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ53:AU53</xm:f>
-              <xm:sqref>AW53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ54:AU54</xm:f>
-              <xm:sqref>AW54</xm:sqref>
+              <xm:f>all_sparklines_estimates!AJ4:AU4</xm:f>
+              <xm:sqref>AW4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{760B1C67-4792-4ECD-91C3-AEC956E2609A}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S5:AD5</xm:f>
+              <xm:sqref>AF5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S6:AD6</xm:f>
+              <xm:sqref>AF6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S7:AD7</xm:f>
+              <xm:sqref>AF7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S8:AD8</xm:f>
+              <xm:sqref>AF8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S9:AD9</xm:f>
+              <xm:sqref>AF9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S10:AD10</xm:f>
+              <xm:sqref>AF10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S11:AD11</xm:f>
+              <xm:sqref>AF11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S12:AD12</xm:f>
+              <xm:sqref>AF12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S13:AD13</xm:f>
+              <xm:sqref>AF13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S14:AD14</xm:f>
+              <xm:sqref>AF14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S15:AD15</xm:f>
+              <xm:sqref>AF15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S16:AD16</xm:f>
+              <xm:sqref>AF16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S17:AD17</xm:f>
+              <xm:sqref>AF17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S18:AD18</xm:f>
+              <xm:sqref>AF18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S19:AD19</xm:f>
+              <xm:sqref>AF19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S20:AD20</xm:f>
+              <xm:sqref>AF20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S21:AD21</xm:f>
+              <xm:sqref>AF21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S22:AD22</xm:f>
+              <xm:sqref>AF22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S23:AD23</xm:f>
+              <xm:sqref>AF23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S24:AD24</xm:f>
+              <xm:sqref>AF24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S25:AD25</xm:f>
+              <xm:sqref>AF25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S26:AD26</xm:f>
+              <xm:sqref>AF26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S27:AD27</xm:f>
+              <xm:sqref>AF27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S28:AD28</xm:f>
+              <xm:sqref>AF28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S29:AD29</xm:f>
+              <xm:sqref>AF29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S30:AD30</xm:f>
+              <xm:sqref>AF30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S31:AD31</xm:f>
+              <xm:sqref>AF31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S32:AD32</xm:f>
+              <xm:sqref>AF32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S33:AD33</xm:f>
+              <xm:sqref>AF33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S34:AD34</xm:f>
+              <xm:sqref>AF34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S35:AD35</xm:f>
+              <xm:sqref>AF35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S36:AD36</xm:f>
+              <xm:sqref>AF36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S37:AD37</xm:f>
+              <xm:sqref>AF37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S38:AD38</xm:f>
+              <xm:sqref>AF38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S39:AD39</xm:f>
+              <xm:sqref>AF39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S40:AD40</xm:f>
+              <xm:sqref>AF40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S41:AD41</xm:f>
+              <xm:sqref>AF41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S42:AD42</xm:f>
+              <xm:sqref>AF42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S43:AD43</xm:f>
+              <xm:sqref>AF43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S44:AD44</xm:f>
+              <xm:sqref>AF44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S45:AD45</xm:f>
+              <xm:sqref>AF45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S46:AD46</xm:f>
+              <xm:sqref>AF46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S47:AD47</xm:f>
+              <xm:sqref>AF47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S48:AD48</xm:f>
+              <xm:sqref>AF48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S49:AD49</xm:f>
+              <xm:sqref>AF49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S50:AD50</xm:f>
+              <xm:sqref>AF50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S51:AD51</xm:f>
+              <xm:sqref>AF51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S52:AD52</xm:f>
+              <xm:sqref>AF52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S53:AD53</xm:f>
+              <xm:sqref>AF53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S54:AD54</xm:f>
+              <xm:sqref>AF54</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{CF8DBF79-2F52-4BEC-9393-B5BA30E6EC38}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!B4:M4</xm:f>
+              <xm:sqref>O4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66B11653-9259-4A24-A205-02DC9BD1D214}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!S4:AD4</xm:f>
+              <xm:sqref>AF4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -12026,7 +12134,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{66B11653-9259-4A24-A205-02DC9BD1D214}">
+        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FE327BBA-A057-4D37-AD5E-0A5C3B6AF2F6}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -12037,252 +12145,204 @@
           <x14:colorLow rgb="FFC00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S4:AD4</xm:f>
-              <xm:sqref>AF4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{CF8DBF79-2F52-4BEC-9393-B5BA30E6EC38}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!B4:M4</xm:f>
-              <xm:sqref>O4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{760B1C67-4792-4ECD-91C3-AEC956E2609A}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S5:AD5</xm:f>
-              <xm:sqref>AF5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S6:AD6</xm:f>
-              <xm:sqref>AF6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S7:AD7</xm:f>
-              <xm:sqref>AF7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S8:AD8</xm:f>
-              <xm:sqref>AF8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S9:AD9</xm:f>
-              <xm:sqref>AF9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S10:AD10</xm:f>
-              <xm:sqref>AF10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S11:AD11</xm:f>
-              <xm:sqref>AF11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S12:AD12</xm:f>
-              <xm:sqref>AF12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S13:AD13</xm:f>
-              <xm:sqref>AF13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S14:AD14</xm:f>
-              <xm:sqref>AF14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S15:AD15</xm:f>
-              <xm:sqref>AF15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S16:AD16</xm:f>
-              <xm:sqref>AF16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S17:AD17</xm:f>
-              <xm:sqref>AF17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S18:AD18</xm:f>
-              <xm:sqref>AF18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S19:AD19</xm:f>
-              <xm:sqref>AF19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S20:AD20</xm:f>
-              <xm:sqref>AF20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S21:AD21</xm:f>
-              <xm:sqref>AF21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S22:AD22</xm:f>
-              <xm:sqref>AF22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S23:AD23</xm:f>
-              <xm:sqref>AF23</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S24:AD24</xm:f>
-              <xm:sqref>AF24</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S25:AD25</xm:f>
-              <xm:sqref>AF25</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S26:AD26</xm:f>
-              <xm:sqref>AF26</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S27:AD27</xm:f>
-              <xm:sqref>AF27</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S28:AD28</xm:f>
-              <xm:sqref>AF28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S29:AD29</xm:f>
-              <xm:sqref>AF29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S30:AD30</xm:f>
-              <xm:sqref>AF30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S31:AD31</xm:f>
-              <xm:sqref>AF31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S32:AD32</xm:f>
-              <xm:sqref>AF32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S33:AD33</xm:f>
-              <xm:sqref>AF33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S34:AD34</xm:f>
-              <xm:sqref>AF34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S35:AD35</xm:f>
-              <xm:sqref>AF35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S36:AD36</xm:f>
-              <xm:sqref>AF36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S37:AD37</xm:f>
-              <xm:sqref>AF37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S38:AD38</xm:f>
-              <xm:sqref>AF38</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S39:AD39</xm:f>
-              <xm:sqref>AF39</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S40:AD40</xm:f>
-              <xm:sqref>AF40</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S41:AD41</xm:f>
-              <xm:sqref>AF41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S42:AD42</xm:f>
-              <xm:sqref>AF42</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S43:AD43</xm:f>
-              <xm:sqref>AF43</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S44:AD44</xm:f>
-              <xm:sqref>AF44</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S45:AD45</xm:f>
-              <xm:sqref>AF45</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S46:AD46</xm:f>
-              <xm:sqref>AF46</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S47:AD47</xm:f>
-              <xm:sqref>AF47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S48:AD48</xm:f>
-              <xm:sqref>AF48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S49:AD49</xm:f>
-              <xm:sqref>AF49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S50:AD50</xm:f>
-              <xm:sqref>AF50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S51:AD51</xm:f>
-              <xm:sqref>AF51</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S52:AD52</xm:f>
-              <xm:sqref>AF52</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S53:AD53</xm:f>
-              <xm:sqref>AF53</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!S54:AD54</xm:f>
-              <xm:sqref>AF54</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="span" high="1" low="1" displayHidden="1" minAxisType="group" xr2:uid="{FA464487-42E3-4EEA-8A51-B19C3DDC0D84}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh theme="4"/>
-          <x14:colorLow rgb="FFC00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>all_sparklines_estimates!AJ4:AU4</xm:f>
-              <xm:sqref>AW4</xm:sqref>
+              <xm:f>all_sparklines_estimates!AJ5:AU5</xm:f>
+              <xm:sqref>AW5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ6:AU6</xm:f>
+              <xm:sqref>AW6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ7:AU7</xm:f>
+              <xm:sqref>AW7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ8:AU8</xm:f>
+              <xm:sqref>AW8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ9:AU9</xm:f>
+              <xm:sqref>AW9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ10:AU10</xm:f>
+              <xm:sqref>AW10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ11:AU11</xm:f>
+              <xm:sqref>AW11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ12:AU12</xm:f>
+              <xm:sqref>AW12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ13:AU13</xm:f>
+              <xm:sqref>AW13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ14:AU14</xm:f>
+              <xm:sqref>AW14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ15:AU15</xm:f>
+              <xm:sqref>AW15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ16:AU16</xm:f>
+              <xm:sqref>AW16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ17:AU17</xm:f>
+              <xm:sqref>AW17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ18:AU18</xm:f>
+              <xm:sqref>AW18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ19:AU19</xm:f>
+              <xm:sqref>AW19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ20:AU20</xm:f>
+              <xm:sqref>AW20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ21:AU21</xm:f>
+              <xm:sqref>AW21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ22:AU22</xm:f>
+              <xm:sqref>AW22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ23:AU23</xm:f>
+              <xm:sqref>AW23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ24:AU24</xm:f>
+              <xm:sqref>AW24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ25:AU25</xm:f>
+              <xm:sqref>AW25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ26:AU26</xm:f>
+              <xm:sqref>AW26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ27:AU27</xm:f>
+              <xm:sqref>AW27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ28:AU28</xm:f>
+              <xm:sqref>AW28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ29:AU29</xm:f>
+              <xm:sqref>AW29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ30:AU30</xm:f>
+              <xm:sqref>AW30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ31:AU31</xm:f>
+              <xm:sqref>AW31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ32:AU32</xm:f>
+              <xm:sqref>AW32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ33:AU33</xm:f>
+              <xm:sqref>AW33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ34:AU34</xm:f>
+              <xm:sqref>AW34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ35:AU35</xm:f>
+              <xm:sqref>AW35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ36:AU36</xm:f>
+              <xm:sqref>AW36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ37:AU37</xm:f>
+              <xm:sqref>AW37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ38:AU38</xm:f>
+              <xm:sqref>AW38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ39:AU39</xm:f>
+              <xm:sqref>AW39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ40:AU40</xm:f>
+              <xm:sqref>AW40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ41:AU41</xm:f>
+              <xm:sqref>AW41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ42:AU42</xm:f>
+              <xm:sqref>AW42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ43:AU43</xm:f>
+              <xm:sqref>AW43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ44:AU44</xm:f>
+              <xm:sqref>AW44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ45:AU45</xm:f>
+              <xm:sqref>AW45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ46:AU46</xm:f>
+              <xm:sqref>AW46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ47:AU47</xm:f>
+              <xm:sqref>AW47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ48:AU48</xm:f>
+              <xm:sqref>AW48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ49:AU49</xm:f>
+              <xm:sqref>AW49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ50:AU50</xm:f>
+              <xm:sqref>AW50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ51:AU51</xm:f>
+              <xm:sqref>AW51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ52:AU52</xm:f>
+              <xm:sqref>AW52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ53:AU53</xm:f>
+              <xm:sqref>AW53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>all_sparklines_estimates!AJ54:AU54</xm:f>
+              <xm:sqref>AW54</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
